--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="1021">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6126,6 +6126,9 @@
   </si>
   <si>
     <t>OTR_GAS</t>
+  </si>
+  <si>
+    <t>FLG_REQ_TUT</t>
   </si>
 </sst>
 </file>
@@ -7559,6 +7562,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7628,12 +7637,6 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -8155,7 +8158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8203,27 +8206,27 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
-      <c r="H2" s="211" t="s">
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
         <v>850</v>
@@ -8235,11 +8238,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -8252,11 +8255,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
       <c r="H5" s="163"/>
       <c r="I5" s="164"/>
@@ -8271,29 +8274,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10182,7 +10185,7 @@
       <c r="G57" s="69"/>
       <c r="H57" s="56"/>
       <c r="L57" s="56"/>
-      <c r="M57" s="218">
+      <c r="M57" s="195">
         <v>68</v>
       </c>
       <c r="N57" s="138" t="s">
@@ -11303,7 +11306,7 @@
       <c r="Q112" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R112" s="219"/>
+      <c r="R112" s="196"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="56"/>
@@ -14048,26 +14051,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -14080,11 +14083,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -14097,11 +14100,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14113,29 +14116,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15027,26 +15030,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15059,11 +15062,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -15076,11 +15079,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15092,29 +15095,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15450,26 +15453,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>821</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15482,11 +15485,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -15499,11 +15502,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15515,29 +15518,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16139,26 +16142,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>437</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16171,11 +16174,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -16188,11 +16191,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16204,29 +16207,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16869,26 +16872,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16901,11 +16904,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -16918,11 +16921,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16934,29 +16937,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="217" t="s">
+      <c r="M7" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17415,26 +17418,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>950</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17447,11 +17450,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -17464,11 +17467,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17480,29 +17483,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="217" t="s">
+      <c r="M7" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17727,26 +17730,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>953</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17759,11 +17762,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -17776,11 +17779,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17792,29 +17795,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="217" t="s">
+      <c r="M7" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18040,26 +18043,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>1011</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18072,11 +18075,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -18089,11 +18092,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18105,29 +18108,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="214" t="s">
+      <c r="M7" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20122,10 +20125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S240"/>
+  <dimension ref="B1:S241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L152" workbookViewId="0">
-      <selection activeCell="Q159" sqref="Q159"/>
+    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
+      <selection activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20162,28 +20165,28 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -20196,9 +20199,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -20211,9 +20214,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20225,29 +20228,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="214" t="s">
+      <c r="M7" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="216"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24002,85 +24005,85 @@
         <v>271</v>
       </c>
       <c r="O131" s="72" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P131" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q131" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R131" s="89"/>
+    </row>
+    <row r="132" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L132" s="56"/>
+      <c r="M132" s="109">
+        <v>87</v>
+      </c>
+      <c r="N132" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="O132" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="P131" s="72" t="s">
+      <c r="P132" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="Q131" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R131" s="89"/>
-    </row>
-    <row r="132" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L132" s="53"/>
-      <c r="M132" s="111">
+      <c r="Q132" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R132" s="89"/>
+    </row>
+    <row r="133" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L133" s="53"/>
+      <c r="M133" s="111">
         <v>87</v>
       </c>
-      <c r="N132" s="105" t="s">
+      <c r="N133" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="O132" s="105" t="s">
+      <c r="O133" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="P132" s="105" t="s">
+      <c r="P133" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="Q132" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="R132" s="112"/>
-    </row>
-    <row r="133" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L133" s="115"/>
-      <c r="M133" s="86">
+      <c r="Q133" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="R133" s="112"/>
+    </row>
+    <row r="134" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L134" s="115"/>
+      <c r="M134" s="86">
         <v>88</v>
       </c>
-      <c r="N133" s="74" t="s">
+      <c r="N134" s="74" t="s">
         <v>855</v>
       </c>
-      <c r="O133" s="62" t="s">
+      <c r="O134" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="P133" s="62" t="s">
+      <c r="P134" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="Q133" s="62" t="s">
+      <c r="Q134" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R133" s="87" t="s">
+      <c r="R134" s="87" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L134" s="96"/>
-      <c r="M134" s="57">
-        <v>35</v>
-      </c>
-      <c r="N134" s="72" t="s">
-        <v>855</v>
-      </c>
-      <c r="O134" s="39" t="s">
-        <v>350</v>
-      </c>
-      <c r="P134" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q134" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R134" s="58"/>
     </row>
     <row r="135" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L135" s="96"/>
       <c r="M135" s="57">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N135" s="72" t="s">
         <v>855</v>
       </c>
       <c r="O135" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P135" s="39" t="s">
         <v>28</v>
@@ -24092,17 +24095,17 @@
     </row>
     <row r="136" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L136" s="96"/>
-      <c r="M136" s="90">
-        <v>89</v>
+      <c r="M136" s="57">
+        <v>108</v>
       </c>
       <c r="N136" s="72" t="s">
         <v>855</v>
       </c>
       <c r="O136" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P136" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q136" s="39" t="s">
         <v>21</v>
@@ -24111,36 +24114,36 @@
     </row>
     <row r="137" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L137" s="96"/>
-      <c r="M137" s="57">
-        <v>85</v>
+      <c r="M137" s="90">
+        <v>89</v>
       </c>
       <c r="N137" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O137" s="72" t="s">
-        <v>27</v>
+      <c r="O137" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="P137" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q137" s="39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R137" s="58"/>
     </row>
     <row r="138" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L138" s="96"/>
       <c r="M138" s="57">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N138" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O138" s="39" t="s">
-        <v>25</v>
+      <c r="O138" s="72" t="s">
+        <v>27</v>
       </c>
       <c r="P138" s="39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q138" s="39" t="s">
         <v>24</v>
@@ -24150,16 +24153,16 @@
     <row r="139" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L139" s="96"/>
       <c r="M139" s="57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N139" s="72" t="s">
         <v>855</v>
       </c>
       <c r="O139" s="39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P139" s="39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q139" s="39" t="s">
         <v>24</v>
@@ -24169,16 +24172,16 @@
     <row r="140" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L140" s="96"/>
       <c r="M140" s="57">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N140" s="72" t="s">
         <v>855</v>
       </c>
       <c r="O140" s="39" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="P140" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q140" s="39" t="s">
         <v>24</v>
@@ -24188,13 +24191,13 @@
     <row r="141" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L141" s="96"/>
       <c r="M141" s="57">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="N141" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O141" s="42" t="s">
-        <v>354</v>
+      <c r="O141" s="39" t="s">
+        <v>353</v>
       </c>
       <c r="P141" s="39" t="s">
         <v>28</v>
@@ -24207,79 +24210,79 @@
     </row>
     <row r="142" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L142" s="96"/>
-      <c r="M142" s="120">
-        <v>107</v>
-      </c>
-      <c r="N142" s="88" t="s">
+      <c r="M142" s="57">
+        <v>109</v>
+      </c>
+      <c r="N142" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O142" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="P142" s="85" t="s">
+      <c r="O142" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="P142" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q142" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R142" s="119"/>
+      <c r="Q142" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R142" s="58"/>
     </row>
     <row r="143" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L143" s="96"/>
-      <c r="M143" s="57">
-        <v>87</v>
-      </c>
-      <c r="N143" s="72" t="s">
+      <c r="M143" s="120">
+        <v>107</v>
+      </c>
+      <c r="N143" s="88" t="s">
         <v>855</v>
       </c>
-      <c r="O143" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="P143" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q143" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R143" s="58"/>
+      <c r="O143" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="P143" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q143" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R143" s="119"/>
     </row>
     <row r="144" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L144" s="96"/>
-      <c r="M144" s="157">
+      <c r="M144" s="57">
         <v>87</v>
       </c>
-      <c r="N144" s="158" t="s">
+      <c r="N144" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O144" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="P144" s="159" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q144" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R144" s="160"/>
+      <c r="O144" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="P144" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q144" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R144" s="58"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="96"/>
-      <c r="M145" s="57">
+      <c r="M145" s="157">
         <v>87</v>
       </c>
-      <c r="N145" s="72" t="s">
+      <c r="N145" s="158" t="s">
         <v>855</v>
       </c>
-      <c r="O145" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="P145" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q145" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R145" s="58"/>
+      <c r="O145" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="P145" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q145" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="R145" s="160"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="96"/>
@@ -24290,10 +24293,10 @@
         <v>855</v>
       </c>
       <c r="O146" s="72" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P146" s="39" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="Q146" s="39" t="s">
         <v>24</v>
@@ -24303,16 +24306,16 @@
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="96"/>
       <c r="M147" s="57">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N147" s="72" t="s">
         <v>855</v>
       </c>
       <c r="O147" s="72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P147" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q147" s="39" t="s">
         <v>24</v>
@@ -24322,13 +24325,13 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="96"/>
       <c r="M148" s="57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N148" s="72" t="s">
         <v>855</v>
       </c>
       <c r="O148" s="72" t="s">
-        <v>925</v>
+        <v>361</v>
       </c>
       <c r="P148" s="39" t="s">
         <v>28</v>
@@ -24340,22 +24343,22 @@
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="96"/>
-      <c r="M149" s="120">
-        <v>107</v>
-      </c>
-      <c r="N149" s="88" t="s">
+      <c r="M149" s="57">
+        <v>12</v>
+      </c>
+      <c r="N149" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O149" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="P149" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q149" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R149" s="119"/>
+      <c r="O149" s="72" t="s">
+        <v>925</v>
+      </c>
+      <c r="P149" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q149" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R149" s="58"/>
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="96"/>
@@ -24366,10 +24369,10 @@
         <v>855</v>
       </c>
       <c r="O150" s="88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P150" s="85" t="s">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="Q150" s="85" t="s">
         <v>24</v>
@@ -24385,7 +24388,7 @@
         <v>855</v>
       </c>
       <c r="O151" s="88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P151" s="85" t="s">
         <v>359</v>
@@ -24404,7 +24407,7 @@
         <v>855</v>
       </c>
       <c r="O152" s="88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P152" s="85" t="s">
         <v>359</v>
@@ -24416,22 +24419,22 @@
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="96"/>
-      <c r="M153" s="57">
-        <v>87</v>
-      </c>
-      <c r="N153" s="72" t="s">
+      <c r="M153" s="120">
+        <v>107</v>
+      </c>
+      <c r="N153" s="88" t="s">
         <v>855</v>
       </c>
-      <c r="O153" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="P153" s="39" t="s">
+      <c r="O153" s="88" t="s">
+        <v>365</v>
+      </c>
+      <c r="P153" s="85" t="s">
         <v>359</v>
       </c>
-      <c r="Q153" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R153" s="58"/>
+      <c r="Q153" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R153" s="119"/>
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="96"/>
@@ -24442,7 +24445,7 @@
         <v>855</v>
       </c>
       <c r="O154" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P154" s="39" t="s">
         <v>359</v>
@@ -24461,7 +24464,7 @@
         <v>855</v>
       </c>
       <c r="O155" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P155" s="39" t="s">
         <v>359</v>
@@ -24473,22 +24476,22 @@
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="96"/>
-      <c r="M156" s="120">
-        <v>107</v>
-      </c>
-      <c r="N156" s="88" t="s">
+      <c r="M156" s="57">
+        <v>87</v>
+      </c>
+      <c r="N156" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O156" s="88" t="s">
-        <v>369</v>
-      </c>
-      <c r="P156" s="85" t="s">
+      <c r="O156" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="P156" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="Q156" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R156" s="119"/>
+      <c r="Q156" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R156" s="58"/>
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="96"/>
@@ -24499,10 +24502,10 @@
         <v>855</v>
       </c>
       <c r="O157" s="88" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P157" s="85" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="Q157" s="85" t="s">
         <v>24</v>
@@ -24511,41 +24514,41 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="96"/>
-      <c r="M158" s="137">
+      <c r="M158" s="120">
         <v>107</v>
       </c>
-      <c r="N158" s="138" t="s">
+      <c r="N158" s="88" t="s">
         <v>855</v>
       </c>
-      <c r="O158" s="139" t="s">
-        <v>371</v>
-      </c>
-      <c r="P158" s="139" t="s">
+      <c r="O158" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="P158" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q158" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="R158" s="166"/>
+      <c r="Q158" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R158" s="119"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="96"/>
-      <c r="M159" s="128">
-        <v>87</v>
-      </c>
-      <c r="N159" s="72" t="s">
+      <c r="M159" s="137">
+        <v>107</v>
+      </c>
+      <c r="N159" s="138" t="s">
         <v>855</v>
       </c>
-      <c r="O159" s="222" t="s">
-        <v>810</v>
-      </c>
-      <c r="P159" s="39" t="s">
+      <c r="O159" s="139" t="s">
+        <v>371</v>
+      </c>
+      <c r="P159" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="Q159" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R159" s="64"/>
+      <c r="Q159" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="R159" s="166"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="96"/>
@@ -24555,8 +24558,8 @@
       <c r="N160" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O160" s="222" t="s">
-        <v>809</v>
+      <c r="O160" s="199" t="s">
+        <v>810</v>
       </c>
       <c r="P160" s="39" t="s">
         <v>20</v>
@@ -24574,8 +24577,8 @@
       <c r="N161" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O161" s="222" t="s">
-        <v>1018</v>
+      <c r="O161" s="199" t="s">
+        <v>809</v>
       </c>
       <c r="P161" s="39" t="s">
         <v>20</v>
@@ -24593,8 +24596,8 @@
       <c r="N162" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O162" s="222" t="s">
-        <v>1019</v>
+      <c r="O162" s="199" t="s">
+        <v>1018</v>
       </c>
       <c r="P162" s="39" t="s">
         <v>20</v>
@@ -24604,95 +24607,95 @@
       </c>
       <c r="R162" s="64"/>
     </row>
-    <row r="163" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="96"/>
-      <c r="M163" s="129">
+      <c r="M163" s="128">
         <v>87</v>
       </c>
-      <c r="N163" s="91" t="s">
+      <c r="N163" s="72" t="s">
         <v>855</v>
       </c>
-      <c r="O163" s="223" t="s">
+      <c r="O163" s="199" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P163" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q163" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R163" s="64"/>
+    </row>
+    <row r="164" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L164" s="96"/>
+      <c r="M164" s="129">
+        <v>87</v>
+      </c>
+      <c r="N164" s="91" t="s">
+        <v>855</v>
+      </c>
+      <c r="O164" s="200" t="s">
         <v>1017</v>
       </c>
-      <c r="P163" s="65" t="s">
+      <c r="P164" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q163" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R163" s="76"/>
-    </row>
-    <row r="164" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L164" s="93"/>
-      <c r="M164" s="220">
+      <c r="Q164" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R164" s="76"/>
+    </row>
+    <row r="165" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L165" s="93"/>
+      <c r="M165" s="197">
         <v>88</v>
       </c>
-      <c r="N164" s="79" t="s">
+      <c r="N165" s="79" t="s">
         <v>853</v>
       </c>
-      <c r="O164" s="80" t="s">
+      <c r="O165" s="80" t="s">
         <v>706</v>
       </c>
-      <c r="P164" s="80" t="s">
+      <c r="P165" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="Q164" s="80" t="s">
+      <c r="Q165" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R164" s="221"/>
-    </row>
-    <row r="165" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L165" s="56"/>
-      <c r="M165" s="168">
-        <v>113</v>
-      </c>
-      <c r="N165" s="72" t="s">
-        <v>853</v>
-      </c>
-      <c r="O165" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="P165" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q165" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R165" s="64"/>
+      <c r="R165" s="198"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="56"/>
-      <c r="M166" s="71">
-        <v>87</v>
+      <c r="M166" s="168">
+        <v>113</v>
       </c>
       <c r="N166" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O166" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P166" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q166" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R166" s="58"/>
+      <c r="R166" s="64"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="56"/>
       <c r="M167" s="71">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="N167" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O167" s="42" t="s">
-        <v>710</v>
+      <c r="O167" s="39" t="s">
+        <v>709</v>
       </c>
       <c r="P167" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q167" s="39" t="s">
         <v>24</v>
@@ -24702,16 +24705,16 @@
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="56"/>
       <c r="M168" s="71">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N168" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O168" s="39" t="s">
-        <v>711</v>
+      <c r="O168" s="42" t="s">
+        <v>710</v>
       </c>
       <c r="P168" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q168" s="39" t="s">
         <v>24</v>
@@ -24721,16 +24724,16 @@
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="56"/>
       <c r="M169" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N169" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O169" s="39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="P169" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q169" s="39" t="s">
         <v>24</v>
@@ -24740,16 +24743,16 @@
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
       <c r="M170" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N170" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O170" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P170" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q170" s="39" t="s">
         <v>24</v>
@@ -24759,16 +24762,16 @@
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
       <c r="M171" s="71">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N171" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O171" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P171" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q171" s="39" t="s">
         <v>24</v>
@@ -24778,16 +24781,16 @@
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
       <c r="M172" s="71">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N172" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O172" s="39" t="s">
-        <v>408</v>
+        <v>714</v>
       </c>
       <c r="P172" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q172" s="39" t="s">
         <v>24</v>
@@ -24803,10 +24806,10 @@
         <v>853</v>
       </c>
       <c r="O173" s="39" t="s">
-        <v>715</v>
+        <v>408</v>
       </c>
       <c r="P173" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q173" s="39" t="s">
         <v>24</v>
@@ -24816,16 +24819,16 @@
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
       <c r="M174" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N174" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O174" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P174" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q174" s="39" t="s">
         <v>24</v>
@@ -24835,16 +24838,16 @@
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="56"/>
       <c r="M175" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N175" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O175" s="39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P175" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q175" s="39" t="s">
         <v>24</v>
@@ -24854,16 +24857,16 @@
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="56"/>
       <c r="M176" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N176" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O176" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P176" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q176" s="39" t="s">
         <v>24</v>
@@ -24873,16 +24876,16 @@
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="56"/>
       <c r="M177" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N177" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O177" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P177" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>24</v>
@@ -24892,16 +24895,16 @@
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="56"/>
       <c r="M178" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N178" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O178" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P178" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q178" s="39" t="s">
         <v>24</v>
@@ -24911,16 +24914,16 @@
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="56"/>
       <c r="M179" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N179" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O179" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="P179" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q179" s="39" t="s">
         <v>24</v>
@@ -24930,16 +24933,16 @@
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="56"/>
       <c r="M180" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N180" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O180" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P180" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q180" s="39" t="s">
         <v>24</v>
@@ -24949,16 +24952,16 @@
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="56"/>
       <c r="M181" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N181" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O181" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P181" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q181" s="39" t="s">
         <v>24</v>
@@ -24968,16 +24971,16 @@
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="56"/>
       <c r="M182" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N182" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O182" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P182" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q182" s="39" t="s">
         <v>24</v>
@@ -24987,16 +24990,16 @@
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="56"/>
       <c r="M183" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N183" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O183" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q183" s="39" t="s">
         <v>24</v>
@@ -25006,16 +25009,16 @@
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="56"/>
       <c r="M184" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N184" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O184" s="39" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P184" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q184" s="39" t="s">
         <v>24</v>
@@ -25025,16 +25028,16 @@
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="56"/>
       <c r="M185" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N185" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O185" s="39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P185" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q185" s="39" t="s">
         <v>24</v>
@@ -25044,16 +25047,16 @@
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="56"/>
       <c r="M186" s="71">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="N186" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O186" s="72" t="s">
-        <v>728</v>
+      <c r="O186" s="39" t="s">
+        <v>727</v>
       </c>
       <c r="P186" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q186" s="39" t="s">
         <v>24</v>
@@ -25063,92 +25066,92 @@
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="56"/>
       <c r="M187" s="71">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="N187" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O187" s="42" t="s">
-        <v>729</v>
-      </c>
-      <c r="P187" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q187" s="42" t="s">
-        <v>21</v>
+      <c r="O187" s="72" t="s">
+        <v>728</v>
+      </c>
+      <c r="P187" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q187" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="R187" s="58"/>
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="56"/>
       <c r="M188" s="71">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N188" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O188" s="39" t="s">
-        <v>730</v>
-      </c>
-      <c r="P188" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q188" s="39" t="s">
-        <v>24</v>
+      <c r="O188" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="P188" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q188" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="R188" s="58"/>
     </row>
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="56"/>
-      <c r="M189" s="168">
-        <v>86</v>
+      <c r="M189" s="71">
+        <v>87</v>
       </c>
       <c r="N189" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O189" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P189" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q189" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R189" s="64"/>
+      <c r="R189" s="58"/>
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L190" s="56"/>
-      <c r="M190" s="71">
+      <c r="M190" s="168">
         <v>86</v>
       </c>
       <c r="N190" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O190" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P190" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q190" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R190" s="58"/>
+      <c r="R190" s="64"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="56"/>
       <c r="M191" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N191" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O191" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P191" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q191" s="39" t="s">
         <v>24</v>
@@ -25157,55 +25160,55 @@
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="56"/>
-      <c r="M192" s="168">
-        <v>116</v>
+      <c r="M192" s="71">
+        <v>87</v>
       </c>
       <c r="N192" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O192" s="72" t="s">
-        <v>926</v>
+      <c r="O192" s="39" t="s">
+        <v>733</v>
       </c>
       <c r="P192" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q192" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R192" s="64"/>
+      <c r="R192" s="58"/>
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="56"/>
-      <c r="M193" s="71">
-        <v>87</v>
+      <c r="M193" s="168">
+        <v>116</v>
       </c>
       <c r="N193" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O193" s="39" t="s">
-        <v>734</v>
+      <c r="O193" s="72" t="s">
+        <v>926</v>
       </c>
       <c r="P193" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q193" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R193" s="58"/>
+      <c r="R193" s="64"/>
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="56"/>
       <c r="M194" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N194" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O194" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P194" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q194" s="39" t="s">
         <v>24</v>
@@ -25221,7 +25224,7 @@
         <v>853</v>
       </c>
       <c r="O195" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P195" s="39" t="s">
         <v>20</v>
@@ -25234,16 +25237,16 @@
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="56"/>
       <c r="M196" s="71">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="N196" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O196" s="72" t="s">
-        <v>352</v>
+      <c r="O196" s="39" t="s">
+        <v>736</v>
       </c>
       <c r="P196" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q196" s="39" t="s">
         <v>24</v>
@@ -25252,55 +25255,55 @@
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="56"/>
-      <c r="M197" s="162">
-        <v>91</v>
-      </c>
-      <c r="N197" s="158" t="s">
+      <c r="M197" s="71">
+        <v>112</v>
+      </c>
+      <c r="N197" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O197" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="P197" s="159" t="s">
+      <c r="O197" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="P197" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q197" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R197" s="160"/>
+      <c r="Q197" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R197" s="58"/>
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="56"/>
-      <c r="M198" s="71">
-        <v>87</v>
-      </c>
-      <c r="N198" s="72" t="s">
+      <c r="M198" s="162">
+        <v>91</v>
+      </c>
+      <c r="N198" s="158" t="s">
         <v>853</v>
       </c>
-      <c r="O198" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="P198" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q198" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R198" s="58"/>
+      <c r="O198" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="P198" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q198" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="R198" s="160"/>
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="56"/>
       <c r="M199" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N199" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O199" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="P199" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q199" s="39" t="s">
         <v>24</v>
@@ -25309,93 +25312,93 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
-      <c r="M200" s="161">
-        <v>107</v>
-      </c>
-      <c r="N200" s="88" t="s">
+      <c r="M200" s="71">
+        <v>86</v>
+      </c>
+      <c r="N200" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O200" s="85" t="s">
-        <v>739</v>
-      </c>
-      <c r="P200" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q200" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R200" s="119"/>
+      <c r="O200" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="P200" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q200" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R200" s="58"/>
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="56"/>
-      <c r="M201" s="71">
-        <v>87</v>
-      </c>
-      <c r="N201" s="72" t="s">
+      <c r="M201" s="161">
+        <v>107</v>
+      </c>
+      <c r="N201" s="88" t="s">
         <v>853</v>
       </c>
-      <c r="O201" s="39" t="s">
-        <v>740</v>
-      </c>
-      <c r="P201" s="39" t="s">
+      <c r="O201" s="85" t="s">
+        <v>739</v>
+      </c>
+      <c r="P201" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q201" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R201" s="58"/>
+      <c r="Q201" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R201" s="119"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="56"/>
-      <c r="M202" s="161">
-        <v>107</v>
-      </c>
-      <c r="N202" s="88" t="s">
+      <c r="M202" s="71">
+        <v>87</v>
+      </c>
+      <c r="N202" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O202" s="85" t="s">
-        <v>741</v>
-      </c>
-      <c r="P202" s="85" t="s">
+      <c r="O202" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="P202" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q202" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R202" s="119"/>
+      <c r="Q202" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R202" s="58"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="56"/>
-      <c r="M203" s="71">
-        <v>86</v>
-      </c>
-      <c r="N203" s="72" t="s">
+      <c r="M203" s="161">
+        <v>107</v>
+      </c>
+      <c r="N203" s="88" t="s">
         <v>853</v>
       </c>
-      <c r="O203" s="39" t="s">
-        <v>742</v>
-      </c>
-      <c r="P203" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q203" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R203" s="58"/>
+      <c r="O203" s="85" t="s">
+        <v>741</v>
+      </c>
+      <c r="P203" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q203" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R203" s="119"/>
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="56"/>
       <c r="M204" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N204" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O204" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P204" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q204" s="39" t="s">
         <v>24</v>
@@ -25404,14 +25407,14 @@
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="56"/>
-      <c r="M205" s="168">
+      <c r="M205" s="71">
         <v>87</v>
       </c>
       <c r="N205" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O205" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P205" s="39" t="s">
         <v>28</v>
@@ -25419,18 +25422,18 @@
       <c r="Q205" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R205" s="64"/>
+      <c r="R205" s="58"/>
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="56"/>
-      <c r="M206" s="71">
+      <c r="M206" s="168">
         <v>87</v>
       </c>
       <c r="N206" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O206" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P206" s="39" t="s">
         <v>28</v>
@@ -25438,7 +25441,7 @@
       <c r="Q206" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R206" s="58"/>
+      <c r="R206" s="64"/>
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="56"/>
@@ -25449,10 +25452,10 @@
         <v>853</v>
       </c>
       <c r="O207" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P207" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q207" s="39" t="s">
         <v>24</v>
@@ -25462,16 +25465,16 @@
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L208" s="56"/>
       <c r="M208" s="71">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N208" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O208" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P208" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q208" s="39" t="s">
         <v>24</v>
@@ -25481,13 +25484,13 @@
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L209" s="56"/>
       <c r="M209" s="71">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N209" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O209" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P209" s="39" t="s">
         <v>28</v>
@@ -25506,7 +25509,7 @@
         <v>853</v>
       </c>
       <c r="O210" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P210" s="39" t="s">
         <v>28</v>
@@ -25525,7 +25528,7 @@
         <v>853</v>
       </c>
       <c r="O211" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P211" s="39" t="s">
         <v>28</v>
@@ -25544,10 +25547,10 @@
         <v>853</v>
       </c>
       <c r="O212" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P212" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q212" s="39" t="s">
         <v>24</v>
@@ -25557,16 +25560,16 @@
     <row r="213" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L213" s="56"/>
       <c r="M213" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N213" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O213" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P213" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q213" s="39" t="s">
         <v>24</v>
@@ -25576,16 +25579,16 @@
     <row r="214" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L214" s="56"/>
       <c r="M214" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N214" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O214" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P214" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q214" s="39" t="s">
         <v>24</v>
@@ -25601,10 +25604,10 @@
         <v>853</v>
       </c>
       <c r="O215" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P215" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q215" s="39" t="s">
         <v>24</v>
@@ -25620,10 +25623,10 @@
         <v>853</v>
       </c>
       <c r="O216" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P216" s="39" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="Q216" s="39" t="s">
         <v>24</v>
@@ -25633,13 +25636,13 @@
     <row r="217" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L217" s="56"/>
       <c r="M217" s="71">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="N217" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O217" s="39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="P217" s="39" t="s">
         <v>28</v>
@@ -25652,16 +25655,16 @@
     <row r="218" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L218" s="56"/>
       <c r="M218" s="71">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N218" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O218" s="39" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="P218" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q218" s="39" t="s">
         <v>24</v>
@@ -25677,10 +25680,10 @@
         <v>853</v>
       </c>
       <c r="O219" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P219" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q219" s="39" t="s">
         <v>24</v>
@@ -25689,14 +25692,14 @@
     </row>
     <row r="220" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L220" s="56"/>
-      <c r="M220" s="168">
-        <v>86</v>
+      <c r="M220" s="71">
+        <v>87</v>
       </c>
       <c r="N220" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O220" s="42" t="s">
-        <v>759</v>
+      <c r="O220" s="39" t="s">
+        <v>758</v>
       </c>
       <c r="P220" s="39" t="s">
         <v>20</v>
@@ -25704,56 +25707,56 @@
       <c r="Q220" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R220" s="64"/>
+      <c r="R220" s="58"/>
     </row>
     <row r="221" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L221" s="56"/>
-      <c r="M221" s="71">
+      <c r="M221" s="168">
         <v>86</v>
       </c>
       <c r="N221" s="72" t="s">
         <v>853</v>
       </c>
-      <c r="O221" s="39" t="s">
-        <v>760</v>
+      <c r="O221" s="42" t="s">
+        <v>759</v>
       </c>
       <c r="P221" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q221" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R221" s="58"/>
+      <c r="R221" s="64"/>
     </row>
     <row r="222" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L222" s="56"/>
-      <c r="M222" s="168">
-        <v>117</v>
+      <c r="M222" s="71">
+        <v>86</v>
       </c>
       <c r="N222" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O222" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P222" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q222" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R222" s="64"/>
+      <c r="R222" s="58"/>
     </row>
     <row r="223" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L223" s="56"/>
-      <c r="M223" s="71">
-        <v>86</v>
+      <c r="M223" s="168">
+        <v>117</v>
       </c>
       <c r="N223" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O223" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P223" s="39" t="s">
         <v>20</v>
@@ -25761,21 +25764,21 @@
       <c r="Q223" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R223" s="58"/>
+      <c r="R223" s="64"/>
     </row>
     <row r="224" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L224" s="56"/>
       <c r="M224" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N224" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O224" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="P224" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q224" s="39" t="s">
         <v>24</v>
@@ -25785,16 +25788,16 @@
     <row r="225" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L225" s="56"/>
       <c r="M225" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N225" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O225" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P225" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q225" s="39" t="s">
         <v>24</v>
@@ -25804,16 +25807,16 @@
     <row r="226" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L226" s="56"/>
       <c r="M226" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N226" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O226" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P226" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q226" s="39" t="s">
         <v>24</v>
@@ -25829,10 +25832,10 @@
         <v>853</v>
       </c>
       <c r="O227" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P227" s="39" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q227" s="39" t="s">
         <v>24</v>
@@ -25848,7 +25851,7 @@
         <v>853</v>
       </c>
       <c r="O228" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P228" s="39" t="s">
         <v>240</v>
@@ -25861,16 +25864,16 @@
     <row r="229" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L229" s="56"/>
       <c r="M229" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N229" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O229" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P229" s="39" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q229" s="39" t="s">
         <v>24</v>
@@ -25886,7 +25889,7 @@
         <v>853</v>
       </c>
       <c r="O230" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P230" s="39" t="s">
         <v>20</v>
@@ -25899,16 +25902,16 @@
     <row r="231" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L231" s="56"/>
       <c r="M231" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N231" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O231" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P231" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q231" s="39" t="s">
         <v>24</v>
@@ -25918,16 +25921,16 @@
     <row r="232" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L232" s="56"/>
       <c r="M232" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N232" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O232" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P232" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q232" s="39" t="s">
         <v>24</v>
@@ -25937,16 +25940,16 @@
     <row r="233" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L233" s="56"/>
       <c r="M233" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N233" s="72" t="s">
         <v>853</v>
       </c>
       <c r="O233" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P233" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q233" s="39" t="s">
         <v>24</v>
@@ -25962,7 +25965,7 @@
         <v>853</v>
       </c>
       <c r="O234" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P234" s="39" t="s">
         <v>28</v>
@@ -25981,7 +25984,7 @@
         <v>853</v>
       </c>
       <c r="O235" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P235" s="39" t="s">
         <v>28</v>
@@ -26000,7 +26003,7 @@
         <v>853</v>
       </c>
       <c r="O236" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P236" s="39" t="s">
         <v>28</v>
@@ -26019,10 +26022,10 @@
         <v>853</v>
       </c>
       <c r="O237" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P237" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q237" s="39" t="s">
         <v>24</v>
@@ -26038,10 +26041,10 @@
         <v>853</v>
       </c>
       <c r="O238" s="39" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="P238" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q238" s="39" t="s">
         <v>24</v>
@@ -26057,7 +26060,7 @@
         <v>853</v>
       </c>
       <c r="O239" s="39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="P239" s="39" t="s">
         <v>20</v>
@@ -26067,24 +26070,43 @@
       </c>
       <c r="R239" s="58"/>
     </row>
-    <row r="240" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L240" s="53"/>
-      <c r="M240" s="126">
+    <row r="240" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L240" s="56"/>
+      <c r="M240" s="71">
+        <v>87</v>
+      </c>
+      <c r="N240" s="72" t="s">
+        <v>853</v>
+      </c>
+      <c r="O240" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="P240" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q240" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R240" s="58"/>
+    </row>
+    <row r="241" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L241" s="53"/>
+      <c r="M241" s="126">
         <v>86</v>
       </c>
-      <c r="N240" s="55" t="s">
+      <c r="N241" s="55" t="s">
         <v>853</v>
       </c>
-      <c r="O240" s="55" t="s">
+      <c r="O241" s="55" t="s">
         <v>729</v>
       </c>
-      <c r="P240" s="55" t="s">
+      <c r="P241" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q240" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="R240" s="59"/>
+      <c r="Q241" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="R241" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -26145,26 +26167,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -26177,11 +26199,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -26194,11 +26216,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26210,29 +26232,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27280,26 +27302,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>495</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -27312,11 +27334,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -27329,11 +27351,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27345,29 +27367,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28451,26 +28473,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -28483,11 +28505,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -28500,11 +28522,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28516,29 +28538,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -31277,26 +31299,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -31309,11 +31331,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -31326,11 +31348,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -31342,29 +31364,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32026,26 +32048,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>436</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32058,11 +32080,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -32075,11 +32097,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -32091,29 +32113,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33336,26 +33358,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -33368,11 +33390,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -33385,11 +33407,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -33401,29 +33423,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34592,26 +34614,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="202" t="s">
+      <c r="D2" s="208" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="203"/>
-      <c r="F2" s="204"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="217" t="s">
         <v>854</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="219"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="210"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -34624,11 +34646,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="213"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -34641,11 +34663,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="207"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -34657,29 +34679,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="197" t="s">
+      <c r="I7" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="195" t="s">
+      <c r="M7" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="583" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="1022">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6129,6 +6129,9 @@
   </si>
   <si>
     <t>Upsert PRFL_CLI</t>
+  </si>
+  <si>
+    <t>FLG_OBJ_LIB</t>
   </si>
 </sst>
 </file>
@@ -8158,7 +8161,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8168,7 +8171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S253"/>
   <sheetViews>
-    <sheetView topLeftCell="K100" workbookViewId="0">
+    <sheetView topLeftCell="K64" workbookViewId="0">
       <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
@@ -20125,10 +20128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S241"/>
+  <dimension ref="B1:S242"/>
   <sheetViews>
-    <sheetView topLeftCell="L119" workbookViewId="0">
-      <selection activeCell="N123" sqref="N123"/>
+    <sheetView tabSelected="1" topLeftCell="K110" workbookViewId="0">
+      <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24024,85 +24027,85 @@
         <v>1019</v>
       </c>
       <c r="O132" s="72" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P132" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q132" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R132" s="89"/>
+    </row>
+    <row r="133" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L133" s="56"/>
+      <c r="M133" s="109">
+        <v>87</v>
+      </c>
+      <c r="N133" s="72" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O133" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="P132" s="72" t="s">
+      <c r="P133" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="Q132" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R132" s="89"/>
-    </row>
-    <row r="133" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="53"/>
-      <c r="M133" s="111">
+      <c r="Q133" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R133" s="89"/>
+    </row>
+    <row r="134" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L134" s="53"/>
+      <c r="M134" s="111">
         <v>87</v>
       </c>
-      <c r="N133" s="105" t="s">
+      <c r="N134" s="105" t="s">
         <v>1019</v>
       </c>
-      <c r="O133" s="105" t="s">
+      <c r="O134" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="P133" s="105" t="s">
+      <c r="P134" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="Q133" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="R133" s="112"/>
-    </row>
-    <row r="134" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L134" s="115"/>
-      <c r="M134" s="86">
+      <c r="Q134" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="R134" s="112"/>
+    </row>
+    <row r="135" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L135" s="115"/>
+      <c r="M135" s="86">
         <v>88</v>
       </c>
-      <c r="N134" s="74" t="s">
+      <c r="N135" s="74" t="s">
         <v>852</v>
       </c>
-      <c r="O134" s="62" t="s">
+      <c r="O135" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="P134" s="62" t="s">
+      <c r="P135" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="Q134" s="62" t="s">
+      <c r="Q135" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R134" s="87" t="s">
+      <c r="R135" s="87" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L135" s="96"/>
-      <c r="M135" s="57">
-        <v>35</v>
-      </c>
-      <c r="N135" s="72" t="s">
-        <v>852</v>
-      </c>
-      <c r="O135" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="P135" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q135" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R135" s="58"/>
     </row>
     <row r="136" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L136" s="96"/>
       <c r="M136" s="57">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N136" s="72" t="s">
         <v>852</v>
       </c>
       <c r="O136" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P136" s="39" t="s">
         <v>28</v>
@@ -24114,17 +24117,17 @@
     </row>
     <row r="137" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L137" s="96"/>
-      <c r="M137" s="90">
-        <v>89</v>
+      <c r="M137" s="57">
+        <v>108</v>
       </c>
       <c r="N137" s="72" t="s">
         <v>852</v>
       </c>
       <c r="O137" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P137" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q137" s="39" t="s">
         <v>21</v>
@@ -24133,36 +24136,36 @@
     </row>
     <row r="138" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L138" s="96"/>
-      <c r="M138" s="57">
-        <v>85</v>
+      <c r="M138" s="90">
+        <v>89</v>
       </c>
       <c r="N138" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O138" s="72" t="s">
-        <v>27</v>
+      <c r="O138" s="39" t="s">
+        <v>351</v>
       </c>
       <c r="P138" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q138" s="39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R138" s="58"/>
     </row>
     <row r="139" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L139" s="96"/>
       <c r="M139" s="57">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N139" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O139" s="39" t="s">
-        <v>25</v>
+      <c r="O139" s="72" t="s">
+        <v>27</v>
       </c>
       <c r="P139" s="39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q139" s="39" t="s">
         <v>24</v>
@@ -24172,16 +24175,16 @@
     <row r="140" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L140" s="96"/>
       <c r="M140" s="57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N140" s="72" t="s">
         <v>852</v>
       </c>
       <c r="O140" s="39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P140" s="39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q140" s="39" t="s">
         <v>24</v>
@@ -24191,16 +24194,16 @@
     <row r="141" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L141" s="96"/>
       <c r="M141" s="57">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N141" s="72" t="s">
         <v>852</v>
       </c>
       <c r="O141" s="39" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="P141" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q141" s="39" t="s">
         <v>24</v>
@@ -24211,13 +24214,13 @@
     <row r="142" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L142" s="96"/>
       <c r="M142" s="57">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="N142" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O142" s="42" t="s">
-        <v>353</v>
+      <c r="O142" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="P142" s="39" t="s">
         <v>28</v>
@@ -24229,79 +24232,79 @@
     </row>
     <row r="143" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L143" s="96"/>
-      <c r="M143" s="120">
-        <v>107</v>
-      </c>
-      <c r="N143" s="88" t="s">
+      <c r="M143" s="57">
+        <v>109</v>
+      </c>
+      <c r="N143" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O143" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="P143" s="85" t="s">
+      <c r="O143" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="P143" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q143" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R143" s="119"/>
+      <c r="Q143" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R143" s="58"/>
     </row>
     <row r="144" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L144" s="96"/>
-      <c r="M144" s="57">
-        <v>87</v>
-      </c>
-      <c r="N144" s="72" t="s">
+      <c r="M144" s="120">
+        <v>107</v>
+      </c>
+      <c r="N144" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O144" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="P144" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q144" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R144" s="58"/>
+      <c r="O144" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="P144" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q144" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R144" s="119"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="96"/>
-      <c r="M145" s="157">
+      <c r="M145" s="57">
         <v>87</v>
       </c>
-      <c r="N145" s="158" t="s">
+      <c r="N145" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O145" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="P145" s="159" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q145" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R145" s="160"/>
+      <c r="O145" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="P145" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q145" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R145" s="58"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="96"/>
-      <c r="M146" s="57">
+      <c r="M146" s="157">
         <v>87</v>
       </c>
-      <c r="N146" s="72" t="s">
+      <c r="N146" s="158" t="s">
         <v>852</v>
       </c>
-      <c r="O146" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="P146" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q146" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R146" s="58"/>
+      <c r="O146" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="P146" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q146" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="R146" s="160"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="96"/>
@@ -24312,10 +24315,10 @@
         <v>852</v>
       </c>
       <c r="O147" s="72" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P147" s="39" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="Q147" s="39" t="s">
         <v>24</v>
@@ -24325,16 +24328,16 @@
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="96"/>
       <c r="M148" s="57">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N148" s="72" t="s">
         <v>852</v>
       </c>
       <c r="O148" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P148" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q148" s="39" t="s">
         <v>24</v>
@@ -24344,13 +24347,13 @@
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="96"/>
       <c r="M149" s="57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N149" s="72" t="s">
         <v>852</v>
       </c>
       <c r="O149" s="72" t="s">
-        <v>922</v>
+        <v>360</v>
       </c>
       <c r="P149" s="39" t="s">
         <v>28</v>
@@ -24362,22 +24365,22 @@
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="96"/>
-      <c r="M150" s="120">
-        <v>107</v>
-      </c>
-      <c r="N150" s="88" t="s">
+      <c r="M150" s="57">
+        <v>12</v>
+      </c>
+      <c r="N150" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O150" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="P150" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q150" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R150" s="119"/>
+      <c r="O150" s="72" t="s">
+        <v>922</v>
+      </c>
+      <c r="P150" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q150" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R150" s="58"/>
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="96"/>
@@ -24388,10 +24391,10 @@
         <v>852</v>
       </c>
       <c r="O151" s="88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P151" s="85" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="Q151" s="85" t="s">
         <v>24</v>
@@ -24407,7 +24410,7 @@
         <v>852</v>
       </c>
       <c r="O152" s="88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P152" s="85" t="s">
         <v>358</v>
@@ -24426,7 +24429,7 @@
         <v>852</v>
       </c>
       <c r="O153" s="88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P153" s="85" t="s">
         <v>358</v>
@@ -24438,22 +24441,22 @@
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="96"/>
-      <c r="M154" s="57">
-        <v>87</v>
-      </c>
-      <c r="N154" s="72" t="s">
+      <c r="M154" s="120">
+        <v>107</v>
+      </c>
+      <c r="N154" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O154" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="P154" s="39" t="s">
+      <c r="O154" s="88" t="s">
+        <v>364</v>
+      </c>
+      <c r="P154" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q154" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R154" s="58"/>
+      <c r="Q154" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R154" s="119"/>
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="96"/>
@@ -24464,7 +24467,7 @@
         <v>852</v>
       </c>
       <c r="O155" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P155" s="39" t="s">
         <v>358</v>
@@ -24483,7 +24486,7 @@
         <v>852</v>
       </c>
       <c r="O156" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P156" s="39" t="s">
         <v>358</v>
@@ -24495,22 +24498,22 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="96"/>
-      <c r="M157" s="120">
-        <v>107</v>
-      </c>
-      <c r="N157" s="88" t="s">
+      <c r="M157" s="57">
+        <v>87</v>
+      </c>
+      <c r="N157" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O157" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="P157" s="85" t="s">
+      <c r="O157" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="P157" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q157" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R157" s="119"/>
+      <c r="Q157" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R157" s="58"/>
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="96"/>
@@ -24521,10 +24524,10 @@
         <v>852</v>
       </c>
       <c r="O158" s="88" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P158" s="85" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="Q158" s="85" t="s">
         <v>24</v>
@@ -24533,41 +24536,41 @@
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="96"/>
-      <c r="M159" s="137">
+      <c r="M159" s="120">
         <v>107</v>
       </c>
-      <c r="N159" s="138" t="s">
+      <c r="N159" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O159" s="139" t="s">
-        <v>370</v>
-      </c>
-      <c r="P159" s="139" t="s">
+      <c r="O159" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="P159" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q159" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="R159" s="166"/>
+      <c r="Q159" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R159" s="119"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="96"/>
-      <c r="M160" s="128">
-        <v>87</v>
-      </c>
-      <c r="N160" s="72" t="s">
+      <c r="M160" s="137">
+        <v>107</v>
+      </c>
+      <c r="N160" s="138" t="s">
         <v>852</v>
       </c>
-      <c r="O160" s="199" t="s">
-        <v>807</v>
-      </c>
-      <c r="P160" s="39" t="s">
+      <c r="O160" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="P160" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="Q160" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R160" s="64"/>
+      <c r="Q160" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="R160" s="166"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="96"/>
@@ -24578,7 +24581,7 @@
         <v>852</v>
       </c>
       <c r="O161" s="199" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P161" s="39" t="s">
         <v>20</v>
@@ -24597,7 +24600,7 @@
         <v>852</v>
       </c>
       <c r="O162" s="199" t="s">
-        <v>1015</v>
+        <v>806</v>
       </c>
       <c r="P162" s="39" t="s">
         <v>20</v>
@@ -24616,7 +24619,7 @@
         <v>852</v>
       </c>
       <c r="O163" s="199" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="P163" s="39" t="s">
         <v>20</v>
@@ -24626,95 +24629,95 @@
       </c>
       <c r="R163" s="64"/>
     </row>
-    <row r="164" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="96"/>
-      <c r="M164" s="129">
+      <c r="M164" s="128">
         <v>87</v>
       </c>
-      <c r="N164" s="91" t="s">
+      <c r="N164" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O164" s="200" t="s">
+      <c r="O164" s="199" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P164" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q164" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R164" s="64"/>
+    </row>
+    <row r="165" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L165" s="96"/>
+      <c r="M165" s="129">
+        <v>87</v>
+      </c>
+      <c r="N165" s="91" t="s">
+        <v>852</v>
+      </c>
+      <c r="O165" s="200" t="s">
         <v>1014</v>
       </c>
-      <c r="P164" s="65" t="s">
+      <c r="P165" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q164" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R164" s="76"/>
-    </row>
-    <row r="165" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L165" s="93"/>
-      <c r="M165" s="197">
+      <c r="Q165" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R165" s="76"/>
+    </row>
+    <row r="166" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L166" s="93"/>
+      <c r="M166" s="197">
         <v>88</v>
       </c>
-      <c r="N165" s="79" t="s">
+      <c r="N166" s="79" t="s">
         <v>850</v>
       </c>
-      <c r="O165" s="80" t="s">
+      <c r="O166" s="80" t="s">
         <v>704</v>
       </c>
-      <c r="P165" s="80" t="s">
+      <c r="P166" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="Q165" s="80" t="s">
+      <c r="Q166" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R165" s="198"/>
-    </row>
-    <row r="166" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L166" s="56"/>
-      <c r="M166" s="168">
-        <v>113</v>
-      </c>
-      <c r="N166" s="72" t="s">
-        <v>850</v>
-      </c>
-      <c r="O166" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="P166" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q166" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R166" s="64"/>
+      <c r="R166" s="198"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="56"/>
-      <c r="M167" s="71">
-        <v>87</v>
+      <c r="M167" s="168">
+        <v>113</v>
       </c>
       <c r="N167" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O167" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P167" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q167" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R167" s="58"/>
+      <c r="R167" s="64"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="56"/>
       <c r="M168" s="71">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="N168" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O168" s="42" t="s">
-        <v>707</v>
+      <c r="O168" s="39" t="s">
+        <v>706</v>
       </c>
       <c r="P168" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q168" s="39" t="s">
         <v>24</v>
@@ -24724,16 +24727,16 @@
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="56"/>
       <c r="M169" s="71">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N169" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O169" s="39" t="s">
-        <v>708</v>
+      <c r="O169" s="42" t="s">
+        <v>707</v>
       </c>
       <c r="P169" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q169" s="39" t="s">
         <v>24</v>
@@ -24743,16 +24746,16 @@
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
       <c r="M170" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N170" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O170" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P170" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q170" s="39" t="s">
         <v>24</v>
@@ -24762,16 +24765,16 @@
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
       <c r="M171" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N171" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O171" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P171" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q171" s="39" t="s">
         <v>24</v>
@@ -24781,16 +24784,16 @@
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
       <c r="M172" s="71">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N172" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O172" s="39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P172" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q172" s="39" t="s">
         <v>24</v>
@@ -24800,16 +24803,16 @@
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="56"/>
       <c r="M173" s="71">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N173" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O173" s="39" t="s">
-        <v>407</v>
+        <v>711</v>
       </c>
       <c r="P173" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q173" s="39" t="s">
         <v>24</v>
@@ -24825,10 +24828,10 @@
         <v>850</v>
       </c>
       <c r="O174" s="39" t="s">
-        <v>712</v>
+        <v>407</v>
       </c>
       <c r="P174" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q174" s="39" t="s">
         <v>24</v>
@@ -24838,16 +24841,16 @@
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="56"/>
       <c r="M175" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N175" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O175" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P175" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q175" s="39" t="s">
         <v>24</v>
@@ -24857,16 +24860,16 @@
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="56"/>
       <c r="M176" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N176" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O176" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P176" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q176" s="39" t="s">
         <v>24</v>
@@ -24876,16 +24879,16 @@
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="56"/>
       <c r="M177" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N177" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O177" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P177" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>24</v>
@@ -24895,16 +24898,16 @@
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="56"/>
       <c r="M178" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N178" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O178" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P178" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q178" s="39" t="s">
         <v>24</v>
@@ -24914,16 +24917,16 @@
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="56"/>
       <c r="M179" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N179" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O179" s="39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P179" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q179" s="39" t="s">
         <v>24</v>
@@ -24933,16 +24936,16 @@
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="56"/>
       <c r="M180" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N180" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O180" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P180" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q180" s="39" t="s">
         <v>24</v>
@@ -24952,16 +24955,16 @@
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="56"/>
       <c r="M181" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N181" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O181" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P181" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q181" s="39" t="s">
         <v>24</v>
@@ -24971,16 +24974,16 @@
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="56"/>
       <c r="M182" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N182" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O182" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P182" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q182" s="39" t="s">
         <v>24</v>
@@ -24990,16 +24993,16 @@
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="56"/>
       <c r="M183" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N183" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O183" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q183" s="39" t="s">
         <v>24</v>
@@ -25009,16 +25012,16 @@
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="56"/>
       <c r="M184" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N184" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O184" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P184" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q184" s="39" t="s">
         <v>24</v>
@@ -25028,16 +25031,16 @@
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="56"/>
       <c r="M185" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N185" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O185" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P185" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q185" s="39" t="s">
         <v>24</v>
@@ -25047,16 +25050,16 @@
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="56"/>
       <c r="M186" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N186" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O186" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P186" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q186" s="39" t="s">
         <v>24</v>
@@ -25066,16 +25069,16 @@
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="56"/>
       <c r="M187" s="71">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="N187" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O187" s="72" t="s">
-        <v>725</v>
+      <c r="O187" s="39" t="s">
+        <v>724</v>
       </c>
       <c r="P187" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q187" s="39" t="s">
         <v>24</v>
@@ -25085,92 +25088,92 @@
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="56"/>
       <c r="M188" s="71">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="N188" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O188" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="P188" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q188" s="42" t="s">
-        <v>21</v>
+      <c r="O188" s="72" t="s">
+        <v>725</v>
+      </c>
+      <c r="P188" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q188" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="R188" s="58"/>
     </row>
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="56"/>
       <c r="M189" s="71">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N189" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O189" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="P189" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q189" s="39" t="s">
-        <v>24</v>
+      <c r="O189" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="P189" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q189" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="R189" s="58"/>
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L190" s="56"/>
-      <c r="M190" s="168">
-        <v>86</v>
+      <c r="M190" s="71">
+        <v>87</v>
       </c>
       <c r="N190" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O190" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P190" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q190" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R190" s="64"/>
+      <c r="R190" s="58"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="56"/>
-      <c r="M191" s="71">
+      <c r="M191" s="168">
         <v>86</v>
       </c>
       <c r="N191" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O191" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P191" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q191" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R191" s="58"/>
+      <c r="R191" s="64"/>
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="56"/>
       <c r="M192" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N192" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O192" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P192" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q192" s="39" t="s">
         <v>24</v>
@@ -25179,55 +25182,55 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="56"/>
-      <c r="M193" s="168">
-        <v>116</v>
+      <c r="M193" s="71">
+        <v>87</v>
       </c>
       <c r="N193" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O193" s="72" t="s">
-        <v>923</v>
+      <c r="O193" s="39" t="s">
+        <v>730</v>
       </c>
       <c r="P193" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q193" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R193" s="64"/>
+      <c r="R193" s="58"/>
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="56"/>
-      <c r="M194" s="71">
-        <v>87</v>
+      <c r="M194" s="168">
+        <v>116</v>
       </c>
       <c r="N194" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O194" s="39" t="s">
-        <v>731</v>
+      <c r="O194" s="72" t="s">
+        <v>923</v>
       </c>
       <c r="P194" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q194" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R194" s="58"/>
+      <c r="R194" s="64"/>
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="56"/>
       <c r="M195" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N195" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O195" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P195" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q195" s="39" t="s">
         <v>24</v>
@@ -25243,7 +25246,7 @@
         <v>850</v>
       </c>
       <c r="O196" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P196" s="39" t="s">
         <v>20</v>
@@ -25256,16 +25259,16 @@
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="56"/>
       <c r="M197" s="71">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="N197" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O197" s="72" t="s">
-        <v>351</v>
+      <c r="O197" s="39" t="s">
+        <v>733</v>
       </c>
       <c r="P197" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q197" s="39" t="s">
         <v>24</v>
@@ -25274,55 +25277,55 @@
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="56"/>
-      <c r="M198" s="162">
-        <v>91</v>
-      </c>
-      <c r="N198" s="158" t="s">
+      <c r="M198" s="71">
+        <v>112</v>
+      </c>
+      <c r="N198" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O198" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="P198" s="159" t="s">
+      <c r="O198" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="P198" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q198" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R198" s="160"/>
+      <c r="Q198" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R198" s="58"/>
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="56"/>
-      <c r="M199" s="71">
-        <v>87</v>
-      </c>
-      <c r="N199" s="72" t="s">
+      <c r="M199" s="162">
+        <v>91</v>
+      </c>
+      <c r="N199" s="158" t="s">
         <v>850</v>
       </c>
-      <c r="O199" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="P199" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q199" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R199" s="58"/>
+      <c r="O199" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="P199" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q199" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="R199" s="160"/>
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
       <c r="M200" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N200" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O200" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P200" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q200" s="39" t="s">
         <v>24</v>
@@ -25331,93 +25334,93 @@
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="56"/>
-      <c r="M201" s="161">
-        <v>107</v>
-      </c>
-      <c r="N201" s="88" t="s">
+      <c r="M201" s="71">
+        <v>86</v>
+      </c>
+      <c r="N201" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O201" s="85" t="s">
-        <v>736</v>
-      </c>
-      <c r="P201" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q201" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R201" s="119"/>
+      <c r="O201" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="P201" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q201" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R201" s="58"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="56"/>
-      <c r="M202" s="71">
-        <v>87</v>
-      </c>
-      <c r="N202" s="72" t="s">
+      <c r="M202" s="161">
+        <v>107</v>
+      </c>
+      <c r="N202" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O202" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="P202" s="39" t="s">
+      <c r="O202" s="85" t="s">
+        <v>736</v>
+      </c>
+      <c r="P202" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q202" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R202" s="58"/>
+      <c r="Q202" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R202" s="119"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="56"/>
-      <c r="M203" s="161">
-        <v>107</v>
-      </c>
-      <c r="N203" s="88" t="s">
+      <c r="M203" s="71">
+        <v>87</v>
+      </c>
+      <c r="N203" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O203" s="85" t="s">
-        <v>738</v>
-      </c>
-      <c r="P203" s="85" t="s">
+      <c r="O203" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="P203" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q203" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R203" s="119"/>
+      <c r="Q203" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R203" s="58"/>
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="56"/>
-      <c r="M204" s="71">
-        <v>86</v>
-      </c>
-      <c r="N204" s="72" t="s">
+      <c r="M204" s="161">
+        <v>107</v>
+      </c>
+      <c r="N204" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O204" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="P204" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q204" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R204" s="58"/>
+      <c r="O204" s="85" t="s">
+        <v>738</v>
+      </c>
+      <c r="P204" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q204" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R204" s="119"/>
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="56"/>
       <c r="M205" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N205" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O205" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P205" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q205" s="39" t="s">
         <v>24</v>
@@ -25426,14 +25429,14 @@
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="56"/>
-      <c r="M206" s="168">
+      <c r="M206" s="71">
         <v>87</v>
       </c>
       <c r="N206" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O206" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P206" s="39" t="s">
         <v>28</v>
@@ -25441,18 +25444,18 @@
       <c r="Q206" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R206" s="64"/>
+      <c r="R206" s="58"/>
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="56"/>
-      <c r="M207" s="71">
+      <c r="M207" s="168">
         <v>87</v>
       </c>
       <c r="N207" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O207" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P207" s="39" t="s">
         <v>28</v>
@@ -25460,7 +25463,7 @@
       <c r="Q207" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R207" s="58"/>
+      <c r="R207" s="64"/>
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L208" s="56"/>
@@ -25471,10 +25474,10 @@
         <v>850</v>
       </c>
       <c r="O208" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P208" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q208" s="39" t="s">
         <v>24</v>
@@ -25484,16 +25487,16 @@
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L209" s="56"/>
       <c r="M209" s="71">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N209" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O209" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P209" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q209" s="39" t="s">
         <v>24</v>
@@ -25503,13 +25506,13 @@
     <row r="210" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L210" s="56"/>
       <c r="M210" s="71">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N210" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O210" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P210" s="39" t="s">
         <v>28</v>
@@ -25528,7 +25531,7 @@
         <v>850</v>
       </c>
       <c r="O211" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P211" s="39" t="s">
         <v>28</v>
@@ -25547,7 +25550,7 @@
         <v>850</v>
       </c>
       <c r="O212" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P212" s="39" t="s">
         <v>28</v>
@@ -25566,10 +25569,10 @@
         <v>850</v>
       </c>
       <c r="O213" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P213" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q213" s="39" t="s">
         <v>24</v>
@@ -25579,16 +25582,16 @@
     <row r="214" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L214" s="56"/>
       <c r="M214" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N214" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O214" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P214" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q214" s="39" t="s">
         <v>24</v>
@@ -25598,16 +25601,16 @@
     <row r="215" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L215" s="56"/>
       <c r="M215" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N215" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O215" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P215" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q215" s="39" t="s">
         <v>24</v>
@@ -25623,10 +25626,10 @@
         <v>850</v>
       </c>
       <c r="O216" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P216" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q216" s="39" t="s">
         <v>24</v>
@@ -25642,10 +25645,10 @@
         <v>850</v>
       </c>
       <c r="O217" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P217" s="39" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="Q217" s="39" t="s">
         <v>24</v>
@@ -25655,13 +25658,13 @@
     <row r="218" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L218" s="56"/>
       <c r="M218" s="71">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="N218" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O218" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P218" s="39" t="s">
         <v>28</v>
@@ -25674,16 +25677,16 @@
     <row r="219" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L219" s="56"/>
       <c r="M219" s="71">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N219" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O219" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P219" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q219" s="39" t="s">
         <v>24</v>
@@ -25699,10 +25702,10 @@
         <v>850</v>
       </c>
       <c r="O220" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P220" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q220" s="39" t="s">
         <v>24</v>
@@ -25711,14 +25714,14 @@
     </row>
     <row r="221" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L221" s="56"/>
-      <c r="M221" s="168">
-        <v>86</v>
+      <c r="M221" s="71">
+        <v>87</v>
       </c>
       <c r="N221" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O221" s="42" t="s">
-        <v>756</v>
+      <c r="O221" s="39" t="s">
+        <v>755</v>
       </c>
       <c r="P221" s="39" t="s">
         <v>20</v>
@@ -25726,56 +25729,56 @@
       <c r="Q221" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R221" s="64"/>
+      <c r="R221" s="58"/>
     </row>
     <row r="222" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L222" s="56"/>
-      <c r="M222" s="71">
+      <c r="M222" s="168">
         <v>86</v>
       </c>
       <c r="N222" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O222" s="39" t="s">
-        <v>757</v>
+      <c r="O222" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="P222" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q222" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R222" s="58"/>
+      <c r="R222" s="64"/>
     </row>
     <row r="223" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L223" s="56"/>
-      <c r="M223" s="168">
-        <v>117</v>
+      <c r="M223" s="71">
+        <v>86</v>
       </c>
       <c r="N223" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O223" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P223" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q223" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R223" s="64"/>
+      <c r="R223" s="58"/>
     </row>
     <row r="224" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L224" s="56"/>
-      <c r="M224" s="71">
-        <v>86</v>
+      <c r="M224" s="168">
+        <v>117</v>
       </c>
       <c r="N224" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O224" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P224" s="39" t="s">
         <v>20</v>
@@ -25783,21 +25786,21 @@
       <c r="Q224" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R224" s="58"/>
+      <c r="R224" s="64"/>
     </row>
     <row r="225" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L225" s="56"/>
       <c r="M225" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N225" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O225" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P225" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q225" s="39" t="s">
         <v>24</v>
@@ -25807,16 +25810,16 @@
     <row r="226" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L226" s="56"/>
       <c r="M226" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N226" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O226" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P226" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q226" s="39" t="s">
         <v>24</v>
@@ -25826,16 +25829,16 @@
     <row r="227" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L227" s="56"/>
       <c r="M227" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N227" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O227" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P227" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q227" s="39" t="s">
         <v>24</v>
@@ -25851,10 +25854,10 @@
         <v>850</v>
       </c>
       <c r="O228" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="P228" s="39" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q228" s="39" t="s">
         <v>24</v>
@@ -25870,7 +25873,7 @@
         <v>850</v>
       </c>
       <c r="O229" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P229" s="39" t="s">
         <v>240</v>
@@ -25883,16 +25886,16 @@
     <row r="230" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L230" s="56"/>
       <c r="M230" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N230" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O230" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P230" s="39" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q230" s="39" t="s">
         <v>24</v>
@@ -25908,7 +25911,7 @@
         <v>850</v>
       </c>
       <c r="O231" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P231" s="39" t="s">
         <v>20</v>
@@ -25921,16 +25924,16 @@
     <row r="232" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L232" s="56"/>
       <c r="M232" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N232" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O232" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P232" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q232" s="39" t="s">
         <v>24</v>
@@ -25940,16 +25943,16 @@
     <row r="233" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L233" s="56"/>
       <c r="M233" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N233" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O233" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P233" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q233" s="39" t="s">
         <v>24</v>
@@ -25959,16 +25962,16 @@
     <row r="234" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L234" s="56"/>
       <c r="M234" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N234" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O234" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P234" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q234" s="39" t="s">
         <v>24</v>
@@ -25984,7 +25987,7 @@
         <v>850</v>
       </c>
       <c r="O235" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P235" s="39" t="s">
         <v>28</v>
@@ -26003,7 +26006,7 @@
         <v>850</v>
       </c>
       <c r="O236" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P236" s="39" t="s">
         <v>28</v>
@@ -26022,7 +26025,7 @@
         <v>850</v>
       </c>
       <c r="O237" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P237" s="39" t="s">
         <v>28</v>
@@ -26041,10 +26044,10 @@
         <v>850</v>
       </c>
       <c r="O238" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P238" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q238" s="39" t="s">
         <v>24</v>
@@ -26060,10 +26063,10 @@
         <v>850</v>
       </c>
       <c r="O239" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P239" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q239" s="39" t="s">
         <v>24</v>
@@ -26079,7 +26082,7 @@
         <v>850</v>
       </c>
       <c r="O240" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P240" s="39" t="s">
         <v>20</v>
@@ -26089,24 +26092,43 @@
       </c>
       <c r="R240" s="58"/>
     </row>
-    <row r="241" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L241" s="53"/>
-      <c r="M241" s="126">
+    <row r="241" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L241" s="56"/>
+      <c r="M241" s="71">
+        <v>87</v>
+      </c>
+      <c r="N241" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="O241" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="P241" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q241" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R241" s="58"/>
+    </row>
+    <row r="242" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L242" s="53"/>
+      <c r="M242" s="126">
         <v>86</v>
       </c>
-      <c r="N241" s="55" t="s">
+      <c r="N242" s="55" t="s">
         <v>850</v>
       </c>
-      <c r="O241" s="55" t="s">
+      <c r="O242" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="P241" s="55" t="s">
+      <c r="P242" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q241" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="R241" s="59"/>
+      <c r="Q242" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="R242" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -33320,7 +33342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L27" workbookViewId="0">
+    <sheetView topLeftCell="L21" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="583" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="1023">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6132,6 +6132,9 @@
   </si>
   <si>
     <t>FLG_OBJ_LIB</t>
+  </si>
+  <si>
+    <t>POR_GAS_FMLRS</t>
   </si>
 </sst>
 </file>
@@ -8161,7 +8164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20128,10 +20131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S242"/>
+  <dimension ref="B1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K110" workbookViewId="0">
-      <selection activeCell="N132" sqref="N132"/>
+    <sheetView topLeftCell="K142" workbookViewId="0">
+      <selection activeCell="N164" sqref="N164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24638,105 +24641,105 @@
         <v>852</v>
       </c>
       <c r="O164" s="199" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P164" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q164" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="R164" s="64"/>
+    </row>
+    <row r="165" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L165" s="96"/>
+      <c r="M165" s="128">
+        <v>87</v>
+      </c>
+      <c r="N165" s="72" t="s">
+        <v>852</v>
+      </c>
+      <c r="O165" s="199" t="s">
         <v>1016</v>
       </c>
-      <c r="P164" s="39" t="s">
+      <c r="P165" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q164" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R164" s="64"/>
-    </row>
-    <row r="165" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L165" s="96"/>
-      <c r="M165" s="129">
+      <c r="Q165" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R165" s="64"/>
+    </row>
+    <row r="166" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L166" s="96"/>
+      <c r="M166" s="129">
         <v>87</v>
       </c>
-      <c r="N165" s="91" t="s">
+      <c r="N166" s="91" t="s">
         <v>852</v>
       </c>
-      <c r="O165" s="200" t="s">
+      <c r="O166" s="200" t="s">
         <v>1014</v>
       </c>
-      <c r="P165" s="65" t="s">
+      <c r="P166" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q165" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R165" s="76"/>
-    </row>
-    <row r="166" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L166" s="93"/>
-      <c r="M166" s="197">
+      <c r="Q166" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="R166" s="76"/>
+    </row>
+    <row r="167" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L167" s="93"/>
+      <c r="M167" s="197">
         <v>88</v>
       </c>
-      <c r="N166" s="79" t="s">
+      <c r="N167" s="79" t="s">
         <v>850</v>
       </c>
-      <c r="O166" s="80" t="s">
+      <c r="O167" s="80" t="s">
         <v>704</v>
       </c>
-      <c r="P166" s="80" t="s">
+      <c r="P167" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="Q166" s="80" t="s">
+      <c r="Q167" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R166" s="198"/>
-    </row>
-    <row r="167" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L167" s="56"/>
-      <c r="M167" s="168">
-        <v>113</v>
-      </c>
-      <c r="N167" s="72" t="s">
-        <v>850</v>
-      </c>
-      <c r="O167" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="P167" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q167" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R167" s="64"/>
+      <c r="R167" s="198"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="56"/>
-      <c r="M168" s="71">
-        <v>87</v>
+      <c r="M168" s="168">
+        <v>113</v>
       </c>
       <c r="N168" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O168" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P168" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q168" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R168" s="58"/>
+      <c r="R168" s="64"/>
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="56"/>
       <c r="M169" s="71">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="N169" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O169" s="42" t="s">
-        <v>707</v>
+      <c r="O169" s="39" t="s">
+        <v>706</v>
       </c>
       <c r="P169" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q169" s="39" t="s">
         <v>24</v>
@@ -24746,16 +24749,16 @@
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
       <c r="M170" s="71">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N170" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O170" s="39" t="s">
-        <v>708</v>
+      <c r="O170" s="42" t="s">
+        <v>707</v>
       </c>
       <c r="P170" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q170" s="39" t="s">
         <v>24</v>
@@ -24765,16 +24768,16 @@
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
       <c r="M171" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N171" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O171" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="P171" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q171" s="39" t="s">
         <v>24</v>
@@ -24784,16 +24787,16 @@
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
       <c r="M172" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N172" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O172" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="P172" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q172" s="39" t="s">
         <v>24</v>
@@ -24803,16 +24806,16 @@
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="56"/>
       <c r="M173" s="71">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N173" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O173" s="39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P173" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q173" s="39" t="s">
         <v>24</v>
@@ -24822,16 +24825,16 @@
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
       <c r="M174" s="71">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N174" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O174" s="39" t="s">
-        <v>407</v>
+        <v>711</v>
       </c>
       <c r="P174" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q174" s="39" t="s">
         <v>24</v>
@@ -24847,10 +24850,10 @@
         <v>850</v>
       </c>
       <c r="O175" s="39" t="s">
-        <v>712</v>
+        <v>407</v>
       </c>
       <c r="P175" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q175" s="39" t="s">
         <v>24</v>
@@ -24860,16 +24863,16 @@
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="56"/>
       <c r="M176" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N176" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O176" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="P176" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q176" s="39" t="s">
         <v>24</v>
@@ -24879,16 +24882,16 @@
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="56"/>
       <c r="M177" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N177" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O177" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P177" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>24</v>
@@ -24898,16 +24901,16 @@
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="56"/>
       <c r="M178" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N178" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O178" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="P178" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q178" s="39" t="s">
         <v>24</v>
@@ -24917,16 +24920,16 @@
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="56"/>
       <c r="M179" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N179" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O179" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="P179" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q179" s="39" t="s">
         <v>24</v>
@@ -24936,16 +24939,16 @@
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="56"/>
       <c r="M180" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N180" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O180" s="39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="P180" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q180" s="39" t="s">
         <v>24</v>
@@ -24955,16 +24958,16 @@
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="56"/>
       <c r="M181" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N181" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O181" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P181" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q181" s="39" t="s">
         <v>24</v>
@@ -24974,16 +24977,16 @@
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="56"/>
       <c r="M182" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N182" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O182" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P182" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q182" s="39" t="s">
         <v>24</v>
@@ -24993,16 +24996,16 @@
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="56"/>
       <c r="M183" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N183" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O183" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P183" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q183" s="39" t="s">
         <v>24</v>
@@ -25012,16 +25015,16 @@
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="56"/>
       <c r="M184" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N184" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O184" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="P184" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q184" s="39" t="s">
         <v>24</v>
@@ -25031,16 +25034,16 @@
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="56"/>
       <c r="M185" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N185" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O185" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="P185" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q185" s="39" t="s">
         <v>24</v>
@@ -25050,16 +25053,16 @@
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="56"/>
       <c r="M186" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N186" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O186" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="P186" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q186" s="39" t="s">
         <v>24</v>
@@ -25069,16 +25072,16 @@
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="56"/>
       <c r="M187" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N187" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O187" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="P187" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q187" s="39" t="s">
         <v>24</v>
@@ -25088,16 +25091,16 @@
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="56"/>
       <c r="M188" s="71">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="N188" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O188" s="72" t="s">
-        <v>725</v>
+      <c r="O188" s="39" t="s">
+        <v>724</v>
       </c>
       <c r="P188" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q188" s="39" t="s">
         <v>24</v>
@@ -25107,92 +25110,92 @@
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="56"/>
       <c r="M189" s="71">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="N189" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O189" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="P189" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q189" s="42" t="s">
-        <v>21</v>
+      <c r="O189" s="72" t="s">
+        <v>725</v>
+      </c>
+      <c r="P189" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q189" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="R189" s="58"/>
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L190" s="56"/>
       <c r="M190" s="71">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N190" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O190" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="P190" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q190" s="39" t="s">
-        <v>24</v>
+      <c r="O190" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="P190" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q190" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="R190" s="58"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="56"/>
-      <c r="M191" s="168">
-        <v>86</v>
+      <c r="M191" s="71">
+        <v>87</v>
       </c>
       <c r="N191" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O191" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P191" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q191" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R191" s="64"/>
+      <c r="R191" s="58"/>
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="56"/>
-      <c r="M192" s="71">
+      <c r="M192" s="168">
         <v>86</v>
       </c>
       <c r="N192" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O192" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P192" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q192" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R192" s="58"/>
+      <c r="R192" s="64"/>
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="56"/>
       <c r="M193" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N193" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O193" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="P193" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q193" s="39" t="s">
         <v>24</v>
@@ -25201,55 +25204,55 @@
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="56"/>
-      <c r="M194" s="168">
-        <v>116</v>
+      <c r="M194" s="71">
+        <v>87</v>
       </c>
       <c r="N194" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O194" s="72" t="s">
-        <v>923</v>
+      <c r="O194" s="39" t="s">
+        <v>730</v>
       </c>
       <c r="P194" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q194" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R194" s="64"/>
+      <c r="R194" s="58"/>
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="56"/>
-      <c r="M195" s="71">
-        <v>87</v>
+      <c r="M195" s="168">
+        <v>116</v>
       </c>
       <c r="N195" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O195" s="39" t="s">
-        <v>731</v>
+      <c r="O195" s="72" t="s">
+        <v>923</v>
       </c>
       <c r="P195" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q195" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R195" s="58"/>
+      <c r="R195" s="64"/>
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="56"/>
       <c r="M196" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N196" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O196" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P196" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q196" s="39" t="s">
         <v>24</v>
@@ -25265,7 +25268,7 @@
         <v>850</v>
       </c>
       <c r="O197" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="P197" s="39" t="s">
         <v>20</v>
@@ -25278,16 +25281,16 @@
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="56"/>
       <c r="M198" s="71">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="N198" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O198" s="72" t="s">
-        <v>351</v>
+      <c r="O198" s="39" t="s">
+        <v>733</v>
       </c>
       <c r="P198" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q198" s="39" t="s">
         <v>24</v>
@@ -25296,55 +25299,55 @@
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="56"/>
-      <c r="M199" s="162">
-        <v>91</v>
-      </c>
-      <c r="N199" s="158" t="s">
+      <c r="M199" s="71">
+        <v>112</v>
+      </c>
+      <c r="N199" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O199" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="P199" s="159" t="s">
+      <c r="O199" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="P199" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q199" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R199" s="160"/>
+      <c r="Q199" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R199" s="58"/>
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
-      <c r="M200" s="71">
-        <v>87</v>
-      </c>
-      <c r="N200" s="72" t="s">
+      <c r="M200" s="162">
+        <v>91</v>
+      </c>
+      <c r="N200" s="158" t="s">
         <v>850</v>
       </c>
-      <c r="O200" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="P200" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q200" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R200" s="58"/>
+      <c r="O200" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="P200" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q200" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="R200" s="160"/>
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="56"/>
       <c r="M201" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N201" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O201" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P201" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q201" s="39" t="s">
         <v>24</v>
@@ -25353,93 +25356,93 @@
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="56"/>
-      <c r="M202" s="161">
-        <v>107</v>
-      </c>
-      <c r="N202" s="88" t="s">
+      <c r="M202" s="71">
+        <v>86</v>
+      </c>
+      <c r="N202" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O202" s="85" t="s">
-        <v>736</v>
-      </c>
-      <c r="P202" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q202" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R202" s="119"/>
+      <c r="O202" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="P202" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q202" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R202" s="58"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="56"/>
-      <c r="M203" s="71">
-        <v>87</v>
-      </c>
-      <c r="N203" s="72" t="s">
+      <c r="M203" s="161">
+        <v>107</v>
+      </c>
+      <c r="N203" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O203" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="P203" s="39" t="s">
+      <c r="O203" s="85" t="s">
+        <v>736</v>
+      </c>
+      <c r="P203" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q203" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R203" s="58"/>
+      <c r="Q203" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R203" s="119"/>
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="56"/>
-      <c r="M204" s="161">
-        <v>107</v>
-      </c>
-      <c r="N204" s="88" t="s">
+      <c r="M204" s="71">
+        <v>87</v>
+      </c>
+      <c r="N204" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O204" s="85" t="s">
-        <v>738</v>
-      </c>
-      <c r="P204" s="85" t="s">
+      <c r="O204" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="P204" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q204" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R204" s="119"/>
+      <c r="Q204" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R204" s="58"/>
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="56"/>
-      <c r="M205" s="71">
-        <v>86</v>
-      </c>
-      <c r="N205" s="72" t="s">
+      <c r="M205" s="161">
+        <v>107</v>
+      </c>
+      <c r="N205" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O205" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="P205" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q205" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R205" s="58"/>
+      <c r="O205" s="85" t="s">
+        <v>738</v>
+      </c>
+      <c r="P205" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q205" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="R205" s="119"/>
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="56"/>
       <c r="M206" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N206" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O206" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P206" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q206" s="39" t="s">
         <v>24</v>
@@ -25448,14 +25451,14 @@
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="56"/>
-      <c r="M207" s="168">
+      <c r="M207" s="71">
         <v>87</v>
       </c>
       <c r="N207" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O207" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="P207" s="39" t="s">
         <v>28</v>
@@ -25463,18 +25466,18 @@
       <c r="Q207" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R207" s="64"/>
+      <c r="R207" s="58"/>
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L208" s="56"/>
-      <c r="M208" s="71">
+      <c r="M208" s="168">
         <v>87</v>
       </c>
       <c r="N208" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O208" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="P208" s="39" t="s">
         <v>28</v>
@@ -25482,7 +25485,7 @@
       <c r="Q208" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R208" s="58"/>
+      <c r="R208" s="64"/>
     </row>
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L209" s="56"/>
@@ -25493,10 +25496,10 @@
         <v>850</v>
       </c>
       <c r="O209" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P209" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q209" s="39" t="s">
         <v>24</v>
@@ -25506,16 +25509,16 @@
     <row r="210" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L210" s="56"/>
       <c r="M210" s="71">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N210" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O210" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P210" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q210" s="39" t="s">
         <v>24</v>
@@ -25525,13 +25528,13 @@
     <row r="211" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L211" s="56"/>
       <c r="M211" s="71">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N211" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O211" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P211" s="39" t="s">
         <v>28</v>
@@ -25550,7 +25553,7 @@
         <v>850</v>
       </c>
       <c r="O212" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P212" s="39" t="s">
         <v>28</v>
@@ -25569,7 +25572,7 @@
         <v>850</v>
       </c>
       <c r="O213" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="P213" s="39" t="s">
         <v>28</v>
@@ -25588,10 +25591,10 @@
         <v>850</v>
       </c>
       <c r="O214" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P214" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q214" s="39" t="s">
         <v>24</v>
@@ -25601,16 +25604,16 @@
     <row r="215" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L215" s="56"/>
       <c r="M215" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N215" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O215" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P215" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q215" s="39" t="s">
         <v>24</v>
@@ -25620,16 +25623,16 @@
     <row r="216" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L216" s="56"/>
       <c r="M216" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N216" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O216" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P216" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q216" s="39" t="s">
         <v>24</v>
@@ -25645,10 +25648,10 @@
         <v>850</v>
       </c>
       <c r="O217" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P217" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q217" s="39" t="s">
         <v>24</v>
@@ -25664,10 +25667,10 @@
         <v>850</v>
       </c>
       <c r="O218" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P218" s="39" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="Q218" s="39" t="s">
         <v>24</v>
@@ -25677,13 +25680,13 @@
     <row r="219" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L219" s="56"/>
       <c r="M219" s="71">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="N219" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O219" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="P219" s="39" t="s">
         <v>28</v>
@@ -25696,16 +25699,16 @@
     <row r="220" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L220" s="56"/>
       <c r="M220" s="71">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N220" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O220" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P220" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q220" s="39" t="s">
         <v>24</v>
@@ -25721,10 +25724,10 @@
         <v>850</v>
       </c>
       <c r="O221" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="P221" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q221" s="39" t="s">
         <v>24</v>
@@ -25733,14 +25736,14 @@
     </row>
     <row r="222" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L222" s="56"/>
-      <c r="M222" s="168">
-        <v>86</v>
+      <c r="M222" s="71">
+        <v>87</v>
       </c>
       <c r="N222" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O222" s="42" t="s">
-        <v>756</v>
+      <c r="O222" s="39" t="s">
+        <v>755</v>
       </c>
       <c r="P222" s="39" t="s">
         <v>20</v>
@@ -25748,56 +25751,56 @@
       <c r="Q222" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R222" s="64"/>
+      <c r="R222" s="58"/>
     </row>
     <row r="223" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L223" s="56"/>
-      <c r="M223" s="71">
+      <c r="M223" s="168">
         <v>86</v>
       </c>
       <c r="N223" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O223" s="39" t="s">
-        <v>757</v>
+      <c r="O223" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="P223" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q223" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R223" s="58"/>
+      <c r="R223" s="64"/>
     </row>
     <row r="224" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L224" s="56"/>
-      <c r="M224" s="168">
-        <v>117</v>
+      <c r="M224" s="71">
+        <v>86</v>
       </c>
       <c r="N224" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O224" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="P224" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q224" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R224" s="64"/>
+      <c r="R224" s="58"/>
     </row>
     <row r="225" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L225" s="56"/>
-      <c r="M225" s="71">
-        <v>86</v>
+      <c r="M225" s="168">
+        <v>117</v>
       </c>
       <c r="N225" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O225" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P225" s="39" t="s">
         <v>20</v>
@@ -25805,21 +25808,21 @@
       <c r="Q225" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="R225" s="58"/>
+      <c r="R225" s="64"/>
     </row>
     <row r="226" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L226" s="56"/>
       <c r="M226" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N226" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O226" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="P226" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q226" s="39" t="s">
         <v>24</v>
@@ -25829,16 +25832,16 @@
     <row r="227" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L227" s="56"/>
       <c r="M227" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N227" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O227" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="P227" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q227" s="39" t="s">
         <v>24</v>
@@ -25848,16 +25851,16 @@
     <row r="228" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L228" s="56"/>
       <c r="M228" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N228" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O228" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="P228" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q228" s="39" t="s">
         <v>24</v>
@@ -25873,10 +25876,10 @@
         <v>850</v>
       </c>
       <c r="O229" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="P229" s="39" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="Q229" s="39" t="s">
         <v>24</v>
@@ -25892,7 +25895,7 @@
         <v>850</v>
       </c>
       <c r="O230" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P230" s="39" t="s">
         <v>240</v>
@@ -25905,16 +25908,16 @@
     <row r="231" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L231" s="56"/>
       <c r="M231" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N231" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O231" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P231" s="39" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="Q231" s="39" t="s">
         <v>24</v>
@@ -25930,7 +25933,7 @@
         <v>850</v>
       </c>
       <c r="O232" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P232" s="39" t="s">
         <v>20</v>
@@ -25943,16 +25946,16 @@
     <row r="233" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L233" s="56"/>
       <c r="M233" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N233" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O233" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P233" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q233" s="39" t="s">
         <v>24</v>
@@ -25962,16 +25965,16 @@
     <row r="234" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L234" s="56"/>
       <c r="M234" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N234" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O234" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P234" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q234" s="39" t="s">
         <v>24</v>
@@ -25981,16 +25984,16 @@
     <row r="235" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L235" s="56"/>
       <c r="M235" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N235" s="72" t="s">
         <v>850</v>
       </c>
       <c r="O235" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="P235" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q235" s="39" t="s">
         <v>24</v>
@@ -26006,7 +26009,7 @@
         <v>850</v>
       </c>
       <c r="O236" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="P236" s="39" t="s">
         <v>28</v>
@@ -26025,7 +26028,7 @@
         <v>850</v>
       </c>
       <c r="O237" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P237" s="39" t="s">
         <v>28</v>
@@ -26044,7 +26047,7 @@
         <v>850</v>
       </c>
       <c r="O238" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="P238" s="39" t="s">
         <v>28</v>
@@ -26063,10 +26066,10 @@
         <v>850</v>
       </c>
       <c r="O239" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P239" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q239" s="39" t="s">
         <v>24</v>
@@ -26082,10 +26085,10 @@
         <v>850</v>
       </c>
       <c r="O240" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="P240" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q240" s="39" t="s">
         <v>24</v>
@@ -26101,7 +26104,7 @@
         <v>850</v>
       </c>
       <c r="O241" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="P241" s="39" t="s">
         <v>20</v>
@@ -26111,24 +26114,43 @@
       </c>
       <c r="R241" s="58"/>
     </row>
-    <row r="242" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L242" s="53"/>
-      <c r="M242" s="126">
+    <row r="242" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L242" s="56"/>
+      <c r="M242" s="71">
+        <v>87</v>
+      </c>
+      <c r="N242" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="O242" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="P242" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q242" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="R242" s="58"/>
+    </row>
+    <row r="243" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L243" s="53"/>
+      <c r="M243" s="126">
         <v>86</v>
       </c>
-      <c r="N242" s="55" t="s">
+      <c r="N243" s="55" t="s">
         <v>850</v>
       </c>
-      <c r="O242" s="55" t="s">
+      <c r="O243" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="P242" s="55" t="s">
+      <c r="P243" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q242" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="R242" s="59"/>
+      <c r="Q243" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="R243" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -26151,7 +26173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="583" activeTab="2"/>
+    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="1023">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -8174,8 +8174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S253"/>
   <sheetViews>
-    <sheetView topLeftCell="K64" workbookViewId="0">
-      <selection activeCell="N111" sqref="N111"/>
+    <sheetView topLeftCell="K194" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18010,8 +18010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="K37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18579,7 +18579,9 @@
         <v>10</v>
       </c>
       <c r="F18" s="144"/>
-      <c r="G18" s="142"/>
+      <c r="G18" s="142" t="s">
+        <v>700</v>
+      </c>
       <c r="H18" s="56"/>
       <c r="L18" s="96"/>
       <c r="M18" s="57">
@@ -20133,8 +20135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S243"/>
   <sheetViews>
-    <sheetView topLeftCell="K142" workbookViewId="0">
-      <selection activeCell="N164" sqref="N164"/>
+    <sheetView tabSelected="1" topLeftCell="K148" workbookViewId="0">
+      <selection activeCell="O164" sqref="O164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26173,8 +26175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27308,8 +27310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28479,8 +28481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C147" sqref="C9:E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="1023">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -8164,7 +8164,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8174,7 +8174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S253"/>
   <sheetViews>
-    <sheetView topLeftCell="K194" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -20135,8 +20135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K148" workbookViewId="0">
-      <selection activeCell="O164" sqref="O164"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21421,16 +21421,16 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B35" s="26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="43">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F35" s="43"/>
       <c r="G35" s="47"/>
@@ -21455,10 +21455,10 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B36" s="26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>80</v>
@@ -21489,16 +21489,16 @@
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="43"/>
       <c r="G37" s="47"/>
@@ -21523,10 +21523,10 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B38" s="26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>80</v>
@@ -21557,16 +21557,16 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B39" s="26">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="47"/>
@@ -21591,16 +21591,16 @@
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E40" s="43">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="47"/>
@@ -21625,10 +21625,10 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="26">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>80</v>
@@ -21659,16 +21659,16 @@
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="26">
-        <v>35</v>
-      </c>
-      <c r="C42" s="99" t="s">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E42" s="43">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="47"/>
@@ -21693,10 +21693,10 @@
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="26">
-        <v>36</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>107</v>
+        <v>35</v>
+      </c>
+      <c r="C43" s="99" t="s">
+        <v>105</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>80</v>
@@ -21727,16 +21727,16 @@
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="26">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E44" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="43"/>
       <c r="G44" s="47"/>
@@ -21761,16 +21761,16 @@
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="26">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E45" s="43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="47"/>
@@ -21795,16 +21795,16 @@
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="26">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="D46" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E46" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="47"/>
@@ -21829,10 +21829,10 @@
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="26">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>80</v>
@@ -21863,10 +21863,10 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="26">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D48" s="43" t="s">
         <v>80</v>
@@ -21897,10 +21897,10 @@
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="26">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>80</v>
@@ -21931,10 +21931,10 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="26">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>80</v>
@@ -21965,10 +21965,10 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>80</v>
@@ -21999,10 +21999,10 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>80</v>
@@ -22033,10 +22033,10 @@
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="26">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>80</v>
@@ -22067,10 +22067,10 @@
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="26">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>80</v>
@@ -22101,16 +22101,16 @@
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="26">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E55" s="43">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="47"/>
@@ -22135,16 +22135,16 @@
     </row>
     <row r="56" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D56" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E56" s="43">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="47"/>
@@ -22169,16 +22169,16 @@
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="26">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E57" s="43">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="47"/>
@@ -22205,16 +22205,16 @@
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="26">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E58" s="43">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="47"/>
@@ -22239,16 +22239,16 @@
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="26">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="47"/>
@@ -22273,16 +22273,16 @@
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="26">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="D60" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E60" s="43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="47"/>
@@ -22307,16 +22307,16 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="26">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E61" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="47"/>
@@ -22341,16 +22341,16 @@
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E62" s="43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="47"/>
@@ -22375,16 +22375,16 @@
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" s="26">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E63" s="43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="47"/>
@@ -22409,16 +22409,16 @@
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="26">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E64" s="43">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="47"/>
@@ -22443,16 +22443,16 @@
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="26">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="43">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="47"/>
@@ -22477,16 +22477,16 @@
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="26">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E66" s="43">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="47"/>
@@ -22511,16 +22511,16 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="26">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="D67" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E67" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="47"/>
@@ -22545,16 +22545,16 @@
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="26">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D68" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F68" s="43"/>
       <c r="G68" s="47"/>
@@ -22579,16 +22579,16 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="26">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D69" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E69" s="43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="47"/>
@@ -22613,10 +22613,10 @@
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="26">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D70" s="43" t="s">
         <v>80</v>
@@ -22647,10 +22647,10 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="26">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D71" s="43" t="s">
         <v>80</v>
@@ -22681,16 +22681,16 @@
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="26">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E72" s="43">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F72" s="43"/>
       <c r="G72" s="47"/>
@@ -22715,16 +22715,16 @@
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="26">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E73" s="43">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F73" s="43"/>
       <c r="G73" s="47"/>
@@ -22749,16 +22749,16 @@
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="26">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D74" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E74" s="43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F74" s="43"/>
       <c r="G74" s="47"/>
@@ -22783,16 +22783,16 @@
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="26">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D75" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E75" s="43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F75" s="43"/>
       <c r="G75" s="47"/>
@@ -22817,16 +22817,16 @@
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="26">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E76" s="43">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F76" s="43"/>
       <c r="G76" s="47"/>
@@ -22851,16 +22851,16 @@
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="26">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E77" s="43">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F77" s="43"/>
       <c r="G77" s="47"/>
@@ -22885,16 +22885,16 @@
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="26">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D78" s="43" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="43">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F78" s="43"/>
       <c r="G78" s="47"/>
@@ -22919,16 +22919,16 @@
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="26">
-        <v>72</v>
-      </c>
-      <c r="C79" s="99" t="s">
-        <v>126</v>
+        <v>71</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>178</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E79" s="43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="47"/>
@@ -22953,16 +22953,16 @@
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="26">
-        <v>73</v>
-      </c>
-      <c r="C80" s="43" t="s">
-        <v>127</v>
+        <v>72</v>
+      </c>
+      <c r="C80" s="99" t="s">
+        <v>126</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E80" s="43">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F80" s="43"/>
       <c r="G80" s="47"/>
@@ -22987,16 +22987,16 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B81" s="26">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E81" s="43">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F81" s="43"/>
       <c r="G81" s="47"/>
@@ -23021,16 +23021,16 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B82" s="26">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="E82" s="43">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="47"/>
@@ -23055,16 +23055,16 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B83" s="26">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E83" s="43">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F83" s="43"/>
       <c r="G83" s="47"/>
@@ -23087,22 +23087,22 @@
       </c>
       <c r="R83" s="89"/>
     </row>
-    <row r="84" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="48">
-        <v>77</v>
-      </c>
-      <c r="C84" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D84" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="49">
-        <v>7</v>
-      </c>
-      <c r="F84" s="49"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="53"/>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B84" s="26">
+        <v>76</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="43">
+        <v>22</v>
+      </c>
+      <c r="F84" s="43"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="56"/>
       <c r="L84" s="56"/>
       <c r="M84" s="109">
         <v>86</v>
@@ -23121,7 +23121,22 @@
       </c>
       <c r="R84" s="89"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="48">
+        <v>77</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="49">
+        <v>7</v>
+      </c>
+      <c r="F85" s="49"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="53"/>
       <c r="L85" s="56"/>
       <c r="M85" s="109">
         <v>87</v>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0">
+    <comment ref="R8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="1024">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6135,6 +6135,9 @@
   </si>
   <si>
     <t>POR_GAS_FMLRS</t>
+  </si>
+  <si>
+    <t>Tabla Relacionada</t>
   </si>
 </sst>
 </file>
@@ -8164,7 +8167,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8172,10 +8175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S253"/>
+  <dimension ref="B1:T253"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
+      <selection activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8194,12 +8197,13 @@
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="15" max="15" width="21.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -8207,7 +8211,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>16</v>
       </c>
@@ -8223,7 +8227,7 @@
       <c r="I2" s="218"/>
       <c r="J2" s="219"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
@@ -8239,7 +8243,7 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
@@ -8256,7 +8260,7 @@
       </c>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
@@ -8271,7 +8275,7 @@
       <c r="I5" s="164"/>
       <c r="J5" s="163"/>
     </row>
-    <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -8279,7 +8283,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="206" t="s">
         <v>6</v>
       </c>
@@ -8303,8 +8307,9 @@
       <c r="P7" s="202"/>
       <c r="Q7" s="202"/>
       <c r="R7" s="202"/>
-    </row>
-    <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="202"/>
+    </row>
+    <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -8341,19 +8346,22 @@
         <v>13</v>
       </c>
       <c r="O8" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="S8" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="45">
         <v>1</v>
       </c>
@@ -8385,20 +8393,21 @@
       <c r="N9" s="102" t="s">
         <v>846</v>
       </c>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="102"/>
+      <c r="P9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="Q9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="R9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="63" t="s">
+      <c r="S9" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="26">
         <v>2</v>
       </c>
@@ -8430,18 +8439,19 @@
       <c r="N10" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="Q10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="64"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>3</v>
       </c>
@@ -8475,19 +8485,22 @@
       <c r="N11" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="O11" s="85" t="s">
+      <c r="O11" s="88" t="s">
+        <v>493</v>
+      </c>
+      <c r="P11" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="85" t="s">
+      <c r="Q11" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="119"/>
-      <c r="S11" s="73"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R11" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="119"/>
+      <c r="T11" s="73"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>4</v>
       </c>
@@ -8519,18 +8532,19 @@
       <c r="N12" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="27"/>
+      <c r="P12" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="Q12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="64"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="64"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>5</v>
       </c>
@@ -8562,18 +8576,19 @@
       <c r="N13" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="27"/>
+      <c r="P13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="Q13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="64"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="64"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>6</v>
       </c>
@@ -8605,18 +8620,19 @@
       <c r="N14" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="27"/>
+      <c r="P14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="Q14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="64"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>7</v>
       </c>
@@ -8648,19 +8664,20 @@
       <c r="N15" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="72"/>
+      <c r="P15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="Q15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="95"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="64"/>
+      <c r="T15" s="95"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>8</v>
       </c>
@@ -8686,25 +8703,26 @@
         <v>181</v>
       </c>
       <c r="L16" s="98"/>
-      <c r="M16" s="108">
-        <v>68</v>
-      </c>
-      <c r="N16" s="88" t="s">
+      <c r="M16" s="110">
+        <v>63</v>
+      </c>
+      <c r="N16" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="O16" s="88" t="s">
+      <c r="O16" s="72"/>
+      <c r="P16" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="85" t="s">
+      <c r="Q16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="119"/>
-      <c r="S16" s="95"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="64"/>
+      <c r="T16" s="95"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>9</v>
       </c>
@@ -8737,18 +8755,21 @@
         <v>846</v>
       </c>
       <c r="O17" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P17" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="85" t="s">
+      <c r="Q17" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="119"/>
-      <c r="S17" s="95"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="119"/>
+      <c r="T17" s="95"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>10</v>
       </c>
@@ -8781,18 +8802,21 @@
         <v>846</v>
       </c>
       <c r="O18" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="P18" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="85" t="s">
+      <c r="Q18" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="119"/>
-      <c r="S18" s="95"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="119"/>
+      <c r="T18" s="95"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>11</v>
       </c>
@@ -8818,25 +8842,26 @@
         <v>496</v>
       </c>
       <c r="L19" s="98"/>
-      <c r="M19" s="108">
-        <v>68</v>
-      </c>
-      <c r="N19" s="88" t="s">
+      <c r="M19" s="110">
+        <v>63</v>
+      </c>
+      <c r="N19" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="O19" s="88" t="s">
+      <c r="O19" s="72"/>
+      <c r="P19" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="85" t="s">
+      <c r="Q19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="119"/>
-      <c r="S19" s="95"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="64"/>
+      <c r="T19" s="95"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>12</v>
       </c>
@@ -8868,18 +8893,19 @@
       <c r="N20" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O20" s="72" t="s">
+      <c r="O20" s="27"/>
+      <c r="P20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="Q20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="58"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="58"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="26">
         <v>13</v>
       </c>
@@ -8911,18 +8937,19 @@
       <c r="N21" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="Q21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="58"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R21" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="58"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="26">
         <v>14</v>
       </c>
@@ -8954,18 +8981,19 @@
       <c r="N22" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="27"/>
+      <c r="P22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="Q22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="58"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="58"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="26">
         <v>15</v>
       </c>
@@ -8997,18 +9025,19 @@
       <c r="N23" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="27"/>
+      <c r="P23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="Q23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="58"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="58"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="26">
         <v>16</v>
       </c>
@@ -9040,18 +9069,19 @@
       <c r="N24" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="27"/>
+      <c r="P24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="Q24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="58"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="58"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="26">
         <v>17</v>
       </c>
@@ -9083,18 +9113,19 @@
       <c r="N25" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="27"/>
+      <c r="P25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="Q25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="58"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="58"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="26">
         <v>18</v>
       </c>
@@ -9126,18 +9157,19 @@
       <c r="N26" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="27"/>
+      <c r="P26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="Q26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="58"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="58"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="26">
         <v>19</v>
       </c>
@@ -9169,18 +9201,19 @@
       <c r="N27" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="27"/>
+      <c r="P27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="Q27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="58"/>
-    </row>
-    <row r="28" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="58"/>
+    </row>
+    <row r="28" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="26">
         <v>20</v>
       </c>
@@ -9212,18 +9245,19 @@
       <c r="N28" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="27"/>
+      <c r="P28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="Q28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="58"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="58"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="26">
         <v>21</v>
       </c>
@@ -9246,18 +9280,19 @@
       <c r="N29" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="27"/>
+      <c r="P29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="Q29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="58"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="58"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="26">
         <v>22</v>
       </c>
@@ -9280,18 +9315,19 @@
       <c r="N30" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="27"/>
+      <c r="P30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="Q30" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="58"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="58"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="26">
         <v>23</v>
       </c>
@@ -9314,18 +9350,19 @@
       <c r="N31" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="27"/>
+      <c r="P31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P31" s="39" t="s">
+      <c r="Q31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" s="58"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="58"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="26">
         <v>24</v>
       </c>
@@ -9348,18 +9385,19 @@
       <c r="N32" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="27"/>
+      <c r="P32" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="Q32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="58"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="58"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="26">
         <v>25</v>
       </c>
@@ -9382,18 +9420,19 @@
       <c r="N33" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="27"/>
+      <c r="P33" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="Q33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="58"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="58"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="26">
         <v>26</v>
       </c>
@@ -9416,18 +9455,19 @@
       <c r="N34" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O34" s="39" t="s">
+      <c r="O34" s="27"/>
+      <c r="P34" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="Q34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q34" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="58"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R34" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="58"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="26">
         <v>27</v>
       </c>
@@ -9450,18 +9490,19 @@
       <c r="N35" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="27"/>
+      <c r="P35" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P35" s="39" t="s">
+      <c r="Q35" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q35" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="58"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="58"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="26">
         <v>28</v>
       </c>
@@ -9484,18 +9525,19 @@
       <c r="N36" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O36" s="39" t="s">
+      <c r="O36" s="27"/>
+      <c r="P36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="Q36" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="58"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R36" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="58"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="26">
         <v>29</v>
       </c>
@@ -9518,18 +9560,19 @@
       <c r="N37" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="27"/>
+      <c r="P37" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="Q37" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R37" s="58"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R37" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="58"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="26">
         <v>30</v>
       </c>
@@ -9552,18 +9595,19 @@
       <c r="N38" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O38" s="39" t="s">
+      <c r="O38" s="27"/>
+      <c r="P38" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="39" t="s">
+      <c r="Q38" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" s="58"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R38" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" s="58"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="26">
         <v>31</v>
       </c>
@@ -9586,18 +9630,19 @@
       <c r="N39" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="27"/>
+      <c r="P39" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="Q39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" s="58"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R39" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="58"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="26">
         <v>32</v>
       </c>
@@ -9620,18 +9665,19 @@
       <c r="N40" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="27"/>
+      <c r="P40" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="Q40" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q40" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="58"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R40" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="58"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="26">
         <v>33</v>
       </c>
@@ -9654,18 +9700,19 @@
       <c r="N41" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="27"/>
+      <c r="P41" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="Q41" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R41" s="58"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" s="58"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="26">
         <v>34</v>
       </c>
@@ -9688,18 +9735,19 @@
       <c r="N42" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="27"/>
+      <c r="P42" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="39" t="s">
+      <c r="Q42" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R42" s="58"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="58"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="26">
         <v>35</v>
       </c>
@@ -9722,18 +9770,19 @@
       <c r="N43" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="O43" s="27"/>
+      <c r="P43" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="Q43" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="58"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="58"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="26">
         <v>36</v>
       </c>
@@ -9756,18 +9805,19 @@
       <c r="N44" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O44" s="39" t="s">
+      <c r="O44" s="27"/>
+      <c r="P44" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="P44" s="39" t="s">
+      <c r="Q44" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" s="58"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="58"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="26">
         <v>37</v>
       </c>
@@ -9790,18 +9840,19 @@
       <c r="N45" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="27"/>
+      <c r="P45" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="Q45" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q45" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="58"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" s="58"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="26">
         <v>38</v>
       </c>
@@ -9824,18 +9875,19 @@
       <c r="N46" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="27"/>
+      <c r="P46" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="Q46" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q46" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="58"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="58"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="26">
         <v>39</v>
       </c>
@@ -9858,18 +9910,19 @@
       <c r="N47" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O47" s="39" t="s">
+      <c r="O47" s="27"/>
+      <c r="P47" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="39" t="s">
+      <c r="Q47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q47" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R47" s="58"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="58"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="26">
         <v>40</v>
       </c>
@@ -9892,18 +9945,19 @@
       <c r="N48" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O48" s="39" t="s">
+      <c r="O48" s="27"/>
+      <c r="P48" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="P48" s="39" t="s">
+      <c r="Q48" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q48" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="58"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R48" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="58"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="26">
         <v>41</v>
       </c>
@@ -9926,18 +9980,19 @@
       <c r="N49" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="27"/>
+      <c r="P49" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="Q49" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q49" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R49" s="58"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="58"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="26">
         <v>42</v>
       </c>
@@ -9960,18 +10015,19 @@
       <c r="N50" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="27"/>
+      <c r="P50" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="P50" s="39" t="s">
+      <c r="Q50" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R50" s="58"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R50" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" s="58"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="26">
         <v>43</v>
       </c>
@@ -9994,18 +10050,19 @@
       <c r="N51" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O51" s="39" t="s">
+      <c r="O51" s="27"/>
+      <c r="P51" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="Q51" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="58"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R51" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="58"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="26">
         <v>44</v>
       </c>
@@ -10028,18 +10085,19 @@
       <c r="N52" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="27"/>
+      <c r="P52" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="Q52" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q52" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="58"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R52" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="58"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="26">
         <v>45</v>
       </c>
@@ -10062,16 +10120,17 @@
       <c r="N53" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O53" s="39" t="s">
+      <c r="O53" s="27"/>
+      <c r="P53" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P53" s="39" t="s">
+      <c r="Q53" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="58"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R53" s="38"/>
+      <c r="S53" s="58"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="26">
         <v>46</v>
       </c>
@@ -10094,18 +10153,19 @@
       <c r="N54" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="27"/>
+      <c r="P54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P54" s="39" t="s">
+      <c r="Q54" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q54" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R54" s="58"/>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" s="58"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="26">
         <v>47</v>
       </c>
@@ -10128,18 +10188,19 @@
       <c r="N55" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O55" s="39" t="s">
+      <c r="O55" s="27"/>
+      <c r="P55" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="P55" s="39" t="s">
+      <c r="Q55" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q55" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R55" s="58"/>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R55" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S55" s="58"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="26">
         <v>48</v>
       </c>
@@ -10162,19 +10223,20 @@
       <c r="N56" s="158" t="s">
         <v>846</v>
       </c>
-      <c r="O56" s="159" t="s">
+      <c r="O56" s="158"/>
+      <c r="P56" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="159" t="s">
+      <c r="Q56" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="Q56" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="160"/>
-      <c r="S56" s="95"/>
-    </row>
-    <row r="57" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="160"/>
+      <c r="T56" s="95"/>
+    </row>
+    <row r="57" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="26">
         <v>49</v>
       </c>
@@ -10197,18 +10259,21 @@
       <c r="N57" s="138" t="s">
         <v>846</v>
       </c>
-      <c r="O57" s="139" t="s">
+      <c r="O57" s="138" t="s">
+        <v>947</v>
+      </c>
+      <c r="P57" s="139" t="s">
         <v>921</v>
       </c>
-      <c r="P57" s="139" t="s">
+      <c r="Q57" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="Q57" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57" s="166"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R57" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="S57" s="166"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="26">
         <v>50</v>
       </c>
@@ -10231,20 +10296,21 @@
       <c r="N58" s="74" t="s">
         <v>1018</v>
       </c>
-      <c r="O58" s="62" t="s">
+      <c r="O58" s="74"/>
+      <c r="P58" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="62" t="s">
+      <c r="Q58" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q58" s="62" t="s">
+      <c r="R58" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R58" s="87" t="s">
+      <c r="S58" s="87" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="26">
         <v>51</v>
       </c>
@@ -10267,18 +10333,21 @@
       <c r="N59" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O59" s="85" t="s">
+      <c r="O59" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="P59" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="P59" s="85" t="s">
+      <c r="Q59" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q59" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R59" s="119"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R59" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="119"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="26">
         <v>52</v>
       </c>
@@ -10301,18 +10370,19 @@
       <c r="N60" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O60" s="39" t="s">
+      <c r="O60" s="72"/>
+      <c r="P60" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="P60" s="39" t="s">
+      <c r="Q60" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q60" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R60" s="58"/>
-    </row>
-    <row r="61" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" s="58"/>
+    </row>
+    <row r="61" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="48">
         <v>53</v>
       </c>
@@ -10333,18 +10403,21 @@
       <c r="N61" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O61" s="85" t="s">
+      <c r="O61" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="P61" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="P61" s="85" t="s">
+      <c r="Q61" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q61" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R61" s="119"/>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R61" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="119"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L62" s="56"/>
       <c r="M62" s="71">
         <v>63</v>
@@ -10352,18 +10425,19 @@
       <c r="N62" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O62" s="39" t="s">
+      <c r="O62" s="72"/>
+      <c r="P62" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="P62" s="39" t="s">
+      <c r="Q62" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q62" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R62" s="58"/>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R62" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" s="58"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L63" s="56"/>
       <c r="M63" s="71">
         <v>69</v>
@@ -10371,18 +10445,19 @@
       <c r="N63" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O63" s="39" t="s">
+      <c r="O63" s="72"/>
+      <c r="P63" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="P63" s="39" t="s">
+      <c r="Q63" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q63" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R63" s="58"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R63" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63" s="58"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L64" s="56"/>
       <c r="M64" s="71">
         <v>65</v>
@@ -10390,18 +10465,19 @@
       <c r="N64" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O64" s="72"/>
+      <c r="P64" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="P64" s="39" t="s">
+      <c r="Q64" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R64" s="58"/>
-    </row>
-    <row r="65" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R64" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64" s="58"/>
+    </row>
+    <row r="65" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L65" s="56"/>
       <c r="M65" s="71">
         <v>70</v>
@@ -10409,18 +10485,19 @@
       <c r="N65" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="72"/>
+      <c r="P65" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="P65" s="39" t="s">
+      <c r="Q65" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q65" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R65" s="58"/>
-    </row>
-    <row r="66" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R65" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S65" s="58"/>
+    </row>
+    <row r="66" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L66" s="56"/>
       <c r="M66" s="71">
         <v>65</v>
@@ -10428,18 +10505,19 @@
       <c r="N66" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O66" s="39" t="s">
+      <c r="O66" s="72"/>
+      <c r="P66" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="P66" s="39" t="s">
+      <c r="Q66" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q66" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R66" s="58"/>
-    </row>
-    <row r="67" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R66" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" s="58"/>
+    </row>
+    <row r="67" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L67" s="56"/>
       <c r="M67" s="161">
         <v>68</v>
@@ -10447,18 +10525,21 @@
       <c r="N67" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O67" s="85" t="s">
+      <c r="O67" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="P67" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="P67" s="85" t="s">
+      <c r="Q67" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q67" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R67" s="119"/>
-    </row>
-    <row r="68" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R67" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S67" s="119"/>
+    </row>
+    <row r="68" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L68" s="56"/>
       <c r="M68" s="71">
         <v>63</v>
@@ -10466,18 +10547,19 @@
       <c r="N68" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O68" s="39" t="s">
+      <c r="O68" s="72"/>
+      <c r="P68" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="P68" s="39" t="s">
+      <c r="Q68" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R68" s="58"/>
-    </row>
-    <row r="69" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R68" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S68" s="58"/>
+    </row>
+    <row r="69" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L69" s="56"/>
       <c r="M69" s="161">
         <v>68</v>
@@ -10485,18 +10567,21 @@
       <c r="N69" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O69" s="85" t="s">
+      <c r="O69" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="P69" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="P69" s="85" t="s">
+      <c r="Q69" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q69" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R69" s="119"/>
-    </row>
-    <row r="70" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R69" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S69" s="119"/>
+    </row>
+    <row r="70" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L70" s="56"/>
       <c r="M70" s="71">
         <v>63</v>
@@ -10504,18 +10589,19 @@
       <c r="N70" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O70" s="39" t="s">
+      <c r="O70" s="72"/>
+      <c r="P70" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="P70" s="39" t="s">
+      <c r="Q70" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q70" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R70" s="58"/>
-    </row>
-    <row r="71" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R70" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="58"/>
+    </row>
+    <row r="71" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L71" s="56"/>
       <c r="M71" s="161">
         <v>68</v>
@@ -10523,18 +10609,21 @@
       <c r="N71" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O71" s="85" t="s">
+      <c r="O71" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="P71" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="P71" s="85" t="s">
+      <c r="Q71" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q71" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R71" s="119"/>
-    </row>
-    <row r="72" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R71" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S71" s="119"/>
+    </row>
+    <row r="72" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L72" s="56"/>
       <c r="M72" s="71">
         <v>63</v>
@@ -10542,18 +10631,19 @@
       <c r="N72" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O72" s="39" t="s">
+      <c r="O72" s="72"/>
+      <c r="P72" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="P72" s="39" t="s">
+      <c r="Q72" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R72" s="58"/>
-    </row>
-    <row r="73" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R72" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S72" s="58"/>
+    </row>
+    <row r="73" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L73" s="56"/>
       <c r="M73" s="71">
         <v>62</v>
@@ -10561,18 +10651,19 @@
       <c r="N73" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O73" s="39" t="s">
+      <c r="O73" s="72"/>
+      <c r="P73" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="P73" s="39" t="s">
+      <c r="Q73" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q73" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R73" s="58"/>
-    </row>
-    <row r="74" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R73" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S73" s="58"/>
+    </row>
+    <row r="74" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L74" s="56"/>
       <c r="M74" s="71">
         <v>63</v>
@@ -10580,18 +10671,19 @@
       <c r="N74" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O74" s="72"/>
+      <c r="P74" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="P74" s="39" t="s">
+      <c r="Q74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q74" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R74" s="58"/>
-    </row>
-    <row r="75" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R74" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74" s="58"/>
+    </row>
+    <row r="75" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L75" s="56"/>
       <c r="M75" s="161">
         <v>68</v>
@@ -10599,18 +10691,21 @@
       <c r="N75" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O75" s="85" t="s">
+      <c r="O75" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="P75" s="85" t="s">
         <v>398</v>
       </c>
-      <c r="P75" s="85" t="s">
+      <c r="Q75" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q75" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R75" s="119"/>
-    </row>
-    <row r="76" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R75" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S75" s="119"/>
+    </row>
+    <row r="76" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L76" s="56"/>
       <c r="M76" s="71">
         <v>63</v>
@@ -10618,19 +10713,20 @@
       <c r="N76" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O76" s="39" t="s">
+      <c r="O76" s="72"/>
+      <c r="P76" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="P76" s="39" t="s">
+      <c r="Q76" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q76" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R76" s="58"/>
-      <c r="S76" s="95"/>
-    </row>
-    <row r="77" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R76" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S76" s="58"/>
+      <c r="T76" s="95"/>
+    </row>
+    <row r="77" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L77" s="56"/>
       <c r="M77" s="161">
         <v>68</v>
@@ -10638,18 +10734,21 @@
       <c r="N77" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O77" s="85" t="s">
+      <c r="O77" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="P77" s="85" t="s">
         <v>400</v>
       </c>
-      <c r="P77" s="85" t="s">
+      <c r="Q77" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q77" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R77" s="119"/>
-    </row>
-    <row r="78" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R77" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S77" s="119"/>
+    </row>
+    <row r="78" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L78" s="56"/>
       <c r="M78" s="71">
         <v>63</v>
@@ -10657,18 +10756,19 @@
       <c r="N78" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O78" s="39" t="s">
+      <c r="O78" s="72"/>
+      <c r="P78" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="P78" s="39" t="s">
+      <c r="Q78" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q78" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R78" s="58"/>
-    </row>
-    <row r="79" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R78" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78" s="58"/>
+    </row>
+    <row r="79" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L79" s="56"/>
       <c r="M79" s="168">
         <v>79</v>
@@ -10676,18 +10776,19 @@
       <c r="N79" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O79" s="72" t="s">
+      <c r="O79" s="72"/>
+      <c r="P79" s="72" t="s">
         <v>402</v>
       </c>
-      <c r="P79" s="39" t="s">
+      <c r="Q79" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q79" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R79" s="64"/>
-    </row>
-    <row r="80" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R79" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S79" s="64"/>
+    </row>
+    <row r="80" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L80" s="56"/>
       <c r="M80" s="71">
         <v>63</v>
@@ -10695,18 +10796,19 @@
       <c r="N80" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O80" s="39" t="s">
+      <c r="O80" s="72"/>
+      <c r="P80" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="P80" s="39" t="s">
+      <c r="Q80" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q80" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R80" s="58"/>
-    </row>
-    <row r="81" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R80" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S80" s="58"/>
+    </row>
+    <row r="81" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L81" s="56"/>
       <c r="M81" s="71">
         <v>62</v>
@@ -10714,18 +10816,19 @@
       <c r="N81" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O81" s="39" t="s">
+      <c r="O81" s="72"/>
+      <c r="P81" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="P81" s="39" t="s">
+      <c r="Q81" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q81" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R81" s="58"/>
-    </row>
-    <row r="82" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S81" s="58"/>
+    </row>
+    <row r="82" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L82" s="56"/>
       <c r="M82" s="71">
         <v>63</v>
@@ -10733,18 +10836,19 @@
       <c r="N82" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O82" s="39" t="s">
+      <c r="O82" s="72"/>
+      <c r="P82" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="P82" s="39" t="s">
+      <c r="Q82" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q82" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R82" s="58"/>
-    </row>
-    <row r="83" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R82" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S82" s="58"/>
+    </row>
+    <row r="83" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L83" s="56"/>
       <c r="M83" s="71">
         <v>62</v>
@@ -10752,18 +10856,19 @@
       <c r="N83" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O83" s="39" t="s">
+      <c r="O83" s="72"/>
+      <c r="P83" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="P83" s="39" t="s">
+      <c r="Q83" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q83" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R83" s="58"/>
-    </row>
-    <row r="84" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S83" s="58"/>
+    </row>
+    <row r="84" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L84" s="56"/>
       <c r="M84" s="71">
         <v>63</v>
@@ -10771,18 +10876,19 @@
       <c r="N84" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O84" s="39" t="s">
+      <c r="O84" s="72"/>
+      <c r="P84" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="P84" s="39" t="s">
+      <c r="Q84" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q84" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R84" s="58"/>
-    </row>
-    <row r="85" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R84" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S84" s="58"/>
+    </row>
+    <row r="85" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L85" s="56"/>
       <c r="M85" s="71">
         <v>71</v>
@@ -10790,18 +10896,19 @@
       <c r="N85" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O85" s="42" t="s">
+      <c r="O85" s="72"/>
+      <c r="P85" s="42" t="s">
         <v>408</v>
       </c>
-      <c r="P85" s="39" t="s">
+      <c r="Q85" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q85" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R85" s="58"/>
-    </row>
-    <row r="86" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R85" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S85" s="58"/>
+    </row>
+    <row r="86" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L86" s="56"/>
       <c r="M86" s="71">
         <v>65</v>
@@ -10809,37 +10916,39 @@
       <c r="N86" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O86" s="39" t="s">
+      <c r="O86" s="72"/>
+      <c r="P86" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="P86" s="39" t="s">
+      <c r="Q86" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q86" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R86" s="58"/>
-    </row>
-    <row r="87" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R86" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S86" s="58"/>
+    </row>
+    <row r="87" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L87" s="56"/>
-      <c r="M87" s="161">
-        <v>68</v>
-      </c>
-      <c r="N87" s="88" t="s">
+      <c r="M87" s="168">
+        <v>62</v>
+      </c>
+      <c r="N87" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O87" s="85" t="s">
+      <c r="O87" s="72"/>
+      <c r="P87" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="P87" s="85" t="s">
+      <c r="Q87" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q87" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R87" s="119"/>
-    </row>
-    <row r="88" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R87" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S87" s="64"/>
+    </row>
+    <row r="88" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L88" s="56"/>
       <c r="M88" s="71">
         <v>63</v>
@@ -10847,18 +10956,19 @@
       <c r="N88" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O88" s="39" t="s">
+      <c r="O88" s="72"/>
+      <c r="P88" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="P88" s="39" t="s">
+      <c r="Q88" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q88" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R88" s="58"/>
-    </row>
-    <row r="89" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R88" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S88" s="58"/>
+    </row>
+    <row r="89" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L89" s="56"/>
       <c r="M89" s="71">
         <v>63</v>
@@ -10866,18 +10976,19 @@
       <c r="N89" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O89" s="39" t="s">
+      <c r="O89" s="72"/>
+      <c r="P89" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="P89" s="39" t="s">
+      <c r="Q89" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q89" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" s="58"/>
-    </row>
-    <row r="90" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S89" s="58"/>
+    </row>
+    <row r="90" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L90" s="56"/>
       <c r="M90" s="71">
         <v>63</v>
@@ -10885,18 +10996,19 @@
       <c r="N90" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O90" s="39" t="s">
+      <c r="O90" s="72"/>
+      <c r="P90" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="P90" s="39" t="s">
+      <c r="Q90" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q90" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R90" s="58"/>
-    </row>
-    <row r="91" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R90" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S90" s="58"/>
+    </row>
+    <row r="91" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L91" s="56"/>
       <c r="M91" s="71">
         <v>63</v>
@@ -10904,18 +11016,19 @@
       <c r="N91" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O91" s="39" t="s">
+      <c r="O91" s="72"/>
+      <c r="P91" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="P91" s="39" t="s">
+      <c r="Q91" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q91" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R91" s="58"/>
-    </row>
-    <row r="92" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S91" s="58"/>
+    </row>
+    <row r="92" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L92" s="56"/>
       <c r="M92" s="71">
         <v>62</v>
@@ -10923,18 +11036,19 @@
       <c r="N92" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O92" s="39" t="s">
+      <c r="O92" s="72"/>
+      <c r="P92" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="P92" s="39" t="s">
+      <c r="Q92" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q92" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R92" s="58"/>
-    </row>
-    <row r="93" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R92" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S92" s="58"/>
+    </row>
+    <row r="93" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L93" s="56"/>
       <c r="M93" s="71">
         <v>63</v>
@@ -10942,18 +11056,19 @@
       <c r="N93" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O93" s="39" t="s">
+      <c r="O93" s="72"/>
+      <c r="P93" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="P93" s="39" t="s">
+      <c r="Q93" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q93" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R93" s="58"/>
-    </row>
-    <row r="94" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R93" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S93" s="58"/>
+    </row>
+    <row r="94" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L94" s="56"/>
       <c r="M94" s="71">
         <v>63</v>
@@ -10961,18 +11076,19 @@
       <c r="N94" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O94" s="39" t="s">
+      <c r="O94" s="72"/>
+      <c r="P94" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="P94" s="39" t="s">
+      <c r="Q94" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q94" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R94" s="58"/>
-    </row>
-    <row r="95" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S94" s="58"/>
+    </row>
+    <row r="95" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L95" s="56"/>
       <c r="M95" s="71">
         <v>63</v>
@@ -10980,18 +11096,19 @@
       <c r="N95" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O95" s="39" t="s">
+      <c r="O95" s="72"/>
+      <c r="P95" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="P95" s="39" t="s">
+      <c r="Q95" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q95" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R95" s="58"/>
-    </row>
-    <row r="96" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R95" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" s="58"/>
+    </row>
+    <row r="96" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L96" s="56"/>
       <c r="M96" s="71">
         <v>63</v>
@@ -10999,18 +11116,19 @@
       <c r="N96" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O96" s="39" t="s">
+      <c r="O96" s="72"/>
+      <c r="P96" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="P96" s="39" t="s">
+      <c r="Q96" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="Q96" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R96" s="58"/>
-    </row>
-    <row r="97" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R96" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S96" s="58"/>
+    </row>
+    <row r="97" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L97" s="56"/>
       <c r="M97" s="71">
         <v>63</v>
@@ -11018,18 +11136,19 @@
       <c r="N97" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O97" s="39" t="s">
+      <c r="O97" s="72"/>
+      <c r="P97" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="P97" s="39" t="s">
+      <c r="Q97" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="Q97" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R97" s="58"/>
-    </row>
-    <row r="98" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R97" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S97" s="58"/>
+    </row>
+    <row r="98" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L98" s="56"/>
       <c r="M98" s="161">
         <v>68</v>
@@ -11038,17 +11157,20 @@
         <v>1018</v>
       </c>
       <c r="O98" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P98" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="P98" s="85" t="s">
+      <c r="Q98" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="Q98" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R98" s="119"/>
-    </row>
-    <row r="99" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R98" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98" s="119"/>
+    </row>
+    <row r="99" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L99" s="56"/>
       <c r="M99" s="161">
         <v>68</v>
@@ -11056,18 +11178,21 @@
       <c r="N99" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O99" s="85" t="s">
+      <c r="O99" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P99" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="P99" s="85" t="s">
+      <c r="Q99" s="85" t="s">
         <v>240</v>
       </c>
-      <c r="Q99" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R99" s="119"/>
-    </row>
-    <row r="100" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R99" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S99" s="119"/>
+    </row>
+    <row r="100" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L100" s="56"/>
       <c r="M100" s="71">
         <v>62</v>
@@ -11075,18 +11200,19 @@
       <c r="N100" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O100" s="39" t="s">
+      <c r="O100" s="72"/>
+      <c r="P100" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="P100" s="39" t="s">
+      <c r="Q100" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="Q100" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R100" s="58"/>
-    </row>
-    <row r="101" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S100" s="58"/>
+    </row>
+    <row r="101" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L101" s="56"/>
       <c r="M101" s="161">
         <v>68</v>
@@ -11094,18 +11220,21 @@
       <c r="N101" s="88" t="s">
         <v>1018</v>
       </c>
-      <c r="O101" s="85" t="s">
+      <c r="O101" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="P101" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="P101" s="85" t="s">
+      <c r="Q101" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q101" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R101" s="119"/>
-    </row>
-    <row r="102" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S101" s="119"/>
+    </row>
+    <row r="102" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L102" s="56"/>
       <c r="M102" s="71">
         <v>5</v>
@@ -11113,18 +11242,19 @@
       <c r="N102" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O102" s="39" t="s">
+      <c r="O102" s="72"/>
+      <c r="P102" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="P102" s="39" t="s">
+      <c r="Q102" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="Q102" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R102" s="58"/>
-    </row>
-    <row r="103" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R102" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S102" s="58"/>
+    </row>
+    <row r="103" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L103" s="56"/>
       <c r="M103" s="71">
         <v>63</v>
@@ -11132,18 +11262,19 @@
       <c r="N103" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O103" s="42" t="s">
+      <c r="O103" s="72"/>
+      <c r="P103" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="P103" s="39" t="s">
+      <c r="Q103" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q103" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R103" s="58"/>
-    </row>
-    <row r="104" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R103" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S103" s="58"/>
+    </row>
+    <row r="104" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L104" s="56"/>
       <c r="M104" s="71">
         <v>19</v>
@@ -11151,18 +11282,19 @@
       <c r="N104" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O104" s="39" t="s">
+      <c r="O104" s="72"/>
+      <c r="P104" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P104" s="39" t="s">
+      <c r="Q104" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q104" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R104" s="58"/>
-    </row>
-    <row r="105" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R104" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S104" s="58"/>
+    </row>
+    <row r="105" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L105" s="56"/>
       <c r="M105" s="71">
         <v>62</v>
@@ -11170,18 +11302,19 @@
       <c r="N105" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O105" s="72" t="s">
+      <c r="O105" s="72"/>
+      <c r="P105" s="72" t="s">
         <v>428</v>
       </c>
-      <c r="P105" s="39" t="s">
+      <c r="Q105" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q105" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R105" s="58"/>
-    </row>
-    <row r="106" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R105" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S105" s="58"/>
+    </row>
+    <row r="106" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L106" s="56"/>
       <c r="M106" s="71">
         <v>63</v>
@@ -11189,18 +11322,19 @@
       <c r="N106" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O106" s="39" t="s">
+      <c r="O106" s="72"/>
+      <c r="P106" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="P106" s="39" t="s">
+      <c r="Q106" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q106" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R106" s="58"/>
-    </row>
-    <row r="107" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R106" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S106" s="58"/>
+    </row>
+    <row r="107" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L107" s="56"/>
       <c r="M107" s="71">
         <v>63</v>
@@ -11208,18 +11342,19 @@
       <c r="N107" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O107" s="39" t="s">
+      <c r="O107" s="72"/>
+      <c r="P107" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="P107" s="39" t="s">
+      <c r="Q107" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q107" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R107" s="58"/>
-    </row>
-    <row r="108" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R107" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S107" s="58"/>
+    </row>
+    <row r="108" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L108" s="56"/>
       <c r="M108" s="71">
         <v>63</v>
@@ -11227,18 +11362,19 @@
       <c r="N108" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O108" s="39" t="s">
+      <c r="O108" s="72"/>
+      <c r="P108" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="P108" s="39" t="s">
+      <c r="Q108" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q108" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R108" s="58"/>
-    </row>
-    <row r="109" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R108" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S108" s="58"/>
+    </row>
+    <row r="109" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L109" s="56"/>
       <c r="M109" s="71">
         <v>63</v>
@@ -11246,18 +11382,19 @@
       <c r="N109" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O109" s="39" t="s">
+      <c r="O109" s="72"/>
+      <c r="P109" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="P109" s="39" t="s">
+      <c r="Q109" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q109" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R109" s="58"/>
-    </row>
-    <row r="110" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R109" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S109" s="58"/>
+    </row>
+    <row r="110" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L110" s="56"/>
       <c r="M110" s="71">
         <v>62</v>
@@ -11265,18 +11402,19 @@
       <c r="N110" s="72" t="s">
         <v>1018</v>
       </c>
-      <c r="O110" s="39" t="s">
+      <c r="O110" s="72"/>
+      <c r="P110" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="P110" s="39" t="s">
+      <c r="Q110" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q110" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R110" s="58"/>
-    </row>
-    <row r="111" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R110" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S110" s="58"/>
+    </row>
+    <row r="111" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L111" s="53"/>
       <c r="M111" s="126">
         <v>62</v>
@@ -11284,18 +11422,19 @@
       <c r="N111" s="91" t="s">
         <v>1018</v>
       </c>
-      <c r="O111" s="65" t="s">
+      <c r="O111" s="91"/>
+      <c r="P111" s="65" t="s">
         <v>1013</v>
       </c>
-      <c r="P111" s="65" t="s">
+      <c r="Q111" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q111" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R111" s="59"/>
-    </row>
-    <row r="112" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R111" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="S111" s="59"/>
+    </row>
+    <row r="112" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L112" s="56"/>
       <c r="M112" s="130">
         <v>80</v>
@@ -11303,18 +11442,19 @@
       <c r="N112" s="79" t="s">
         <v>849</v>
       </c>
-      <c r="O112" s="80" t="s">
+      <c r="O112" s="79"/>
+      <c r="P112" s="80" t="s">
         <v>641</v>
       </c>
-      <c r="P112" s="80" t="s">
+      <c r="Q112" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="Q112" s="80" t="s">
+      <c r="R112" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R112" s="196"/>
-    </row>
-    <row r="113" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="S112" s="196"/>
+    </row>
+    <row r="113" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L113" s="56"/>
       <c r="M113" s="57">
         <v>26</v>
@@ -11322,18 +11462,19 @@
       <c r="N113" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O113" s="39" t="s">
+      <c r="O113" s="72"/>
+      <c r="P113" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="P113" s="39" t="s">
+      <c r="Q113" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q113" s="39" t="s">
+      <c r="R113" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R113" s="58"/>
-    </row>
-    <row r="114" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="S113" s="58"/>
+    </row>
+    <row r="114" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L114" s="56"/>
       <c r="M114" s="57">
         <v>47</v>
@@ -11341,18 +11482,19 @@
       <c r="N114" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O114" s="39" t="s">
+      <c r="O114" s="72"/>
+      <c r="P114" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="P114" s="39" t="s">
+      <c r="Q114" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q114" s="39" t="s">
+      <c r="R114" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R114" s="58"/>
-    </row>
-    <row r="115" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="S114" s="58"/>
+    </row>
+    <row r="115" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L115" s="56"/>
       <c r="M115" s="57">
         <v>64</v>
@@ -11360,20 +11502,21 @@
       <c r="N115" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O115" s="39" t="s">
+      <c r="O115" s="72"/>
+      <c r="P115" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="P115" s="39" t="s">
+      <c r="Q115" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q115" s="39" t="s">
+      <c r="R115" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R115" s="89" t="s">
+      <c r="S115" s="89" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L116" s="56"/>
       <c r="M116" s="57">
         <v>65</v>
@@ -11381,18 +11524,19 @@
       <c r="N116" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O116" s="39" t="s">
+      <c r="O116" s="72"/>
+      <c r="P116" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P116" s="39" t="s">
+      <c r="Q116" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q116" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R116" s="58"/>
-    </row>
-    <row r="117" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R116" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S116" s="58"/>
+    </row>
+    <row r="117" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L117" s="56"/>
       <c r="M117" s="57">
         <v>66</v>
@@ -11400,18 +11544,19 @@
       <c r="N117" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O117" s="39" t="s">
+      <c r="O117" s="72"/>
+      <c r="P117" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="P117" s="39" t="s">
+      <c r="Q117" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q117" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R117" s="58"/>
-    </row>
-    <row r="118" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R117" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S117" s="58"/>
+    </row>
+    <row r="118" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L118" s="56"/>
       <c r="M118" s="57">
         <v>61</v>
@@ -11419,18 +11564,19 @@
       <c r="N118" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O118" s="39" t="s">
+      <c r="O118" s="72"/>
+      <c r="P118" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="P118" s="39" t="s">
+      <c r="Q118" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q118" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R118" s="58"/>
-    </row>
-    <row r="119" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R118" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S118" s="58"/>
+    </row>
+    <row r="119" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L119" s="56"/>
       <c r="M119" s="57">
         <v>72</v>
@@ -11438,18 +11584,19 @@
       <c r="N119" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O119" s="72" t="s">
+      <c r="O119" s="72"/>
+      <c r="P119" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="P119" s="39" t="s">
+      <c r="Q119" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q119" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R119" s="58"/>
-    </row>
-    <row r="120" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R119" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S119" s="58"/>
+    </row>
+    <row r="120" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L120" s="56"/>
       <c r="M120" s="57">
         <v>63</v>
@@ -11457,18 +11604,19 @@
       <c r="N120" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O120" s="39" t="s">
+      <c r="O120" s="72"/>
+      <c r="P120" s="39" t="s">
         <v>642</v>
       </c>
-      <c r="P120" s="39" t="s">
+      <c r="Q120" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="Q120" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R120" s="58"/>
-    </row>
-    <row r="121" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R120" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S120" s="58"/>
+    </row>
+    <row r="121" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L121" s="56"/>
       <c r="M121" s="57">
         <v>62</v>
@@ -11476,18 +11624,19 @@
       <c r="N121" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O121" s="39" t="s">
+      <c r="O121" s="72"/>
+      <c r="P121" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="P121" s="39" t="s">
+      <c r="Q121" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q121" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R121" s="58"/>
-    </row>
-    <row r="122" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R121" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S121" s="58"/>
+    </row>
+    <row r="122" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L122" s="56"/>
       <c r="M122" s="57">
         <v>62</v>
@@ -11495,18 +11644,19 @@
       <c r="N122" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O122" s="39" t="s">
+      <c r="O122" s="72"/>
+      <c r="P122" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="P122" s="39" t="s">
+      <c r="Q122" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q122" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R122" s="58"/>
-    </row>
-    <row r="123" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R122" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S122" s="58"/>
+    </row>
+    <row r="123" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L123" s="56"/>
       <c r="M123" s="57">
         <v>19</v>
@@ -11514,18 +11664,19 @@
       <c r="N123" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O123" s="39" t="s">
+      <c r="O123" s="72"/>
+      <c r="P123" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P123" s="39" t="s">
+      <c r="Q123" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q123" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R123" s="58"/>
-    </row>
-    <row r="124" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R123" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S123" s="58"/>
+    </row>
+    <row r="124" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L124" s="56"/>
       <c r="M124" s="57">
         <v>63</v>
@@ -11533,18 +11684,19 @@
       <c r="N124" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O124" s="39" t="s">
+      <c r="O124" s="72"/>
+      <c r="P124" s="39" t="s">
         <v>644</v>
       </c>
-      <c r="P124" s="39" t="s">
+      <c r="Q124" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q124" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R124" s="58"/>
-    </row>
-    <row r="125" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R124" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S124" s="58"/>
+    </row>
+    <row r="125" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L125" s="56"/>
       <c r="M125" s="120">
         <v>68</v>
@@ -11552,18 +11704,19 @@
       <c r="N125" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O125" s="85" t="s">
+      <c r="O125" s="88"/>
+      <c r="P125" s="85" t="s">
         <v>645</v>
       </c>
-      <c r="P125" s="85" t="s">
+      <c r="Q125" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q125" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R125" s="119"/>
-    </row>
-    <row r="126" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R125" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S125" s="119"/>
+    </row>
+    <row r="126" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L126" s="56"/>
       <c r="M126" s="57">
         <v>63</v>
@@ -11571,18 +11724,19 @@
       <c r="N126" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O126" s="39" t="s">
+      <c r="O126" s="72"/>
+      <c r="P126" s="39" t="s">
         <v>646</v>
       </c>
-      <c r="P126" s="39" t="s">
+      <c r="Q126" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q126" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R126" s="58"/>
-    </row>
-    <row r="127" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R126" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S126" s="58"/>
+    </row>
+    <row r="127" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L127" s="56"/>
       <c r="M127" s="57">
         <v>63</v>
@@ -11590,18 +11744,19 @@
       <c r="N127" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O127" s="39" t="s">
+      <c r="O127" s="72"/>
+      <c r="P127" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="P127" s="39" t="s">
+      <c r="Q127" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q127" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R127" s="58"/>
-    </row>
-    <row r="128" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R127" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S127" s="58"/>
+    </row>
+    <row r="128" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L128" s="56"/>
       <c r="M128" s="57">
         <v>63</v>
@@ -11609,18 +11764,19 @@
       <c r="N128" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O128" s="39" t="s">
+      <c r="O128" s="72"/>
+      <c r="P128" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="P128" s="39" t="s">
+      <c r="Q128" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q128" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R128" s="58"/>
-    </row>
-    <row r="129" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R128" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S128" s="58"/>
+    </row>
+    <row r="129" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L129" s="56"/>
       <c r="M129" s="57">
         <v>63</v>
@@ -11628,19 +11784,20 @@
       <c r="N129" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O129" s="39" t="s">
+      <c r="O129" s="72"/>
+      <c r="P129" s="39" t="s">
         <v>649</v>
       </c>
-      <c r="P129" s="39" t="s">
+      <c r="Q129" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q129" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R129" s="58"/>
-      <c r="S129" s="95"/>
-    </row>
-    <row r="130" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R129" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S129" s="58"/>
+      <c r="T129" s="95"/>
+    </row>
+    <row r="130" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L130" s="56"/>
       <c r="M130" s="57">
         <v>63</v>
@@ -11648,18 +11805,19 @@
       <c r="N130" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O130" s="39" t="s">
+      <c r="O130" s="72"/>
+      <c r="P130" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="P130" s="39" t="s">
+      <c r="Q130" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q130" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R130" s="58"/>
-    </row>
-    <row r="131" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R130" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S130" s="58"/>
+    </row>
+    <row r="131" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L131" s="56"/>
       <c r="M131" s="120">
         <v>68</v>
@@ -11667,18 +11825,19 @@
       <c r="N131" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O131" s="85" t="s">
+      <c r="O131" s="88"/>
+      <c r="P131" s="85" t="s">
         <v>651</v>
       </c>
-      <c r="P131" s="85" t="s">
+      <c r="Q131" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q131" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R131" s="119"/>
-    </row>
-    <row r="132" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R131" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S131" s="119"/>
+    </row>
+    <row r="132" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L132" s="56"/>
       <c r="M132" s="57">
         <v>63</v>
@@ -11686,18 +11845,19 @@
       <c r="N132" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O132" s="39" t="s">
+      <c r="O132" s="72"/>
+      <c r="P132" s="39" t="s">
         <v>652</v>
       </c>
-      <c r="P132" s="39" t="s">
+      <c r="Q132" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q132" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R132" s="58"/>
-    </row>
-    <row r="133" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R132" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S132" s="58"/>
+    </row>
+    <row r="133" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L133" s="56"/>
       <c r="M133" s="57">
         <v>63</v>
@@ -11705,18 +11865,19 @@
       <c r="N133" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O133" s="39" t="s">
+      <c r="O133" s="72"/>
+      <c r="P133" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="P133" s="39" t="s">
+      <c r="Q133" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q133" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R133" s="58"/>
-    </row>
-    <row r="134" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R133" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S133" s="58"/>
+    </row>
+    <row r="134" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L134" s="56"/>
       <c r="M134" s="57">
         <v>63</v>
@@ -11724,18 +11885,19 @@
       <c r="N134" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O134" s="39" t="s">
+      <c r="O134" s="72"/>
+      <c r="P134" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="P134" s="39" t="s">
+      <c r="Q134" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="Q134" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R134" s="58"/>
-    </row>
-    <row r="135" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R134" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S134" s="58"/>
+    </row>
+    <row r="135" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L135" s="56"/>
       <c r="M135" s="57">
         <v>63</v>
@@ -11743,18 +11905,19 @@
       <c r="N135" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O135" s="39" t="s">
+      <c r="O135" s="72"/>
+      <c r="P135" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="P135" s="39" t="s">
+      <c r="Q135" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="Q135" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R135" s="58"/>
-    </row>
-    <row r="136" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R135" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S135" s="58"/>
+    </row>
+    <row r="136" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L136" s="56"/>
       <c r="M136" s="57">
         <v>63</v>
@@ -11762,18 +11925,19 @@
       <c r="N136" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O136" s="39" t="s">
+      <c r="O136" s="72"/>
+      <c r="P136" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="P136" s="39" t="s">
+      <c r="Q136" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="Q136" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R136" s="58"/>
-    </row>
-    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R136" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S136" s="58"/>
+    </row>
+    <row r="137" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L137" s="56"/>
       <c r="M137" s="57">
         <v>63</v>
@@ -11781,18 +11945,19 @@
       <c r="N137" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O137" s="39" t="s">
+      <c r="O137" s="72"/>
+      <c r="P137" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="P137" s="39" t="s">
+      <c r="Q137" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q137" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R137" s="58"/>
-    </row>
-    <row r="138" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R137" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S137" s="58"/>
+    </row>
+    <row r="138" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L138" s="56"/>
       <c r="M138" s="57">
         <v>63</v>
@@ -11800,18 +11965,19 @@
       <c r="N138" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O138" s="39" t="s">
+      <c r="O138" s="72"/>
+      <c r="P138" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="P138" s="39" t="s">
+      <c r="Q138" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q138" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R138" s="58"/>
-    </row>
-    <row r="139" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R138" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S138" s="58"/>
+    </row>
+    <row r="139" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L139" s="56"/>
       <c r="M139" s="120">
         <v>68</v>
@@ -11819,18 +11985,19 @@
       <c r="N139" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O139" s="85" t="s">
+      <c r="O139" s="88"/>
+      <c r="P139" s="85" t="s">
         <v>660</v>
       </c>
-      <c r="P139" s="85" t="s">
+      <c r="Q139" s="85" t="s">
         <v>661</v>
       </c>
-      <c r="Q139" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R139" s="119"/>
-    </row>
-    <row r="140" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R139" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S139" s="119"/>
+    </row>
+    <row r="140" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L140" s="56"/>
       <c r="M140" s="57">
         <v>63</v>
@@ -11838,18 +12005,19 @@
       <c r="N140" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O140" s="39" t="s">
+      <c r="O140" s="72"/>
+      <c r="P140" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="P140" s="39" t="s">
+      <c r="Q140" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="Q140" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R140" s="58"/>
-    </row>
-    <row r="141" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R140" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S140" s="58"/>
+    </row>
+    <row r="141" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L141" s="56"/>
       <c r="M141" s="57">
         <v>63</v>
@@ -11857,18 +12025,19 @@
       <c r="N141" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O141" s="39" t="s">
+      <c r="O141" s="72"/>
+      <c r="P141" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="P141" s="39" t="s">
+      <c r="Q141" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q141" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R141" s="58"/>
-    </row>
-    <row r="142" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R141" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S141" s="58"/>
+    </row>
+    <row r="142" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L142" s="56"/>
       <c r="M142" s="57">
         <v>63</v>
@@ -11876,18 +12045,19 @@
       <c r="N142" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O142" s="39" t="s">
+      <c r="O142" s="72"/>
+      <c r="P142" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="P142" s="39" t="s">
+      <c r="Q142" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q142" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R142" s="58"/>
-    </row>
-    <row r="143" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R142" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S142" s="58"/>
+    </row>
+    <row r="143" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L143" s="56"/>
       <c r="M143" s="57">
         <v>63</v>
@@ -11895,18 +12065,19 @@
       <c r="N143" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O143" s="39" t="s">
+      <c r="O143" s="72"/>
+      <c r="P143" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="P143" s="39" t="s">
+      <c r="Q143" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q143" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R143" s="58"/>
-    </row>
-    <row r="144" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R143" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S143" s="58"/>
+    </row>
+    <row r="144" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L144" s="56"/>
       <c r="M144" s="57">
         <v>63</v>
@@ -11914,18 +12085,19 @@
       <c r="N144" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O144" s="39" t="s">
+      <c r="O144" s="72"/>
+      <c r="P144" s="39" t="s">
         <v>666</v>
       </c>
-      <c r="P144" s="39" t="s">
+      <c r="Q144" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q144" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R144" s="58"/>
-    </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R144" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S144" s="58"/>
+    </row>
+    <row r="145" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L145" s="56"/>
       <c r="M145" s="57">
         <v>63</v>
@@ -11933,18 +12105,19 @@
       <c r="N145" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O145" s="39" t="s">
+      <c r="O145" s="72"/>
+      <c r="P145" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="P145" s="39" t="s">
+      <c r="Q145" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q145" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R145" s="58"/>
-    </row>
-    <row r="146" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R145" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S145" s="58"/>
+    </row>
+    <row r="146" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L146" s="56"/>
       <c r="M146" s="57">
         <v>63</v>
@@ -11952,18 +12125,19 @@
       <c r="N146" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O146" s="39" t="s">
+      <c r="O146" s="72"/>
+      <c r="P146" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="P146" s="39" t="s">
+      <c r="Q146" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q146" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R146" s="58"/>
-    </row>
-    <row r="147" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R146" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S146" s="58"/>
+    </row>
+    <row r="147" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L147" s="56"/>
       <c r="M147" s="57">
         <v>63</v>
@@ -11971,18 +12145,19 @@
       <c r="N147" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O147" s="39" t="s">
+      <c r="O147" s="72"/>
+      <c r="P147" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="P147" s="39" t="s">
+      <c r="Q147" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q147" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R147" s="58"/>
-    </row>
-    <row r="148" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R147" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S147" s="58"/>
+    </row>
+    <row r="148" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L148" s="56"/>
       <c r="M148" s="57">
         <v>63</v>
@@ -11990,18 +12165,19 @@
       <c r="N148" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O148" s="39" t="s">
+      <c r="O148" s="72"/>
+      <c r="P148" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="P148" s="39" t="s">
+      <c r="Q148" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q148" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R148" s="58"/>
-    </row>
-    <row r="149" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R148" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S148" s="58"/>
+    </row>
+    <row r="149" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L149" s="56"/>
       <c r="M149" s="57">
         <v>63</v>
@@ -12009,18 +12185,19 @@
       <c r="N149" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O149" s="39" t="s">
+      <c r="O149" s="72"/>
+      <c r="P149" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="P149" s="39" t="s">
+      <c r="Q149" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q149" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R149" s="58"/>
-    </row>
-    <row r="150" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R149" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S149" s="58"/>
+    </row>
+    <row r="150" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L150" s="56"/>
       <c r="M150" s="57">
         <v>63</v>
@@ -12028,18 +12205,19 @@
       <c r="N150" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O150" s="39" t="s">
+      <c r="O150" s="72"/>
+      <c r="P150" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="P150" s="39" t="s">
+      <c r="Q150" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q150" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R150" s="58"/>
-    </row>
-    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R150" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S150" s="58"/>
+    </row>
+    <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="56"/>
       <c r="M151" s="57">
         <v>63</v>
@@ -12047,18 +12225,19 @@
       <c r="N151" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O151" s="39" t="s">
+      <c r="O151" s="72"/>
+      <c r="P151" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="P151" s="39" t="s">
+      <c r="Q151" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q151" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R151" s="58"/>
-    </row>
-    <row r="152" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R151" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S151" s="58"/>
+    </row>
+    <row r="152" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L152" s="56"/>
       <c r="M152" s="57">
         <v>63</v>
@@ -12066,18 +12245,19 @@
       <c r="N152" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O152" s="39" t="s">
+      <c r="O152" s="72"/>
+      <c r="P152" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="P152" s="39" t="s">
+      <c r="Q152" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q152" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R152" s="58"/>
-    </row>
-    <row r="153" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R152" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S152" s="58"/>
+    </row>
+    <row r="153" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L153" s="56"/>
       <c r="M153" s="57">
         <v>63</v>
@@ -12085,18 +12265,19 @@
       <c r="N153" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O153" s="39" t="s">
+      <c r="O153" s="72"/>
+      <c r="P153" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="P153" s="39" t="s">
+      <c r="Q153" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q153" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R153" s="58"/>
-    </row>
-    <row r="154" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R153" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S153" s="58"/>
+    </row>
+    <row r="154" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L154" s="56"/>
       <c r="M154" s="57">
         <v>63</v>
@@ -12104,18 +12285,19 @@
       <c r="N154" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O154" s="39" t="s">
+      <c r="O154" s="72"/>
+      <c r="P154" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="P154" s="39" t="s">
+      <c r="Q154" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q154" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R154" s="58"/>
-    </row>
-    <row r="155" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R154" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S154" s="58"/>
+    </row>
+    <row r="155" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L155" s="56"/>
       <c r="M155" s="57">
         <v>63</v>
@@ -12123,18 +12305,19 @@
       <c r="N155" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O155" s="39" t="s">
+      <c r="O155" s="72"/>
+      <c r="P155" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="P155" s="39" t="s">
+      <c r="Q155" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q155" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R155" s="58"/>
-    </row>
-    <row r="156" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R155" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S155" s="58"/>
+    </row>
+    <row r="156" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L156" s="56"/>
       <c r="M156" s="57">
         <v>63</v>
@@ -12142,18 +12325,19 @@
       <c r="N156" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O156" s="39" t="s">
+      <c r="O156" s="72"/>
+      <c r="P156" s="39" t="s">
         <v>679</v>
       </c>
-      <c r="P156" s="39" t="s">
+      <c r="Q156" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="Q156" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R156" s="58"/>
-    </row>
-    <row r="157" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R156" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S156" s="58"/>
+    </row>
+    <row r="157" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L157" s="56"/>
       <c r="M157" s="57">
         <v>63</v>
@@ -12161,18 +12345,19 @@
       <c r="N157" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O157" s="39" t="s">
+      <c r="O157" s="72"/>
+      <c r="P157" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="P157" s="39" t="s">
+      <c r="Q157" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="Q157" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R157" s="58"/>
-    </row>
-    <row r="158" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R157" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S157" s="58"/>
+    </row>
+    <row r="158" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L158" s="56"/>
       <c r="M158" s="57">
         <v>63</v>
@@ -12180,18 +12365,19 @@
       <c r="N158" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O158" s="39" t="s">
+      <c r="O158" s="72"/>
+      <c r="P158" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="P158" s="39" t="s">
+      <c r="Q158" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q158" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R158" s="58"/>
-    </row>
-    <row r="159" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R158" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S158" s="58"/>
+    </row>
+    <row r="159" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L159" s="56"/>
       <c r="M159" s="57">
         <v>63</v>
@@ -12199,18 +12385,19 @@
       <c r="N159" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O159" s="39" t="s">
+      <c r="O159" s="72"/>
+      <c r="P159" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="P159" s="39" t="s">
+      <c r="Q159" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q159" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R159" s="58"/>
-    </row>
-    <row r="160" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R159" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S159" s="58"/>
+    </row>
+    <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="56"/>
       <c r="M160" s="57">
         <v>63</v>
@@ -12218,18 +12405,19 @@
       <c r="N160" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O160" s="39" t="s">
+      <c r="O160" s="72"/>
+      <c r="P160" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="P160" s="39" t="s">
+      <c r="Q160" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q160" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R160" s="58"/>
-    </row>
-    <row r="161" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R160" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S160" s="58"/>
+    </row>
+    <row r="161" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L161" s="56"/>
       <c r="M161" s="57">
         <v>63</v>
@@ -12237,18 +12425,19 @@
       <c r="N161" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O161" s="39" t="s">
+      <c r="O161" s="72"/>
+      <c r="P161" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="P161" s="39" t="s">
+      <c r="Q161" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q161" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R161" s="58"/>
-    </row>
-    <row r="162" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R161" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S161" s="58"/>
+    </row>
+    <row r="162" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L162" s="56"/>
       <c r="M162" s="57">
         <v>63</v>
@@ -12256,18 +12445,19 @@
       <c r="N162" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O162" s="39" t="s">
+      <c r="O162" s="72"/>
+      <c r="P162" s="39" t="s">
         <v>685</v>
       </c>
-      <c r="P162" s="39" t="s">
+      <c r="Q162" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="Q162" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R162" s="58"/>
-    </row>
-    <row r="163" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R162" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S162" s="58"/>
+    </row>
+    <row r="163" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L163" s="56"/>
       <c r="M163" s="57">
         <v>63</v>
@@ -12275,18 +12465,19 @@
       <c r="N163" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O163" s="39" t="s">
+      <c r="O163" s="72"/>
+      <c r="P163" s="39" t="s">
         <v>686</v>
       </c>
-      <c r="P163" s="39" t="s">
+      <c r="Q163" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="Q163" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R163" s="58"/>
-    </row>
-    <row r="164" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R163" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S163" s="58"/>
+    </row>
+    <row r="164" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L164" s="56"/>
       <c r="M164" s="57">
         <v>63</v>
@@ -12294,18 +12485,19 @@
       <c r="N164" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O164" s="39" t="s">
+      <c r="O164" s="72"/>
+      <c r="P164" s="39" t="s">
         <v>687</v>
       </c>
-      <c r="P164" s="39" t="s">
+      <c r="Q164" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="Q164" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R164" s="58"/>
-    </row>
-    <row r="165" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R164" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S164" s="58"/>
+    </row>
+    <row r="165" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L165" s="56"/>
       <c r="M165" s="120">
         <v>68</v>
@@ -12313,18 +12505,19 @@
       <c r="N165" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O165" s="85" t="s">
+      <c r="O165" s="88"/>
+      <c r="P165" s="85" t="s">
         <v>688</v>
       </c>
-      <c r="P165" s="85" t="s">
+      <c r="Q165" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q165" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R165" s="119"/>
-    </row>
-    <row r="166" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R165" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S165" s="119"/>
+    </row>
+    <row r="166" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L166" s="56"/>
       <c r="M166" s="57">
         <v>63</v>
@@ -12332,18 +12525,19 @@
       <c r="N166" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O166" s="39" t="s">
+      <c r="O166" s="72"/>
+      <c r="P166" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="P166" s="39" t="s">
+      <c r="Q166" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q166" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R166" s="58"/>
-    </row>
-    <row r="167" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R166" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S166" s="58"/>
+    </row>
+    <row r="167" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L167" s="56"/>
       <c r="M167" s="57">
         <v>63</v>
@@ -12351,18 +12545,19 @@
       <c r="N167" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O167" s="39" t="s">
+      <c r="O167" s="72"/>
+      <c r="P167" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="P167" s="39" t="s">
+      <c r="Q167" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="Q167" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R167" s="58"/>
-    </row>
-    <row r="168" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R167" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S167" s="58"/>
+    </row>
+    <row r="168" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L168" s="56"/>
       <c r="M168" s="57">
         <v>63</v>
@@ -12370,19 +12565,20 @@
       <c r="N168" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O168" s="39" t="s">
+      <c r="O168" s="72"/>
+      <c r="P168" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="P168" s="39" t="s">
+      <c r="Q168" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="Q168" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R168" s="58"/>
-      <c r="S168" s="95"/>
-    </row>
-    <row r="169" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R168" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S168" s="58"/>
+      <c r="T168" s="95"/>
+    </row>
+    <row r="169" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L169" s="56"/>
       <c r="M169" s="57">
         <v>63</v>
@@ -12390,18 +12586,19 @@
       <c r="N169" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O169" s="39" t="s">
+      <c r="O169" s="72"/>
+      <c r="P169" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="P169" s="39" t="s">
+      <c r="Q169" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="Q169" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R169" s="58"/>
-    </row>
-    <row r="170" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R169" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S169" s="58"/>
+    </row>
+    <row r="170" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
       <c r="M170" s="157">
         <v>63</v>
@@ -12409,18 +12606,19 @@
       <c r="N170" s="158" t="s">
         <v>849</v>
       </c>
-      <c r="O170" s="159" t="s">
+      <c r="O170" s="158"/>
+      <c r="P170" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="P170" s="159" t="s">
+      <c r="Q170" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="Q170" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R170" s="160"/>
-    </row>
-    <row r="171" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R170" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S170" s="160"/>
+    </row>
+    <row r="171" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
       <c r="M171" s="120">
         <v>68</v>
@@ -12428,18 +12626,19 @@
       <c r="N171" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O171" s="81" t="s">
+      <c r="O171" s="88"/>
+      <c r="P171" s="81" t="s">
         <v>694</v>
       </c>
-      <c r="P171" s="85" t="s">
+      <c r="Q171" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q171" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R171" s="119"/>
-    </row>
-    <row r="172" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R171" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S171" s="119"/>
+    </row>
+    <row r="172" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
       <c r="M172" s="57">
         <v>63</v>
@@ -12447,18 +12646,19 @@
       <c r="N172" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O172" s="39" t="s">
+      <c r="O172" s="72"/>
+      <c r="P172" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="P172" s="39" t="s">
+      <c r="Q172" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q172" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R172" s="58"/>
-    </row>
-    <row r="173" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R172" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S172" s="58"/>
+    </row>
+    <row r="173" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L173" s="56"/>
       <c r="M173" s="120">
         <v>68</v>
@@ -12466,18 +12666,19 @@
       <c r="N173" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O173" s="85" t="s">
+      <c r="O173" s="88"/>
+      <c r="P173" s="85" t="s">
         <v>696</v>
       </c>
-      <c r="P173" s="85" t="s">
+      <c r="Q173" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q173" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R173" s="119"/>
-    </row>
-    <row r="174" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R173" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S173" s="119"/>
+    </row>
+    <row r="174" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
       <c r="M174" s="57">
         <v>63</v>
@@ -12485,18 +12686,19 @@
       <c r="N174" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O174" s="39" t="s">
+      <c r="O174" s="72"/>
+      <c r="P174" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="P174" s="39" t="s">
+      <c r="Q174" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q174" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R174" s="58"/>
-    </row>
-    <row r="175" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R174" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S174" s="58"/>
+    </row>
+    <row r="175" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L175" s="56"/>
       <c r="M175" s="57">
         <v>63</v>
@@ -12504,18 +12706,19 @@
       <c r="N175" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O175" s="39" t="s">
+      <c r="O175" s="72"/>
+      <c r="P175" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="P175" s="39" t="s">
+      <c r="Q175" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q175" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R175" s="58"/>
-    </row>
-    <row r="176" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R175" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S175" s="58"/>
+    </row>
+    <row r="176" spans="12:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L176" s="56"/>
       <c r="M176" s="113">
         <v>63</v>
@@ -12523,18 +12726,19 @@
       <c r="N176" s="105" t="s">
         <v>849</v>
       </c>
-      <c r="O176" s="83" t="s">
+      <c r="O176" s="105"/>
+      <c r="P176" s="83" t="s">
         <v>699</v>
       </c>
-      <c r="P176" s="83" t="s">
+      <c r="Q176" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Q176" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="R176" s="114"/>
-    </row>
-    <row r="177" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R176" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="S176" s="114"/>
+    </row>
+    <row r="177" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L177" s="115"/>
       <c r="M177" s="60">
         <v>64</v>
@@ -12542,20 +12746,21 @@
       <c r="N177" s="74" t="s">
         <v>850</v>
       </c>
-      <c r="O177" s="62" t="s">
+      <c r="O177" s="74"/>
+      <c r="P177" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="P177" s="62" t="s">
+      <c r="Q177" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="Q177" s="62" t="s">
+      <c r="R177" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R177" s="87" t="s">
+      <c r="S177" s="87" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="178" spans="12:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L178" s="96"/>
       <c r="M178" s="128">
         <v>79</v>
@@ -12563,18 +12768,19 @@
       <c r="N178" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O178" s="39" t="s">
+      <c r="O178" s="72"/>
+      <c r="P178" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="P178" s="39" t="s">
+      <c r="Q178" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q178" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R178" s="132"/>
-    </row>
-    <row r="179" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R178" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S178" s="132"/>
+    </row>
+    <row r="179" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L179" s="96"/>
       <c r="M179" s="57">
         <v>63</v>
@@ -12582,18 +12788,19 @@
       <c r="N179" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O179" s="39" t="s">
+      <c r="O179" s="72"/>
+      <c r="P179" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="P179" s="39" t="s">
+      <c r="Q179" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q179" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R179" s="58"/>
-    </row>
-    <row r="180" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R179" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S179" s="58"/>
+    </row>
+    <row r="180" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L180" s="96"/>
       <c r="M180" s="57">
         <v>73</v>
@@ -12601,18 +12808,19 @@
       <c r="N180" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O180" s="42" t="s">
+      <c r="O180" s="72"/>
+      <c r="P180" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="P180" s="39" t="s">
+      <c r="Q180" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q180" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R180" s="58"/>
-    </row>
-    <row r="181" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R180" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S180" s="58"/>
+    </row>
+    <row r="181" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L181" s="96"/>
       <c r="M181" s="57">
         <v>63</v>
@@ -12620,18 +12828,19 @@
       <c r="N181" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O181" s="39" t="s">
+      <c r="O181" s="72"/>
+      <c r="P181" s="39" t="s">
         <v>708</v>
       </c>
-      <c r="P181" s="39" t="s">
+      <c r="Q181" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q181" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R181" s="58"/>
-    </row>
-    <row r="182" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R181" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S181" s="58"/>
+    </row>
+    <row r="182" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L182" s="96"/>
       <c r="M182" s="57">
         <v>62</v>
@@ -12639,18 +12848,19 @@
       <c r="N182" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O182" s="39" t="s">
+      <c r="O182" s="72"/>
+      <c r="P182" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="P182" s="39" t="s">
+      <c r="Q182" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q182" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R182" s="58"/>
-    </row>
-    <row r="183" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R182" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S182" s="58"/>
+    </row>
+    <row r="183" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L183" s="96"/>
       <c r="M183" s="57">
         <v>63</v>
@@ -12658,18 +12868,19 @@
       <c r="N183" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O183" s="39" t="s">
+      <c r="O183" s="72"/>
+      <c r="P183" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="P183" s="39" t="s">
+      <c r="Q183" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q183" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R183" s="58"/>
-    </row>
-    <row r="184" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R183" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S183" s="58"/>
+    </row>
+    <row r="184" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L184" s="96"/>
       <c r="M184" s="57">
         <v>62</v>
@@ -12677,18 +12888,19 @@
       <c r="N184" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O184" s="39" t="s">
+      <c r="O184" s="72"/>
+      <c r="P184" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="P184" s="39" t="s">
+      <c r="Q184" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q184" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R184" s="58"/>
-    </row>
-    <row r="185" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R184" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S184" s="58"/>
+    </row>
+    <row r="185" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L185" s="96"/>
       <c r="M185" s="57">
         <v>63</v>
@@ -12696,18 +12908,19 @@
       <c r="N185" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O185" s="39" t="s">
+      <c r="O185" s="72"/>
+      <c r="P185" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="P185" s="39" t="s">
+      <c r="Q185" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q185" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R185" s="58"/>
-    </row>
-    <row r="186" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R185" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S185" s="58"/>
+    </row>
+    <row r="186" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L186" s="96"/>
       <c r="M186" s="57">
         <v>63</v>
@@ -12715,18 +12928,19 @@
       <c r="N186" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O186" s="39" t="s">
+      <c r="O186" s="72"/>
+      <c r="P186" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="P186" s="39" t="s">
+      <c r="Q186" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q186" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R186" s="58"/>
-    </row>
-    <row r="187" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R186" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S186" s="58"/>
+    </row>
+    <row r="187" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L187" s="96"/>
       <c r="M187" s="57">
         <v>62</v>
@@ -12734,18 +12948,19 @@
       <c r="N187" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O187" s="39" t="s">
+      <c r="O187" s="72"/>
+      <c r="P187" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="P187" s="39" t="s">
+      <c r="Q187" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q187" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R187" s="58"/>
-    </row>
-    <row r="188" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R187" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S187" s="58"/>
+    </row>
+    <row r="188" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L188" s="96"/>
       <c r="M188" s="57">
         <v>63</v>
@@ -12753,18 +12968,19 @@
       <c r="N188" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O188" s="39" t="s">
+      <c r="O188" s="72"/>
+      <c r="P188" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="P188" s="39" t="s">
+      <c r="Q188" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q188" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R188" s="58"/>
-    </row>
-    <row r="189" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R188" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S188" s="58"/>
+    </row>
+    <row r="189" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L189" s="96"/>
       <c r="M189" s="57">
         <v>62</v>
@@ -12772,18 +12988,19 @@
       <c r="N189" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O189" s="39" t="s">
+      <c r="O189" s="72"/>
+      <c r="P189" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="P189" s="39" t="s">
+      <c r="Q189" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q189" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R189" s="58"/>
-    </row>
-    <row r="190" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R189" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S189" s="58"/>
+    </row>
+    <row r="190" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L190" s="96"/>
       <c r="M190" s="57">
         <v>63</v>
@@ -12791,18 +13008,19 @@
       <c r="N190" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O190" s="39" t="s">
+      <c r="O190" s="72"/>
+      <c r="P190" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="P190" s="39" t="s">
+      <c r="Q190" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q190" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R190" s="58"/>
-    </row>
-    <row r="191" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R190" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S190" s="58"/>
+    </row>
+    <row r="191" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L191" s="96"/>
       <c r="M191" s="57">
         <v>62</v>
@@ -12810,18 +13028,19 @@
       <c r="N191" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O191" s="39" t="s">
+      <c r="O191" s="72"/>
+      <c r="P191" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="P191" s="39" t="s">
+      <c r="Q191" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q191" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R191" s="58"/>
-    </row>
-    <row r="192" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R191" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S191" s="58"/>
+    </row>
+    <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="96"/>
       <c r="M192" s="57">
         <v>63</v>
@@ -12829,18 +13048,19 @@
       <c r="N192" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O192" s="39" t="s">
+      <c r="O192" s="72"/>
+      <c r="P192" s="39" t="s">
         <v>718</v>
       </c>
-      <c r="P192" s="39" t="s">
+      <c r="Q192" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q192" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R192" s="58"/>
-    </row>
-    <row r="193" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R192" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S192" s="58"/>
+    </row>
+    <row r="193" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L193" s="96"/>
       <c r="M193" s="57">
         <v>62</v>
@@ -12848,18 +13068,19 @@
       <c r="N193" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O193" s="39" t="s">
+      <c r="O193" s="72"/>
+      <c r="P193" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="P193" s="39" t="s">
+      <c r="Q193" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q193" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R193" s="58"/>
-    </row>
-    <row r="194" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R193" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S193" s="58"/>
+    </row>
+    <row r="194" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L194" s="96"/>
       <c r="M194" s="57">
         <v>63</v>
@@ -12867,18 +13088,19 @@
       <c r="N194" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O194" s="39" t="s">
+      <c r="O194" s="72"/>
+      <c r="P194" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="P194" s="39" t="s">
+      <c r="Q194" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q194" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R194" s="58"/>
-    </row>
-    <row r="195" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R194" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S194" s="58"/>
+    </row>
+    <row r="195" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L195" s="96"/>
       <c r="M195" s="57">
         <v>62</v>
@@ -12886,18 +13108,19 @@
       <c r="N195" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O195" s="39" t="s">
+      <c r="O195" s="72"/>
+      <c r="P195" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="P195" s="39" t="s">
+      <c r="Q195" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q195" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R195" s="58"/>
-    </row>
-    <row r="196" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R195" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S195" s="58"/>
+    </row>
+    <row r="196" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L196" s="96"/>
       <c r="M196" s="57">
         <v>63</v>
@@ -12905,18 +13128,19 @@
       <c r="N196" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O196" s="39" t="s">
+      <c r="O196" s="72"/>
+      <c r="P196" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="P196" s="39" t="s">
+      <c r="Q196" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q196" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R196" s="58"/>
-    </row>
-    <row r="197" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R196" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S196" s="58"/>
+    </row>
+    <row r="197" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L197" s="96"/>
       <c r="M197" s="57">
         <v>62</v>
@@ -12924,18 +13148,19 @@
       <c r="N197" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O197" s="39" t="s">
+      <c r="O197" s="72"/>
+      <c r="P197" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="P197" s="39" t="s">
+      <c r="Q197" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q197" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R197" s="58"/>
-    </row>
-    <row r="198" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R197" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S197" s="58"/>
+    </row>
+    <row r="198" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L198" s="96"/>
       <c r="M198" s="57">
         <v>63</v>
@@ -12943,18 +13168,19 @@
       <c r="N198" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O198" s="39" t="s">
+      <c r="O198" s="72"/>
+      <c r="P198" s="39" t="s">
         <v>724</v>
       </c>
-      <c r="P198" s="39" t="s">
+      <c r="Q198" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q198" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R198" s="58"/>
-    </row>
-    <row r="199" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R198" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S198" s="58"/>
+    </row>
+    <row r="199" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L199" s="96"/>
       <c r="M199" s="90">
         <v>35</v>
@@ -12962,18 +13188,19 @@
       <c r="N199" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O199" s="72" t="s">
+      <c r="O199" s="72"/>
+      <c r="P199" s="72" t="s">
         <v>725</v>
       </c>
-      <c r="P199" s="39" t="s">
+      <c r="Q199" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q199" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R199" s="58"/>
-    </row>
-    <row r="200" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R199" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S199" s="58"/>
+    </row>
+    <row r="200" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L200" s="96"/>
       <c r="M200" s="57">
         <v>74</v>
@@ -12981,19 +13208,20 @@
       <c r="N200" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O200" s="42" t="s">
+      <c r="O200" s="72"/>
+      <c r="P200" s="42" t="s">
         <v>726</v>
       </c>
-      <c r="P200" s="42" t="s">
+      <c r="Q200" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="Q200" s="42" t="s">
+      <c r="R200" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="R200" s="58"/>
-      <c r="S200" s="95"/>
-    </row>
-    <row r="201" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="S200" s="58"/>
+      <c r="T200" s="95"/>
+    </row>
+    <row r="201" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L201" s="96"/>
       <c r="M201" s="57">
         <v>63</v>
@@ -13001,18 +13229,19 @@
       <c r="N201" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O201" s="39" t="s">
+      <c r="O201" s="72"/>
+      <c r="P201" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="P201" s="39" t="s">
+      <c r="Q201" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q201" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R201" s="58"/>
-    </row>
-    <row r="202" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R201" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S201" s="58"/>
+    </row>
+    <row r="202" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L202" s="96"/>
       <c r="M202" s="128">
         <v>62</v>
@@ -13020,18 +13249,19 @@
       <c r="N202" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O202" s="39" t="s">
+      <c r="O202" s="72"/>
+      <c r="P202" s="39" t="s">
         <v>728</v>
       </c>
-      <c r="P202" s="39" t="s">
+      <c r="Q202" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q202" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R202" s="64"/>
-    </row>
-    <row r="203" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R202" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S202" s="64"/>
+    </row>
+    <row r="203" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L203" s="96"/>
       <c r="M203" s="57">
         <v>62</v>
@@ -13039,18 +13269,19 @@
       <c r="N203" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O203" s="39" t="s">
+      <c r="O203" s="72"/>
+      <c r="P203" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="P203" s="39" t="s">
+      <c r="Q203" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q203" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R203" s="58"/>
-    </row>
-    <row r="204" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R203" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S203" s="58"/>
+    </row>
+    <row r="204" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L204" s="96"/>
       <c r="M204" s="57">
         <v>63</v>
@@ -13058,18 +13289,19 @@
       <c r="N204" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O204" s="39" t="s">
+      <c r="O204" s="72"/>
+      <c r="P204" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="P204" s="39" t="s">
+      <c r="Q204" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q204" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R204" s="58"/>
-    </row>
-    <row r="205" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R204" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S204" s="58"/>
+    </row>
+    <row r="205" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L205" s="96"/>
       <c r="M205" s="128">
         <v>81</v>
@@ -13077,14 +13309,15 @@
       <c r="N205" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O205" s="72" t="s">
+      <c r="O205" s="72"/>
+      <c r="P205" s="72" t="s">
         <v>923</v>
       </c>
-      <c r="P205" s="39"/>
       <c r="Q205" s="39"/>
-      <c r="R205" s="64"/>
-    </row>
-    <row r="206" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R205" s="39"/>
+      <c r="S205" s="64"/>
+    </row>
+    <row r="206" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L206" s="96"/>
       <c r="M206" s="57">
         <v>63</v>
@@ -13092,18 +13325,19 @@
       <c r="N206" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O206" s="72" t="s">
+      <c r="O206" s="72"/>
+      <c r="P206" s="72" t="s">
         <v>731</v>
       </c>
-      <c r="P206" s="39" t="s">
+      <c r="Q206" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q206" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R206" s="58"/>
-    </row>
-    <row r="207" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R206" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S206" s="58"/>
+    </row>
+    <row r="207" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L207" s="96"/>
       <c r="M207" s="57">
         <v>62</v>
@@ -13111,19 +13345,20 @@
       <c r="N207" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O207" s="39" t="s">
+      <c r="O207" s="72"/>
+      <c r="P207" s="39" t="s">
         <v>732</v>
       </c>
-      <c r="P207" s="39" t="s">
+      <c r="Q207" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q207" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R207" s="58"/>
-      <c r="S207" s="95"/>
-    </row>
-    <row r="208" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R207" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S207" s="58"/>
+      <c r="T207" s="95"/>
+    </row>
+    <row r="208" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L208" s="96"/>
       <c r="M208" s="57">
         <v>62</v>
@@ -13131,18 +13366,19 @@
       <c r="N208" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O208" s="39" t="s">
+      <c r="O208" s="72"/>
+      <c r="P208" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="P208" s="39" t="s">
+      <c r="Q208" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q208" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R208" s="58"/>
-    </row>
-    <row r="209" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R208" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S208" s="58"/>
+    </row>
+    <row r="209" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L209" s="96"/>
       <c r="M209" s="57">
         <v>76</v>
@@ -13150,18 +13386,19 @@
       <c r="N209" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O209" s="39" t="s">
+      <c r="O209" s="72"/>
+      <c r="P209" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="P209" s="39" t="s">
+      <c r="Q209" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q209" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R209" s="58"/>
-    </row>
-    <row r="210" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R209" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S209" s="58"/>
+    </row>
+    <row r="210" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L210" s="96"/>
       <c r="M210" s="157">
         <v>67</v>
@@ -13169,18 +13406,19 @@
       <c r="N210" s="158" t="s">
         <v>850</v>
       </c>
-      <c r="O210" s="159" t="s">
+      <c r="O210" s="158"/>
+      <c r="P210" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="P210" s="159" t="s">
+      <c r="Q210" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="Q210" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R210" s="160"/>
-    </row>
-    <row r="211" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R210" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S210" s="160"/>
+    </row>
+    <row r="211" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L211" s="96"/>
       <c r="M211" s="57">
         <v>63</v>
@@ -13188,18 +13426,19 @@
       <c r="N211" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O211" s="39" t="s">
+      <c r="O211" s="72"/>
+      <c r="P211" s="39" t="s">
         <v>734</v>
       </c>
-      <c r="P211" s="39" t="s">
+      <c r="Q211" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q211" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R211" s="58"/>
-    </row>
-    <row r="212" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R211" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S211" s="58"/>
+    </row>
+    <row r="212" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L212" s="96"/>
       <c r="M212" s="57">
         <v>62</v>
@@ -13207,18 +13446,19 @@
       <c r="N212" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O212" s="39" t="s">
+      <c r="O212" s="72"/>
+      <c r="P212" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="P212" s="39" t="s">
+      <c r="Q212" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q212" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R212" s="58"/>
-    </row>
-    <row r="213" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R212" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S212" s="58"/>
+    </row>
+    <row r="213" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L213" s="96"/>
       <c r="M213" s="120">
         <v>68</v>
@@ -13226,18 +13466,19 @@
       <c r="N213" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O213" s="85" t="s">
+      <c r="O213" s="88"/>
+      <c r="P213" s="85" t="s">
         <v>736</v>
       </c>
-      <c r="P213" s="85" t="s">
+      <c r="Q213" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q213" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R213" s="119"/>
-    </row>
-    <row r="214" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R213" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S213" s="119"/>
+    </row>
+    <row r="214" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L214" s="96"/>
       <c r="M214" s="57">
         <v>62</v>
@@ -13245,18 +13486,19 @@
       <c r="N214" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O214" s="39" t="s">
+      <c r="O214" s="72"/>
+      <c r="P214" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="P214" s="39" t="s">
+      <c r="Q214" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q214" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R214" s="58"/>
-    </row>
-    <row r="215" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R214" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S214" s="58"/>
+    </row>
+    <row r="215" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L215" s="96"/>
       <c r="M215" s="120">
         <v>68</v>
@@ -13264,19 +13506,20 @@
       <c r="N215" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O215" s="85" t="s">
+      <c r="O215" s="88"/>
+      <c r="P215" s="85" t="s">
         <v>738</v>
       </c>
-      <c r="P215" s="85" t="s">
+      <c r="Q215" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q215" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R215" s="119"/>
-      <c r="S215" s="95"/>
-    </row>
-    <row r="216" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R215" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S215" s="119"/>
+      <c r="T215" s="95"/>
+    </row>
+    <row r="216" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L216" s="96"/>
       <c r="M216" s="57">
         <v>62</v>
@@ -13284,18 +13527,19 @@
       <c r="N216" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O216" s="39" t="s">
+      <c r="O216" s="72"/>
+      <c r="P216" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="P216" s="39" t="s">
+      <c r="Q216" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q216" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R216" s="58"/>
-    </row>
-    <row r="217" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R216" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S216" s="58"/>
+    </row>
+    <row r="217" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L217" s="96"/>
       <c r="M217" s="57">
         <v>63</v>
@@ -13303,18 +13547,19 @@
       <c r="N217" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O217" s="39" t="s">
+      <c r="O217" s="72"/>
+      <c r="P217" s="39" t="s">
         <v>740</v>
       </c>
-      <c r="P217" s="39" t="s">
+      <c r="Q217" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q217" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R217" s="58"/>
-    </row>
-    <row r="218" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R217" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S217" s="58"/>
+    </row>
+    <row r="218" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L218" s="96"/>
       <c r="M218" s="128">
         <v>63</v>
@@ -13322,18 +13567,19 @@
       <c r="N218" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O218" s="72" t="s">
+      <c r="O218" s="72"/>
+      <c r="P218" s="72" t="s">
         <v>741</v>
       </c>
-      <c r="P218" s="39" t="s">
+      <c r="Q218" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q218" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R218" s="64"/>
-    </row>
-    <row r="219" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R218" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S218" s="64"/>
+    </row>
+    <row r="219" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L219" s="96"/>
       <c r="M219" s="57">
         <v>63</v>
@@ -13341,18 +13587,19 @@
       <c r="N219" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O219" s="39" t="s">
+      <c r="O219" s="72"/>
+      <c r="P219" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="P219" s="39" t="s">
+      <c r="Q219" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q219" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R219" s="58"/>
-    </row>
-    <row r="220" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R219" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S219" s="58"/>
+    </row>
+    <row r="220" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L220" s="96"/>
       <c r="M220" s="57">
         <v>63</v>
@@ -13360,18 +13607,19 @@
       <c r="N220" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O220" s="39" t="s">
+      <c r="O220" s="72"/>
+      <c r="P220" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="P220" s="39" t="s">
+      <c r="Q220" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q220" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R220" s="58"/>
-    </row>
-    <row r="221" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R220" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S220" s="58"/>
+    </row>
+    <row r="221" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L221" s="96"/>
       <c r="M221" s="57">
         <v>22</v>
@@ -13379,18 +13627,19 @@
       <c r="N221" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O221" s="39" t="s">
+      <c r="O221" s="72"/>
+      <c r="P221" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="P221" s="39" t="s">
+      <c r="Q221" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q221" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R221" s="58"/>
-    </row>
-    <row r="222" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R221" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S221" s="58"/>
+    </row>
+    <row r="222" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L222" s="96"/>
       <c r="M222" s="57">
         <v>63</v>
@@ -13398,18 +13647,19 @@
       <c r="N222" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O222" s="39" t="s">
+      <c r="O222" s="72"/>
+      <c r="P222" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="P222" s="39" t="s">
+      <c r="Q222" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q222" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R222" s="58"/>
-    </row>
-    <row r="223" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R222" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S222" s="58"/>
+    </row>
+    <row r="223" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L223" s="96"/>
       <c r="M223" s="57">
         <v>63</v>
@@ -13417,18 +13667,19 @@
       <c r="N223" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O223" s="39" t="s">
+      <c r="O223" s="72"/>
+      <c r="P223" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="P223" s="39" t="s">
+      <c r="Q223" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q223" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R223" s="58"/>
-    </row>
-    <row r="224" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R223" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S223" s="58"/>
+    </row>
+    <row r="224" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L224" s="96"/>
       <c r="M224" s="57">
         <v>63</v>
@@ -13436,18 +13687,19 @@
       <c r="N224" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O224" s="39" t="s">
+      <c r="O224" s="72"/>
+      <c r="P224" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="P224" s="39" t="s">
+      <c r="Q224" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q224" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R224" s="58"/>
-    </row>
-    <row r="225" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R224" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S224" s="58"/>
+    </row>
+    <row r="225" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L225" s="96"/>
       <c r="M225" s="57">
         <v>63</v>
@@ -13455,18 +13707,19 @@
       <c r="N225" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O225" s="39" t="s">
+      <c r="O225" s="72"/>
+      <c r="P225" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="P225" s="39" t="s">
+      <c r="Q225" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q225" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R225" s="58"/>
-    </row>
-    <row r="226" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R225" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S225" s="58"/>
+    </row>
+    <row r="226" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L226" s="96"/>
       <c r="M226" s="57">
         <v>62</v>
@@ -13474,18 +13727,19 @@
       <c r="N226" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O226" s="39" t="s">
+      <c r="O226" s="72"/>
+      <c r="P226" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="P226" s="39" t="s">
+      <c r="Q226" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q226" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R226" s="58"/>
-    </row>
-    <row r="227" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R226" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S226" s="58"/>
+    </row>
+    <row r="227" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L227" s="96"/>
       <c r="M227" s="57">
         <v>63</v>
@@ -13493,18 +13747,19 @@
       <c r="N227" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O227" s="39" t="s">
+      <c r="O227" s="72"/>
+      <c r="P227" s="39" t="s">
         <v>750</v>
       </c>
-      <c r="P227" s="39" t="s">
+      <c r="Q227" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q227" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R227" s="58"/>
-    </row>
-    <row r="228" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R227" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S227" s="58"/>
+    </row>
+    <row r="228" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L228" s="96"/>
       <c r="M228" s="57">
         <v>63</v>
@@ -13512,18 +13767,19 @@
       <c r="N228" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O228" s="39" t="s">
+      <c r="O228" s="72"/>
+      <c r="P228" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="P228" s="39" t="s">
+      <c r="Q228" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q228" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R228" s="58"/>
-    </row>
-    <row r="229" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R228" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S228" s="58"/>
+    </row>
+    <row r="229" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L229" s="96"/>
       <c r="M229" s="57">
         <v>63</v>
@@ -13531,18 +13787,19 @@
       <c r="N229" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O229" s="39" t="s">
+      <c r="O229" s="72"/>
+      <c r="P229" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="P229" s="39" t="s">
+      <c r="Q229" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q229" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="58"/>
-    </row>
-    <row r="230" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R229" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S229" s="58"/>
+    </row>
+    <row r="230" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L230" s="96"/>
       <c r="M230" s="57">
         <v>42</v>
@@ -13550,18 +13807,19 @@
       <c r="N230" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O230" s="39" t="s">
+      <c r="O230" s="72"/>
+      <c r="P230" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="P230" s="39" t="s">
+      <c r="Q230" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q230" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R230" s="58"/>
-    </row>
-    <row r="231" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R230" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S230" s="58"/>
+    </row>
+    <row r="231" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L231" s="96"/>
       <c r="M231" s="57">
         <v>63</v>
@@ -13569,18 +13827,19 @@
       <c r="N231" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O231" s="39" t="s">
+      <c r="O231" s="72"/>
+      <c r="P231" s="39" t="s">
         <v>754</v>
       </c>
-      <c r="P231" s="39" t="s">
+      <c r="Q231" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q231" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R231" s="58"/>
-    </row>
-    <row r="232" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R231" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S231" s="58"/>
+    </row>
+    <row r="232" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L232" s="96"/>
       <c r="M232" s="57">
         <v>63</v>
@@ -13588,18 +13847,19 @@
       <c r="N232" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O232" s="39" t="s">
+      <c r="O232" s="72"/>
+      <c r="P232" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="P232" s="39" t="s">
+      <c r="Q232" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q232" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R232" s="58"/>
-    </row>
-    <row r="233" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R232" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S232" s="58"/>
+    </row>
+    <row r="233" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L233" s="96"/>
       <c r="M233" s="128">
         <v>78</v>
@@ -13607,18 +13867,19 @@
       <c r="N233" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O233" s="42" t="s">
+      <c r="O233" s="72"/>
+      <c r="P233" s="42" t="s">
         <v>756</v>
       </c>
-      <c r="P233" s="39" t="s">
+      <c r="Q233" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q233" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R233" s="64"/>
-    </row>
-    <row r="234" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R233" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S233" s="64"/>
+    </row>
+    <row r="234" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L234" s="96"/>
       <c r="M234" s="57">
         <v>62</v>
@@ -13626,18 +13887,19 @@
       <c r="N234" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O234" s="39" t="s">
+      <c r="O234" s="72"/>
+      <c r="P234" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="P234" s="39" t="s">
+      <c r="Q234" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q234" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R234" s="58"/>
-    </row>
-    <row r="235" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R234" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S234" s="58"/>
+    </row>
+    <row r="235" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L235" s="96"/>
       <c r="M235" s="128">
         <v>82</v>
@@ -13645,18 +13907,19 @@
       <c r="N235" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O235" s="39" t="s">
+      <c r="O235" s="72"/>
+      <c r="P235" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="P235" s="39" t="s">
+      <c r="Q235" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q235" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R235" s="64"/>
-    </row>
-    <row r="236" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R235" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S235" s="64"/>
+    </row>
+    <row r="236" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L236" s="96"/>
       <c r="M236" s="57">
         <v>62</v>
@@ -13664,18 +13927,19 @@
       <c r="N236" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O236" s="39" t="s">
+      <c r="O236" s="72"/>
+      <c r="P236" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="P236" s="39" t="s">
+      <c r="Q236" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q236" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R236" s="58"/>
-    </row>
-    <row r="237" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R236" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S236" s="58"/>
+    </row>
+    <row r="237" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L237" s="96"/>
       <c r="M237" s="57">
         <v>63</v>
@@ -13683,18 +13947,19 @@
       <c r="N237" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O237" s="39" t="s">
+      <c r="O237" s="72"/>
+      <c r="P237" s="39" t="s">
         <v>760</v>
       </c>
-      <c r="P237" s="39" t="s">
+      <c r="Q237" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q237" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R237" s="58"/>
-    </row>
-    <row r="238" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R237" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S237" s="58"/>
+    </row>
+    <row r="238" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L238" s="96"/>
       <c r="M238" s="57">
         <v>62</v>
@@ -13702,18 +13967,19 @@
       <c r="N238" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O238" s="39" t="s">
+      <c r="O238" s="72"/>
+      <c r="P238" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="P238" s="39" t="s">
+      <c r="Q238" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q238" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R238" s="58"/>
-    </row>
-    <row r="239" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R238" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S238" s="58"/>
+    </row>
+    <row r="239" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L239" s="96"/>
       <c r="M239" s="57">
         <v>63</v>
@@ -13721,18 +13987,19 @@
       <c r="N239" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O239" s="39" t="s">
+      <c r="O239" s="72"/>
+      <c r="P239" s="39" t="s">
         <v>762</v>
       </c>
-      <c r="P239" s="39" t="s">
+      <c r="Q239" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q239" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R239" s="58"/>
-    </row>
-    <row r="240" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R239" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S239" s="58"/>
+    </row>
+    <row r="240" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L240" s="96"/>
       <c r="M240" s="57">
         <v>63</v>
@@ -13740,18 +14007,19 @@
       <c r="N240" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O240" s="39" t="s">
+      <c r="O240" s="72"/>
+      <c r="P240" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="P240" s="39" t="s">
+      <c r="Q240" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="Q240" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R240" s="58"/>
-    </row>
-    <row r="241" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R240" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S240" s="58"/>
+    </row>
+    <row r="241" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L241" s="96"/>
       <c r="M241" s="57">
         <v>63</v>
@@ -13759,18 +14027,19 @@
       <c r="N241" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O241" s="39" t="s">
+      <c r="O241" s="72"/>
+      <c r="P241" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="P241" s="39" t="s">
+      <c r="Q241" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="Q241" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R241" s="58"/>
-    </row>
-    <row r="242" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R241" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S241" s="58"/>
+    </row>
+    <row r="242" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L242" s="96"/>
       <c r="M242" s="57">
         <v>62</v>
@@ -13778,18 +14047,19 @@
       <c r="N242" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O242" s="39" t="s">
+      <c r="O242" s="72"/>
+      <c r="P242" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="P242" s="39" t="s">
+      <c r="Q242" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q242" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R242" s="58"/>
-    </row>
-    <row r="243" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R242" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S242" s="58"/>
+    </row>
+    <row r="243" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L243" s="96"/>
       <c r="M243" s="57">
         <v>62</v>
@@ -13797,18 +14067,19 @@
       <c r="N243" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O243" s="39" t="s">
+      <c r="O243" s="72"/>
+      <c r="P243" s="39" t="s">
         <v>766</v>
       </c>
-      <c r="P243" s="39" t="s">
+      <c r="Q243" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q243" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R243" s="58"/>
-    </row>
-    <row r="244" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R243" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S243" s="58"/>
+    </row>
+    <row r="244" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L244" s="96"/>
       <c r="M244" s="57">
         <v>63</v>
@@ -13816,18 +14087,19 @@
       <c r="N244" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O244" s="39" t="s">
+      <c r="O244" s="72"/>
+      <c r="P244" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="P244" s="39" t="s">
+      <c r="Q244" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q244" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R244" s="58"/>
-    </row>
-    <row r="245" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R244" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S244" s="58"/>
+    </row>
+    <row r="245" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L245" s="96"/>
       <c r="M245" s="57">
         <v>62</v>
@@ -13835,18 +14107,19 @@
       <c r="N245" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O245" s="39" t="s">
+      <c r="O245" s="72"/>
+      <c r="P245" s="39" t="s">
         <v>768</v>
       </c>
-      <c r="P245" s="39" t="s">
+      <c r="Q245" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q245" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R245" s="58"/>
-    </row>
-    <row r="246" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R245" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S245" s="58"/>
+    </row>
+    <row r="246" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L246" s="96"/>
       <c r="M246" s="57">
         <v>63</v>
@@ -13854,18 +14127,19 @@
       <c r="N246" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O246" s="39" t="s">
+      <c r="O246" s="72"/>
+      <c r="P246" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="P246" s="39" t="s">
+      <c r="Q246" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q246" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R246" s="58"/>
-    </row>
-    <row r="247" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R246" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S246" s="58"/>
+    </row>
+    <row r="247" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L247" s="96"/>
       <c r="M247" s="57">
         <v>63</v>
@@ -13873,18 +14147,19 @@
       <c r="N247" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O247" s="39" t="s">
+      <c r="O247" s="72"/>
+      <c r="P247" s="39" t="s">
         <v>770</v>
       </c>
-      <c r="P247" s="39" t="s">
+      <c r="Q247" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q247" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R247" s="58"/>
-    </row>
-    <row r="248" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R247" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S247" s="58"/>
+    </row>
+    <row r="248" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L248" s="96"/>
       <c r="M248" s="57">
         <v>63</v>
@@ -13892,18 +14167,19 @@
       <c r="N248" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O248" s="39" t="s">
+      <c r="O248" s="72"/>
+      <c r="P248" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="P248" s="39" t="s">
+      <c r="Q248" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q248" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R248" s="58"/>
-    </row>
-    <row r="249" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R248" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S248" s="58"/>
+    </row>
+    <row r="249" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L249" s="96"/>
       <c r="M249" s="57">
         <v>63</v>
@@ -13911,18 +14187,19 @@
       <c r="N249" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O249" s="39" t="s">
+      <c r="O249" s="72"/>
+      <c r="P249" s="39" t="s">
         <v>772</v>
       </c>
-      <c r="P249" s="39" t="s">
+      <c r="Q249" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q249" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R249" s="58"/>
-    </row>
-    <row r="250" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R249" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S249" s="58"/>
+    </row>
+    <row r="250" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L250" s="96"/>
       <c r="M250" s="57">
         <v>63</v>
@@ -13930,18 +14207,19 @@
       <c r="N250" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O250" s="39" t="s">
+      <c r="O250" s="72"/>
+      <c r="P250" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="P250" s="39" t="s">
+      <c r="Q250" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q250" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R250" s="58"/>
-    </row>
-    <row r="251" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R250" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S250" s="58"/>
+    </row>
+    <row r="251" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L251" s="96"/>
       <c r="M251" s="57">
         <v>63</v>
@@ -13949,18 +14227,19 @@
       <c r="N251" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O251" s="39" t="s">
+      <c r="O251" s="72"/>
+      <c r="P251" s="39" t="s">
         <v>774</v>
       </c>
-      <c r="P251" s="39" t="s">
+      <c r="Q251" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q251" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R251" s="58"/>
-    </row>
-    <row r="252" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R251" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S251" s="58"/>
+    </row>
+    <row r="252" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L252" s="96"/>
       <c r="M252" s="57">
         <v>63</v>
@@ -13968,18 +14247,19 @@
       <c r="N252" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O252" s="39" t="s">
+      <c r="O252" s="72"/>
+      <c r="P252" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="P252" s="39" t="s">
+      <c r="Q252" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q252" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R252" s="58"/>
-    </row>
-    <row r="253" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R252" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S252" s="58"/>
+    </row>
+    <row r="253" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L253" s="106"/>
       <c r="M253" s="54">
         <v>62</v>
@@ -13987,20 +14267,21 @@
       <c r="N253" s="55" t="s">
         <v>850</v>
       </c>
-      <c r="O253" s="55" t="s">
+      <c r="O253" s="55"/>
+      <c r="P253" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="P253" s="55" t="s">
+      <c r="Q253" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q253" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="R253" s="59"/>
+      <c r="R253" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="S253" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="D2:F2"/>
@@ -14019,7 +14300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -15421,7 +15702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -16110,7 +16391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
@@ -16840,7 +17121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
@@ -17386,7 +17667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>
@@ -18010,7 +18291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -20135,7 +20416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C35" sqref="C35:E35"/>
     </sheetView>
   </sheetViews>
@@ -27325,7 +27606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:E60"/>
     </sheetView>
   </sheetViews>
@@ -28496,8 +28777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C147" sqref="C9:E159"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32071,8 +32352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34637,7 +34918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4708" uniqueCount="1026">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6138,6 +6138,12 @@
   </si>
   <si>
     <t>Tabla Relacionada</t>
+  </si>
+  <si>
+    <t>Busqueda Naturaleza Entidad</t>
+  </si>
+  <si>
+    <t>Validaciones Generales Fuente PS_AA_INF_LEGAL/4. Búsqueda Naturaleza Entidad</t>
   </si>
 </sst>
 </file>
@@ -7273,7 +7279,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -7646,6 +7652,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -8167,7 +8174,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8177,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
-      <selection activeCell="O102" sqref="O102"/>
+    <sheetView tabSelected="1" topLeftCell="L93" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14301,7 +14308,7 @@
   <dimension ref="B1:R42"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16391,8 +16398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I9:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16698,7 +16705,7 @@
       </c>
       <c r="R11" s="64"/>
     </row>
-    <row r="12" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="127">
         <v>4</v>
       </c>
@@ -16714,18 +16721,18 @@
       <c r="F12" s="144"/>
       <c r="G12" s="148"/>
       <c r="H12" s="96"/>
-      <c r="I12" s="54">
+      <c r="I12" s="57">
         <v>28</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="38" t="s">
         <v>917</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="58" t="s">
         <v>918</v>
       </c>
       <c r="L12" s="103"/>
       <c r="M12" s="128">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N12" s="72" t="s">
         <v>492</v>
@@ -16756,8 +16763,17 @@
       </c>
       <c r="F13" s="143"/>
       <c r="G13" s="148"/>
-      <c r="H13" s="56"/>
-      <c r="L13" s="106"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="54">
+        <v>29</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L13" s="224"/>
       <c r="M13" s="129">
         <v>28</v>
       </c>
@@ -17121,7 +17137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J4"/>
     </sheetView>
   </sheetViews>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -1791,7 +1791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0">
+    <comment ref="R8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4708" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="1026">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6325,7 +6325,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6481,6 +6481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7279,7 +7285,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -7583,6 +7589,8 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7652,7 +7660,6 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -8184,8 +8191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L93" workbookViewId="0">
-      <selection activeCell="P105" sqref="P105"/>
+    <sheetView topLeftCell="L10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8223,27 +8230,27 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
-      <c r="H2" s="217" t="s">
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214" t="s">
+      <c r="D3" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
         <v>847</v>
@@ -8255,11 +8262,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -8272,11 +8279,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
       <c r="H5" s="163"/>
       <c r="I5" s="164"/>
@@ -8291,30 +8298,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11483,7 +11490,7 @@
     </row>
     <row r="114" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L114" s="56"/>
-      <c r="M114" s="57">
+      <c r="M114" s="128">
         <v>47</v>
       </c>
       <c r="N114" s="72" t="s">
@@ -11585,7 +11592,7 @@
     </row>
     <row r="119" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L119" s="56"/>
-      <c r="M119" s="57">
+      <c r="M119" s="128">
         <v>72</v>
       </c>
       <c r="N119" s="72" t="s">
@@ -11685,7 +11692,7 @@
     </row>
     <row r="124" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L124" s="56"/>
-      <c r="M124" s="57">
+      <c r="M124" s="128">
         <v>63</v>
       </c>
       <c r="N124" s="72" t="s">
@@ -11711,7 +11718,9 @@
       <c r="N125" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O125" s="88"/>
+      <c r="O125" s="88" t="s">
+        <v>434</v>
+      </c>
       <c r="P125" s="85" t="s">
         <v>645</v>
       </c>
@@ -11832,7 +11841,9 @@
       <c r="N131" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O131" s="88"/>
+      <c r="O131" s="88" t="s">
+        <v>434</v>
+      </c>
       <c r="P131" s="85" t="s">
         <v>651</v>
       </c>
@@ -11992,7 +12003,9 @@
       <c r="N139" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O139" s="88"/>
+      <c r="O139" s="88" t="s">
+        <v>434</v>
+      </c>
       <c r="P139" s="85" t="s">
         <v>660</v>
       </c>
@@ -12512,7 +12525,9 @@
       <c r="N165" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O165" s="88"/>
+      <c r="O165" s="88" t="s">
+        <v>434</v>
+      </c>
       <c r="P165" s="85" t="s">
         <v>688</v>
       </c>
@@ -12633,7 +12648,9 @@
       <c r="N171" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O171" s="88"/>
+      <c r="O171" s="88" t="s">
+        <v>434</v>
+      </c>
       <c r="P171" s="81" t="s">
         <v>694</v>
       </c>
@@ -12673,7 +12690,9 @@
       <c r="N173" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O173" s="88"/>
+      <c r="O173" s="88" t="s">
+        <v>434</v>
+      </c>
       <c r="P173" s="85" t="s">
         <v>696</v>
       </c>
@@ -13209,7 +13228,7 @@
     </row>
     <row r="200" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L200" s="96"/>
-      <c r="M200" s="57">
+      <c r="M200" s="202">
         <v>74</v>
       </c>
       <c r="N200" s="72" t="s">
@@ -13310,7 +13329,7 @@
     </row>
     <row r="205" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L205" s="96"/>
-      <c r="M205" s="128">
+      <c r="M205" s="202">
         <v>81</v>
       </c>
       <c r="N205" s="72" t="s">
@@ -14307,8 +14326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14345,26 +14364,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -14377,11 +14396,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -14394,11 +14413,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14410,29 +14429,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15286,7 +15305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -15324,26 +15343,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15356,11 +15375,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -15373,11 +15392,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15389,29 +15408,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15747,26 +15766,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>818</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15779,11 +15798,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -15796,11 +15815,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15812,29 +15831,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16398,7 +16417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I13" sqref="I9:K13"/>
     </sheetView>
   </sheetViews>
@@ -16436,26 +16455,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16468,11 +16487,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -16485,11 +16504,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16501,29 +16520,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16773,7 +16792,7 @@
       <c r="K13" s="59" t="s">
         <v>1025</v>
       </c>
-      <c r="L13" s="224"/>
+      <c r="L13" s="201"/>
       <c r="M13" s="129">
         <v>28</v>
       </c>
@@ -17175,26 +17194,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17207,11 +17226,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -17224,11 +17243,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17240,29 +17259,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="223" t="s">
+      <c r="M7" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="222"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="224"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17721,26 +17740,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>947</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17753,11 +17772,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -17770,11 +17789,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17786,29 +17805,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="223" t="s">
+      <c r="M7" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="222"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="224"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17995,8 +18014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18033,26 +18052,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>950</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18065,11 +18084,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -18082,11 +18101,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18098,29 +18117,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="223" t="s">
+      <c r="M7" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="222"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="224"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18346,26 +18365,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>1008</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18378,11 +18397,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -18395,11 +18414,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18411,29 +18430,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="220" t="s">
+      <c r="M7" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="222"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="224"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20430,10 +20449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S243"/>
+  <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:E35"/>
+    <sheetView tabSelected="1" topLeftCell="L64" workbookViewId="0">
+      <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20452,12 +20471,13 @@
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="15" max="15" width="21.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -20465,33 +20485,33 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214" t="s">
+      <c r="D3" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -20499,14 +20519,14 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -20514,17 +20534,17 @@
       </c>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -20532,32 +20552,33 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+    <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="220" t="s">
+      <c r="M7" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="221"/>
-      <c r="O7" s="221"/>
-      <c r="P7" s="221"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="222"/>
-    </row>
-    <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="223"/>
+      <c r="S7" s="224"/>
+    </row>
+    <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -20594,19 +20615,22 @@
         <v>13</v>
       </c>
       <c r="O8" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="189" t="s">
+      <c r="S8" s="189" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="45">
         <v>1</v>
       </c>
@@ -20638,20 +20662,21 @@
       <c r="N9" s="102" t="s">
         <v>846</v>
       </c>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="102"/>
+      <c r="P9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="62" t="s">
+      <c r="Q9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="R9" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="63" t="s">
+      <c r="S9" s="63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="26">
         <v>2</v>
       </c>
@@ -20685,18 +20710,19 @@
       <c r="N10" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O10" s="72" t="s">
+      <c r="O10" s="27"/>
+      <c r="P10" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="Q10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="64"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R10" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="26">
         <v>3</v>
       </c>
@@ -20722,25 +20748,26 @@
         <v>181</v>
       </c>
       <c r="L11" s="107"/>
-      <c r="M11" s="118">
-        <v>107</v>
-      </c>
-      <c r="N11" s="88" t="s">
+      <c r="M11" s="127">
+        <v>87</v>
+      </c>
+      <c r="N11" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="O11" s="88" t="s">
+      <c r="O11" s="72"/>
+      <c r="P11" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="85" t="s">
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="119"/>
-      <c r="S11" s="73"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R11" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="64"/>
+      <c r="T11" s="73"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="26">
         <v>4</v>
       </c>
@@ -20772,18 +20799,19 @@
       <c r="N12" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="27"/>
+      <c r="P12" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="Q12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="64"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="64"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="26">
         <v>5</v>
       </c>
@@ -20815,18 +20843,19 @@
       <c r="N13" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="27"/>
+      <c r="P13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="Q13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="64"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="64"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="26">
         <v>6</v>
       </c>
@@ -20858,18 +20887,19 @@
       <c r="N14" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="27"/>
+      <c r="P14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="Q14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="64"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="64"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
         <v>7</v>
       </c>
@@ -20901,19 +20931,20 @@
       <c r="N15" s="72" t="s">
         <v>846</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="O15" s="72"/>
+      <c r="P15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="Q15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="73"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="64"/>
+      <c r="T15" s="73"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="26">
         <v>8</v>
       </c>
@@ -20945,19 +20976,22 @@
       <c r="N16" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="O16" s="85" t="s">
+      <c r="O16" s="88" t="s">
+        <v>452</v>
+      </c>
+      <c r="P16" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="85" t="s">
+      <c r="Q16" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="119"/>
-      <c r="S16" s="73"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R16" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="119"/>
+      <c r="T16" s="73"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="26">
         <v>9</v>
       </c>
@@ -20989,19 +21023,22 @@
       <c r="N17" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="O17" s="85" t="s">
+      <c r="O17" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P17" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="85" t="s">
+      <c r="Q17" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="119"/>
-      <c r="S17" s="73"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="119"/>
+      <c r="T17" s="73"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="26">
         <v>10</v>
       </c>
@@ -21033,19 +21070,22 @@
       <c r="N18" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="O18" s="85" t="s">
+      <c r="O18" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="P18" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="85" t="s">
+      <c r="Q18" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="119"/>
-      <c r="S18" s="73"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="119"/>
+      <c r="T18" s="73"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="26">
         <v>11</v>
       </c>
@@ -21077,19 +21117,22 @@
       <c r="N19" s="88" t="s">
         <v>846</v>
       </c>
-      <c r="O19" s="85" t="s">
+      <c r="O19" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P19" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="85" t="s">
+      <c r="Q19" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="119"/>
-      <c r="S19" s="95"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="119"/>
+      <c r="T19" s="95"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="26">
         <v>12</v>
       </c>
@@ -21121,18 +21164,19 @@
       <c r="N20" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O20" s="39" t="s">
+      <c r="O20" s="27"/>
+      <c r="P20" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="Q20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="64"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="64"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="26">
         <v>13</v>
       </c>
@@ -21164,18 +21208,19 @@
       <c r="N21" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="27"/>
+      <c r="P21" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="Q21" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="58"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R21" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="58"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="26">
         <v>14</v>
       </c>
@@ -21207,18 +21252,19 @@
       <c r="N22" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="27"/>
+      <c r="P22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="Q22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="58"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="58"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="26">
         <v>15</v>
       </c>
@@ -21250,18 +21296,19 @@
       <c r="N23" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="27"/>
+      <c r="P23" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="Q23" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="58"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="58"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="26">
         <v>16</v>
       </c>
@@ -21293,18 +21340,19 @@
       <c r="N24" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="27"/>
+      <c r="P24" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="Q24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="58"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="58"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="26">
         <v>17</v>
       </c>
@@ -21336,18 +21384,19 @@
       <c r="N25" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="27"/>
+      <c r="P25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="Q25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="58"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="58"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="26">
         <v>18</v>
       </c>
@@ -21379,18 +21428,19 @@
       <c r="N26" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="27"/>
+      <c r="P26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="Q26" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="58"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="58"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="26">
         <v>19</v>
       </c>
@@ -21422,18 +21472,19 @@
       <c r="N27" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="27"/>
+      <c r="P27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="Q27" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="58"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R27" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="58"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="26">
         <v>20</v>
       </c>
@@ -21465,18 +21516,19 @@
       <c r="N28" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="27"/>
+      <c r="P28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="Q28" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="58"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="58"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="26">
         <v>21</v>
       </c>
@@ -21508,18 +21560,19 @@
       <c r="N29" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="27"/>
+      <c r="P29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="Q29" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="58"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="58"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="26">
         <v>22</v>
       </c>
@@ -21551,18 +21604,19 @@
       <c r="N30" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="27"/>
+      <c r="P30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="Q30" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q30" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="58"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R30" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="58"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="26">
         <v>23</v>
       </c>
@@ -21594,18 +21648,19 @@
       <c r="N31" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="27"/>
+      <c r="P31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P31" s="39" t="s">
+      <c r="Q31" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" s="58"/>
-    </row>
-    <row r="32" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="58"/>
+    </row>
+    <row r="32" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="26">
         <v>24</v>
       </c>
@@ -21637,18 +21692,19 @@
       <c r="N32" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="27"/>
+      <c r="P32" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="Q32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q32" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="58"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="58"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="26">
         <v>25</v>
       </c>
@@ -21671,18 +21727,19 @@
       <c r="N33" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="27"/>
+      <c r="P33" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="Q33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="58"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="58"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="26">
         <v>26</v>
       </c>
@@ -21705,18 +21762,19 @@
       <c r="N34" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O34" s="39" t="s">
+      <c r="O34" s="27"/>
+      <c r="P34" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="Q34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q34" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="58"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R34" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="58"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="26">
         <v>27</v>
       </c>
@@ -21739,18 +21797,19 @@
       <c r="N35" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O35" s="39" t="s">
+      <c r="O35" s="27"/>
+      <c r="P35" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="P35" s="39" t="s">
+      <c r="Q35" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q35" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="58"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="58"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="26">
         <v>28</v>
       </c>
@@ -21773,18 +21832,19 @@
       <c r="N36" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O36" s="39" t="s">
+      <c r="O36" s="27"/>
+      <c r="P36" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="Q36" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q36" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="58"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R36" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="58"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="26">
         <v>29</v>
       </c>
@@ -21807,18 +21867,19 @@
       <c r="N37" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O37" s="39" t="s">
+      <c r="O37" s="27"/>
+      <c r="P37" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P37" s="39" t="s">
+      <c r="Q37" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q37" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R37" s="58"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R37" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="58"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="26">
         <v>30</v>
       </c>
@@ -21841,18 +21902,19 @@
       <c r="N38" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O38" s="39" t="s">
+      <c r="O38" s="27"/>
+      <c r="P38" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="39" t="s">
+      <c r="Q38" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" s="58"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R38" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S38" s="58"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="26">
         <v>31</v>
       </c>
@@ -21875,18 +21937,19 @@
       <c r="N39" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O39" s="39" t="s">
+      <c r="O39" s="27"/>
+      <c r="P39" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="P39" s="39" t="s">
+      <c r="Q39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q39" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" s="58"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R39" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="58"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="26">
         <v>32</v>
       </c>
@@ -21909,18 +21972,19 @@
       <c r="N40" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="27"/>
+      <c r="P40" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="Q40" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q40" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="64"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R40" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="64"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="26">
         <v>33</v>
       </c>
@@ -21943,18 +22007,19 @@
       <c r="N41" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="27"/>
+      <c r="P41" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="Q41" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R41" s="64"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" s="64"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="26">
         <v>34</v>
       </c>
@@ -21977,18 +22042,19 @@
       <c r="N42" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="27"/>
+      <c r="P42" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="39" t="s">
+      <c r="Q42" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R42" s="64"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R42" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S42" s="64"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="26">
         <v>35</v>
       </c>
@@ -22011,18 +22077,19 @@
       <c r="N43" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="O43" s="27"/>
+      <c r="P43" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="Q43" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q43" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="64"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="64"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="26">
         <v>36</v>
       </c>
@@ -22045,18 +22112,19 @@
       <c r="N44" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O44" s="39" t="s">
+      <c r="O44" s="27"/>
+      <c r="P44" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="39" t="s">
+      <c r="Q44" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q44" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" s="64"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="64"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="26">
         <v>37</v>
       </c>
@@ -22079,18 +22147,19 @@
       <c r="N45" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="27"/>
+      <c r="P45" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="Q45" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q45" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="64"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S45" s="64"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="26">
         <v>38</v>
       </c>
@@ -22113,18 +22182,19 @@
       <c r="N46" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="27"/>
+      <c r="P46" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="Q46" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q46" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="64"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R46" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="64"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="26">
         <v>39</v>
       </c>
@@ -22147,18 +22217,19 @@
       <c r="N47" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O47" s="39" t="s">
+      <c r="O47" s="27"/>
+      <c r="P47" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="P47" s="39" t="s">
+      <c r="Q47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q47" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R47" s="64"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R47" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="64"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="26">
         <v>40</v>
       </c>
@@ -22181,18 +22252,19 @@
       <c r="N48" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O48" s="39" t="s">
+      <c r="O48" s="27"/>
+      <c r="P48" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="P48" s="39" t="s">
+      <c r="Q48" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q48" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="64"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S48" s="64"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="26">
         <v>41</v>
       </c>
@@ -22215,18 +22287,19 @@
       <c r="N49" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="27"/>
+      <c r="P49" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="Q49" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q49" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R49" s="64"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R49" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S49" s="64"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="26">
         <v>42</v>
       </c>
@@ -22249,18 +22322,19 @@
       <c r="N50" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="27"/>
+      <c r="P50" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="P50" s="39" t="s">
+      <c r="Q50" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R50" s="64"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R50" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S50" s="64"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="26">
         <v>43</v>
       </c>
@@ -22283,18 +22357,19 @@
       <c r="N51" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O51" s="39" t="s">
+      <c r="O51" s="27"/>
+      <c r="P51" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="Q51" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="64"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R51" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S51" s="64"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="26">
         <v>44</v>
       </c>
@@ -22317,18 +22392,19 @@
       <c r="N52" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="27"/>
+      <c r="P52" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="Q52" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q52" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="64"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R52" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S52" s="64"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="26">
         <v>45</v>
       </c>
@@ -22351,18 +22427,19 @@
       <c r="N53" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O53" s="39" t="s">
+      <c r="O53" s="27"/>
+      <c r="P53" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P53" s="39" t="s">
+      <c r="Q53" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q53" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R53" s="64"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R53" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S53" s="64"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="26">
         <v>46</v>
       </c>
@@ -22385,18 +22462,19 @@
       <c r="N54" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="27"/>
+      <c r="P54" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="P54" s="39" t="s">
+      <c r="Q54" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q54" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R54" s="64"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" s="64"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="26">
         <v>47</v>
       </c>
@@ -22419,18 +22497,19 @@
       <c r="N55" s="158" t="s">
         <v>846</v>
       </c>
-      <c r="O55" s="159" t="s">
+      <c r="O55" s="158"/>
+      <c r="P55" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="P55" s="159" t="s">
+      <c r="Q55" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="Q55" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R55" s="160"/>
-    </row>
-    <row r="56" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S55" s="160"/>
+    </row>
+    <row r="56" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="26">
         <v>48</v>
       </c>
@@ -22453,18 +22532,21 @@
       <c r="N56" s="186" t="s">
         <v>846</v>
       </c>
-      <c r="O56" s="187" t="s">
+      <c r="O56" s="186" t="s">
+        <v>950</v>
+      </c>
+      <c r="P56" s="187" t="s">
         <v>921</v>
       </c>
-      <c r="P56" s="187" t="s">
+      <c r="Q56" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="Q56" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="188"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R56" s="187" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="188"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="26">
         <v>49</v>
       </c>
@@ -22487,20 +22569,21 @@
       <c r="N57" s="79" t="s">
         <v>1019</v>
       </c>
-      <c r="O57" s="79" t="s">
+      <c r="O57" s="79"/>
+      <c r="P57" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="P57" s="79" t="s">
+      <c r="Q57" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="Q57" s="79" t="s">
+      <c r="R57" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="R57" s="153" t="s">
+      <c r="S57" s="153" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="26">
         <v>50</v>
       </c>
@@ -22524,17 +22607,20 @@
         <v>1019</v>
       </c>
       <c r="O58" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P58" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="P58" s="88" t="s">
+      <c r="Q58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Q58" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R58" s="136"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S58" s="136"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="26">
         <v>51</v>
       </c>
@@ -22557,18 +22643,19 @@
       <c r="N59" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O59" s="72" t="s">
+      <c r="O59" s="72"/>
+      <c r="P59" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="P59" s="72" t="s">
+      <c r="Q59" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q59" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R59" s="89"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R59" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S59" s="89"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="26">
         <v>52</v>
       </c>
@@ -22592,17 +22679,20 @@
         <v>1019</v>
       </c>
       <c r="O60" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P60" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="P60" s="88" t="s">
+      <c r="Q60" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Q60" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R60" s="136"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R60" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" s="136"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="26">
         <v>53</v>
       </c>
@@ -22626,17 +22716,20 @@
         <v>1019</v>
       </c>
       <c r="O61" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P61" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="P61" s="88" t="s">
+      <c r="Q61" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Q61" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R61" s="136"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R61" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S61" s="136"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="26">
         <v>54</v>
       </c>
@@ -22659,18 +22752,19 @@
       <c r="N62" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O62" s="72" t="s">
+      <c r="O62" s="72"/>
+      <c r="P62" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="P62" s="72" t="s">
+      <c r="Q62" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q62" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R62" s="132"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62" s="132"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="26">
         <v>55</v>
       </c>
@@ -22693,18 +22787,19 @@
       <c r="N63" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O63" s="72" t="s">
+      <c r="O63" s="72"/>
+      <c r="P63" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="P63" s="72" t="s">
+      <c r="Q63" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q63" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R63" s="89"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R63" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S63" s="89"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="26">
         <v>56</v>
       </c>
@@ -22727,18 +22822,19 @@
       <c r="N64" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O64" s="72" t="s">
+      <c r="O64" s="72"/>
+      <c r="P64" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="P64" s="72" t="s">
+      <c r="Q64" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R64" s="89"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R64" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64" s="89"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B65" s="26">
         <v>57</v>
       </c>
@@ -22762,17 +22858,20 @@
         <v>1019</v>
       </c>
       <c r="O65" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P65" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="P65" s="88" t="s">
+      <c r="Q65" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Q65" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R65" s="136"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R65" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S65" s="136"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" s="26">
         <v>58</v>
       </c>
@@ -22796,17 +22895,20 @@
         <v>1019</v>
       </c>
       <c r="O66" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P66" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="P66" s="88" t="s">
+      <c r="Q66" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Q66" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R66" s="136"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R66" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S66" s="136"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="26">
         <v>59</v>
       </c>
@@ -22829,18 +22931,19 @@
       <c r="N67" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O67" s="72" t="s">
+      <c r="O67" s="72"/>
+      <c r="P67" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="P67" s="72" t="s">
+      <c r="Q67" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q67" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R67" s="89"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R67" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S67" s="89"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B68" s="26">
         <v>60</v>
       </c>
@@ -22863,18 +22966,19 @@
       <c r="N68" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O68" s="72" t="s">
+      <c r="O68" s="72"/>
+      <c r="P68" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="P68" s="72" t="s">
+      <c r="Q68" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R68" s="89"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R68" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S68" s="89"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B69" s="26">
         <v>61</v>
       </c>
@@ -22897,18 +23001,19 @@
       <c r="N69" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O69" s="72" t="s">
+      <c r="O69" s="72"/>
+      <c r="P69" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="P69" s="72" t="s">
+      <c r="Q69" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q69" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R69" s="89"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R69" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S69" s="89"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B70" s="26">
         <v>62</v>
       </c>
@@ -22931,18 +23036,19 @@
       <c r="N70" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O70" s="72" t="s">
+      <c r="O70" s="72"/>
+      <c r="P70" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="P70" s="72" t="s">
+      <c r="Q70" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q70" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R70" s="89"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R70" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S70" s="89"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B71" s="26">
         <v>63</v>
       </c>
@@ -22965,18 +23071,19 @@
       <c r="N71" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O71" s="72" t="s">
+      <c r="O71" s="72"/>
+      <c r="P71" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="P71" s="72" t="s">
+      <c r="Q71" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q71" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R71" s="89"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R71" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S71" s="89"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" s="26">
         <v>64</v>
       </c>
@@ -22999,18 +23106,19 @@
       <c r="N72" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O72" s="72" t="s">
+      <c r="O72" s="72"/>
+      <c r="P72" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="P72" s="72" t="s">
+      <c r="Q72" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q72" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R72" s="89"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R72" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S72" s="89"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="26">
         <v>65</v>
       </c>
@@ -23033,18 +23141,19 @@
       <c r="N73" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O73" s="72" t="s">
+      <c r="O73" s="72"/>
+      <c r="P73" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="P73" s="72" t="s">
+      <c r="Q73" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q73" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R73" s="89"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R73" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S73" s="89"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="26">
         <v>66</v>
       </c>
@@ -23067,18 +23176,19 @@
       <c r="N74" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O74" s="72" t="s">
+      <c r="O74" s="72"/>
+      <c r="P74" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="P74" s="72" t="s">
+      <c r="Q74" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q74" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R74" s="89"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R74" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S74" s="89"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="26">
         <v>67</v>
       </c>
@@ -23101,18 +23211,19 @@
       <c r="N75" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O75" s="72" t="s">
+      <c r="O75" s="72"/>
+      <c r="P75" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="P75" s="72" t="s">
+      <c r="Q75" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q75" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R75" s="89"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R75" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S75" s="89"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="26">
         <v>68</v>
       </c>
@@ -23135,18 +23246,19 @@
       <c r="N76" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O76" s="72" t="s">
+      <c r="O76" s="72"/>
+      <c r="P76" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="P76" s="72" t="s">
+      <c r="Q76" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q76" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R76" s="89"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R76" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S76" s="89"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="26">
         <v>69</v>
       </c>
@@ -23169,18 +23281,19 @@
       <c r="N77" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O77" s="72" t="s">
+      <c r="O77" s="72"/>
+      <c r="P77" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="P77" s="72" t="s">
+      <c r="Q77" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q77" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R77" s="89"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R77" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S77" s="89"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="26">
         <v>70</v>
       </c>
@@ -23203,18 +23316,19 @@
       <c r="N78" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O78" s="72" t="s">
+      <c r="O78" s="72"/>
+      <c r="P78" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="P78" s="72" t="s">
+      <c r="Q78" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q78" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R78" s="89"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R78" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78" s="89"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="26">
         <v>71</v>
       </c>
@@ -23237,18 +23351,19 @@
       <c r="N79" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O79" s="72" t="s">
+      <c r="O79" s="72"/>
+      <c r="P79" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="P79" s="72" t="s">
+      <c r="Q79" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q79" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R79" s="89"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R79" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S79" s="89"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" s="26">
         <v>72</v>
       </c>
@@ -23272,17 +23387,20 @@
         <v>1019</v>
       </c>
       <c r="O80" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="P80" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="P80" s="88" t="s">
+      <c r="Q80" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="Q80" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R80" s="136"/>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R80" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S80" s="136"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="26">
         <v>73</v>
       </c>
@@ -23306,17 +23424,20 @@
         <v>1019</v>
       </c>
       <c r="O81" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="P81" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="P81" s="88" t="s">
+      <c r="Q81" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Q81" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R81" s="136"/>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R81" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S81" s="136"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="26">
         <v>74</v>
       </c>
@@ -23339,18 +23460,19 @@
       <c r="N82" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O82" s="72" t="s">
+      <c r="O82" s="72"/>
+      <c r="P82" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="P82" s="72" t="s">
+      <c r="Q82" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q82" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R82" s="89"/>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R82" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S82" s="89"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="26">
         <v>75</v>
       </c>
@@ -23373,18 +23495,19 @@
       <c r="N83" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O83" s="72" t="s">
+      <c r="O83" s="72"/>
+      <c r="P83" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="P83" s="72" t="s">
+      <c r="Q83" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q83" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R83" s="89"/>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R83" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S83" s="89"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="26">
         <v>76</v>
       </c>
@@ -23407,18 +23530,19 @@
       <c r="N84" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O84" s="72" t="s">
+      <c r="O84" s="72"/>
+      <c r="P84" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="P84" s="72" t="s">
+      <c r="Q84" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q84" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R84" s="89"/>
-    </row>
-    <row r="85" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R84" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S84" s="89"/>
+    </row>
+    <row r="85" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="48">
         <v>77</v>
       </c>
@@ -23441,18 +23565,19 @@
       <c r="N85" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O85" s="72" t="s">
+      <c r="O85" s="72"/>
+      <c r="P85" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="P85" s="72" t="s">
+      <c r="Q85" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q85" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R85" s="89"/>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R85" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S85" s="89"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L86" s="56"/>
       <c r="M86" s="108">
         <v>107</v>
@@ -23461,17 +23586,20 @@
         <v>1019</v>
       </c>
       <c r="O86" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="P86" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="P86" s="88" t="s">
+      <c r="Q86" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Q86" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R86" s="136"/>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R86" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S86" s="136"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L87" s="56"/>
       <c r="M87" s="109">
         <v>95</v>
@@ -23479,18 +23607,19 @@
       <c r="N87" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O87" s="72" t="s">
+      <c r="O87" s="72"/>
+      <c r="P87" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="P87" s="72" t="s">
+      <c r="Q87" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q87" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R87" s="89"/>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R87" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S87" s="89"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L88" s="56"/>
       <c r="M88" s="109">
         <v>96</v>
@@ -23498,18 +23627,19 @@
       <c r="N88" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O88" s="72" t="s">
+      <c r="O88" s="72"/>
+      <c r="P88" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="P88" s="72" t="s">
+      <c r="Q88" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q88" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R88" s="89"/>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R88" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S88" s="89"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L89" s="56"/>
       <c r="M89" s="109">
         <v>95</v>
@@ -23517,18 +23647,19 @@
       <c r="N89" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O89" s="72" t="s">
+      <c r="O89" s="72"/>
+      <c r="P89" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="P89" s="72" t="s">
+      <c r="Q89" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q89" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R89" s="89"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R89" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S89" s="89"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L90" s="56"/>
       <c r="M90" s="109">
         <v>86</v>
@@ -23536,18 +23667,19 @@
       <c r="N90" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O90" s="72" t="s">
+      <c r="O90" s="72"/>
+      <c r="P90" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="P90" s="72" t="s">
+      <c r="Q90" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="Q90" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R90" s="89"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R90" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S90" s="89"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L91" s="56"/>
       <c r="M91" s="109">
         <v>87</v>
@@ -23555,18 +23687,19 @@
       <c r="N91" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O91" s="72" t="s">
+      <c r="O91" s="72"/>
+      <c r="P91" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="P91" s="72" t="s">
+      <c r="Q91" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q91" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R91" s="89"/>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R91" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S91" s="89"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L92" s="56"/>
       <c r="M92" s="109">
         <v>87</v>
@@ -23574,19 +23707,20 @@
       <c r="N92" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O92" s="72" t="s">
+      <c r="O92" s="72"/>
+      <c r="P92" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="P92" s="72" t="s">
+      <c r="Q92" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q92" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R92" s="89"/>
-      <c r="S92" s="73"/>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R92" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S92" s="89"/>
+      <c r="T92" s="73"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L93" s="56"/>
       <c r="M93" s="108">
         <v>107</v>
@@ -23595,17 +23729,20 @@
         <v>1019</v>
       </c>
       <c r="O93" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="P93" s="88" t="s">
         <v>226</v>
       </c>
-      <c r="P93" s="88" t="s">
+      <c r="Q93" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q93" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R93" s="136"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R93" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S93" s="136"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L94" s="56"/>
       <c r="M94" s="109">
         <v>87</v>
@@ -23613,18 +23750,19 @@
       <c r="N94" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O94" s="72" t="s">
+      <c r="O94" s="72"/>
+      <c r="P94" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="P94" s="72" t="s">
+      <c r="Q94" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q94" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R94" s="89"/>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S94" s="89"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L95" s="56"/>
       <c r="M95" s="109">
         <v>87</v>
@@ -23632,18 +23770,19 @@
       <c r="N95" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O95" s="72" t="s">
+      <c r="O95" s="72"/>
+      <c r="P95" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="P95" s="72" t="s">
+      <c r="Q95" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q95" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R95" s="89"/>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R95" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" s="89"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L96" s="56"/>
       <c r="M96" s="109">
         <v>87</v>
@@ -23651,18 +23790,19 @@
       <c r="N96" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O96" s="72" t="s">
+      <c r="O96" s="72"/>
+      <c r="P96" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="P96" s="72" t="s">
+      <c r="Q96" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q96" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R96" s="89"/>
-    </row>
-    <row r="97" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R96" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S96" s="89"/>
+    </row>
+    <row r="97" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L97" s="56"/>
       <c r="M97" s="109">
         <v>97</v>
@@ -23670,18 +23810,19 @@
       <c r="N97" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O97" s="72" t="s">
+      <c r="O97" s="72"/>
+      <c r="P97" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="P97" s="72" t="s">
+      <c r="Q97" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q97" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R97" s="89"/>
-    </row>
-    <row r="98" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R97" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S97" s="89"/>
+    </row>
+    <row r="98" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L98" s="56"/>
       <c r="M98" s="109">
         <v>9</v>
@@ -23689,18 +23830,19 @@
       <c r="N98" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O98" s="72" t="s">
+      <c r="O98" s="72"/>
+      <c r="P98" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="P98" s="72" t="s">
+      <c r="Q98" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q98" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R98" s="89"/>
-    </row>
-    <row r="99" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R98" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98" s="89"/>
+    </row>
+    <row r="99" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L99" s="56"/>
       <c r="M99" s="109">
         <v>14</v>
@@ -23708,18 +23850,19 @@
       <c r="N99" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O99" s="72" t="s">
+      <c r="O99" s="72"/>
+      <c r="P99" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="P99" s="72" t="s">
+      <c r="Q99" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="Q99" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R99" s="89"/>
-    </row>
-    <row r="100" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R99" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S99" s="89"/>
+    </row>
+    <row r="100" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L100" s="56"/>
       <c r="M100" s="108">
         <v>107</v>
@@ -23728,17 +23871,20 @@
         <v>1019</v>
       </c>
       <c r="O100" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P100" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="P100" s="88" t="s">
+      <c r="Q100" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="Q100" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R100" s="136"/>
-    </row>
-    <row r="101" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R100" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S100" s="136"/>
+    </row>
+    <row r="101" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L101" s="56"/>
       <c r="M101" s="109">
         <v>87</v>
@@ -23746,19 +23892,20 @@
       <c r="N101" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O101" s="72" t="s">
+      <c r="O101" s="72"/>
+      <c r="P101" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="P101" s="72" t="s">
+      <c r="Q101" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="Q101" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R101" s="89"/>
-      <c r="S101" s="95"/>
-    </row>
-    <row r="102" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R101" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S101" s="89"/>
+      <c r="T101" s="95"/>
+    </row>
+    <row r="102" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L102" s="56"/>
       <c r="M102" s="108">
         <v>107</v>
@@ -23767,18 +23914,21 @@
         <v>1019</v>
       </c>
       <c r="O102" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P102" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="P102" s="88" t="s">
+      <c r="Q102" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="Q102" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R102" s="136"/>
-      <c r="S102" s="95"/>
-    </row>
-    <row r="103" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R102" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S102" s="136"/>
+      <c r="T102" s="95"/>
+    </row>
+    <row r="103" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L103" s="56"/>
       <c r="M103" s="108">
         <v>107</v>
@@ -23787,18 +23937,21 @@
         <v>1019</v>
       </c>
       <c r="O103" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P103" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="P103" s="88" t="s">
+      <c r="Q103" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="Q103" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R103" s="136"/>
-      <c r="S103" s="95"/>
-    </row>
-    <row r="104" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R103" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S103" s="136"/>
+      <c r="T103" s="95"/>
+    </row>
+    <row r="104" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L104" s="56"/>
       <c r="M104" s="108">
         <v>107</v>
@@ -23807,18 +23960,21 @@
         <v>1019</v>
       </c>
       <c r="O104" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P104" s="88" t="s">
         <v>239</v>
       </c>
-      <c r="P104" s="88" t="s">
+      <c r="Q104" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="Q104" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R104" s="136"/>
-      <c r="S104" s="95"/>
-    </row>
-    <row r="105" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R104" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S104" s="136"/>
+      <c r="T104" s="95"/>
+    </row>
+    <row r="105" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L105" s="56"/>
       <c r="M105" s="108">
         <v>107</v>
@@ -23827,18 +23983,21 @@
         <v>1019</v>
       </c>
       <c r="O105" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P105" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="P105" s="88" t="s">
+      <c r="Q105" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="Q105" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R105" s="136"/>
-      <c r="S105" s="95"/>
-    </row>
-    <row r="106" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R105" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S105" s="136"/>
+      <c r="T105" s="95"/>
+    </row>
+    <row r="106" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L106" s="56"/>
       <c r="M106" s="108">
         <v>107</v>
@@ -23847,17 +24006,20 @@
         <v>1019</v>
       </c>
       <c r="O106" s="88" t="s">
+        <v>442</v>
+      </c>
+      <c r="P106" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="P106" s="88" t="s">
+      <c r="Q106" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="Q106" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R106" s="136"/>
-    </row>
-    <row r="107" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R106" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S106" s="136"/>
+    </row>
+    <row r="107" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L107" s="56"/>
       <c r="M107" s="109">
         <v>86</v>
@@ -23865,18 +24027,19 @@
       <c r="N107" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O107" s="72" t="s">
+      <c r="O107" s="72"/>
+      <c r="P107" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="P107" s="72" t="s">
+      <c r="Q107" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q107" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R107" s="89"/>
-    </row>
-    <row r="108" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R107" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S107" s="89"/>
+    </row>
+    <row r="108" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L108" s="56"/>
       <c r="M108" s="109">
         <v>86</v>
@@ -23884,18 +24047,19 @@
       <c r="N108" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O108" s="72" t="s">
+      <c r="O108" s="72"/>
+      <c r="P108" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="P108" s="72" t="s">
+      <c r="Q108" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q108" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R108" s="89"/>
-    </row>
-    <row r="109" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R108" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S108" s="89"/>
+    </row>
+    <row r="109" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L109" s="56"/>
       <c r="M109" s="109">
         <v>86</v>
@@ -23903,18 +24067,19 @@
       <c r="N109" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O109" s="72" t="s">
+      <c r="O109" s="72"/>
+      <c r="P109" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="P109" s="72" t="s">
+      <c r="Q109" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q109" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R109" s="89"/>
-    </row>
-    <row r="110" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R109" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S109" s="89"/>
+    </row>
+    <row r="110" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L110" s="56"/>
       <c r="M110" s="109">
         <v>86</v>
@@ -23922,18 +24087,19 @@
       <c r="N110" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O110" s="72" t="s">
+      <c r="O110" s="72"/>
+      <c r="P110" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="P110" s="72" t="s">
+      <c r="Q110" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q110" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R110" s="89"/>
-    </row>
-    <row r="111" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R110" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S110" s="89"/>
+    </row>
+    <row r="111" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L111" s="56"/>
       <c r="M111" s="109">
         <v>86</v>
@@ -23941,18 +24107,19 @@
       <c r="N111" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O111" s="72" t="s">
+      <c r="O111" s="72"/>
+      <c r="P111" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="P111" s="72" t="s">
+      <c r="Q111" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q111" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R111" s="89"/>
-    </row>
-    <row r="112" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R111" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S111" s="89"/>
+    </row>
+    <row r="112" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L112" s="56"/>
       <c r="M112" s="109">
         <v>86</v>
@@ -23960,18 +24127,19 @@
       <c r="N112" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O112" s="72" t="s">
+      <c r="O112" s="72"/>
+      <c r="P112" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="P112" s="72" t="s">
+      <c r="Q112" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="Q112" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R112" s="89"/>
-    </row>
-    <row r="113" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R112" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S112" s="89"/>
+    </row>
+    <row r="113" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L113" s="56"/>
       <c r="M113" s="109">
         <v>86</v>
@@ -23979,18 +24147,19 @@
       <c r="N113" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O113" s="72" t="s">
+      <c r="O113" s="72"/>
+      <c r="P113" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="P113" s="72" t="s">
+      <c r="Q113" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q113" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R113" s="89"/>
-    </row>
-    <row r="114" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R113" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S113" s="89"/>
+    </row>
+    <row r="114" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L114" s="56"/>
       <c r="M114" s="108">
         <v>107</v>
@@ -23999,17 +24168,20 @@
         <v>1019</v>
       </c>
       <c r="O114" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="P114" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="P114" s="88" t="s">
+      <c r="Q114" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q114" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R114" s="136"/>
-    </row>
-    <row r="115" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R114" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S114" s="136"/>
+    </row>
+    <row r="115" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L115" s="56"/>
       <c r="M115" s="109">
         <v>86</v>
@@ -24017,19 +24189,20 @@
       <c r="N115" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O115" s="72" t="s">
+      <c r="O115" s="72"/>
+      <c r="P115" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="P115" s="72" t="s">
+      <c r="Q115" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q115" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R115" s="89"/>
-      <c r="S115" s="95"/>
-    </row>
-    <row r="116" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R115" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S115" s="89"/>
+      <c r="T115" s="95"/>
+    </row>
+    <row r="116" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L116" s="56"/>
       <c r="M116" s="108">
         <v>107</v>
@@ -24038,17 +24211,20 @@
         <v>1019</v>
       </c>
       <c r="O116" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="P116" s="88" t="s">
         <v>253</v>
       </c>
-      <c r="P116" s="88" t="s">
+      <c r="Q116" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q116" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R116" s="136"/>
-    </row>
-    <row r="117" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R116" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S116" s="136"/>
+    </row>
+    <row r="117" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L117" s="56"/>
       <c r="M117" s="108">
         <v>107</v>
@@ -24057,18 +24233,21 @@
         <v>1019</v>
       </c>
       <c r="O117" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="P117" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="P117" s="88" t="s">
+      <c r="Q117" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="Q117" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R117" s="136"/>
-      <c r="S117" s="95"/>
-    </row>
-    <row r="118" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R117" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S117" s="136"/>
+      <c r="T117" s="95"/>
+    </row>
+    <row r="118" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L118" s="56"/>
       <c r="M118" s="108">
         <v>107</v>
@@ -24076,18 +24255,19 @@
       <c r="N118" s="88" t="s">
         <v>1019</v>
       </c>
-      <c r="O118" s="88" t="s">
+      <c r="O118" s="88"/>
+      <c r="P118" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="P118" s="88" t="s">
+      <c r="Q118" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q118" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R118" s="136"/>
-    </row>
-    <row r="119" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R118" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S118" s="136"/>
+    </row>
+    <row r="119" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L119" s="56"/>
       <c r="M119" s="109">
         <v>86</v>
@@ -24095,18 +24275,19 @@
       <c r="N119" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O119" s="72" t="s">
+      <c r="O119" s="72"/>
+      <c r="P119" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="P119" s="72" t="s">
+      <c r="Q119" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q119" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R119" s="89"/>
-    </row>
-    <row r="120" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R119" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S119" s="89"/>
+    </row>
+    <row r="120" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L120" s="56"/>
       <c r="M120" s="109">
         <v>20</v>
@@ -24114,18 +24295,19 @@
       <c r="N120" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O120" s="72" t="s">
+      <c r="O120" s="72"/>
+      <c r="P120" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="P120" s="72" t="s">
+      <c r="Q120" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q120" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R120" s="89"/>
-    </row>
-    <row r="121" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R120" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S120" s="89"/>
+    </row>
+    <row r="121" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L121" s="56"/>
       <c r="M121" s="109">
         <v>11</v>
@@ -24133,18 +24315,19 @@
       <c r="N121" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O121" s="72" t="s">
+      <c r="O121" s="72"/>
+      <c r="P121" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="P121" s="72" t="s">
+      <c r="Q121" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q121" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R121" s="89"/>
-    </row>
-    <row r="122" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R121" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S121" s="89"/>
+    </row>
+    <row r="122" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L122" s="56"/>
       <c r="M122" s="110">
         <v>86</v>
@@ -24152,18 +24335,19 @@
       <c r="N122" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O122" s="72" t="s">
+      <c r="O122" s="72"/>
+      <c r="P122" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="P122" s="72" t="s">
+      <c r="Q122" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q122" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R122" s="89"/>
-    </row>
-    <row r="123" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R122" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S122" s="89"/>
+    </row>
+    <row r="123" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L123" s="56"/>
       <c r="M123" s="110">
         <v>114</v>
@@ -24171,18 +24355,19 @@
       <c r="N123" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O123" s="72" t="s">
+      <c r="O123" s="72"/>
+      <c r="P123" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="P123" s="72" t="s">
+      <c r="Q123" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q123" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R123" s="132"/>
-    </row>
-    <row r="124" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R123" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S123" s="132"/>
+    </row>
+    <row r="124" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L124" s="56"/>
       <c r="M124" s="110">
         <v>115</v>
@@ -24190,18 +24375,19 @@
       <c r="N124" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O124" s="72" t="s">
+      <c r="O124" s="72"/>
+      <c r="P124" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="P124" s="72" t="s">
+      <c r="Q124" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q124" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R124" s="132"/>
-    </row>
-    <row r="125" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R124" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S124" s="132"/>
+    </row>
+    <row r="125" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L125" s="56"/>
       <c r="M125" s="109">
         <v>86</v>
@@ -24209,19 +24395,20 @@
       <c r="N125" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O125" s="72" t="s">
+      <c r="O125" s="72"/>
+      <c r="P125" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="P125" s="72" t="s">
+      <c r="Q125" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q125" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R125" s="89"/>
-      <c r="S125" s="95"/>
-    </row>
-    <row r="126" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R125" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S125" s="89"/>
+      <c r="T125" s="95"/>
+    </row>
+    <row r="126" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L126" s="56"/>
       <c r="M126" s="108">
         <v>107</v>
@@ -24230,17 +24417,20 @@
         <v>1019</v>
       </c>
       <c r="O126" s="88" t="s">
+        <v>452</v>
+      </c>
+      <c r="P126" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="P126" s="88" t="s">
+      <c r="Q126" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="Q126" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R126" s="136"/>
-    </row>
-    <row r="127" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R126" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S126" s="136"/>
+    </row>
+    <row r="127" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L127" s="56"/>
       <c r="M127" s="109">
         <v>86</v>
@@ -24248,18 +24438,19 @@
       <c r="N127" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O127" s="72" t="s">
+      <c r="O127" s="72"/>
+      <c r="P127" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="P127" s="72" t="s">
+      <c r="Q127" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q127" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R127" s="89"/>
-    </row>
-    <row r="128" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R127" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S127" s="89"/>
+    </row>
+    <row r="128" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L128" s="56"/>
       <c r="M128" s="109">
         <v>87</v>
@@ -24267,18 +24458,19 @@
       <c r="N128" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O128" s="72" t="s">
+      <c r="O128" s="72"/>
+      <c r="P128" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="P128" s="72" t="s">
+      <c r="Q128" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q128" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R128" s="89"/>
-    </row>
-    <row r="129" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R128" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S128" s="89"/>
+    </row>
+    <row r="129" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L129" s="56"/>
       <c r="M129" s="108">
         <v>107</v>
@@ -24287,17 +24479,20 @@
         <v>1019</v>
       </c>
       <c r="O129" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="P129" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="P129" s="88" t="s">
+      <c r="Q129" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="Q129" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="R129" s="136"/>
-    </row>
-    <row r="130" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R129" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S129" s="136"/>
+    </row>
+    <row r="130" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L130" s="56"/>
       <c r="M130" s="109">
         <v>87</v>
@@ -24305,18 +24500,19 @@
       <c r="N130" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O130" s="72" t="s">
+      <c r="O130" s="72"/>
+      <c r="P130" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="P130" s="72" t="s">
+      <c r="Q130" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q130" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R130" s="89"/>
-    </row>
-    <row r="131" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R130" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S130" s="89"/>
+    </row>
+    <row r="131" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L131" s="56"/>
       <c r="M131" s="109">
         <v>87</v>
@@ -24324,18 +24520,19 @@
       <c r="N131" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O131" s="72" t="s">
+      <c r="O131" s="72"/>
+      <c r="P131" s="72" t="s">
         <v>1017</v>
       </c>
-      <c r="P131" s="72" t="s">
+      <c r="Q131" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q131" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R131" s="89"/>
-    </row>
-    <row r="132" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R131" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S131" s="89"/>
+    </row>
+    <row r="132" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L132" s="56"/>
       <c r="M132" s="109">
         <v>87</v>
@@ -24343,18 +24540,19 @@
       <c r="N132" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O132" s="72" t="s">
+      <c r="O132" s="72"/>
+      <c r="P132" s="72" t="s">
         <v>1021</v>
       </c>
-      <c r="P132" s="72" t="s">
+      <c r="Q132" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="Q132" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R132" s="89"/>
-    </row>
-    <row r="133" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R132" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S132" s="89"/>
+    </row>
+    <row r="133" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L133" s="56"/>
       <c r="M133" s="109">
         <v>87</v>
@@ -24362,18 +24560,19 @@
       <c r="N133" s="72" t="s">
         <v>1019</v>
       </c>
-      <c r="O133" s="72" t="s">
+      <c r="O133" s="72"/>
+      <c r="P133" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="P133" s="72" t="s">
+      <c r="Q133" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="Q133" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R133" s="89"/>
-    </row>
-    <row r="134" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R133" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S133" s="89"/>
+    </row>
+    <row r="134" spans="12:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L134" s="53"/>
       <c r="M134" s="111">
         <v>87</v>
@@ -24381,18 +24580,19 @@
       <c r="N134" s="105" t="s">
         <v>1019</v>
       </c>
-      <c r="O134" s="105" t="s">
+      <c r="O134" s="105"/>
+      <c r="P134" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="P134" s="105" t="s">
+      <c r="Q134" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="Q134" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="R134" s="112"/>
-    </row>
-    <row r="135" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R134" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="S134" s="112"/>
+    </row>
+    <row r="135" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L135" s="115"/>
       <c r="M135" s="86">
         <v>88</v>
@@ -24400,20 +24600,21 @@
       <c r="N135" s="74" t="s">
         <v>852</v>
       </c>
-      <c r="O135" s="62" t="s">
+      <c r="O135" s="74"/>
+      <c r="P135" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="P135" s="62" t="s">
+      <c r="Q135" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="Q135" s="62" t="s">
+      <c r="R135" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="R135" s="87" t="s">
+      <c r="S135" s="87" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="12:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L136" s="96"/>
       <c r="M136" s="57">
         <v>35</v>
@@ -24421,18 +24622,19 @@
       <c r="N136" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O136" s="39" t="s">
+      <c r="O136" s="72"/>
+      <c r="P136" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="P136" s="39" t="s">
+      <c r="Q136" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q136" s="39" t="s">
+      <c r="R136" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R136" s="58"/>
-    </row>
-    <row r="137" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="S136" s="58"/>
+    </row>
+    <row r="137" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L137" s="96"/>
       <c r="M137" s="57">
         <v>108</v>
@@ -24440,18 +24642,19 @@
       <c r="N137" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O137" s="39" t="s">
+      <c r="O137" s="72"/>
+      <c r="P137" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="P137" s="39" t="s">
+      <c r="Q137" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q137" s="39" t="s">
+      <c r="R137" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R137" s="58"/>
-    </row>
-    <row r="138" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="S137" s="58"/>
+    </row>
+    <row r="138" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L138" s="96"/>
       <c r="M138" s="90">
         <v>89</v>
@@ -24459,18 +24662,19 @@
       <c r="N138" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O138" s="39" t="s">
+      <c r="O138" s="72"/>
+      <c r="P138" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="P138" s="39" t="s">
+      <c r="Q138" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q138" s="39" t="s">
+      <c r="R138" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R138" s="58"/>
-    </row>
-    <row r="139" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="S138" s="58"/>
+    </row>
+    <row r="139" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L139" s="96"/>
       <c r="M139" s="57">
         <v>85</v>
@@ -24478,18 +24682,19 @@
       <c r="N139" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O139" s="72" t="s">
+      <c r="O139" s="72"/>
+      <c r="P139" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="P139" s="39" t="s">
+      <c r="Q139" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q139" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R139" s="58"/>
-    </row>
-    <row r="140" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R139" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S139" s="58"/>
+    </row>
+    <row r="140" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L140" s="96"/>
       <c r="M140" s="57">
         <v>89</v>
@@ -24497,18 +24702,19 @@
       <c r="N140" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O140" s="39" t="s">
+      <c r="O140" s="72"/>
+      <c r="P140" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="P140" s="39" t="s">
+      <c r="Q140" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q140" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R140" s="58"/>
-    </row>
-    <row r="141" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R140" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S140" s="58"/>
+    </row>
+    <row r="141" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L141" s="96"/>
       <c r="M141" s="57">
         <v>90</v>
@@ -24516,19 +24722,20 @@
       <c r="N141" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O141" s="39" t="s">
+      <c r="O141" s="72"/>
+      <c r="P141" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P141" s="39" t="s">
+      <c r="Q141" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q141" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R141" s="58"/>
-      <c r="S141" s="95"/>
-    </row>
-    <row r="142" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R141" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S141" s="58"/>
+      <c r="T141" s="95"/>
+    </row>
+    <row r="142" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L142" s="96"/>
       <c r="M142" s="57">
         <v>86</v>
@@ -24536,18 +24743,19 @@
       <c r="N142" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O142" s="39" t="s">
+      <c r="O142" s="72"/>
+      <c r="P142" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="P142" s="39" t="s">
+      <c r="Q142" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q142" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R142" s="58"/>
-    </row>
-    <row r="143" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R142" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S142" s="58"/>
+    </row>
+    <row r="143" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L143" s="96"/>
       <c r="M143" s="57">
         <v>109</v>
@@ -24555,18 +24763,19 @@
       <c r="N143" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O143" s="42" t="s">
+      <c r="O143" s="72"/>
+      <c r="P143" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="P143" s="39" t="s">
+      <c r="Q143" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q143" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R143" s="58"/>
-    </row>
-    <row r="144" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="R143" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S143" s="58"/>
+    </row>
+    <row r="144" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L144" s="96"/>
       <c r="M144" s="120">
         <v>107</v>
@@ -24574,18 +24783,19 @@
       <c r="N144" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O144" s="81" t="s">
+      <c r="O144" s="88"/>
+      <c r="P144" s="81" t="s">
         <v>354</v>
       </c>
-      <c r="P144" s="85" t="s">
+      <c r="Q144" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q144" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R144" s="119"/>
-    </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R144" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S144" s="119"/>
+    </row>
+    <row r="145" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L145" s="96"/>
       <c r="M145" s="57">
         <v>87</v>
@@ -24593,18 +24803,19 @@
       <c r="N145" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O145" s="72" t="s">
+      <c r="O145" s="72"/>
+      <c r="P145" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="P145" s="39" t="s">
+      <c r="Q145" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="Q145" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R145" s="58"/>
-    </row>
-    <row r="146" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R145" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S145" s="58"/>
+    </row>
+    <row r="146" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L146" s="96"/>
       <c r="M146" s="157">
         <v>87</v>
@@ -24612,18 +24823,19 @@
       <c r="N146" s="158" t="s">
         <v>852</v>
       </c>
-      <c r="O146" s="159" t="s">
+      <c r="O146" s="158"/>
+      <c r="P146" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="P146" s="159" t="s">
+      <c r="Q146" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="Q146" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R146" s="160"/>
-    </row>
-    <row r="147" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R146" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S146" s="160"/>
+    </row>
+    <row r="147" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L147" s="96"/>
       <c r="M147" s="57">
         <v>87</v>
@@ -24631,18 +24843,19 @@
       <c r="N147" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O147" s="72" t="s">
+      <c r="O147" s="72"/>
+      <c r="P147" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="P147" s="39" t="s">
+      <c r="Q147" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q147" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R147" s="58"/>
-    </row>
-    <row r="148" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R147" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S147" s="58"/>
+    </row>
+    <row r="148" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L148" s="96"/>
       <c r="M148" s="57">
         <v>87</v>
@@ -24650,18 +24863,19 @@
       <c r="N148" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O148" s="72" t="s">
+      <c r="O148" s="72"/>
+      <c r="P148" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="P148" s="39" t="s">
+      <c r="Q148" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q148" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R148" s="58"/>
-    </row>
-    <row r="149" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R148" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S148" s="58"/>
+    </row>
+    <row r="149" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L149" s="96"/>
       <c r="M149" s="57">
         <v>11</v>
@@ -24669,18 +24883,19 @@
       <c r="N149" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O149" s="72" t="s">
+      <c r="O149" s="72"/>
+      <c r="P149" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="P149" s="39" t="s">
+      <c r="Q149" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q149" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R149" s="58"/>
-    </row>
-    <row r="150" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R149" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S149" s="58"/>
+    </row>
+    <row r="150" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L150" s="96"/>
       <c r="M150" s="57">
         <v>12</v>
@@ -24688,18 +24903,19 @@
       <c r="N150" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O150" s="72" t="s">
+      <c r="O150" s="72"/>
+      <c r="P150" s="72" t="s">
         <v>922</v>
       </c>
-      <c r="P150" s="39" t="s">
+      <c r="Q150" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q150" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R150" s="58"/>
-    </row>
-    <row r="151" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R150" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S150" s="58"/>
+    </row>
+    <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="96"/>
       <c r="M151" s="120">
         <v>107</v>
@@ -24707,18 +24923,19 @@
       <c r="N151" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O151" s="88" t="s">
+      <c r="O151" s="88"/>
+      <c r="P151" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="P151" s="85" t="s">
+      <c r="Q151" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q151" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R151" s="119"/>
-    </row>
-    <row r="152" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R151" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S151" s="119"/>
+    </row>
+    <row r="152" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L152" s="96"/>
       <c r="M152" s="120">
         <v>107</v>
@@ -24726,18 +24943,19 @@
       <c r="N152" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O152" s="88" t="s">
+      <c r="O152" s="88"/>
+      <c r="P152" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="P152" s="85" t="s">
+      <c r="Q152" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q152" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R152" s="119"/>
-    </row>
-    <row r="153" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R152" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S152" s="119"/>
+    </row>
+    <row r="153" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L153" s="96"/>
       <c r="M153" s="120">
         <v>107</v>
@@ -24745,18 +24963,19 @@
       <c r="N153" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O153" s="88" t="s">
+      <c r="O153" s="88"/>
+      <c r="P153" s="88" t="s">
         <v>363</v>
       </c>
-      <c r="P153" s="85" t="s">
+      <c r="Q153" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q153" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R153" s="119"/>
-    </row>
-    <row r="154" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R153" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S153" s="119"/>
+    </row>
+    <row r="154" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L154" s="96"/>
       <c r="M154" s="120">
         <v>107</v>
@@ -24764,18 +24983,19 @@
       <c r="N154" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O154" s="88" t="s">
+      <c r="O154" s="88"/>
+      <c r="P154" s="88" t="s">
         <v>364</v>
       </c>
-      <c r="P154" s="85" t="s">
+      <c r="Q154" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q154" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R154" s="119"/>
-    </row>
-    <row r="155" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R154" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S154" s="119"/>
+    </row>
+    <row r="155" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L155" s="96"/>
       <c r="M155" s="57">
         <v>87</v>
@@ -24783,18 +25003,19 @@
       <c r="N155" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O155" s="72" t="s">
+      <c r="O155" s="72"/>
+      <c r="P155" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="P155" s="39" t="s">
+      <c r="Q155" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q155" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R155" s="58"/>
-    </row>
-    <row r="156" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R155" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S155" s="58"/>
+    </row>
+    <row r="156" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L156" s="96"/>
       <c r="M156" s="57">
         <v>87</v>
@@ -24802,18 +25023,19 @@
       <c r="N156" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O156" s="72" t="s">
+      <c r="O156" s="72"/>
+      <c r="P156" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="P156" s="39" t="s">
+      <c r="Q156" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q156" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R156" s="58"/>
-    </row>
-    <row r="157" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R156" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S156" s="58"/>
+    </row>
+    <row r="157" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L157" s="96"/>
       <c r="M157" s="57">
         <v>87</v>
@@ -24821,18 +25043,19 @@
       <c r="N157" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O157" s="72" t="s">
+      <c r="O157" s="72"/>
+      <c r="P157" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="P157" s="39" t="s">
+      <c r="Q157" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="Q157" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R157" s="58"/>
-    </row>
-    <row r="158" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R157" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S157" s="58"/>
+    </row>
+    <row r="158" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L158" s="96"/>
       <c r="M158" s="120">
         <v>107</v>
@@ -24840,18 +25063,19 @@
       <c r="N158" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O158" s="88" t="s">
+      <c r="O158" s="88"/>
+      <c r="P158" s="88" t="s">
         <v>368</v>
       </c>
-      <c r="P158" s="85" t="s">
+      <c r="Q158" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="Q158" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R158" s="119"/>
-    </row>
-    <row r="159" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R158" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S158" s="119"/>
+    </row>
+    <row r="159" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L159" s="96"/>
       <c r="M159" s="120">
         <v>107</v>
@@ -24859,18 +25083,19 @@
       <c r="N159" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O159" s="88" t="s">
+      <c r="O159" s="88"/>
+      <c r="P159" s="88" t="s">
         <v>369</v>
       </c>
-      <c r="P159" s="85" t="s">
+      <c r="Q159" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q159" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R159" s="119"/>
-    </row>
-    <row r="160" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R159" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S159" s="119"/>
+    </row>
+    <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="96"/>
       <c r="M160" s="137">
         <v>107</v>
@@ -24878,18 +25103,19 @@
       <c r="N160" s="138" t="s">
         <v>852</v>
       </c>
-      <c r="O160" s="139" t="s">
+      <c r="O160" s="138"/>
+      <c r="P160" s="139" t="s">
         <v>370</v>
       </c>
-      <c r="P160" s="139" t="s">
+      <c r="Q160" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="Q160" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="R160" s="166"/>
-    </row>
-    <row r="161" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R160" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="S160" s="166"/>
+    </row>
+    <row r="161" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L161" s="96"/>
       <c r="M161" s="128">
         <v>87</v>
@@ -24897,18 +25123,19 @@
       <c r="N161" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O161" s="199" t="s">
+      <c r="O161" s="72"/>
+      <c r="P161" s="199" t="s">
         <v>807</v>
       </c>
-      <c r="P161" s="39" t="s">
+      <c r="Q161" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q161" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R161" s="64"/>
-    </row>
-    <row r="162" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R161" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S161" s="64"/>
+    </row>
+    <row r="162" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L162" s="96"/>
       <c r="M162" s="128">
         <v>87</v>
@@ -24916,18 +25143,19 @@
       <c r="N162" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O162" s="199" t="s">
+      <c r="O162" s="72"/>
+      <c r="P162" s="199" t="s">
         <v>806</v>
       </c>
-      <c r="P162" s="39" t="s">
+      <c r="Q162" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q162" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R162" s="64"/>
-    </row>
-    <row r="163" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R162" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S162" s="64"/>
+    </row>
+    <row r="163" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L163" s="96"/>
       <c r="M163" s="128">
         <v>87</v>
@@ -24935,18 +25163,19 @@
       <c r="N163" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O163" s="199" t="s">
+      <c r="O163" s="72"/>
+      <c r="P163" s="199" t="s">
         <v>1015</v>
       </c>
-      <c r="P163" s="39" t="s">
+      <c r="Q163" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q163" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R163" s="64"/>
-    </row>
-    <row r="164" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R163" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S163" s="64"/>
+    </row>
+    <row r="164" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L164" s="96"/>
       <c r="M164" s="128">
         <v>87</v>
@@ -24954,18 +25183,19 @@
       <c r="N164" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O164" s="199" t="s">
+      <c r="O164" s="72"/>
+      <c r="P164" s="199" t="s">
         <v>1022</v>
       </c>
-      <c r="P164" s="72" t="s">
+      <c r="Q164" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="Q164" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="R164" s="64"/>
-    </row>
-    <row r="165" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R164" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S164" s="64"/>
+    </row>
+    <row r="165" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L165" s="96"/>
       <c r="M165" s="128">
         <v>87</v>
@@ -24973,18 +25203,19 @@
       <c r="N165" s="72" t="s">
         <v>852</v>
       </c>
-      <c r="O165" s="199" t="s">
+      <c r="O165" s="72"/>
+      <c r="P165" s="199" t="s">
         <v>1016</v>
       </c>
-      <c r="P165" s="39" t="s">
+      <c r="Q165" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q165" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R165" s="64"/>
-    </row>
-    <row r="166" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R165" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S165" s="64"/>
+    </row>
+    <row r="166" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L166" s="96"/>
       <c r="M166" s="129">
         <v>87</v>
@@ -24992,18 +25223,19 @@
       <c r="N166" s="91" t="s">
         <v>852</v>
       </c>
-      <c r="O166" s="200" t="s">
+      <c r="O166" s="91"/>
+      <c r="P166" s="200" t="s">
         <v>1014</v>
       </c>
-      <c r="P166" s="65" t="s">
+      <c r="Q166" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q166" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="R166" s="76"/>
-    </row>
-    <row r="167" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R166" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="S166" s="76"/>
+    </row>
+    <row r="167" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L167" s="93"/>
       <c r="M167" s="197">
         <v>88</v>
@@ -25011,18 +25243,19 @@
       <c r="N167" s="79" t="s">
         <v>850</v>
       </c>
-      <c r="O167" s="80" t="s">
+      <c r="O167" s="79"/>
+      <c r="P167" s="80" t="s">
         <v>704</v>
       </c>
-      <c r="P167" s="80" t="s">
+      <c r="Q167" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="Q167" s="80" t="s">
+      <c r="R167" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="R167" s="198"/>
-    </row>
-    <row r="168" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="S167" s="198"/>
+    </row>
+    <row r="168" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L168" s="56"/>
       <c r="M168" s="168">
         <v>113</v>
@@ -25030,18 +25263,19 @@
       <c r="N168" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O168" s="39" t="s">
+      <c r="O168" s="72"/>
+      <c r="P168" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="P168" s="39" t="s">
+      <c r="Q168" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q168" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R168" s="64"/>
-    </row>
-    <row r="169" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R168" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S168" s="64"/>
+    </row>
+    <row r="169" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L169" s="56"/>
       <c r="M169" s="71">
         <v>87</v>
@@ -25049,18 +25283,19 @@
       <c r="N169" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O169" s="39" t="s">
+      <c r="O169" s="72"/>
+      <c r="P169" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="P169" s="39" t="s">
+      <c r="Q169" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q169" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R169" s="58"/>
-    </row>
-    <row r="170" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R169" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S169" s="58"/>
+    </row>
+    <row r="170" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
       <c r="M170" s="71">
         <v>110</v>
@@ -25068,18 +25303,19 @@
       <c r="N170" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O170" s="42" t="s">
+      <c r="O170" s="72"/>
+      <c r="P170" s="42" t="s">
         <v>707</v>
       </c>
-      <c r="P170" s="39" t="s">
+      <c r="Q170" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q170" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R170" s="58"/>
-    </row>
-    <row r="171" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R170" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S170" s="58"/>
+    </row>
+    <row r="171" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
       <c r="M171" s="71">
         <v>87</v>
@@ -25087,18 +25323,19 @@
       <c r="N171" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O171" s="39" t="s">
+      <c r="O171" s="72"/>
+      <c r="P171" s="39" t="s">
         <v>708</v>
       </c>
-      <c r="P171" s="39" t="s">
+      <c r="Q171" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q171" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R171" s="58"/>
-    </row>
-    <row r="172" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R171" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S171" s="58"/>
+    </row>
+    <row r="172" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
       <c r="M172" s="71">
         <v>86</v>
@@ -25106,18 +25343,19 @@
       <c r="N172" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O172" s="39" t="s">
+      <c r="O172" s="72"/>
+      <c r="P172" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="P172" s="39" t="s">
+      <c r="Q172" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q172" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R172" s="58"/>
-    </row>
-    <row r="173" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R172" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S172" s="58"/>
+    </row>
+    <row r="173" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L173" s="56"/>
       <c r="M173" s="71">
         <v>87</v>
@@ -25125,18 +25363,19 @@
       <c r="N173" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O173" s="39" t="s">
+      <c r="O173" s="72"/>
+      <c r="P173" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="P173" s="39" t="s">
+      <c r="Q173" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q173" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R173" s="58"/>
-    </row>
-    <row r="174" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R173" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S173" s="58"/>
+    </row>
+    <row r="174" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
       <c r="M174" s="71">
         <v>85</v>
@@ -25144,18 +25383,19 @@
       <c r="N174" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O174" s="39" t="s">
+      <c r="O174" s="72"/>
+      <c r="P174" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="P174" s="39" t="s">
+      <c r="Q174" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q174" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R174" s="58"/>
-    </row>
-    <row r="175" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R174" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S174" s="58"/>
+    </row>
+    <row r="175" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L175" s="56"/>
       <c r="M175" s="71">
         <v>87</v>
@@ -25163,18 +25403,19 @@
       <c r="N175" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O175" s="39" t="s">
+      <c r="O175" s="72"/>
+      <c r="P175" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="P175" s="39" t="s">
+      <c r="Q175" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q175" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R175" s="58"/>
-    </row>
-    <row r="176" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R175" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S175" s="58"/>
+    </row>
+    <row r="176" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L176" s="56"/>
       <c r="M176" s="71">
         <v>87</v>
@@ -25182,18 +25423,19 @@
       <c r="N176" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O176" s="39" t="s">
+      <c r="O176" s="72"/>
+      <c r="P176" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="P176" s="39" t="s">
+      <c r="Q176" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q176" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R176" s="58"/>
-    </row>
-    <row r="177" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R176" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S176" s="58"/>
+    </row>
+    <row r="177" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L177" s="56"/>
       <c r="M177" s="71">
         <v>86</v>
@@ -25201,18 +25443,19 @@
       <c r="N177" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O177" s="39" t="s">
+      <c r="O177" s="72"/>
+      <c r="P177" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="P177" s="39" t="s">
+      <c r="Q177" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q177" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R177" s="58"/>
-    </row>
-    <row r="178" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R177" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S177" s="58"/>
+    </row>
+    <row r="178" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L178" s="56"/>
       <c r="M178" s="71">
         <v>87</v>
@@ -25220,18 +25463,19 @@
       <c r="N178" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O178" s="39" t="s">
+      <c r="O178" s="72"/>
+      <c r="P178" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="P178" s="39" t="s">
+      <c r="Q178" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q178" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R178" s="58"/>
-    </row>
-    <row r="179" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R178" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S178" s="58"/>
+    </row>
+    <row r="179" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L179" s="56"/>
       <c r="M179" s="71">
         <v>86</v>
@@ -25239,18 +25483,19 @@
       <c r="N179" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O179" s="39" t="s">
+      <c r="O179" s="72"/>
+      <c r="P179" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="P179" s="39" t="s">
+      <c r="Q179" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q179" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R179" s="58"/>
-    </row>
-    <row r="180" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R179" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S179" s="58"/>
+    </row>
+    <row r="180" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L180" s="56"/>
       <c r="M180" s="71">
         <v>87</v>
@@ -25258,18 +25503,19 @@
       <c r="N180" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O180" s="39" t="s">
+      <c r="O180" s="72"/>
+      <c r="P180" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="P180" s="39" t="s">
+      <c r="Q180" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q180" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R180" s="58"/>
-    </row>
-    <row r="181" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R180" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S180" s="58"/>
+    </row>
+    <row r="181" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L181" s="56"/>
       <c r="M181" s="71">
         <v>86</v>
@@ -25277,18 +25523,19 @@
       <c r="N181" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O181" s="39" t="s">
+      <c r="O181" s="72"/>
+      <c r="P181" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="P181" s="39" t="s">
+      <c r="Q181" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q181" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R181" s="58"/>
-    </row>
-    <row r="182" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R181" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S181" s="58"/>
+    </row>
+    <row r="182" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L182" s="56"/>
       <c r="M182" s="71">
         <v>87</v>
@@ -25296,18 +25543,19 @@
       <c r="N182" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O182" s="39" t="s">
+      <c r="O182" s="72"/>
+      <c r="P182" s="39" t="s">
         <v>718</v>
       </c>
-      <c r="P182" s="39" t="s">
+      <c r="Q182" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q182" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R182" s="58"/>
-    </row>
-    <row r="183" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R182" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S182" s="58"/>
+    </row>
+    <row r="183" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L183" s="56"/>
       <c r="M183" s="71">
         <v>86</v>
@@ -25315,18 +25563,19 @@
       <c r="N183" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O183" s="39" t="s">
+      <c r="O183" s="72"/>
+      <c r="P183" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="P183" s="39" t="s">
+      <c r="Q183" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q183" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R183" s="58"/>
-    </row>
-    <row r="184" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R183" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S183" s="58"/>
+    </row>
+    <row r="184" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L184" s="56"/>
       <c r="M184" s="71">
         <v>87</v>
@@ -25334,18 +25583,19 @@
       <c r="N184" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O184" s="39" t="s">
+      <c r="O184" s="72"/>
+      <c r="P184" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="P184" s="39" t="s">
+      <c r="Q184" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q184" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R184" s="58"/>
-    </row>
-    <row r="185" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R184" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S184" s="58"/>
+    </row>
+    <row r="185" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L185" s="56"/>
       <c r="M185" s="71">
         <v>86</v>
@@ -25353,18 +25603,19 @@
       <c r="N185" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O185" s="39" t="s">
+      <c r="O185" s="72"/>
+      <c r="P185" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="P185" s="39" t="s">
+      <c r="Q185" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q185" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R185" s="58"/>
-    </row>
-    <row r="186" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R185" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S185" s="58"/>
+    </row>
+    <row r="186" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L186" s="56"/>
       <c r="M186" s="71">
         <v>87</v>
@@ -25372,18 +25623,19 @@
       <c r="N186" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O186" s="39" t="s">
+      <c r="O186" s="72"/>
+      <c r="P186" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="P186" s="39" t="s">
+      <c r="Q186" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q186" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R186" s="58"/>
-    </row>
-    <row r="187" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R186" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S186" s="58"/>
+    </row>
+    <row r="187" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L187" s="56"/>
       <c r="M187" s="71">
         <v>86</v>
@@ -25391,18 +25643,19 @@
       <c r="N187" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O187" s="39" t="s">
+      <c r="O187" s="72"/>
+      <c r="P187" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="P187" s="39" t="s">
+      <c r="Q187" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q187" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R187" s="58"/>
-    </row>
-    <row r="188" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R187" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S187" s="58"/>
+    </row>
+    <row r="188" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L188" s="56"/>
       <c r="M188" s="71">
         <v>87</v>
@@ -25410,18 +25663,19 @@
       <c r="N188" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O188" s="39" t="s">
+      <c r="O188" s="72"/>
+      <c r="P188" s="39" t="s">
         <v>724</v>
       </c>
-      <c r="P188" s="39" t="s">
+      <c r="Q188" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q188" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R188" s="58"/>
-    </row>
-    <row r="189" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R188" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S188" s="58"/>
+    </row>
+    <row r="189" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L189" s="56"/>
       <c r="M189" s="71">
         <v>52</v>
@@ -25429,18 +25683,19 @@
       <c r="N189" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O189" s="72" t="s">
+      <c r="O189" s="72"/>
+      <c r="P189" s="72" t="s">
         <v>725</v>
       </c>
-      <c r="P189" s="39" t="s">
+      <c r="Q189" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q189" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R189" s="58"/>
-    </row>
-    <row r="190" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R189" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S189" s="58"/>
+    </row>
+    <row r="190" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L190" s="56"/>
       <c r="M190" s="71">
         <v>111</v>
@@ -25448,18 +25703,19 @@
       <c r="N190" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O190" s="42" t="s">
+      <c r="O190" s="72"/>
+      <c r="P190" s="42" t="s">
         <v>726</v>
       </c>
-      <c r="P190" s="42" t="s">
+      <c r="Q190" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="Q190" s="42" t="s">
+      <c r="R190" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="R190" s="58"/>
-    </row>
-    <row r="191" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="S190" s="58"/>
+    </row>
+    <row r="191" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L191" s="56"/>
       <c r="M191" s="71">
         <v>87</v>
@@ -25467,18 +25723,19 @@
       <c r="N191" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O191" s="39" t="s">
+      <c r="O191" s="72"/>
+      <c r="P191" s="39" t="s">
         <v>727</v>
       </c>
-      <c r="P191" s="39" t="s">
+      <c r="Q191" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q191" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R191" s="58"/>
-    </row>
-    <row r="192" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R191" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S191" s="58"/>
+    </row>
+    <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="56"/>
       <c r="M192" s="168">
         <v>86</v>
@@ -25486,18 +25743,19 @@
       <c r="N192" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O192" s="39" t="s">
+      <c r="O192" s="72"/>
+      <c r="P192" s="39" t="s">
         <v>728</v>
       </c>
-      <c r="P192" s="39" t="s">
+      <c r="Q192" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q192" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R192" s="64"/>
-    </row>
-    <row r="193" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R192" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S192" s="64"/>
+    </row>
+    <row r="193" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L193" s="56"/>
       <c r="M193" s="71">
         <v>86</v>
@@ -25505,18 +25763,19 @@
       <c r="N193" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O193" s="39" t="s">
+      <c r="O193" s="72"/>
+      <c r="P193" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="P193" s="39" t="s">
+      <c r="Q193" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q193" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R193" s="58"/>
-    </row>
-    <row r="194" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R193" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S193" s="58"/>
+    </row>
+    <row r="194" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L194" s="56"/>
       <c r="M194" s="71">
         <v>87</v>
@@ -25524,18 +25783,19 @@
       <c r="N194" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O194" s="39" t="s">
+      <c r="O194" s="72"/>
+      <c r="P194" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="P194" s="39" t="s">
+      <c r="Q194" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q194" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R194" s="58"/>
-    </row>
-    <row r="195" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R194" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S194" s="58"/>
+    </row>
+    <row r="195" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L195" s="56"/>
       <c r="M195" s="168">
         <v>116</v>
@@ -25543,18 +25803,19 @@
       <c r="N195" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O195" s="72" t="s">
+      <c r="O195" s="72"/>
+      <c r="P195" s="72" t="s">
         <v>923</v>
       </c>
-      <c r="P195" s="39" t="s">
+      <c r="Q195" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q195" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R195" s="64"/>
-    </row>
-    <row r="196" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R195" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S195" s="64"/>
+    </row>
+    <row r="196" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L196" s="56"/>
       <c r="M196" s="71">
         <v>87</v>
@@ -25562,18 +25823,19 @@
       <c r="N196" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O196" s="39" t="s">
+      <c r="O196" s="72"/>
+      <c r="P196" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="P196" s="39" t="s">
+      <c r="Q196" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q196" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R196" s="58"/>
-    </row>
-    <row r="197" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R196" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S196" s="58"/>
+    </row>
+    <row r="197" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L197" s="56"/>
       <c r="M197" s="71">
         <v>86</v>
@@ -25581,18 +25843,19 @@
       <c r="N197" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O197" s="39" t="s">
+      <c r="O197" s="72"/>
+      <c r="P197" s="39" t="s">
         <v>732</v>
       </c>
-      <c r="P197" s="39" t="s">
+      <c r="Q197" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q197" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R197" s="58"/>
-    </row>
-    <row r="198" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R197" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S197" s="58"/>
+    </row>
+    <row r="198" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L198" s="56"/>
       <c r="M198" s="71">
         <v>86</v>
@@ -25600,18 +25863,19 @@
       <c r="N198" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O198" s="39" t="s">
+      <c r="O198" s="72"/>
+      <c r="P198" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="P198" s="39" t="s">
+      <c r="Q198" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q198" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R198" s="58"/>
-    </row>
-    <row r="199" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R198" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S198" s="58"/>
+    </row>
+    <row r="199" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L199" s="56"/>
       <c r="M199" s="71">
         <v>112</v>
@@ -25619,18 +25883,19 @@
       <c r="N199" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O199" s="72" t="s">
+      <c r="O199" s="72"/>
+      <c r="P199" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="P199" s="39" t="s">
+      <c r="Q199" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q199" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R199" s="58"/>
-    </row>
-    <row r="200" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R199" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S199" s="58"/>
+    </row>
+    <row r="200" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
       <c r="M200" s="162">
         <v>91</v>
@@ -25638,18 +25903,19 @@
       <c r="N200" s="158" t="s">
         <v>850</v>
       </c>
-      <c r="O200" s="159" t="s">
+      <c r="O200" s="158"/>
+      <c r="P200" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="P200" s="159" t="s">
+      <c r="Q200" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="Q200" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="R200" s="160"/>
-    </row>
-    <row r="201" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R200" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S200" s="160"/>
+    </row>
+    <row r="201" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L201" s="56"/>
       <c r="M201" s="71">
         <v>87</v>
@@ -25657,18 +25923,19 @@
       <c r="N201" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O201" s="39" t="s">
+      <c r="O201" s="72"/>
+      <c r="P201" s="39" t="s">
         <v>734</v>
       </c>
-      <c r="P201" s="39" t="s">
+      <c r="Q201" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q201" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R201" s="58"/>
-    </row>
-    <row r="202" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R201" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S201" s="58"/>
+    </row>
+    <row r="202" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L202" s="56"/>
       <c r="M202" s="71">
         <v>86</v>
@@ -25676,18 +25943,19 @@
       <c r="N202" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O202" s="39" t="s">
+      <c r="O202" s="72"/>
+      <c r="P202" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="P202" s="39" t="s">
+      <c r="Q202" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q202" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R202" s="58"/>
-    </row>
-    <row r="203" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R202" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S202" s="58"/>
+    </row>
+    <row r="203" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L203" s="56"/>
       <c r="M203" s="161">
         <v>107</v>
@@ -25695,18 +25963,19 @@
       <c r="N203" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O203" s="85" t="s">
+      <c r="O203" s="88"/>
+      <c r="P203" s="85" t="s">
         <v>736</v>
       </c>
-      <c r="P203" s="85" t="s">
+      <c r="Q203" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q203" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R203" s="119"/>
-    </row>
-    <row r="204" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R203" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S203" s="119"/>
+    </row>
+    <row r="204" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L204" s="56"/>
       <c r="M204" s="71">
         <v>87</v>
@@ -25714,18 +25983,19 @@
       <c r="N204" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O204" s="39" t="s">
+      <c r="O204" s="72"/>
+      <c r="P204" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="P204" s="39" t="s">
+      <c r="Q204" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q204" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R204" s="58"/>
-    </row>
-    <row r="205" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R204" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S204" s="58"/>
+    </row>
+    <row r="205" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L205" s="56"/>
       <c r="M205" s="161">
         <v>107</v>
@@ -25733,18 +26003,19 @@
       <c r="N205" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O205" s="85" t="s">
+      <c r="O205" s="88"/>
+      <c r="P205" s="85" t="s">
         <v>738</v>
       </c>
-      <c r="P205" s="85" t="s">
+      <c r="Q205" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="Q205" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="R205" s="119"/>
-    </row>
-    <row r="206" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R205" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S205" s="119"/>
+    </row>
+    <row r="206" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L206" s="56"/>
       <c r="M206" s="71">
         <v>86</v>
@@ -25752,18 +26023,19 @@
       <c r="N206" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O206" s="39" t="s">
+      <c r="O206" s="72"/>
+      <c r="P206" s="39" t="s">
         <v>739</v>
       </c>
-      <c r="P206" s="39" t="s">
+      <c r="Q206" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q206" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R206" s="58"/>
-    </row>
-    <row r="207" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R206" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S206" s="58"/>
+    </row>
+    <row r="207" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L207" s="56"/>
       <c r="M207" s="71">
         <v>87</v>
@@ -25771,18 +26043,19 @@
       <c r="N207" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O207" s="39" t="s">
+      <c r="O207" s="72"/>
+      <c r="P207" s="39" t="s">
         <v>740</v>
       </c>
-      <c r="P207" s="39" t="s">
+      <c r="Q207" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q207" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R207" s="58"/>
-    </row>
-    <row r="208" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R207" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S207" s="58"/>
+    </row>
+    <row r="208" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L208" s="56"/>
       <c r="M208" s="168">
         <v>87</v>
@@ -25790,18 +26063,19 @@
       <c r="N208" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O208" s="39" t="s">
+      <c r="O208" s="72"/>
+      <c r="P208" s="39" t="s">
         <v>741</v>
       </c>
-      <c r="P208" s="39" t="s">
+      <c r="Q208" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q208" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R208" s="64"/>
-    </row>
-    <row r="209" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R208" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S208" s="64"/>
+    </row>
+    <row r="209" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L209" s="56"/>
       <c r="M209" s="71">
         <v>87</v>
@@ -25809,18 +26083,19 @@
       <c r="N209" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O209" s="39" t="s">
+      <c r="O209" s="72"/>
+      <c r="P209" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="P209" s="39" t="s">
+      <c r="Q209" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q209" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R209" s="58"/>
-    </row>
-    <row r="210" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R209" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S209" s="58"/>
+    </row>
+    <row r="210" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L210" s="56"/>
       <c r="M210" s="71">
         <v>87</v>
@@ -25828,18 +26103,19 @@
       <c r="N210" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O210" s="39" t="s">
+      <c r="O210" s="72"/>
+      <c r="P210" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="P210" s="39" t="s">
+      <c r="Q210" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q210" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R210" s="58"/>
-    </row>
-    <row r="211" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R210" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S210" s="58"/>
+    </row>
+    <row r="211" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L211" s="56"/>
       <c r="M211" s="71">
         <v>30</v>
@@ -25847,18 +26123,19 @@
       <c r="N211" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O211" s="39" t="s">
+      <c r="O211" s="72"/>
+      <c r="P211" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="P211" s="39" t="s">
+      <c r="Q211" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q211" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R211" s="58"/>
-    </row>
-    <row r="212" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R211" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S211" s="58"/>
+    </row>
+    <row r="212" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L212" s="56"/>
       <c r="M212" s="71">
         <v>87</v>
@@ -25866,18 +26143,19 @@
       <c r="N212" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O212" s="39" t="s">
+      <c r="O212" s="72"/>
+      <c r="P212" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="P212" s="39" t="s">
+      <c r="Q212" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q212" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R212" s="58"/>
-    </row>
-    <row r="213" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R212" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S212" s="58"/>
+    </row>
+    <row r="213" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L213" s="56"/>
       <c r="M213" s="71">
         <v>87</v>
@@ -25885,18 +26163,19 @@
       <c r="N213" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O213" s="39" t="s">
+      <c r="O213" s="72"/>
+      <c r="P213" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="P213" s="39" t="s">
+      <c r="Q213" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q213" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R213" s="58"/>
-    </row>
-    <row r="214" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R213" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S213" s="58"/>
+    </row>
+    <row r="214" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L214" s="56"/>
       <c r="M214" s="71">
         <v>87</v>
@@ -25904,18 +26183,19 @@
       <c r="N214" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O214" s="39" t="s">
+      <c r="O214" s="72"/>
+      <c r="P214" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="P214" s="39" t="s">
+      <c r="Q214" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q214" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R214" s="58"/>
-    </row>
-    <row r="215" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R214" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S214" s="58"/>
+    </row>
+    <row r="215" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L215" s="56"/>
       <c r="M215" s="71">
         <v>87</v>
@@ -25923,18 +26203,19 @@
       <c r="N215" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O215" s="39" t="s">
+      <c r="O215" s="72"/>
+      <c r="P215" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="P215" s="39" t="s">
+      <c r="Q215" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q215" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R215" s="58"/>
-    </row>
-    <row r="216" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R215" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S215" s="58"/>
+    </row>
+    <row r="216" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L216" s="56"/>
       <c r="M216" s="71">
         <v>86</v>
@@ -25942,18 +26223,19 @@
       <c r="N216" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O216" s="39" t="s">
+      <c r="O216" s="72"/>
+      <c r="P216" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="P216" s="39" t="s">
+      <c r="Q216" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q216" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R216" s="58"/>
-    </row>
-    <row r="217" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R216" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S216" s="58"/>
+    </row>
+    <row r="217" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L217" s="56"/>
       <c r="M217" s="71">
         <v>87</v>
@@ -25961,18 +26243,19 @@
       <c r="N217" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O217" s="39" t="s">
+      <c r="O217" s="72"/>
+      <c r="P217" s="39" t="s">
         <v>750</v>
       </c>
-      <c r="P217" s="39" t="s">
+      <c r="Q217" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q217" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R217" s="58"/>
-    </row>
-    <row r="218" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R217" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S217" s="58"/>
+    </row>
+    <row r="218" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L218" s="56"/>
       <c r="M218" s="71">
         <v>87</v>
@@ -25980,18 +26263,19 @@
       <c r="N218" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O218" s="39" t="s">
+      <c r="O218" s="72"/>
+      <c r="P218" s="39" t="s">
         <v>751</v>
       </c>
-      <c r="P218" s="39" t="s">
+      <c r="Q218" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q218" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R218" s="58"/>
-    </row>
-    <row r="219" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R218" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S218" s="58"/>
+    </row>
+    <row r="219" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L219" s="56"/>
       <c r="M219" s="71">
         <v>87</v>
@@ -25999,18 +26283,19 @@
       <c r="N219" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O219" s="39" t="s">
+      <c r="O219" s="72"/>
+      <c r="P219" s="39" t="s">
         <v>752</v>
       </c>
-      <c r="P219" s="39" t="s">
+      <c r="Q219" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q219" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R219" s="58"/>
-    </row>
-    <row r="220" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R219" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S219" s="58"/>
+    </row>
+    <row r="220" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L220" s="56"/>
       <c r="M220" s="71">
         <v>64</v>
@@ -26018,18 +26303,19 @@
       <c r="N220" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O220" s="39" t="s">
+      <c r="O220" s="72"/>
+      <c r="P220" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="P220" s="39" t="s">
+      <c r="Q220" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q220" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R220" s="58"/>
-    </row>
-    <row r="221" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R220" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S220" s="58"/>
+    </row>
+    <row r="221" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L221" s="56"/>
       <c r="M221" s="71">
         <v>87</v>
@@ -26037,18 +26323,19 @@
       <c r="N221" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O221" s="39" t="s">
+      <c r="O221" s="72"/>
+      <c r="P221" s="39" t="s">
         <v>754</v>
       </c>
-      <c r="P221" s="39" t="s">
+      <c r="Q221" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q221" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R221" s="58"/>
-    </row>
-    <row r="222" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R221" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S221" s="58"/>
+    </row>
+    <row r="222" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L222" s="56"/>
       <c r="M222" s="71">
         <v>87</v>
@@ -26056,18 +26343,19 @@
       <c r="N222" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O222" s="39" t="s">
+      <c r="O222" s="72"/>
+      <c r="P222" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="P222" s="39" t="s">
+      <c r="Q222" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q222" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R222" s="58"/>
-    </row>
-    <row r="223" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R222" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S222" s="58"/>
+    </row>
+    <row r="223" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L223" s="56"/>
       <c r="M223" s="168">
         <v>86</v>
@@ -26075,18 +26363,19 @@
       <c r="N223" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O223" s="42" t="s">
+      <c r="O223" s="72"/>
+      <c r="P223" s="42" t="s">
         <v>756</v>
       </c>
-      <c r="P223" s="39" t="s">
+      <c r="Q223" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q223" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R223" s="64"/>
-    </row>
-    <row r="224" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R223" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S223" s="64"/>
+    </row>
+    <row r="224" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L224" s="56"/>
       <c r="M224" s="71">
         <v>86</v>
@@ -26094,18 +26383,19 @@
       <c r="N224" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O224" s="39" t="s">
+      <c r="O224" s="72"/>
+      <c r="P224" s="39" t="s">
         <v>757</v>
       </c>
-      <c r="P224" s="39" t="s">
+      <c r="Q224" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q224" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R224" s="58"/>
-    </row>
-    <row r="225" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R224" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S224" s="58"/>
+    </row>
+    <row r="225" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L225" s="56"/>
       <c r="M225" s="168">
         <v>117</v>
@@ -26113,18 +26403,19 @@
       <c r="N225" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O225" s="39" t="s">
+      <c r="O225" s="72"/>
+      <c r="P225" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="P225" s="39" t="s">
+      <c r="Q225" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q225" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R225" s="64"/>
-    </row>
-    <row r="226" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R225" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S225" s="64"/>
+    </row>
+    <row r="226" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L226" s="56"/>
       <c r="M226" s="71">
         <v>86</v>
@@ -26132,18 +26423,19 @@
       <c r="N226" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O226" s="39" t="s">
+      <c r="O226" s="72"/>
+      <c r="P226" s="39" t="s">
         <v>759</v>
       </c>
-      <c r="P226" s="39" t="s">
+      <c r="Q226" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q226" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R226" s="58"/>
-    </row>
-    <row r="227" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R226" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S226" s="58"/>
+    </row>
+    <row r="227" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L227" s="56"/>
       <c r="M227" s="71">
         <v>87</v>
@@ -26151,18 +26443,19 @@
       <c r="N227" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O227" s="39" t="s">
+      <c r="O227" s="72"/>
+      <c r="P227" s="39" t="s">
         <v>760</v>
       </c>
-      <c r="P227" s="39" t="s">
+      <c r="Q227" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q227" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R227" s="58"/>
-    </row>
-    <row r="228" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R227" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S227" s="58"/>
+    </row>
+    <row r="228" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L228" s="56"/>
       <c r="M228" s="71">
         <v>86</v>
@@ -26170,18 +26463,19 @@
       <c r="N228" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O228" s="39" t="s">
+      <c r="O228" s="72"/>
+      <c r="P228" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="P228" s="39" t="s">
+      <c r="Q228" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q228" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R228" s="58"/>
-    </row>
-    <row r="229" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R228" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S228" s="58"/>
+    </row>
+    <row r="229" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L229" s="56"/>
       <c r="M229" s="71">
         <v>87</v>
@@ -26189,18 +26483,19 @@
       <c r="N229" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O229" s="39" t="s">
+      <c r="O229" s="72"/>
+      <c r="P229" s="39" t="s">
         <v>762</v>
       </c>
-      <c r="P229" s="39" t="s">
+      <c r="Q229" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q229" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="58"/>
-    </row>
-    <row r="230" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R229" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S229" s="58"/>
+    </row>
+    <row r="230" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L230" s="56"/>
       <c r="M230" s="71">
         <v>87</v>
@@ -26208,18 +26503,19 @@
       <c r="N230" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O230" s="39" t="s">
+      <c r="O230" s="72"/>
+      <c r="P230" s="39" t="s">
         <v>763</v>
       </c>
-      <c r="P230" s="39" t="s">
+      <c r="Q230" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="Q230" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R230" s="58"/>
-    </row>
-    <row r="231" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R230" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S230" s="58"/>
+    </row>
+    <row r="231" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L231" s="56"/>
       <c r="M231" s="71">
         <v>87</v>
@@ -26227,18 +26523,19 @@
       <c r="N231" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O231" s="39" t="s">
+      <c r="O231" s="72"/>
+      <c r="P231" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="P231" s="39" t="s">
+      <c r="Q231" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="Q231" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R231" s="58"/>
-    </row>
-    <row r="232" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R231" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S231" s="58"/>
+    </row>
+    <row r="232" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L232" s="56"/>
       <c r="M232" s="71">
         <v>86</v>
@@ -26246,18 +26543,19 @@
       <c r="N232" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O232" s="39" t="s">
+      <c r="O232" s="72"/>
+      <c r="P232" s="39" t="s">
         <v>765</v>
       </c>
-      <c r="P232" s="39" t="s">
+      <c r="Q232" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q232" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R232" s="58"/>
-    </row>
-    <row r="233" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R232" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S232" s="58"/>
+    </row>
+    <row r="233" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L233" s="56"/>
       <c r="M233" s="71">
         <v>86</v>
@@ -26265,18 +26563,19 @@
       <c r="N233" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O233" s="39" t="s">
+      <c r="O233" s="72"/>
+      <c r="P233" s="39" t="s">
         <v>766</v>
       </c>
-      <c r="P233" s="39" t="s">
+      <c r="Q233" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q233" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R233" s="58"/>
-    </row>
-    <row r="234" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R233" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S233" s="58"/>
+    </row>
+    <row r="234" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L234" s="56"/>
       <c r="M234" s="71">
         <v>87</v>
@@ -26284,18 +26583,19 @@
       <c r="N234" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O234" s="39" t="s">
+      <c r="O234" s="72"/>
+      <c r="P234" s="39" t="s">
         <v>767</v>
       </c>
-      <c r="P234" s="39" t="s">
+      <c r="Q234" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Q234" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R234" s="58"/>
-    </row>
-    <row r="235" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R234" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S234" s="58"/>
+    </row>
+    <row r="235" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L235" s="56"/>
       <c r="M235" s="71">
         <v>86</v>
@@ -26303,18 +26603,19 @@
       <c r="N235" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O235" s="39" t="s">
+      <c r="O235" s="72"/>
+      <c r="P235" s="39" t="s">
         <v>768</v>
       </c>
-      <c r="P235" s="39" t="s">
+      <c r="Q235" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q235" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R235" s="58"/>
-    </row>
-    <row r="236" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R235" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S235" s="58"/>
+    </row>
+    <row r="236" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L236" s="56"/>
       <c r="M236" s="71">
         <v>87</v>
@@ -26322,18 +26623,19 @@
       <c r="N236" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O236" s="39" t="s">
+      <c r="O236" s="72"/>
+      <c r="P236" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="P236" s="39" t="s">
+      <c r="Q236" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q236" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R236" s="58"/>
-    </row>
-    <row r="237" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R236" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S236" s="58"/>
+    </row>
+    <row r="237" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L237" s="56"/>
       <c r="M237" s="71">
         <v>87</v>
@@ -26341,18 +26643,19 @@
       <c r="N237" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O237" s="39" t="s">
+      <c r="O237" s="72"/>
+      <c r="P237" s="39" t="s">
         <v>770</v>
       </c>
-      <c r="P237" s="39" t="s">
+      <c r="Q237" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q237" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R237" s="58"/>
-    </row>
-    <row r="238" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R237" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S237" s="58"/>
+    </row>
+    <row r="238" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L238" s="56"/>
       <c r="M238" s="71">
         <v>87</v>
@@ -26360,18 +26663,19 @@
       <c r="N238" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O238" s="39" t="s">
+      <c r="O238" s="72"/>
+      <c r="P238" s="39" t="s">
         <v>771</v>
       </c>
-      <c r="P238" s="39" t="s">
+      <c r="Q238" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q238" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R238" s="58"/>
-    </row>
-    <row r="239" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R238" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S238" s="58"/>
+    </row>
+    <row r="239" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L239" s="56"/>
       <c r="M239" s="71">
         <v>87</v>
@@ -26379,18 +26683,19 @@
       <c r="N239" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O239" s="39" t="s">
+      <c r="O239" s="72"/>
+      <c r="P239" s="39" t="s">
         <v>772</v>
       </c>
-      <c r="P239" s="39" t="s">
+      <c r="Q239" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q239" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R239" s="58"/>
-    </row>
-    <row r="240" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R239" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S239" s="58"/>
+    </row>
+    <row r="240" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L240" s="56"/>
       <c r="M240" s="71">
         <v>87</v>
@@ -26398,18 +26703,19 @@
       <c r="N240" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O240" s="39" t="s">
+      <c r="O240" s="72"/>
+      <c r="P240" s="39" t="s">
         <v>773</v>
       </c>
-      <c r="P240" s="39" t="s">
+      <c r="Q240" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q240" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R240" s="58"/>
-    </row>
-    <row r="241" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R240" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S240" s="58"/>
+    </row>
+    <row r="241" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L241" s="56"/>
       <c r="M241" s="71">
         <v>87</v>
@@ -26417,18 +26723,19 @@
       <c r="N241" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O241" s="39" t="s">
+      <c r="O241" s="72"/>
+      <c r="P241" s="39" t="s">
         <v>774</v>
       </c>
-      <c r="P241" s="39" t="s">
+      <c r="Q241" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q241" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R241" s="58"/>
-    </row>
-    <row r="242" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="R241" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S241" s="58"/>
+    </row>
+    <row r="242" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L242" s="56"/>
       <c r="M242" s="71">
         <v>87</v>
@@ -26436,18 +26743,19 @@
       <c r="N242" s="72" t="s">
         <v>850</v>
       </c>
-      <c r="O242" s="39" t="s">
+      <c r="O242" s="72"/>
+      <c r="P242" s="39" t="s">
         <v>775</v>
       </c>
-      <c r="P242" s="39" t="s">
+      <c r="Q242" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q242" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R242" s="58"/>
-    </row>
-    <row r="243" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R242" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S242" s="58"/>
+    </row>
+    <row r="243" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L243" s="53"/>
       <c r="M243" s="126">
         <v>86</v>
@@ -26455,20 +26763,21 @@
       <c r="N243" s="55" t="s">
         <v>850</v>
       </c>
-      <c r="O243" s="55" t="s">
+      <c r="O243" s="55"/>
+      <c r="P243" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="P243" s="55" t="s">
+      <c r="Q243" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Q243" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="R243" s="59"/>
+      <c r="R243" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="S243" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="M7:S7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
@@ -26487,8 +26796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="K8" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26525,26 +26834,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -26557,11 +26866,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -26574,11 +26883,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26590,29 +26899,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27660,26 +27969,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -27692,11 +28001,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -27709,11 +28018,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -27725,29 +28034,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28831,26 +29140,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -28863,11 +29172,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -28880,11 +29189,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28896,29 +29205,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -31620,7 +31929,7 @@
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31657,26 +31966,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -31689,11 +31998,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -31706,11 +32015,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -31722,29 +32031,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32368,8 +32677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32406,26 +32715,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32438,11 +32747,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -32455,11 +32764,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -32471,29 +32780,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33716,26 +34025,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -33748,11 +34057,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -33765,11 +34074,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -33781,29 +34090,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34972,26 +35281,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="210" t="s">
         <v>452</v>
       </c>
-      <c r="E2" s="209"/>
-      <c r="F2" s="210"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="217" t="s">
+      <c r="H2" s="219" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="218"/>
-      <c r="J2" s="219"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="218"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -35004,11 +35313,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="211" t="s">
+      <c r="D4" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="215"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -35021,11 +35330,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="211" t="s">
+      <c r="D5" s="213" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -35037,29 +35346,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="207"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="201" t="s">
+      <c r="M7" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="795" windowWidth="9225" windowHeight="4230" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="839" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1026">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -14326,8 +14326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15305,8 +15305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18014,7 +18014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -20451,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L64" workbookViewId="0">
-      <selection activeCell="O93" sqref="O93"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24783,7 +24783,9 @@
       <c r="N144" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O144" s="88"/>
+      <c r="O144" s="88" t="s">
+        <v>279</v>
+      </c>
       <c r="P144" s="81" t="s">
         <v>354</v>
       </c>
@@ -24923,7 +24925,9 @@
       <c r="N151" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O151" s="88"/>
+      <c r="O151" s="88" t="s">
+        <v>279</v>
+      </c>
       <c r="P151" s="88" t="s">
         <v>361</v>
       </c>
@@ -24943,7 +24947,9 @@
       <c r="N152" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O152" s="88"/>
+      <c r="O152" s="88" t="s">
+        <v>281</v>
+      </c>
       <c r="P152" s="88" t="s">
         <v>362</v>
       </c>
@@ -24963,7 +24969,9 @@
       <c r="N153" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O153" s="88"/>
+      <c r="O153" s="88" t="s">
+        <v>280</v>
+      </c>
       <c r="P153" s="88" t="s">
         <v>363</v>
       </c>
@@ -24983,7 +24991,9 @@
       <c r="N154" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O154" s="88"/>
+      <c r="O154" s="88" t="s">
+        <v>281</v>
+      </c>
       <c r="P154" s="88" t="s">
         <v>364</v>
       </c>
@@ -25063,7 +25073,9 @@
       <c r="N158" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O158" s="88"/>
+      <c r="O158" s="88" t="s">
+        <v>281</v>
+      </c>
       <c r="P158" s="88" t="s">
         <v>368</v>
       </c>
@@ -25083,7 +25095,9 @@
       <c r="N159" s="88" t="s">
         <v>852</v>
       </c>
-      <c r="O159" s="88"/>
+      <c r="O159" s="88" t="s">
+        <v>281</v>
+      </c>
       <c r="P159" s="88" t="s">
         <v>369</v>
       </c>
@@ -25103,7 +25117,9 @@
       <c r="N160" s="138" t="s">
         <v>852</v>
       </c>
-      <c r="O160" s="138"/>
+      <c r="O160" s="138" t="s">
+        <v>281</v>
+      </c>
       <c r="P160" s="139" t="s">
         <v>370</v>
       </c>
@@ -25378,7 +25394,7 @@
     <row r="174" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
       <c r="M174" s="71">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N174" s="72" t="s">
         <v>850</v>
@@ -25963,7 +25979,9 @@
       <c r="N203" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O203" s="88"/>
+      <c r="O203" s="88" t="s">
+        <v>439</v>
+      </c>
       <c r="P203" s="85" t="s">
         <v>736</v>
       </c>
@@ -26003,7 +26021,9 @@
       <c r="N205" s="88" t="s">
         <v>850</v>
       </c>
-      <c r="O205" s="88"/>
+      <c r="O205" s="88" t="s">
+        <v>439</v>
+      </c>
       <c r="P205" s="85" t="s">
         <v>738</v>
       </c>
@@ -26796,8 +26816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29102,8 +29122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33987,7 +34007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="L21" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -35243,7 +35263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="839" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="839" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -8181,7 +8181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15305,7 +15305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -20451,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="K54" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22747,7 +22747,7 @@
       <c r="H62" s="56"/>
       <c r="L62" s="56"/>
       <c r="M62" s="110">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N62" s="72" t="s">
         <v>1019</v>
@@ -26816,8 +26816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="855" windowWidth="9225" windowHeight="4170" tabRatio="839" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4750" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1026">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -18326,7 +18326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="K53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -20451,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K54" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView topLeftCell="L112" workbookViewId="0">
+      <selection activeCell="R126" sqref="R126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24255,7 +24255,9 @@
       <c r="N118" s="88" t="s">
         <v>1019</v>
       </c>
-      <c r="O118" s="88"/>
+      <c r="O118" s="88" t="s">
+        <v>281</v>
+      </c>
       <c r="P118" s="88" t="s">
         <v>255</v>
       </c>
@@ -26816,8 +26818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29122,8 +29124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31948,8 +31950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32697,8 +32699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32717,7 +32719,7 @@
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" style="2" customWidth="1"/>
     <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -34007,8 +34009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35263,8 +35265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -8181,7 +8181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20451,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView topLeftCell="L112" workbookViewId="0">
-      <selection activeCell="R126" sqref="R126"/>
+    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24658,8 +24658,8 @@
     </row>
     <row r="138" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L138" s="96"/>
-      <c r="M138" s="90">
-        <v>89</v>
+      <c r="M138" s="26">
+        <v>72</v>
       </c>
       <c r="N138" s="72" t="s">
         <v>852</v>
@@ -32699,7 +32699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -34009,7 +34009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D33" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -35265,8 +35265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -8181,7 +8181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20451,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L121" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="L46" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="1030">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6144,6 +6144,18 @@
   </si>
   <si>
     <t>Validaciones Generales Fuente PS_AA_INF_LEGAL/4. Búsqueda Naturaleza Entidad</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -6325,7 +6337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6481,12 +6493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7285,7 +7291,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -7590,7 +7596,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -8181,7 +8186,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8191,8 +8196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T253"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="J29:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8230,27 +8235,27 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
-      <c r="H2" s="219" t="s">
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216" t="s">
+      <c r="D3" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
         <v>847</v>
@@ -8262,11 +8267,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -8279,11 +8284,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
       <c r="H5" s="163"/>
       <c r="I5" s="164"/>
@@ -8298,30 +8303,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9227,7 +9232,7 @@
       </c>
       <c r="S27" s="58"/>
     </row>
-    <row r="28" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="26">
         <v>20</v>
       </c>
@@ -9243,13 +9248,13 @@
       <c r="F28" s="44"/>
       <c r="G28" s="69"/>
       <c r="H28" s="96"/>
-      <c r="I28" s="54">
+      <c r="I28" s="57">
         <v>82</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="38" t="s">
         <v>930</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="58" t="s">
         <v>931</v>
       </c>
       <c r="L28" s="98"/>
@@ -9286,8 +9291,17 @@
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="69"/>
-      <c r="H29" s="56"/>
-      <c r="L29" s="56"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="57">
+        <v>83</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K29" s="58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L29" s="98"/>
       <c r="M29" s="71">
         <v>62</v>
       </c>
@@ -9306,7 +9320,7 @@
       </c>
       <c r="S29" s="58"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="26">
         <v>22</v>
       </c>
@@ -9321,8 +9335,17 @@
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="69"/>
-      <c r="H30" s="56"/>
-      <c r="L30" s="56"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="54">
+        <v>84</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K30" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L30" s="98"/>
       <c r="M30" s="71">
         <v>62</v>
       </c>
@@ -10232,7 +10255,7 @@
       <c r="H56" s="56"/>
       <c r="L56" s="56"/>
       <c r="M56" s="162">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N56" s="158" t="s">
         <v>846</v>
@@ -12623,7 +12646,7 @@
     <row r="170" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
       <c r="M170" s="157">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="N170" s="158" t="s">
         <v>849</v>
@@ -13228,7 +13251,7 @@
     </row>
     <row r="200" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L200" s="96"/>
-      <c r="M200" s="202">
+      <c r="M200" s="128">
         <v>74</v>
       </c>
       <c r="N200" s="72" t="s">
@@ -13329,7 +13352,7 @@
     </row>
     <row r="205" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L205" s="96"/>
-      <c r="M205" s="202">
+      <c r="M205" s="128">
         <v>81</v>
       </c>
       <c r="N205" s="72" t="s">
@@ -13427,7 +13450,7 @@
     <row r="210" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L210" s="96"/>
       <c r="M210" s="157">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N210" s="158" t="s">
         <v>850</v>
@@ -14326,7 +14349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -14364,26 +14387,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -14396,11 +14419,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -14413,11 +14436,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14429,29 +14452,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15305,7 +15328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -15343,26 +15366,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15375,11 +15398,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -15392,11 +15415,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15408,29 +15431,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15728,7 +15751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -15766,26 +15789,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>818</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15798,11 +15821,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -15815,11 +15838,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15831,29 +15854,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16455,26 +16478,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16487,11 +16510,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -16504,11 +16527,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16520,29 +16543,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17194,26 +17217,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17226,11 +17249,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -17243,11 +17266,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17259,29 +17282,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="225" t="s">
+      <c r="M7" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="224"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="223"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17740,26 +17763,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>947</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17772,11 +17795,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -17789,11 +17812,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17805,29 +17828,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="225" t="s">
+      <c r="M7" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="224"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="223"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18014,7 +18037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -18052,26 +18075,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>950</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18084,11 +18107,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -18101,11 +18124,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18117,29 +18140,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="225" t="s">
+      <c r="M7" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="224"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="223"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18326,8 +18349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="I42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18365,26 +18388,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>1008</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18397,11 +18420,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -18414,11 +18437,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -18430,29 +18453,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="222" t="s">
+      <c r="M7" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="224"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="223"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18804,7 +18827,7 @@
       </c>
       <c r="R15" s="58"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="127">
         <v>8</v>
       </c>
@@ -18820,13 +18843,13 @@
       <c r="F16" s="143"/>
       <c r="G16" s="142"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="54">
+      <c r="I16" s="57">
         <v>68</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="38" t="s">
         <v>1007</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="58" t="s">
         <v>1012</v>
       </c>
       <c r="L16" s="103"/>
@@ -18862,8 +18885,17 @@
       </c>
       <c r="F17" s="143"/>
       <c r="G17" s="142"/>
-      <c r="H17" s="56"/>
-      <c r="L17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="57">
+        <v>69</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L17" s="103"/>
       <c r="M17" s="57">
         <v>63</v>
       </c>
@@ -18881,7 +18913,7 @@
       </c>
       <c r="R17" s="58"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="127">
         <v>10</v>
       </c>
@@ -18898,8 +18930,17 @@
       <c r="G18" s="142" t="s">
         <v>700</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="L18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="54">
+        <v>70</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K18" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L18" s="103"/>
       <c r="M18" s="57">
         <v>62</v>
       </c>
@@ -20023,7 +20064,7 @@
       <c r="H51" s="56"/>
       <c r="L51" s="96"/>
       <c r="M51" s="57">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="N51" s="72" t="s">
         <v>846</v>
@@ -20057,7 +20098,7 @@
       <c r="H52" s="56"/>
       <c r="L52" s="96"/>
       <c r="M52" s="157">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N52" s="158" t="s">
         <v>846</v>
@@ -20451,8 +20492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L46" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20490,28 +20531,28 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216" t="s">
+      <c r="D3" s="215" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -20524,9 +20565,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -20539,9 +20580,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -20553,30 +20594,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="222" t="s">
+      <c r="M7" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="224"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="223"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -21660,7 +21701,7 @@
       </c>
       <c r="S31" s="58"/>
     </row>
-    <row r="32" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="26">
         <v>24</v>
       </c>
@@ -21676,13 +21717,13 @@
       <c r="F32" s="43"/>
       <c r="G32" s="47"/>
       <c r="H32" s="96"/>
-      <c r="I32" s="54">
+      <c r="I32" s="57">
         <v>117</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="J32" s="38" t="s">
         <v>935</v>
       </c>
-      <c r="K32" s="59" t="s">
+      <c r="K32" s="58" t="s">
         <v>940</v>
       </c>
       <c r="L32" s="103"/>
@@ -21719,8 +21760,17 @@
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="47"/>
-      <c r="H33" s="56"/>
-      <c r="L33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="57">
+        <v>118</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L33" s="103"/>
       <c r="M33" s="26">
         <v>86</v>
       </c>
@@ -21739,7 +21789,7 @@
       </c>
       <c r="S33" s="58"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="26">
         <v>26</v>
       </c>
@@ -21754,8 +21804,17 @@
       </c>
       <c r="F34" s="43"/>
       <c r="G34" s="47"/>
-      <c r="H34" s="56"/>
-      <c r="L34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="54">
+        <v>119</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K34" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L34" s="103"/>
       <c r="M34" s="26">
         <v>86</v>
       </c>
@@ -22492,7 +22551,7 @@
       <c r="H55" s="56"/>
       <c r="L55" s="96"/>
       <c r="M55" s="157">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="N55" s="158" t="s">
         <v>846</v>
@@ -24822,7 +24881,7 @@
     <row r="146" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L146" s="96"/>
       <c r="M146" s="157">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N146" s="158" t="s">
         <v>852</v>
@@ -25916,7 +25975,7 @@
     <row r="200" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
       <c r="M200" s="162">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="N200" s="158" t="s">
         <v>850</v>
@@ -26818,7 +26877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="J5" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -26856,26 +26915,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -26888,11 +26947,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -26905,11 +26964,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -26921,29 +26980,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27991,26 +28050,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -28023,11 +28082,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -28040,11 +28099,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -28056,29 +28115,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29124,7 +29183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
@@ -29162,26 +29221,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -29194,11 +29253,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -29211,11 +29270,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -29227,29 +29286,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -31950,7 +32009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -31988,26 +32047,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32020,11 +32079,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -32037,11 +32096,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -32053,29 +32112,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32699,7 +32758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -32737,26 +32796,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32769,11 +32828,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -32786,11 +32845,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -32802,29 +32861,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34009,7 +34068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -34047,26 +34106,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -34079,11 +34138,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -34096,11 +34155,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -34112,29 +34171,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35265,8 +35324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35303,26 +35362,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="210" t="s">
+      <c r="D2" s="209" t="s">
         <v>452</v>
       </c>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="219" t="s">
+      <c r="H2" s="218" t="s">
         <v>851</v>
       </c>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="218"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -35335,11 +35394,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="213" t="s">
+      <c r="D4" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="7"/>
       <c r="H4" s="165"/>
       <c r="I4" s="101" t="s">
@@ -35352,11 +35411,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="214"/>
-      <c r="F5" s="215"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -35368,29 +35427,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="205" t="s">
+      <c r="I7" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206"/>
-      <c r="K7" s="207"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="206"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="203" t="s">
+      <c r="M7" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="203"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35842,7 +35901,7 @@
       </c>
       <c r="R17" s="58"/>
     </row>
-    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="127">
         <v>10</v>
       </c>
@@ -35858,13 +35917,13 @@
       <c r="F18" s="144"/>
       <c r="G18" s="148"/>
       <c r="H18" s="96"/>
-      <c r="I18" s="54">
+      <c r="I18" s="57">
         <v>23</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="38" t="s">
         <v>945</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="58" t="s">
         <v>946</v>
       </c>
       <c r="L18" s="98"/>
@@ -35900,8 +35959,17 @@
       </c>
       <c r="F19" s="145"/>
       <c r="G19" s="148"/>
-      <c r="H19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="57">
+        <v>24</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K19" s="58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L19" s="98"/>
       <c r="M19" s="57">
         <v>20</v>
       </c>
@@ -35919,7 +35987,7 @@
       </c>
       <c r="R19" s="58"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="127">
         <v>12</v>
       </c>
@@ -35934,8 +36002,17 @@
       </c>
       <c r="F20" s="145"/>
       <c r="G20" s="148"/>
-      <c r="H20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="54">
+        <v>25</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K20" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L20" s="98"/>
       <c r="M20" s="57">
         <v>21</v>
       </c>
@@ -36028,7 +36105,7 @@
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="53"/>
       <c r="M24" s="155">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N24" s="176" t="s">
         <v>878</v>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4767" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4784" uniqueCount="1031">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -5612,9 +5612,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>Upsert PRFL_ORG</t>
   </si>
   <si>
@@ -6156,6 +6153,12 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -6337,7 +6340,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6493,6 +6496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7291,7 +7300,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -7541,11 +7550,6 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="36" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7665,6 +7669,17 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -8186,7 +8201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8196,8 +8211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T253"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="J29:K30"/>
+    <sheetView topLeftCell="L236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M209" sqref="M209:S209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8235,64 +8250,66 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215" t="s">
+      <c r="D3" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
         <v>847</v>
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="163"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -8303,30 +8320,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8365,7 +8382,7 @@
         <v>13</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>1</v>
@@ -8633,23 +8650,23 @@
         <v>188</v>
       </c>
       <c r="L14" s="98"/>
-      <c r="M14" s="31">
+      <c r="M14" s="224">
         <v>47</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="225" t="s">
         <v>846</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="39" t="s">
+      <c r="O14" s="225"/>
+      <c r="P14" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="64"/>
+      <c r="R14" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="226"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
@@ -9120,10 +9137,10 @@
         <v>79</v>
       </c>
       <c r="J25" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="K25" s="58" t="s">
         <v>924</v>
-      </c>
-      <c r="K25" s="58" t="s">
-        <v>925</v>
       </c>
       <c r="L25" s="98"/>
       <c r="M25" s="71">
@@ -9164,10 +9181,10 @@
         <v>80</v>
       </c>
       <c r="J26" s="38" t="s">
+        <v>925</v>
+      </c>
+      <c r="K26" s="58" t="s">
         <v>926</v>
-      </c>
-      <c r="K26" s="58" t="s">
-        <v>927</v>
       </c>
       <c r="L26" s="98"/>
       <c r="M26" s="71">
@@ -9208,10 +9225,10 @@
         <v>81</v>
       </c>
       <c r="J27" s="38" t="s">
+        <v>927</v>
+      </c>
+      <c r="K27" s="58" t="s">
         <v>928</v>
-      </c>
-      <c r="K27" s="58" t="s">
-        <v>929</v>
       </c>
       <c r="L27" s="98"/>
       <c r="M27" s="71">
@@ -9252,10 +9269,10 @@
         <v>82</v>
       </c>
       <c r="J28" s="38" t="s">
+        <v>929</v>
+      </c>
+      <c r="K28" s="58" t="s">
         <v>930</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>931</v>
       </c>
       <c r="L28" s="98"/>
       <c r="M28" s="71">
@@ -9296,10 +9313,10 @@
         <v>83</v>
       </c>
       <c r="J29" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K29" s="58" t="s">
         <v>1026</v>
-      </c>
-      <c r="K29" s="58" t="s">
-        <v>1027</v>
       </c>
       <c r="L29" s="98"/>
       <c r="M29" s="71">
@@ -9340,10 +9357,10 @@
         <v>84</v>
       </c>
       <c r="J30" s="55" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K30" s="92" t="s">
         <v>1028</v>
-      </c>
-      <c r="K30" s="92" t="s">
-        <v>1029</v>
       </c>
       <c r="L30" s="98"/>
       <c r="M30" s="71">
@@ -10290,17 +10307,17 @@
       <c r="G57" s="69"/>
       <c r="H57" s="56"/>
       <c r="L57" s="56"/>
-      <c r="M57" s="195">
+      <c r="M57" s="192">
         <v>68</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>846</v>
       </c>
       <c r="O57" s="138" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P57" s="139" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="Q57" s="139" t="s">
         <v>33</v>
@@ -10308,7 +10325,7 @@
       <c r="R57" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="S57" s="166"/>
+      <c r="S57" s="163"/>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="26">
@@ -10331,7 +10348,7 @@
         <v>64</v>
       </c>
       <c r="N58" s="74" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O58" s="74"/>
       <c r="P58" s="62" t="s">
@@ -10368,7 +10385,7 @@
         <v>68</v>
       </c>
       <c r="N59" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O59" s="88" t="s">
         <v>434</v>
@@ -10405,7 +10422,7 @@
         <v>63</v>
       </c>
       <c r="N60" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O60" s="72"/>
       <c r="P60" s="39" t="s">
@@ -10438,7 +10455,7 @@
         <v>68</v>
       </c>
       <c r="N61" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O61" s="88" t="s">
         <v>435</v>
@@ -10460,7 +10477,7 @@
         <v>63</v>
       </c>
       <c r="N62" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O62" s="72"/>
       <c r="P62" s="39" t="s">
@@ -10480,7 +10497,7 @@
         <v>69</v>
       </c>
       <c r="N63" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O63" s="72"/>
       <c r="P63" s="39" t="s">
@@ -10500,7 +10517,7 @@
         <v>65</v>
       </c>
       <c r="N64" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O64" s="72"/>
       <c r="P64" s="39" t="s">
@@ -10520,7 +10537,7 @@
         <v>70</v>
       </c>
       <c r="N65" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O65" s="72"/>
       <c r="P65" s="39" t="s">
@@ -10540,7 +10557,7 @@
         <v>65</v>
       </c>
       <c r="N66" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O66" s="72"/>
       <c r="P66" s="39" t="s">
@@ -10560,7 +10577,7 @@
         <v>68</v>
       </c>
       <c r="N67" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O67" s="88" t="s">
         <v>434</v>
@@ -10582,7 +10599,7 @@
         <v>63</v>
       </c>
       <c r="N68" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O68" s="72"/>
       <c r="P68" s="39" t="s">
@@ -10602,7 +10619,7 @@
         <v>68</v>
       </c>
       <c r="N69" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O69" s="88" t="s">
         <v>434</v>
@@ -10624,7 +10641,7 @@
         <v>63</v>
       </c>
       <c r="N70" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O70" s="72"/>
       <c r="P70" s="39" t="s">
@@ -10644,7 +10661,7 @@
         <v>68</v>
       </c>
       <c r="N71" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O71" s="88" t="s">
         <v>435</v>
@@ -10666,7 +10683,7 @@
         <v>63</v>
       </c>
       <c r="N72" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O72" s="72"/>
       <c r="P72" s="39" t="s">
@@ -10686,7 +10703,7 @@
         <v>62</v>
       </c>
       <c r="N73" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O73" s="72"/>
       <c r="P73" s="39" t="s">
@@ -10706,7 +10723,7 @@
         <v>63</v>
       </c>
       <c r="N74" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O74" s="72"/>
       <c r="P74" s="39" t="s">
@@ -10726,7 +10743,7 @@
         <v>68</v>
       </c>
       <c r="N75" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O75" s="88" t="s">
         <v>435</v>
@@ -10748,7 +10765,7 @@
         <v>63</v>
       </c>
       <c r="N76" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O76" s="72"/>
       <c r="P76" s="39" t="s">
@@ -10769,7 +10786,7 @@
         <v>68</v>
       </c>
       <c r="N77" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O77" s="88" t="s">
         <v>435</v>
@@ -10791,7 +10808,7 @@
         <v>63</v>
       </c>
       <c r="N78" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O78" s="72"/>
       <c r="P78" s="39" t="s">
@@ -10807,11 +10824,11 @@
     </row>
     <row r="79" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L79" s="56"/>
-      <c r="M79" s="168">
+      <c r="M79" s="165">
         <v>79</v>
       </c>
       <c r="N79" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O79" s="72"/>
       <c r="P79" s="72" t="s">
@@ -10831,7 +10848,7 @@
         <v>63</v>
       </c>
       <c r="N80" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O80" s="72"/>
       <c r="P80" s="39" t="s">
@@ -10851,7 +10868,7 @@
         <v>62</v>
       </c>
       <c r="N81" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O81" s="72"/>
       <c r="P81" s="39" t="s">
@@ -10871,7 +10888,7 @@
         <v>63</v>
       </c>
       <c r="N82" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O82" s="72"/>
       <c r="P82" s="39" t="s">
@@ -10891,7 +10908,7 @@
         <v>62</v>
       </c>
       <c r="N83" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O83" s="72"/>
       <c r="P83" s="39" t="s">
@@ -10911,7 +10928,7 @@
         <v>63</v>
       </c>
       <c r="N84" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O84" s="72"/>
       <c r="P84" s="39" t="s">
@@ -10931,7 +10948,7 @@
         <v>71</v>
       </c>
       <c r="N85" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O85" s="72"/>
       <c r="P85" s="42" t="s">
@@ -10951,7 +10968,7 @@
         <v>65</v>
       </c>
       <c r="N86" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O86" s="72"/>
       <c r="P86" s="39" t="s">
@@ -10967,11 +10984,11 @@
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L87" s="56"/>
-      <c r="M87" s="168">
+      <c r="M87" s="165">
         <v>62</v>
       </c>
       <c r="N87" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O87" s="72"/>
       <c r="P87" s="39" t="s">
@@ -10991,7 +11008,7 @@
         <v>63</v>
       </c>
       <c r="N88" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O88" s="72"/>
       <c r="P88" s="39" t="s">
@@ -11011,7 +11028,7 @@
         <v>63</v>
       </c>
       <c r="N89" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O89" s="72"/>
       <c r="P89" s="39" t="s">
@@ -11031,7 +11048,7 @@
         <v>63</v>
       </c>
       <c r="N90" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O90" s="72"/>
       <c r="P90" s="39" t="s">
@@ -11051,7 +11068,7 @@
         <v>63</v>
       </c>
       <c r="N91" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O91" s="72"/>
       <c r="P91" s="39" t="s">
@@ -11071,7 +11088,7 @@
         <v>62</v>
       </c>
       <c r="N92" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O92" s="72"/>
       <c r="P92" s="39" t="s">
@@ -11091,7 +11108,7 @@
         <v>63</v>
       </c>
       <c r="N93" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O93" s="72"/>
       <c r="P93" s="39" t="s">
@@ -11111,7 +11128,7 @@
         <v>63</v>
       </c>
       <c r="N94" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O94" s="72"/>
       <c r="P94" s="39" t="s">
@@ -11131,7 +11148,7 @@
         <v>63</v>
       </c>
       <c r="N95" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O95" s="72"/>
       <c r="P95" s="39" t="s">
@@ -11151,7 +11168,7 @@
         <v>63</v>
       </c>
       <c r="N96" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O96" s="72"/>
       <c r="P96" s="39" t="s">
@@ -11171,7 +11188,7 @@
         <v>63</v>
       </c>
       <c r="N97" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O97" s="72"/>
       <c r="P97" s="39" t="s">
@@ -11191,7 +11208,7 @@
         <v>68</v>
       </c>
       <c r="N98" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O98" s="88" t="s">
         <v>442</v>
@@ -11213,7 +11230,7 @@
         <v>68</v>
       </c>
       <c r="N99" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O99" s="88" t="s">
         <v>442</v>
@@ -11235,7 +11252,7 @@
         <v>62</v>
       </c>
       <c r="N100" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O100" s="72"/>
       <c r="P100" s="39" t="s">
@@ -11255,7 +11272,7 @@
         <v>68</v>
       </c>
       <c r="N101" s="88" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O101" s="88" t="s">
         <v>441</v>
@@ -11277,7 +11294,7 @@
         <v>5</v>
       </c>
       <c r="N102" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O102" s="72"/>
       <c r="P102" s="39" t="s">
@@ -11297,7 +11314,7 @@
         <v>63</v>
       </c>
       <c r="N103" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O103" s="72"/>
       <c r="P103" s="42" t="s">
@@ -11317,7 +11334,7 @@
         <v>19</v>
       </c>
       <c r="N104" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O104" s="72"/>
       <c r="P104" s="39" t="s">
@@ -11337,7 +11354,7 @@
         <v>62</v>
       </c>
       <c r="N105" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O105" s="72"/>
       <c r="P105" s="72" t="s">
@@ -11357,7 +11374,7 @@
         <v>63</v>
       </c>
       <c r="N106" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O106" s="72"/>
       <c r="P106" s="39" t="s">
@@ -11377,7 +11394,7 @@
         <v>63</v>
       </c>
       <c r="N107" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O107" s="72"/>
       <c r="P107" s="39" t="s">
@@ -11397,7 +11414,7 @@
         <v>63</v>
       </c>
       <c r="N108" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O108" s="72"/>
       <c r="P108" s="39" t="s">
@@ -11417,7 +11434,7 @@
         <v>63</v>
       </c>
       <c r="N109" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O109" s="72"/>
       <c r="P109" s="39" t="s">
@@ -11437,7 +11454,7 @@
         <v>62</v>
       </c>
       <c r="N110" s="72" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O110" s="72"/>
       <c r="P110" s="39" t="s">
@@ -11457,11 +11474,11 @@
         <v>62</v>
       </c>
       <c r="N111" s="91" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="O111" s="91"/>
       <c r="P111" s="65" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Q111" s="65" t="s">
         <v>20</v>
@@ -11477,7 +11494,7 @@
         <v>80</v>
       </c>
       <c r="N112" s="79" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O112" s="79"/>
       <c r="P112" s="80" t="s">
@@ -11489,7 +11506,7 @@
       <c r="R112" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="S112" s="196"/>
+      <c r="S112" s="193"/>
     </row>
     <row r="113" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L113" s="56"/>
@@ -11497,7 +11514,7 @@
         <v>26</v>
       </c>
       <c r="N113" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O113" s="72"/>
       <c r="P113" s="39" t="s">
@@ -11513,23 +11530,23 @@
     </row>
     <row r="114" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L114" s="56"/>
-      <c r="M114" s="128">
+      <c r="M114" s="227">
         <v>47</v>
       </c>
-      <c r="N114" s="72" t="s">
-        <v>849</v>
-      </c>
-      <c r="O114" s="72"/>
-      <c r="P114" s="39" t="s">
+      <c r="N114" s="225" t="s">
+        <v>848</v>
+      </c>
+      <c r="O114" s="225"/>
+      <c r="P114" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="Q114" s="39" t="s">
+      <c r="Q114" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="R114" s="39" t="s">
+      <c r="R114" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="S114" s="58"/>
+      <c r="S114" s="226"/>
     </row>
     <row r="115" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L115" s="56"/>
@@ -11537,7 +11554,7 @@
         <v>64</v>
       </c>
       <c r="N115" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O115" s="72"/>
       <c r="P115" s="39" t="s">
@@ -11559,7 +11576,7 @@
         <v>65</v>
       </c>
       <c r="N116" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O116" s="72"/>
       <c r="P116" s="39" t="s">
@@ -11579,7 +11596,7 @@
         <v>66</v>
       </c>
       <c r="N117" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O117" s="72"/>
       <c r="P117" s="39" t="s">
@@ -11599,7 +11616,7 @@
         <v>61</v>
       </c>
       <c r="N118" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O118" s="72"/>
       <c r="P118" s="39" t="s">
@@ -11619,7 +11636,7 @@
         <v>72</v>
       </c>
       <c r="N119" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O119" s="72"/>
       <c r="P119" s="72" t="s">
@@ -11639,7 +11656,7 @@
         <v>63</v>
       </c>
       <c r="N120" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O120" s="72"/>
       <c r="P120" s="39" t="s">
@@ -11659,7 +11676,7 @@
         <v>62</v>
       </c>
       <c r="N121" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O121" s="72"/>
       <c r="P121" s="39" t="s">
@@ -11679,7 +11696,7 @@
         <v>62</v>
       </c>
       <c r="N122" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O122" s="72"/>
       <c r="P122" s="39" t="s">
@@ -11699,7 +11716,7 @@
         <v>19</v>
       </c>
       <c r="N123" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O123" s="72"/>
       <c r="P123" s="39" t="s">
@@ -11719,7 +11736,7 @@
         <v>63</v>
       </c>
       <c r="N124" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O124" s="72"/>
       <c r="P124" s="39" t="s">
@@ -11739,7 +11756,7 @@
         <v>68</v>
       </c>
       <c r="N125" s="88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O125" s="88" t="s">
         <v>434</v>
@@ -11761,7 +11778,7 @@
         <v>63</v>
       </c>
       <c r="N126" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O126" s="72"/>
       <c r="P126" s="39" t="s">
@@ -11781,7 +11798,7 @@
         <v>63</v>
       </c>
       <c r="N127" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O127" s="72"/>
       <c r="P127" s="39" t="s">
@@ -11801,7 +11818,7 @@
         <v>63</v>
       </c>
       <c r="N128" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O128" s="72"/>
       <c r="P128" s="39" t="s">
@@ -11821,7 +11838,7 @@
         <v>63</v>
       </c>
       <c r="N129" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O129" s="72"/>
       <c r="P129" s="39" t="s">
@@ -11842,7 +11859,7 @@
         <v>63</v>
       </c>
       <c r="N130" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O130" s="72"/>
       <c r="P130" s="39" t="s">
@@ -11862,7 +11879,7 @@
         <v>68</v>
       </c>
       <c r="N131" s="88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O131" s="88" t="s">
         <v>434</v>
@@ -11884,7 +11901,7 @@
         <v>63</v>
       </c>
       <c r="N132" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O132" s="72"/>
       <c r="P132" s="39" t="s">
@@ -11904,7 +11921,7 @@
         <v>63</v>
       </c>
       <c r="N133" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O133" s="72"/>
       <c r="P133" s="39" t="s">
@@ -11924,7 +11941,7 @@
         <v>63</v>
       </c>
       <c r="N134" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O134" s="72"/>
       <c r="P134" s="39" t="s">
@@ -11944,7 +11961,7 @@
         <v>63</v>
       </c>
       <c r="N135" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O135" s="72"/>
       <c r="P135" s="39" t="s">
@@ -11964,7 +11981,7 @@
         <v>63</v>
       </c>
       <c r="N136" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O136" s="72"/>
       <c r="P136" s="39" t="s">
@@ -11984,7 +12001,7 @@
         <v>63</v>
       </c>
       <c r="N137" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O137" s="72"/>
       <c r="P137" s="39" t="s">
@@ -12004,7 +12021,7 @@
         <v>63</v>
       </c>
       <c r="N138" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O138" s="72"/>
       <c r="P138" s="39" t="s">
@@ -12024,7 +12041,7 @@
         <v>68</v>
       </c>
       <c r="N139" s="88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O139" s="88" t="s">
         <v>434</v>
@@ -12046,7 +12063,7 @@
         <v>63</v>
       </c>
       <c r="N140" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O140" s="72"/>
       <c r="P140" s="39" t="s">
@@ -12066,7 +12083,7 @@
         <v>63</v>
       </c>
       <c r="N141" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O141" s="72"/>
       <c r="P141" s="39" t="s">
@@ -12086,7 +12103,7 @@
         <v>63</v>
       </c>
       <c r="N142" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O142" s="72"/>
       <c r="P142" s="39" t="s">
@@ -12106,7 +12123,7 @@
         <v>63</v>
       </c>
       <c r="N143" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O143" s="72"/>
       <c r="P143" s="39" t="s">
@@ -12126,7 +12143,7 @@
         <v>63</v>
       </c>
       <c r="N144" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O144" s="72"/>
       <c r="P144" s="39" t="s">
@@ -12146,7 +12163,7 @@
         <v>63</v>
       </c>
       <c r="N145" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O145" s="72"/>
       <c r="P145" s="39" t="s">
@@ -12166,7 +12183,7 @@
         <v>63</v>
       </c>
       <c r="N146" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O146" s="72"/>
       <c r="P146" s="39" t="s">
@@ -12186,7 +12203,7 @@
         <v>63</v>
       </c>
       <c r="N147" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O147" s="72"/>
       <c r="P147" s="39" t="s">
@@ -12206,7 +12223,7 @@
         <v>63</v>
       </c>
       <c r="N148" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O148" s="72"/>
       <c r="P148" s="39" t="s">
@@ -12226,7 +12243,7 @@
         <v>63</v>
       </c>
       <c r="N149" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O149" s="72"/>
       <c r="P149" s="39" t="s">
@@ -12246,7 +12263,7 @@
         <v>63</v>
       </c>
       <c r="N150" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O150" s="72"/>
       <c r="P150" s="39" t="s">
@@ -12266,7 +12283,7 @@
         <v>63</v>
       </c>
       <c r="N151" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O151" s="72"/>
       <c r="P151" s="39" t="s">
@@ -12286,7 +12303,7 @@
         <v>63</v>
       </c>
       <c r="N152" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O152" s="72"/>
       <c r="P152" s="39" t="s">
@@ -12306,7 +12323,7 @@
         <v>63</v>
       </c>
       <c r="N153" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O153" s="72"/>
       <c r="P153" s="39" t="s">
@@ -12326,7 +12343,7 @@
         <v>63</v>
       </c>
       <c r="N154" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O154" s="72"/>
       <c r="P154" s="39" t="s">
@@ -12346,7 +12363,7 @@
         <v>63</v>
       </c>
       <c r="N155" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O155" s="72"/>
       <c r="P155" s="39" t="s">
@@ -12366,7 +12383,7 @@
         <v>63</v>
       </c>
       <c r="N156" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O156" s="72"/>
       <c r="P156" s="39" t="s">
@@ -12386,7 +12403,7 @@
         <v>63</v>
       </c>
       <c r="N157" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O157" s="72"/>
       <c r="P157" s="39" t="s">
@@ -12406,7 +12423,7 @@
         <v>63</v>
       </c>
       <c r="N158" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O158" s="72"/>
       <c r="P158" s="39" t="s">
@@ -12426,7 +12443,7 @@
         <v>63</v>
       </c>
       <c r="N159" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O159" s="72"/>
       <c r="P159" s="39" t="s">
@@ -12446,7 +12463,7 @@
         <v>63</v>
       </c>
       <c r="N160" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O160" s="72"/>
       <c r="P160" s="39" t="s">
@@ -12466,7 +12483,7 @@
         <v>63</v>
       </c>
       <c r="N161" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O161" s="72"/>
       <c r="P161" s="39" t="s">
@@ -12486,7 +12503,7 @@
         <v>63</v>
       </c>
       <c r="N162" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O162" s="72"/>
       <c r="P162" s="39" t="s">
@@ -12506,7 +12523,7 @@
         <v>63</v>
       </c>
       <c r="N163" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O163" s="72"/>
       <c r="P163" s="39" t="s">
@@ -12526,7 +12543,7 @@
         <v>63</v>
       </c>
       <c r="N164" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O164" s="72"/>
       <c r="P164" s="39" t="s">
@@ -12546,7 +12563,7 @@
         <v>68</v>
       </c>
       <c r="N165" s="88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O165" s="88" t="s">
         <v>434</v>
@@ -12568,7 +12585,7 @@
         <v>63</v>
       </c>
       <c r="N166" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O166" s="72"/>
       <c r="P166" s="39" t="s">
@@ -12588,7 +12605,7 @@
         <v>63</v>
       </c>
       <c r="N167" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O167" s="72"/>
       <c r="P167" s="39" t="s">
@@ -12608,7 +12625,7 @@
         <v>63</v>
       </c>
       <c r="N168" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O168" s="72"/>
       <c r="P168" s="39" t="s">
@@ -12629,7 +12646,7 @@
         <v>63</v>
       </c>
       <c r="N169" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O169" s="72"/>
       <c r="P169" s="39" t="s">
@@ -12649,7 +12666,7 @@
         <v>84</v>
       </c>
       <c r="N170" s="158" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O170" s="158"/>
       <c r="P170" s="159" t="s">
@@ -12669,7 +12686,7 @@
         <v>68</v>
       </c>
       <c r="N171" s="88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O171" s="88" t="s">
         <v>434</v>
@@ -12691,7 +12708,7 @@
         <v>63</v>
       </c>
       <c r="N172" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O172" s="72"/>
       <c r="P172" s="39" t="s">
@@ -12711,7 +12728,7 @@
         <v>68</v>
       </c>
       <c r="N173" s="88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O173" s="88" t="s">
         <v>434</v>
@@ -12733,7 +12750,7 @@
         <v>63</v>
       </c>
       <c r="N174" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O174" s="72"/>
       <c r="P174" s="39" t="s">
@@ -12753,7 +12770,7 @@
         <v>63</v>
       </c>
       <c r="N175" s="72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O175" s="72"/>
       <c r="P175" s="39" t="s">
@@ -12773,7 +12790,7 @@
         <v>63</v>
       </c>
       <c r="N176" s="105" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O176" s="105"/>
       <c r="P176" s="83" t="s">
@@ -12793,7 +12810,7 @@
         <v>64</v>
       </c>
       <c r="N177" s="74" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O177" s="74"/>
       <c r="P177" s="62" t="s">
@@ -12815,7 +12832,7 @@
         <v>79</v>
       </c>
       <c r="N178" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O178" s="72"/>
       <c r="P178" s="39" t="s">
@@ -12835,7 +12852,7 @@
         <v>63</v>
       </c>
       <c r="N179" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O179" s="72"/>
       <c r="P179" s="39" t="s">
@@ -12855,7 +12872,7 @@
         <v>73</v>
       </c>
       <c r="N180" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O180" s="72"/>
       <c r="P180" s="42" t="s">
@@ -12875,7 +12892,7 @@
         <v>63</v>
       </c>
       <c r="N181" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O181" s="72"/>
       <c r="P181" s="39" t="s">
@@ -12895,7 +12912,7 @@
         <v>62</v>
       </c>
       <c r="N182" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O182" s="72"/>
       <c r="P182" s="39" t="s">
@@ -12915,7 +12932,7 @@
         <v>63</v>
       </c>
       <c r="N183" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O183" s="72"/>
       <c r="P183" s="39" t="s">
@@ -12935,7 +12952,7 @@
         <v>62</v>
       </c>
       <c r="N184" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O184" s="72"/>
       <c r="P184" s="39" t="s">
@@ -12955,7 +12972,7 @@
         <v>63</v>
       </c>
       <c r="N185" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O185" s="72"/>
       <c r="P185" s="39" t="s">
@@ -12975,7 +12992,7 @@
         <v>63</v>
       </c>
       <c r="N186" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O186" s="72"/>
       <c r="P186" s="39" t="s">
@@ -12995,7 +13012,7 @@
         <v>62</v>
       </c>
       <c r="N187" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O187" s="72"/>
       <c r="P187" s="39" t="s">
@@ -13015,7 +13032,7 @@
         <v>63</v>
       </c>
       <c r="N188" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O188" s="72"/>
       <c r="P188" s="39" t="s">
@@ -13035,7 +13052,7 @@
         <v>62</v>
       </c>
       <c r="N189" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O189" s="72"/>
       <c r="P189" s="39" t="s">
@@ -13055,7 +13072,7 @@
         <v>63</v>
       </c>
       <c r="N190" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O190" s="72"/>
       <c r="P190" s="39" t="s">
@@ -13075,7 +13092,7 @@
         <v>62</v>
       </c>
       <c r="N191" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O191" s="72"/>
       <c r="P191" s="39" t="s">
@@ -13095,7 +13112,7 @@
         <v>63</v>
       </c>
       <c r="N192" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O192" s="72"/>
       <c r="P192" s="39" t="s">
@@ -13115,7 +13132,7 @@
         <v>62</v>
       </c>
       <c r="N193" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O193" s="72"/>
       <c r="P193" s="39" t="s">
@@ -13135,7 +13152,7 @@
         <v>63</v>
       </c>
       <c r="N194" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O194" s="72"/>
       <c r="P194" s="39" t="s">
@@ -13155,7 +13172,7 @@
         <v>62</v>
       </c>
       <c r="N195" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O195" s="72"/>
       <c r="P195" s="39" t="s">
@@ -13175,7 +13192,7 @@
         <v>63</v>
       </c>
       <c r="N196" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O196" s="72"/>
       <c r="P196" s="39" t="s">
@@ -13195,7 +13212,7 @@
         <v>62</v>
       </c>
       <c r="N197" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O197" s="72"/>
       <c r="P197" s="39" t="s">
@@ -13215,7 +13232,7 @@
         <v>63</v>
       </c>
       <c r="N198" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O198" s="72"/>
       <c r="P198" s="39" t="s">
@@ -13235,7 +13252,7 @@
         <v>35</v>
       </c>
       <c r="N199" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O199" s="72"/>
       <c r="P199" s="72" t="s">
@@ -13255,7 +13272,7 @@
         <v>74</v>
       </c>
       <c r="N200" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O200" s="72"/>
       <c r="P200" s="42" t="s">
@@ -13276,7 +13293,7 @@
         <v>63</v>
       </c>
       <c r="N201" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O201" s="72"/>
       <c r="P201" s="39" t="s">
@@ -13296,7 +13313,7 @@
         <v>62</v>
       </c>
       <c r="N202" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O202" s="72"/>
       <c r="P202" s="39" t="s">
@@ -13316,7 +13333,7 @@
         <v>62</v>
       </c>
       <c r="N203" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O203" s="72"/>
       <c r="P203" s="39" t="s">
@@ -13336,7 +13353,7 @@
         <v>63</v>
       </c>
       <c r="N204" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O204" s="72"/>
       <c r="P204" s="39" t="s">
@@ -13356,11 +13373,11 @@
         <v>81</v>
       </c>
       <c r="N205" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O205" s="72"/>
       <c r="P205" s="72" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="Q205" s="39"/>
       <c r="R205" s="39"/>
@@ -13372,7 +13389,7 @@
         <v>63</v>
       </c>
       <c r="N206" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O206" s="72"/>
       <c r="P206" s="72" t="s">
@@ -13392,7 +13409,7 @@
         <v>62</v>
       </c>
       <c r="N207" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O207" s="72"/>
       <c r="P207" s="39" t="s">
@@ -13413,7 +13430,7 @@
         <v>62</v>
       </c>
       <c r="N208" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O208" s="72"/>
       <c r="P208" s="39" t="s">
@@ -13429,23 +13446,23 @@
     </row>
     <row r="209" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L209" s="96"/>
-      <c r="M209" s="57">
+      <c r="M209" s="227">
         <v>76</v>
       </c>
-      <c r="N209" s="72" t="s">
-        <v>850</v>
-      </c>
-      <c r="O209" s="72"/>
-      <c r="P209" s="39" t="s">
+      <c r="N209" s="225" t="s">
+        <v>849</v>
+      </c>
+      <c r="O209" s="225"/>
+      <c r="P209" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="Q209" s="39" t="s">
+      <c r="Q209" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="R209" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S209" s="58"/>
+      <c r="R209" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="S209" s="226"/>
     </row>
     <row r="210" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L210" s="96"/>
@@ -13453,7 +13470,7 @@
         <v>84</v>
       </c>
       <c r="N210" s="158" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O210" s="158"/>
       <c r="P210" s="159" t="s">
@@ -13473,7 +13490,7 @@
         <v>63</v>
       </c>
       <c r="N211" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O211" s="72"/>
       <c r="P211" s="39" t="s">
@@ -13493,7 +13510,7 @@
         <v>62</v>
       </c>
       <c r="N212" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O212" s="72"/>
       <c r="P212" s="39" t="s">
@@ -13513,7 +13530,7 @@
         <v>68</v>
       </c>
       <c r="N213" s="88" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O213" s="88"/>
       <c r="P213" s="85" t="s">
@@ -13533,7 +13550,7 @@
         <v>62</v>
       </c>
       <c r="N214" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O214" s="72"/>
       <c r="P214" s="39" t="s">
@@ -13553,7 +13570,7 @@
         <v>68</v>
       </c>
       <c r="N215" s="88" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O215" s="88"/>
       <c r="P215" s="85" t="s">
@@ -13574,7 +13591,7 @@
         <v>62</v>
       </c>
       <c r="N216" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O216" s="72"/>
       <c r="P216" s="39" t="s">
@@ -13594,7 +13611,7 @@
         <v>63</v>
       </c>
       <c r="N217" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O217" s="72"/>
       <c r="P217" s="39" t="s">
@@ -13614,7 +13631,7 @@
         <v>63</v>
       </c>
       <c r="N218" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O218" s="72"/>
       <c r="P218" s="72" t="s">
@@ -13634,7 +13651,7 @@
         <v>63</v>
       </c>
       <c r="N219" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O219" s="72"/>
       <c r="P219" s="39" t="s">
@@ -13654,7 +13671,7 @@
         <v>63</v>
       </c>
       <c r="N220" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O220" s="72"/>
       <c r="P220" s="39" t="s">
@@ -13674,7 +13691,7 @@
         <v>22</v>
       </c>
       <c r="N221" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O221" s="72"/>
       <c r="P221" s="39" t="s">
@@ -13694,7 +13711,7 @@
         <v>63</v>
       </c>
       <c r="N222" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O222" s="72"/>
       <c r="P222" s="39" t="s">
@@ -13714,7 +13731,7 @@
         <v>63</v>
       </c>
       <c r="N223" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O223" s="72"/>
       <c r="P223" s="39" t="s">
@@ -13734,7 +13751,7 @@
         <v>63</v>
       </c>
       <c r="N224" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O224" s="72"/>
       <c r="P224" s="39" t="s">
@@ -13754,7 +13771,7 @@
         <v>63</v>
       </c>
       <c r="N225" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O225" s="72"/>
       <c r="P225" s="39" t="s">
@@ -13774,7 +13791,7 @@
         <v>62</v>
       </c>
       <c r="N226" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O226" s="72"/>
       <c r="P226" s="39" t="s">
@@ -13794,7 +13811,7 @@
         <v>63</v>
       </c>
       <c r="N227" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O227" s="72"/>
       <c r="P227" s="39" t="s">
@@ -13814,7 +13831,7 @@
         <v>63</v>
       </c>
       <c r="N228" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O228" s="72"/>
       <c r="P228" s="39" t="s">
@@ -13834,7 +13851,7 @@
         <v>63</v>
       </c>
       <c r="N229" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O229" s="72"/>
       <c r="P229" s="39" t="s">
@@ -13854,7 +13871,7 @@
         <v>42</v>
       </c>
       <c r="N230" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O230" s="72"/>
       <c r="P230" s="39" t="s">
@@ -13874,7 +13891,7 @@
         <v>63</v>
       </c>
       <c r="N231" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O231" s="72"/>
       <c r="P231" s="39" t="s">
@@ -13894,7 +13911,7 @@
         <v>63</v>
       </c>
       <c r="N232" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O232" s="72"/>
       <c r="P232" s="39" t="s">
@@ -13914,7 +13931,7 @@
         <v>78</v>
       </c>
       <c r="N233" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O233" s="72"/>
       <c r="P233" s="42" t="s">
@@ -13934,7 +13951,7 @@
         <v>62</v>
       </c>
       <c r="N234" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O234" s="72"/>
       <c r="P234" s="39" t="s">
@@ -13954,7 +13971,7 @@
         <v>82</v>
       </c>
       <c r="N235" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O235" s="72"/>
       <c r="P235" s="39" t="s">
@@ -13974,7 +13991,7 @@
         <v>62</v>
       </c>
       <c r="N236" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O236" s="72"/>
       <c r="P236" s="39" t="s">
@@ -13994,7 +14011,7 @@
         <v>63</v>
       </c>
       <c r="N237" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O237" s="72"/>
       <c r="P237" s="39" t="s">
@@ -14014,7 +14031,7 @@
         <v>62</v>
       </c>
       <c r="N238" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O238" s="72"/>
       <c r="P238" s="39" t="s">
@@ -14034,7 +14051,7 @@
         <v>63</v>
       </c>
       <c r="N239" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O239" s="72"/>
       <c r="P239" s="39" t="s">
@@ -14054,7 +14071,7 @@
         <v>63</v>
       </c>
       <c r="N240" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O240" s="72"/>
       <c r="P240" s="39" t="s">
@@ -14074,7 +14091,7 @@
         <v>63</v>
       </c>
       <c r="N241" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O241" s="72"/>
       <c r="P241" s="39" t="s">
@@ -14094,7 +14111,7 @@
         <v>62</v>
       </c>
       <c r="N242" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O242" s="72"/>
       <c r="P242" s="39" t="s">
@@ -14114,7 +14131,7 @@
         <v>62</v>
       </c>
       <c r="N243" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O243" s="72"/>
       <c r="P243" s="39" t="s">
@@ -14134,7 +14151,7 @@
         <v>63</v>
       </c>
       <c r="N244" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O244" s="72"/>
       <c r="P244" s="39" t="s">
@@ -14154,7 +14171,7 @@
         <v>62</v>
       </c>
       <c r="N245" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O245" s="72"/>
       <c r="P245" s="39" t="s">
@@ -14174,7 +14191,7 @@
         <v>63</v>
       </c>
       <c r="N246" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O246" s="72"/>
       <c r="P246" s="39" t="s">
@@ -14194,7 +14211,7 @@
         <v>63</v>
       </c>
       <c r="N247" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O247" s="72"/>
       <c r="P247" s="39" t="s">
@@ -14214,7 +14231,7 @@
         <v>63</v>
       </c>
       <c r="N248" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O248" s="72"/>
       <c r="P248" s="39" t="s">
@@ -14234,7 +14251,7 @@
         <v>63</v>
       </c>
       <c r="N249" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O249" s="72"/>
       <c r="P249" s="39" t="s">
@@ -14254,7 +14271,7 @@
         <v>63</v>
       </c>
       <c r="N250" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O250" s="72"/>
       <c r="P250" s="39" t="s">
@@ -14274,7 +14291,7 @@
         <v>63</v>
       </c>
       <c r="N251" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O251" s="72"/>
       <c r="P251" s="39" t="s">
@@ -14294,7 +14311,7 @@
         <v>63</v>
       </c>
       <c r="N252" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O252" s="72"/>
       <c r="P252" s="39" t="s">
@@ -14314,7 +14331,7 @@
         <v>62</v>
       </c>
       <c r="N253" s="55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O253" s="55"/>
       <c r="P253" s="55" t="s">
@@ -14349,8 +14366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14387,26 +14404,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -14414,34 +14431,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -14452,29 +14474,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14543,13 +14565,13 @@
         <v>700</v>
       </c>
       <c r="H9" s="56"/>
-      <c r="I9" s="182">
+      <c r="I9" s="179">
         <v>35</v>
       </c>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="184" t="s">
+      <c r="K9" s="181" t="s">
         <v>497</v>
       </c>
       <c r="L9" s="122"/>
@@ -14577,7 +14599,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>82</v>
@@ -14611,7 +14633,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>80</v>
@@ -14647,7 +14669,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>80</v>
@@ -14659,7 +14681,7 @@
       <c r="G12" s="148"/>
       <c r="H12" s="56"/>
       <c r="L12" s="56"/>
-      <c r="M12" s="168">
+      <c r="M12" s="165">
         <v>8</v>
       </c>
       <c r="N12" s="72" t="s">
@@ -14693,7 +14715,7 @@
       <c r="G13" s="148"/>
       <c r="H13" s="56"/>
       <c r="L13" s="53"/>
-      <c r="M13" s="172">
+      <c r="M13" s="169">
         <v>5</v>
       </c>
       <c r="N13" s="91" t="s">
@@ -14715,7 +14737,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>80</v>
@@ -14751,7 +14773,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>80</v>
@@ -14785,7 +14807,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>80</v>
@@ -14819,7 +14841,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>80</v>
@@ -14853,7 +14875,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>80</v>
@@ -14921,7 +14943,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>80</v>
@@ -14938,7 +14960,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>80</v>
@@ -14955,7 +14977,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>80</v>
@@ -14972,7 +14994,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>80</v>
@@ -14989,7 +15011,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>80</v>
@@ -14997,8 +15019,8 @@
       <c r="E24" s="39">
         <v>4</v>
       </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="179"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
       <c r="H24" s="56"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -15006,7 +15028,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>80</v>
@@ -15014,8 +15036,8 @@
       <c r="E25" s="39">
         <v>15</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="179"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176"/>
       <c r="H25" s="56"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -15023,7 +15045,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>80</v>
@@ -15031,8 +15053,8 @@
       <c r="E26" s="39">
         <v>15</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="179"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -15040,7 +15062,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>80</v>
@@ -15048,8 +15070,8 @@
       <c r="E27" s="39">
         <v>15</v>
       </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -15057,7 +15079,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>80</v>
@@ -15065,8 +15087,8 @@
       <c r="E28" s="39">
         <v>30</v>
       </c>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -15074,7 +15096,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>80</v>
@@ -15082,8 +15104,8 @@
       <c r="E29" s="39">
         <v>30</v>
       </c>
-      <c r="F29" s="178"/>
-      <c r="G29" s="179"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="56"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -15091,7 +15113,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>80</v>
@@ -15099,8 +15121,8 @@
       <c r="E30" s="39">
         <v>30</v>
       </c>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="176"/>
       <c r="H30" s="56"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -15108,7 +15130,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>80</v>
@@ -15116,8 +15138,8 @@
       <c r="E31" s="39">
         <v>30</v>
       </c>
-      <c r="F31" s="178"/>
-      <c r="G31" s="179"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
       <c r="H31" s="56"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -15125,7 +15147,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>80</v>
@@ -15133,8 +15155,8 @@
       <c r="E32" s="39">
         <v>30</v>
       </c>
-      <c r="F32" s="178"/>
-      <c r="G32" s="179"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="176"/>
       <c r="H32" s="56"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -15142,7 +15164,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>80</v>
@@ -15150,8 +15172,8 @@
       <c r="E33" s="39">
         <v>30</v>
       </c>
-      <c r="F33" s="178"/>
-      <c r="G33" s="179"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="176"/>
       <c r="H33" s="56"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -15159,7 +15181,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>80</v>
@@ -15167,8 +15189,8 @@
       <c r="E34" s="39">
         <v>30</v>
       </c>
-      <c r="F34" s="178"/>
-      <c r="G34" s="179"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="176"/>
       <c r="H34" s="56"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -15176,7 +15198,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>80</v>
@@ -15184,8 +15206,8 @@
       <c r="E35" s="39">
         <v>30</v>
       </c>
-      <c r="F35" s="178"/>
-      <c r="G35" s="179"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="176"/>
       <c r="H35" s="56"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -15193,7 +15215,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>80</v>
@@ -15201,8 +15223,8 @@
       <c r="E36" s="39">
         <v>30</v>
       </c>
-      <c r="F36" s="178"/>
-      <c r="G36" s="179"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="176"/>
       <c r="H36" s="56"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -15218,8 +15240,8 @@
       <c r="E37" s="39">
         <v>7</v>
       </c>
-      <c r="F37" s="178"/>
-      <c r="G37" s="179"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="176"/>
       <c r="H37" s="56"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -15235,8 +15257,8 @@
       <c r="E38" s="39">
         <v>30</v>
       </c>
-      <c r="F38" s="178"/>
-      <c r="G38" s="179"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="176"/>
       <c r="H38" s="56"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -15252,8 +15274,8 @@
       <c r="E39" s="39">
         <v>7</v>
       </c>
-      <c r="F39" s="178"/>
-      <c r="G39" s="179"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="56"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -15269,8 +15291,8 @@
       <c r="E40" s="39">
         <v>30</v>
       </c>
-      <c r="F40" s="178"/>
-      <c r="G40" s="179"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="56"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -15286,8 +15308,8 @@
       <c r="E41" s="39">
         <v>22</v>
       </c>
-      <c r="F41" s="178"/>
-      <c r="G41" s="179"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="56"/>
     </row>
     <row r="42" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15303,8 +15325,8 @@
       <c r="E42" s="65">
         <v>7</v>
       </c>
-      <c r="F42" s="180"/>
-      <c r="G42" s="181"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="53"/>
     </row>
   </sheetData>
@@ -15329,7 +15351,7 @@
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15366,26 +15388,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15393,34 +15415,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -15431,29 +15458,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15529,7 +15556,7 @@
         <v>133</v>
       </c>
       <c r="K9" s="100" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L9" s="107"/>
       <c r="M9" s="60">
@@ -15556,7 +15583,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>82</v>
@@ -15571,12 +15598,12 @@
         <v>12</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>920</v>
-      </c>
-      <c r="L10" s="169"/>
+        <v>919</v>
+      </c>
+      <c r="L10" s="166"/>
       <c r="M10" s="123">
         <v>12</v>
       </c>
@@ -15599,7 +15626,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>23</v>
@@ -15616,7 +15643,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>23</v>
@@ -15726,7 +15753,7 @@
       <c r="E18" s="65">
         <v>7</v>
       </c>
-      <c r="F18" s="175"/>
+      <c r="F18" s="172"/>
       <c r="G18" s="150"/>
       <c r="H18" s="53"/>
     </row>
@@ -15751,8 +15778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15789,26 +15816,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>818</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15816,34 +15843,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -15854,29 +15886,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15957,7 +15989,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="74" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O9" s="62" t="s">
         <v>827</v>
@@ -16004,7 +16036,7 @@
         <v>16</v>
       </c>
       <c r="N10" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O10" s="39" t="s">
         <v>828</v>
@@ -16049,7 +16081,7 @@
         <v>17</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O11" s="42" t="s">
         <v>829</v>
@@ -16096,7 +16128,7 @@
         <v>9</v>
       </c>
       <c r="N12" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O12" s="39" t="s">
         <v>351</v>
@@ -16141,7 +16173,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>830</v>
@@ -16184,7 +16216,7 @@
         <v>19</v>
       </c>
       <c r="N14" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>27</v>
@@ -16227,7 +16259,7 @@
         <v>20</v>
       </c>
       <c r="N15" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O15" s="39" t="s">
         <v>22</v>
@@ -16270,7 +16302,7 @@
         <v>21</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>831</v>
@@ -16304,7 +16336,7 @@
         <v>22</v>
       </c>
       <c r="N17" s="72" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O17" s="39" t="s">
         <v>832</v>
@@ -16338,7 +16370,7 @@
         <v>7</v>
       </c>
       <c r="N18" s="91" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O18" s="65" t="s">
         <v>833</v>
@@ -16441,7 +16473,7 @@
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I9:K13"/>
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16478,26 +16510,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16505,34 +16537,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -16543,29 +16580,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16666,7 +16703,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>80</v>
@@ -16709,7 +16746,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>23</v>
@@ -16724,10 +16761,10 @@
         <v>27</v>
       </c>
       <c r="J11" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="K11" s="89" t="s">
         <v>915</v>
-      </c>
-      <c r="K11" s="89" t="s">
-        <v>916</v>
       </c>
       <c r="L11" s="103"/>
       <c r="M11" s="128">
@@ -16752,7 +16789,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>23</v>
@@ -16767,10 +16804,10 @@
         <v>28</v>
       </c>
       <c r="J12" s="38" t="s">
+        <v>916</v>
+      </c>
+      <c r="K12" s="58" t="s">
         <v>917</v>
-      </c>
-      <c r="K12" s="58" t="s">
-        <v>918</v>
       </c>
       <c r="L12" s="103"/>
       <c r="M12" s="128">
@@ -16795,7 +16832,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>23</v>
@@ -16810,12 +16847,12 @@
         <v>29</v>
       </c>
       <c r="J13" s="55" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K13" s="59" t="s">
         <v>1024</v>
       </c>
-      <c r="K13" s="59" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L13" s="201"/>
+      <c r="L13" s="198"/>
       <c r="M13" s="129">
         <v>28</v>
       </c>
@@ -16838,7 +16875,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>23</v>
@@ -16855,7 +16892,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>80</v>
@@ -16872,7 +16909,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>80</v>
@@ -17016,8 +17053,8 @@
       <c r="E24" s="39">
         <v>15</v>
       </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="179"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
       <c r="H24" s="56"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -17033,8 +17070,8 @@
       <c r="E25" s="39">
         <v>22</v>
       </c>
-      <c r="F25" s="178"/>
-      <c r="G25" s="179" t="s">
+      <c r="F25" s="175"/>
+      <c r="G25" s="176" t="s">
         <v>700</v>
       </c>
       <c r="H25" s="56"/>
@@ -17044,7 +17081,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>80</v>
@@ -17052,8 +17089,8 @@
       <c r="E26" s="39">
         <v>4</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="179"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="56"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -17061,7 +17098,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>80</v>
@@ -17069,8 +17106,8 @@
       <c r="E27" s="39">
         <v>4</v>
       </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="179"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -17078,7 +17115,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>80</v>
@@ -17086,8 +17123,8 @@
       <c r="E28" s="39">
         <v>4</v>
       </c>
-      <c r="F28" s="178"/>
-      <c r="G28" s="179"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="H28" s="56"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -17095,7 +17132,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>82</v>
@@ -17103,8 +17140,8 @@
       <c r="E29" s="39">
         <v>22</v>
       </c>
-      <c r="F29" s="178"/>
-      <c r="G29" s="179"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="176"/>
       <c r="H29" s="56"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -17120,8 +17157,8 @@
       <c r="E30" s="39">
         <v>22</v>
       </c>
-      <c r="F30" s="178"/>
-      <c r="G30" s="179"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="176"/>
       <c r="H30" s="56"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -17137,8 +17174,8 @@
       <c r="E31" s="39">
         <v>3</v>
       </c>
-      <c r="F31" s="178"/>
-      <c r="G31" s="179"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="176"/>
       <c r="H31" s="56"/>
     </row>
     <row r="32" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -17154,8 +17191,8 @@
       <c r="E32" s="65">
         <v>6</v>
       </c>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="178"/>
       <c r="H32" s="53"/>
     </row>
   </sheetData>
@@ -17180,7 +17217,7 @@
   <dimension ref="B1:R23"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17217,26 +17254,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17244,34 +17281,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -17282,29 +17324,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="224" t="s">
+      <c r="M7" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="222"/>
-      <c r="Q7" s="222"/>
-      <c r="R7" s="223"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17336,7 +17378,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="174" t="s">
+      <c r="M8" s="171" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="77" t="s">
@@ -17426,7 +17468,7 @@
         <v>792</v>
       </c>
       <c r="L10" s="52"/>
-      <c r="M10" s="173">
+      <c r="M10" s="170">
         <v>17</v>
       </c>
       <c r="N10" s="105" t="s">
@@ -17500,7 +17542,7 @@
       </c>
       <c r="H12" s="56"/>
       <c r="L12" s="53"/>
-      <c r="M12" s="172">
+      <c r="M12" s="169">
         <v>17</v>
       </c>
       <c r="N12" s="91" t="s">
@@ -17726,7 +17768,7 @@
   <dimension ref="B1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J4"/>
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17763,26 +17805,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
-        <v>947</v>
-      </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="D2" s="206" t="s">
+        <v>946</v>
+      </c>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17790,34 +17832,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -17828,29 +17875,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="224" t="s">
+      <c r="M7" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="222"/>
-      <c r="Q7" s="222"/>
-      <c r="R7" s="223"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17882,7 +17929,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="174" t="s">
+      <c r="M8" s="171" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="77" t="s">
@@ -17917,14 +17964,14 @@
       <c r="F9" s="140"/>
       <c r="G9" s="147"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="182">
+      <c r="I9" s="179">
         <v>5</v>
       </c>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="184" t="s">
-        <v>949</v>
+      <c r="K9" s="181" t="s">
+        <v>948</v>
       </c>
       <c r="L9" s="52"/>
       <c r="M9" s="60">
@@ -17964,17 +18011,17 @@
       <c r="H10" s="56"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
-      <c r="L10" s="194"/>
+      <c r="L10" s="191"/>
       <c r="M10" s="129">
         <v>4</v>
       </c>
       <c r="N10" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="O10" s="193" t="s">
-        <v>921</v>
-      </c>
-      <c r="P10" s="193" t="s">
+      <c r="O10" s="190" t="s">
+        <v>920</v>
+      </c>
+      <c r="P10" s="190" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="65" t="s">
@@ -18004,7 +18051,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>80</v>
@@ -18012,7 +18059,7 @@
       <c r="E12" s="49">
         <v>7</v>
       </c>
-      <c r="F12" s="175"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="150"/>
       <c r="H12" s="53"/>
     </row>
@@ -18037,8 +18084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18075,26 +18122,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
-        <v>950</v>
-      </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="D2" s="206" t="s">
+        <v>949</v>
+      </c>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18102,34 +18149,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -18140,29 +18192,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="224" t="s">
+      <c r="M7" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="222"/>
-      <c r="Q7" s="222"/>
-      <c r="R7" s="223"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18194,7 +18246,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="12"/>
-      <c r="M8" s="174" t="s">
+      <c r="M8" s="171" t="s">
         <v>7</v>
       </c>
       <c r="N8" s="77" t="s">
@@ -18229,14 +18281,14 @@
       <c r="F9" s="140"/>
       <c r="G9" s="147"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="182">
+      <c r="I9" s="179">
         <v>5</v>
       </c>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="184" t="s">
-        <v>951</v>
+      <c r="K9" s="181" t="s">
+        <v>950</v>
       </c>
       <c r="L9" s="52"/>
       <c r="M9" s="60">
@@ -18276,17 +18328,17 @@
       <c r="H10" s="56"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
-      <c r="L10" s="194"/>
+      <c r="L10" s="191"/>
       <c r="M10" s="129">
         <v>4</v>
       </c>
       <c r="N10" s="91" t="s">
         <v>491</v>
       </c>
-      <c r="O10" s="193" t="s">
-        <v>921</v>
-      </c>
-      <c r="P10" s="193" t="s">
+      <c r="O10" s="190" t="s">
+        <v>920</v>
+      </c>
+      <c r="P10" s="190" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="65" t="s">
@@ -18316,7 +18368,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>80</v>
@@ -18324,7 +18376,7 @@
       <c r="E12" s="49">
         <v>7</v>
       </c>
-      <c r="F12" s="175"/>
+      <c r="F12" s="172"/>
       <c r="G12" s="150"/>
       <c r="H12" s="53"/>
     </row>
@@ -18349,8 +18401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51:R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18388,26 +18440,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="D2" s="206" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18415,34 +18467,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -18453,29 +18510,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="221" t="s">
+      <c r="M7" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="222"/>
-      <c r="Q7" s="222"/>
-      <c r="R7" s="223"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="220"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18522,7 +18579,7 @@
       <c r="Q8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="189" t="s">
+      <c r="R8" s="186" t="s">
         <v>75</v>
       </c>
     </row>
@@ -18531,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>80</v>
@@ -18549,7 +18606,7 @@
         <v>179</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L9" s="107"/>
       <c r="M9" s="86">
@@ -18574,7 +18631,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>80</v>
@@ -18617,7 +18674,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>82</v>
@@ -18660,7 +18717,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>80</v>
@@ -18678,7 +18735,7 @@
         <v>133</v>
       </c>
       <c r="K12" s="89" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L12" s="103"/>
       <c r="M12" s="128">
@@ -18703,7 +18760,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>80</v>
@@ -18746,7 +18803,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>80</v>
@@ -18789,7 +18846,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>80</v>
@@ -18804,10 +18861,10 @@
         <v>67</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K15" s="58" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L15" s="103"/>
       <c r="M15" s="57">
@@ -18832,10 +18889,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>958</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>959</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>960</v>
       </c>
       <c r="E16" s="43">
         <v>4000</v>
@@ -18847,10 +18904,10 @@
         <v>68</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L16" s="103"/>
       <c r="M16" s="57">
@@ -18890,10 +18947,10 @@
         <v>69</v>
       </c>
       <c r="J17" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K17" s="58" t="s">
         <v>1026</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>1027</v>
       </c>
       <c r="L17" s="103"/>
       <c r="M17" s="57">
@@ -18903,7 +18960,7 @@
         <v>846</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P17" s="39" t="s">
         <v>33</v>
@@ -18918,7 +18975,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>80</v>
@@ -18935,10 +18992,10 @@
         <v>70</v>
       </c>
       <c r="J18" s="55" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K18" s="92" t="s">
         <v>1028</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>1029</v>
       </c>
       <c r="L18" s="103"/>
       <c r="M18" s="57">
@@ -18997,7 +19054,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>80</v>
@@ -19031,7 +19088,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>80</v>
@@ -19065,7 +19122,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>80</v>
@@ -19099,7 +19156,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>80</v>
@@ -19133,7 +19190,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>80</v>
@@ -19167,7 +19224,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>80</v>
@@ -19201,7 +19258,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D26" s="43" t="s">
         <v>80</v>
@@ -19235,7 +19292,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>80</v>
@@ -19269,7 +19326,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D28" s="43" t="s">
         <v>80</v>
@@ -19371,7 +19428,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D31" s="43" t="s">
         <v>80</v>
@@ -19405,7 +19462,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>80</v>
@@ -19439,7 +19496,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D33" s="43" t="s">
         <v>80</v>
@@ -19473,7 +19530,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>80</v>
@@ -19507,7 +19564,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>80</v>
@@ -19541,7 +19598,7 @@
         <v>28</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D36" s="43" t="s">
         <v>80</v>
@@ -19575,7 +19632,7 @@
         <v>29</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D37" s="43" t="s">
         <v>80</v>
@@ -19609,7 +19666,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D38" s="43" t="s">
         <v>80</v>
@@ -19643,7 +19700,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D39" s="43" t="s">
         <v>80</v>
@@ -19677,7 +19734,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>80</v>
@@ -19711,7 +19768,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>80</v>
@@ -19779,7 +19836,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D43" s="43" t="s">
         <v>80</v>
@@ -19813,7 +19870,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>80</v>
@@ -19847,7 +19904,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>80</v>
@@ -19915,7 +19972,7 @@
         <v>39</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D47" s="43" t="s">
         <v>80</v>
@@ -19983,7 +20040,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>80</v>
@@ -20017,7 +20074,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D50" s="43" t="s">
         <v>80</v>
@@ -20051,7 +20108,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D51" s="43" t="s">
         <v>80</v>
@@ -20063,29 +20120,29 @@
       <c r="G51" s="69"/>
       <c r="H51" s="56"/>
       <c r="L51" s="96"/>
-      <c r="M51" s="57">
+      <c r="M51" s="227">
         <v>69</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="225" t="s">
         <v>846</v>
       </c>
-      <c r="O51" s="39" t="s">
+      <c r="O51" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="P51" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="58"/>
+      <c r="Q51" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="226"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="127">
         <v>44</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>80</v>
@@ -20119,7 +20176,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D53" s="43" t="s">
         <v>80</v>
@@ -20153,7 +20210,7 @@
         <v>46</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>80</v>
@@ -20187,7 +20244,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>80</v>
@@ -20221,7 +20278,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D56" s="43" t="s">
         <v>80</v>
@@ -20255,7 +20312,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D57" s="43" t="s">
         <v>80</v>
@@ -20289,7 +20346,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>80</v>
@@ -20306,7 +20363,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>80</v>
@@ -20323,7 +20380,7 @@
         <v>52</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D60" s="43" t="s">
         <v>80</v>
@@ -20340,7 +20397,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D61" s="43" t="s">
         <v>80</v>
@@ -20357,7 +20414,7 @@
         <v>54</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D62" s="43" t="s">
         <v>80</v>
@@ -20374,7 +20431,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D63" s="43" t="s">
         <v>80</v>
@@ -20391,7 +20448,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D64" s="43" t="s">
         <v>80</v>
@@ -20408,7 +20465,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D65" s="43" t="s">
         <v>80</v>
@@ -20425,7 +20482,7 @@
         <v>58</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D66" s="43" t="s">
         <v>80</v>
@@ -20442,7 +20499,7 @@
         <v>59</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D67" s="43" t="s">
         <v>80</v>
@@ -20459,7 +20516,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D68" s="49" t="s">
         <v>80</v>
@@ -20492,8 +20549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T243"/>
   <sheetViews>
-    <sheetView topLeftCell="I23" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:K34"/>
+    <sheetView topLeftCell="L226" workbookViewId="0">
+      <selection activeCell="M199" sqref="M199:S199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20531,28 +20588,28 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215" t="s">
+      <c r="D3" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -20560,30 +20617,35 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -20594,30 +20656,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="221" t="s">
+      <c r="M7" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="222"/>
-      <c r="O7" s="222"/>
-      <c r="P7" s="222"/>
-      <c r="Q7" s="222"/>
-      <c r="R7" s="222"/>
-      <c r="S7" s="223"/>
+      <c r="N7" s="219"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="219"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="220"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20656,7 +20718,7 @@
         <v>13</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="P8" s="21" t="s">
         <v>1</v>
@@ -20667,7 +20729,7 @@
       <c r="R8" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="189" t="s">
+      <c r="S8" s="186" t="s">
         <v>75</v>
       </c>
     </row>
@@ -20922,23 +20984,23 @@
         <v>188</v>
       </c>
       <c r="L14" s="103"/>
-      <c r="M14" s="26">
+      <c r="M14" s="228">
         <v>72</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="225" t="s">
         <v>846</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="39" t="s">
+      <c r="O14" s="225"/>
+      <c r="P14" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="64"/>
+      <c r="R14" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="226"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="26">
@@ -21416,7 +21478,7 @@
         <v>776</v>
       </c>
       <c r="K25" s="89" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L25" s="103"/>
       <c r="M25" s="26">
@@ -21460,7 +21522,7 @@
         <v>777</v>
       </c>
       <c r="K26" s="89" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L26" s="103"/>
       <c r="M26" s="26">
@@ -21504,7 +21566,7 @@
         <v>778</v>
       </c>
       <c r="K27" s="89" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L27" s="103"/>
       <c r="M27" s="26">
@@ -21545,10 +21607,10 @@
         <v>113</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L28" s="103"/>
       <c r="M28" s="26">
@@ -21589,10 +21651,10 @@
         <v>114</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K29" s="58" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L29" s="103"/>
       <c r="M29" s="26">
@@ -21633,10 +21695,10 @@
         <v>115</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K30" s="58" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L30" s="103"/>
       <c r="M30" s="26">
@@ -21677,10 +21739,10 @@
         <v>116</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K31" s="58" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L31" s="103"/>
       <c r="M31" s="26">
@@ -21721,10 +21783,10 @@
         <v>117</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K32" s="58" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L32" s="103"/>
       <c r="M32" s="26">
@@ -21765,10 +21827,10 @@
         <v>118</v>
       </c>
       <c r="J33" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K33" s="58" t="s">
         <v>1026</v>
-      </c>
-      <c r="K33" s="58" t="s">
-        <v>1027</v>
       </c>
       <c r="L33" s="103"/>
       <c r="M33" s="26">
@@ -21809,10 +21871,10 @@
         <v>119</v>
       </c>
       <c r="J34" s="55" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K34" s="92" t="s">
         <v>1028</v>
-      </c>
-      <c r="K34" s="92" t="s">
-        <v>1029</v>
       </c>
       <c r="L34" s="103"/>
       <c r="M34" s="26">
@@ -22585,25 +22647,25 @@
       <c r="G56" s="47"/>
       <c r="H56" s="56"/>
       <c r="L56" s="106"/>
-      <c r="M56" s="185">
+      <c r="M56" s="182">
         <v>107</v>
       </c>
-      <c r="N56" s="186" t="s">
+      <c r="N56" s="183" t="s">
         <v>846</v>
       </c>
-      <c r="O56" s="186" t="s">
-        <v>950</v>
-      </c>
-      <c r="P56" s="187" t="s">
-        <v>921</v>
-      </c>
-      <c r="Q56" s="187" t="s">
+      <c r="O56" s="183" t="s">
+        <v>949</v>
+      </c>
+      <c r="P56" s="184" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q56" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="R56" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="S56" s="188"/>
+      <c r="R56" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="S56" s="185"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="26">
@@ -22622,11 +22684,11 @@
       <c r="G57" s="47"/>
       <c r="H57" s="56"/>
       <c r="L57" s="56"/>
-      <c r="M57" s="190">
+      <c r="M57" s="187">
         <v>88</v>
       </c>
       <c r="N57" s="79" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O57" s="79"/>
       <c r="P57" s="79" t="s">
@@ -22663,7 +22725,7 @@
         <v>107</v>
       </c>
       <c r="N58" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O58" s="88" t="s">
         <v>279</v>
@@ -22700,7 +22762,7 @@
         <v>86</v>
       </c>
       <c r="N59" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O59" s="72"/>
       <c r="P59" s="72" t="s">
@@ -22735,7 +22797,7 @@
         <v>107</v>
       </c>
       <c r="N60" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O60" s="88" t="s">
         <v>279</v>
@@ -22772,7 +22834,7 @@
         <v>107</v>
       </c>
       <c r="N61" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O61" s="88" t="s">
         <v>279</v>
@@ -22809,7 +22871,7 @@
         <v>87</v>
       </c>
       <c r="N62" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O62" s="72"/>
       <c r="P62" s="72" t="s">
@@ -22844,7 +22906,7 @@
         <v>86</v>
       </c>
       <c r="N63" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O63" s="72"/>
       <c r="P63" s="72" t="s">
@@ -22879,7 +22941,7 @@
         <v>87</v>
       </c>
       <c r="N64" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O64" s="72"/>
       <c r="P64" s="72" t="s">
@@ -22914,7 +22976,7 @@
         <v>107</v>
       </c>
       <c r="N65" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O65" s="88" t="s">
         <v>279</v>
@@ -22951,7 +23013,7 @@
         <v>107</v>
       </c>
       <c r="N66" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O66" s="88" t="s">
         <v>279</v>
@@ -22988,7 +23050,7 @@
         <v>86</v>
       </c>
       <c r="N67" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O67" s="72"/>
       <c r="P67" s="72" t="s">
@@ -23023,7 +23085,7 @@
         <v>87</v>
       </c>
       <c r="N68" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O68" s="72"/>
       <c r="P68" s="72" t="s">
@@ -23058,7 +23120,7 @@
         <v>86</v>
       </c>
       <c r="N69" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O69" s="72"/>
       <c r="P69" s="72" t="s">
@@ -23093,7 +23155,7 @@
         <v>92</v>
       </c>
       <c r="N70" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O70" s="72"/>
       <c r="P70" s="72" t="s">
@@ -23128,7 +23190,7 @@
         <v>95</v>
       </c>
       <c r="N71" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O71" s="72"/>
       <c r="P71" s="72" t="s">
@@ -23163,7 +23225,7 @@
         <v>86</v>
       </c>
       <c r="N72" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O72" s="72"/>
       <c r="P72" s="72" t="s">
@@ -23198,7 +23260,7 @@
         <v>87</v>
       </c>
       <c r="N73" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O73" s="72"/>
       <c r="P73" s="72" t="s">
@@ -23233,7 +23295,7 @@
         <v>93</v>
       </c>
       <c r="N74" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O74" s="72"/>
       <c r="P74" s="72" t="s">
@@ -23268,7 +23330,7 @@
         <v>95</v>
       </c>
       <c r="N75" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O75" s="72"/>
       <c r="P75" s="72" t="s">
@@ -23303,7 +23365,7 @@
         <v>86</v>
       </c>
       <c r="N76" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O76" s="72"/>
       <c r="P76" s="72" t="s">
@@ -23338,7 +23400,7 @@
         <v>87</v>
       </c>
       <c r="N77" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O77" s="72"/>
       <c r="P77" s="72" t="s">
@@ -23373,7 +23435,7 @@
         <v>86</v>
       </c>
       <c r="N78" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O78" s="72"/>
       <c r="P78" s="72" t="s">
@@ -23408,7 +23470,7 @@
         <v>87</v>
       </c>
       <c r="N79" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O79" s="72"/>
       <c r="P79" s="72" t="s">
@@ -23443,7 +23505,7 @@
         <v>107</v>
       </c>
       <c r="N80" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O80" s="88" t="s">
         <v>280</v>
@@ -23480,7 +23542,7 @@
         <v>107</v>
       </c>
       <c r="N81" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O81" s="88" t="s">
         <v>280</v>
@@ -23517,7 +23579,7 @@
         <v>94</v>
       </c>
       <c r="N82" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O82" s="72"/>
       <c r="P82" s="72" t="s">
@@ -23552,7 +23614,7 @@
         <v>95</v>
       </c>
       <c r="N83" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O83" s="72"/>
       <c r="P83" s="72" t="s">
@@ -23587,7 +23649,7 @@
         <v>86</v>
       </c>
       <c r="N84" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O84" s="72"/>
       <c r="P84" s="72" t="s">
@@ -23622,7 +23684,7 @@
         <v>87</v>
       </c>
       <c r="N85" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O85" s="72"/>
       <c r="P85" s="72" t="s">
@@ -23642,7 +23704,7 @@
         <v>107</v>
       </c>
       <c r="N86" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O86" s="88" t="s">
         <v>280</v>
@@ -23664,7 +23726,7 @@
         <v>95</v>
       </c>
       <c r="N87" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O87" s="72"/>
       <c r="P87" s="72" t="s">
@@ -23684,7 +23746,7 @@
         <v>96</v>
       </c>
       <c r="N88" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O88" s="72"/>
       <c r="P88" s="72" t="s">
@@ -23704,7 +23766,7 @@
         <v>95</v>
       </c>
       <c r="N89" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O89" s="72"/>
       <c r="P89" s="72" t="s">
@@ -23724,7 +23786,7 @@
         <v>86</v>
       </c>
       <c r="N90" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O90" s="72"/>
       <c r="P90" s="72" t="s">
@@ -23744,7 +23806,7 @@
         <v>87</v>
       </c>
       <c r="N91" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O91" s="72"/>
       <c r="P91" s="72" t="s">
@@ -23764,7 +23826,7 @@
         <v>87</v>
       </c>
       <c r="N92" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O92" s="72"/>
       <c r="P92" s="72" t="s">
@@ -23785,7 +23847,7 @@
         <v>107</v>
       </c>
       <c r="N93" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O93" s="88" t="s">
         <v>441</v>
@@ -23807,7 +23869,7 @@
         <v>87</v>
       </c>
       <c r="N94" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O94" s="72"/>
       <c r="P94" s="72" t="s">
@@ -23827,7 +23889,7 @@
         <v>87</v>
       </c>
       <c r="N95" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O95" s="72"/>
       <c r="P95" s="72" t="s">
@@ -23847,7 +23909,7 @@
         <v>87</v>
       </c>
       <c r="N96" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O96" s="72"/>
       <c r="P96" s="72" t="s">
@@ -23867,7 +23929,7 @@
         <v>97</v>
       </c>
       <c r="N97" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O97" s="72"/>
       <c r="P97" s="72" t="s">
@@ -23887,7 +23949,7 @@
         <v>9</v>
       </c>
       <c r="N98" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O98" s="72"/>
       <c r="P98" s="72" t="s">
@@ -23907,7 +23969,7 @@
         <v>14</v>
       </c>
       <c r="N99" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O99" s="72"/>
       <c r="P99" s="72" t="s">
@@ -23927,7 +23989,7 @@
         <v>107</v>
       </c>
       <c r="N100" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O100" s="88" t="s">
         <v>279</v>
@@ -23949,7 +24011,7 @@
         <v>87</v>
       </c>
       <c r="N101" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O101" s="72"/>
       <c r="P101" s="72" t="s">
@@ -23970,7 +24032,7 @@
         <v>107</v>
       </c>
       <c r="N102" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O102" s="88" t="s">
         <v>442</v>
@@ -23993,7 +24055,7 @@
         <v>107</v>
       </c>
       <c r="N103" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O103" s="88" t="s">
         <v>442</v>
@@ -24016,7 +24078,7 @@
         <v>107</v>
       </c>
       <c r="N104" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O104" s="88" t="s">
         <v>442</v>
@@ -24039,7 +24101,7 @@
         <v>107</v>
       </c>
       <c r="N105" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O105" s="88" t="s">
         <v>442</v>
@@ -24062,7 +24124,7 @@
         <v>107</v>
       </c>
       <c r="N106" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O106" s="88" t="s">
         <v>442</v>
@@ -24084,7 +24146,7 @@
         <v>86</v>
       </c>
       <c r="N107" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O107" s="72"/>
       <c r="P107" s="72" t="s">
@@ -24104,7 +24166,7 @@
         <v>86</v>
       </c>
       <c r="N108" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O108" s="72"/>
       <c r="P108" s="72" t="s">
@@ -24124,7 +24186,7 @@
         <v>86</v>
       </c>
       <c r="N109" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O109" s="72"/>
       <c r="P109" s="72" t="s">
@@ -24144,7 +24206,7 @@
         <v>86</v>
       </c>
       <c r="N110" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O110" s="72"/>
       <c r="P110" s="72" t="s">
@@ -24164,7 +24226,7 @@
         <v>86</v>
       </c>
       <c r="N111" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O111" s="72"/>
       <c r="P111" s="72" t="s">
@@ -24184,7 +24246,7 @@
         <v>86</v>
       </c>
       <c r="N112" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O112" s="72"/>
       <c r="P112" s="72" t="s">
@@ -24204,7 +24266,7 @@
         <v>86</v>
       </c>
       <c r="N113" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O113" s="72"/>
       <c r="P113" s="72" t="s">
@@ -24224,7 +24286,7 @@
         <v>107</v>
       </c>
       <c r="N114" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O114" s="88" t="s">
         <v>441</v>
@@ -24246,7 +24308,7 @@
         <v>86</v>
       </c>
       <c r="N115" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O115" s="72"/>
       <c r="P115" s="72" t="s">
@@ -24267,7 +24329,7 @@
         <v>107</v>
       </c>
       <c r="N116" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O116" s="88" t="s">
         <v>280</v>
@@ -24289,7 +24351,7 @@
         <v>107</v>
       </c>
       <c r="N117" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O117" s="88" t="s">
         <v>280</v>
@@ -24312,7 +24374,7 @@
         <v>107</v>
       </c>
       <c r="N118" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O118" s="88" t="s">
         <v>281</v>
@@ -24334,7 +24396,7 @@
         <v>86</v>
       </c>
       <c r="N119" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O119" s="72"/>
       <c r="P119" s="72" t="s">
@@ -24354,7 +24416,7 @@
         <v>20</v>
       </c>
       <c r="N120" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O120" s="72"/>
       <c r="P120" s="72" t="s">
@@ -24374,7 +24436,7 @@
         <v>11</v>
       </c>
       <c r="N121" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O121" s="72"/>
       <c r="P121" s="72" t="s">
@@ -24394,7 +24456,7 @@
         <v>86</v>
       </c>
       <c r="N122" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O122" s="72"/>
       <c r="P122" s="72" t="s">
@@ -24414,7 +24476,7 @@
         <v>114</v>
       </c>
       <c r="N123" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O123" s="72"/>
       <c r="P123" s="72" t="s">
@@ -24434,7 +24496,7 @@
         <v>115</v>
       </c>
       <c r="N124" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O124" s="72"/>
       <c r="P124" s="72" t="s">
@@ -24454,7 +24516,7 @@
         <v>86</v>
       </c>
       <c r="N125" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O125" s="72"/>
       <c r="P125" s="72" t="s">
@@ -24475,7 +24537,7 @@
         <v>107</v>
       </c>
       <c r="N126" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O126" s="88" t="s">
         <v>452</v>
@@ -24497,7 +24559,7 @@
         <v>86</v>
       </c>
       <c r="N127" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O127" s="72"/>
       <c r="P127" s="72" t="s">
@@ -24517,7 +24579,7 @@
         <v>87</v>
       </c>
       <c r="N128" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O128" s="72"/>
       <c r="P128" s="72" t="s">
@@ -24537,7 +24599,7 @@
         <v>107</v>
       </c>
       <c r="N129" s="88" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O129" s="88" t="s">
         <v>280</v>
@@ -24559,7 +24621,7 @@
         <v>87</v>
       </c>
       <c r="N130" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O130" s="72"/>
       <c r="P130" s="72" t="s">
@@ -24579,11 +24641,11 @@
         <v>87</v>
       </c>
       <c r="N131" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O131" s="72"/>
       <c r="P131" s="72" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Q131" s="72" t="s">
         <v>28</v>
@@ -24599,11 +24661,11 @@
         <v>87</v>
       </c>
       <c r="N132" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O132" s="72"/>
       <c r="P132" s="72" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q132" s="72" t="s">
         <v>28</v>
@@ -24619,7 +24681,7 @@
         <v>87</v>
       </c>
       <c r="N133" s="72" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O133" s="72"/>
       <c r="P133" s="72" t="s">
@@ -24639,7 +24701,7 @@
         <v>87</v>
       </c>
       <c r="N134" s="105" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O134" s="105"/>
       <c r="P134" s="105" t="s">
@@ -24659,7 +24721,7 @@
         <v>88</v>
       </c>
       <c r="N135" s="74" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O135" s="74"/>
       <c r="P135" s="62" t="s">
@@ -24681,7 +24743,7 @@
         <v>35</v>
       </c>
       <c r="N136" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O136" s="72"/>
       <c r="P136" s="39" t="s">
@@ -24701,7 +24763,7 @@
         <v>108</v>
       </c>
       <c r="N137" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O137" s="72"/>
       <c r="P137" s="39" t="s">
@@ -24717,23 +24779,23 @@
     </row>
     <row r="138" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L138" s="96"/>
-      <c r="M138" s="26">
+      <c r="M138" s="228">
         <v>72</v>
       </c>
-      <c r="N138" s="72" t="s">
-        <v>852</v>
-      </c>
-      <c r="O138" s="72"/>
-      <c r="P138" s="39" t="s">
+      <c r="N138" s="225" t="s">
+        <v>851</v>
+      </c>
+      <c r="O138" s="225"/>
+      <c r="P138" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="Q138" s="39" t="s">
+      <c r="Q138" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="R138" s="39" t="s">
+      <c r="R138" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="S138" s="58"/>
+      <c r="S138" s="226"/>
     </row>
     <row r="139" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L139" s="96"/>
@@ -24741,7 +24803,7 @@
         <v>85</v>
       </c>
       <c r="N139" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O139" s="72"/>
       <c r="P139" s="72" t="s">
@@ -24761,7 +24823,7 @@
         <v>89</v>
       </c>
       <c r="N140" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O140" s="72"/>
       <c r="P140" s="39" t="s">
@@ -24781,7 +24843,7 @@
         <v>90</v>
       </c>
       <c r="N141" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O141" s="72"/>
       <c r="P141" s="39" t="s">
@@ -24802,7 +24864,7 @@
         <v>86</v>
       </c>
       <c r="N142" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O142" s="72"/>
       <c r="P142" s="39" t="s">
@@ -24822,7 +24884,7 @@
         <v>109</v>
       </c>
       <c r="N143" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O143" s="72"/>
       <c r="P143" s="42" t="s">
@@ -24842,7 +24904,7 @@
         <v>107</v>
       </c>
       <c r="N144" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O144" s="88" t="s">
         <v>279</v>
@@ -24864,7 +24926,7 @@
         <v>87</v>
       </c>
       <c r="N145" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O145" s="72"/>
       <c r="P145" s="72" t="s">
@@ -24884,7 +24946,7 @@
         <v>119</v>
       </c>
       <c r="N146" s="158" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O146" s="158"/>
       <c r="P146" s="159" t="s">
@@ -24904,7 +24966,7 @@
         <v>87</v>
       </c>
       <c r="N147" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O147" s="72"/>
       <c r="P147" s="72" t="s">
@@ -24924,7 +24986,7 @@
         <v>87</v>
       </c>
       <c r="N148" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O148" s="72"/>
       <c r="P148" s="72" t="s">
@@ -24944,7 +25006,7 @@
         <v>11</v>
       </c>
       <c r="N149" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O149" s="72"/>
       <c r="P149" s="72" t="s">
@@ -24964,11 +25026,11 @@
         <v>12</v>
       </c>
       <c r="N150" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O150" s="72"/>
       <c r="P150" s="72" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="Q150" s="39" t="s">
         <v>28</v>
@@ -24984,7 +25046,7 @@
         <v>107</v>
       </c>
       <c r="N151" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O151" s="88" t="s">
         <v>279</v>
@@ -25006,7 +25068,7 @@
         <v>107</v>
       </c>
       <c r="N152" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O152" s="88" t="s">
         <v>281</v>
@@ -25028,7 +25090,7 @@
         <v>107</v>
       </c>
       <c r="N153" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O153" s="88" t="s">
         <v>280</v>
@@ -25050,7 +25112,7 @@
         <v>107</v>
       </c>
       <c r="N154" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O154" s="88" t="s">
         <v>281</v>
@@ -25072,7 +25134,7 @@
         <v>87</v>
       </c>
       <c r="N155" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O155" s="72"/>
       <c r="P155" s="72" t="s">
@@ -25092,7 +25154,7 @@
         <v>87</v>
       </c>
       <c r="N156" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O156" s="72"/>
       <c r="P156" s="72" t="s">
@@ -25112,7 +25174,7 @@
         <v>87</v>
       </c>
       <c r="N157" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O157" s="72"/>
       <c r="P157" s="72" t="s">
@@ -25132,7 +25194,7 @@
         <v>107</v>
       </c>
       <c r="N158" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O158" s="88" t="s">
         <v>281</v>
@@ -25154,7 +25216,7 @@
         <v>107</v>
       </c>
       <c r="N159" s="88" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O159" s="88" t="s">
         <v>281</v>
@@ -25176,7 +25238,7 @@
         <v>107</v>
       </c>
       <c r="N160" s="138" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O160" s="138" t="s">
         <v>281</v>
@@ -25190,7 +25252,7 @@
       <c r="R160" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="S160" s="166"/>
+      <c r="S160" s="163"/>
     </row>
     <row r="161" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L161" s="96"/>
@@ -25198,10 +25260,10 @@
         <v>87</v>
       </c>
       <c r="N161" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O161" s="72"/>
-      <c r="P161" s="199" t="s">
+      <c r="P161" s="196" t="s">
         <v>807</v>
       </c>
       <c r="Q161" s="39" t="s">
@@ -25218,10 +25280,10 @@
         <v>87</v>
       </c>
       <c r="N162" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O162" s="72"/>
-      <c r="P162" s="199" t="s">
+      <c r="P162" s="196" t="s">
         <v>806</v>
       </c>
       <c r="Q162" s="39" t="s">
@@ -25238,11 +25300,11 @@
         <v>87</v>
       </c>
       <c r="N163" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O163" s="72"/>
-      <c r="P163" s="199" t="s">
-        <v>1015</v>
+      <c r="P163" s="196" t="s">
+        <v>1014</v>
       </c>
       <c r="Q163" s="39" t="s">
         <v>20</v>
@@ -25258,11 +25320,11 @@
         <v>87</v>
       </c>
       <c r="N164" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O164" s="72"/>
-      <c r="P164" s="199" t="s">
-        <v>1022</v>
+      <c r="P164" s="196" t="s">
+        <v>1021</v>
       </c>
       <c r="Q164" s="72" t="s">
         <v>20</v>
@@ -25278,11 +25340,11 @@
         <v>87</v>
       </c>
       <c r="N165" s="72" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O165" s="72"/>
-      <c r="P165" s="199" t="s">
-        <v>1016</v>
+      <c r="P165" s="196" t="s">
+        <v>1015</v>
       </c>
       <c r="Q165" s="39" t="s">
         <v>20</v>
@@ -25298,11 +25360,11 @@
         <v>87</v>
       </c>
       <c r="N166" s="91" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O166" s="91"/>
-      <c r="P166" s="200" t="s">
-        <v>1014</v>
+      <c r="P166" s="197" t="s">
+        <v>1013</v>
       </c>
       <c r="Q166" s="65" t="s">
         <v>20</v>
@@ -25314,11 +25376,11 @@
     </row>
     <row r="167" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L167" s="93"/>
-      <c r="M167" s="197">
+      <c r="M167" s="194">
         <v>88</v>
       </c>
       <c r="N167" s="79" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O167" s="79"/>
       <c r="P167" s="80" t="s">
@@ -25330,15 +25392,15 @@
       <c r="R167" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="S167" s="198"/>
+      <c r="S167" s="195"/>
     </row>
     <row r="168" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L168" s="56"/>
-      <c r="M168" s="168">
+      <c r="M168" s="165">
         <v>113</v>
       </c>
       <c r="N168" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O168" s="72"/>
       <c r="P168" s="39" t="s">
@@ -25358,7 +25420,7 @@
         <v>87</v>
       </c>
       <c r="N169" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O169" s="72"/>
       <c r="P169" s="39" t="s">
@@ -25378,7 +25440,7 @@
         <v>110</v>
       </c>
       <c r="N170" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O170" s="72"/>
       <c r="P170" s="42" t="s">
@@ -25398,7 +25460,7 @@
         <v>87</v>
       </c>
       <c r="N171" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O171" s="72"/>
       <c r="P171" s="39" t="s">
@@ -25418,7 +25480,7 @@
         <v>86</v>
       </c>
       <c r="N172" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O172" s="72"/>
       <c r="P172" s="39" t="s">
@@ -25438,7 +25500,7 @@
         <v>87</v>
       </c>
       <c r="N173" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O173" s="72"/>
       <c r="P173" s="39" t="s">
@@ -25458,7 +25520,7 @@
         <v>86</v>
       </c>
       <c r="N174" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O174" s="72"/>
       <c r="P174" s="39" t="s">
@@ -25478,7 +25540,7 @@
         <v>87</v>
       </c>
       <c r="N175" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O175" s="72"/>
       <c r="P175" s="39" t="s">
@@ -25498,7 +25560,7 @@
         <v>87</v>
       </c>
       <c r="N176" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O176" s="72"/>
       <c r="P176" s="39" t="s">
@@ -25518,7 +25580,7 @@
         <v>86</v>
       </c>
       <c r="N177" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O177" s="72"/>
       <c r="P177" s="39" t="s">
@@ -25538,7 +25600,7 @@
         <v>87</v>
       </c>
       <c r="N178" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O178" s="72"/>
       <c r="P178" s="39" t="s">
@@ -25558,7 +25620,7 @@
         <v>86</v>
       </c>
       <c r="N179" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O179" s="72"/>
       <c r="P179" s="39" t="s">
@@ -25578,7 +25640,7 @@
         <v>87</v>
       </c>
       <c r="N180" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O180" s="72"/>
       <c r="P180" s="39" t="s">
@@ -25598,7 +25660,7 @@
         <v>86</v>
       </c>
       <c r="N181" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O181" s="72"/>
       <c r="P181" s="39" t="s">
@@ -25618,7 +25680,7 @@
         <v>87</v>
       </c>
       <c r="N182" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O182" s="72"/>
       <c r="P182" s="39" t="s">
@@ -25638,7 +25700,7 @@
         <v>86</v>
       </c>
       <c r="N183" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O183" s="72"/>
       <c r="P183" s="39" t="s">
@@ -25658,7 +25720,7 @@
         <v>87</v>
       </c>
       <c r="N184" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O184" s="72"/>
       <c r="P184" s="39" t="s">
@@ -25678,7 +25740,7 @@
         <v>86</v>
       </c>
       <c r="N185" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O185" s="72"/>
       <c r="P185" s="39" t="s">
@@ -25698,7 +25760,7 @@
         <v>87</v>
       </c>
       <c r="N186" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O186" s="72"/>
       <c r="P186" s="39" t="s">
@@ -25718,7 +25780,7 @@
         <v>86</v>
       </c>
       <c r="N187" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O187" s="72"/>
       <c r="P187" s="39" t="s">
@@ -25738,7 +25800,7 @@
         <v>87</v>
       </c>
       <c r="N188" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O188" s="72"/>
       <c r="P188" s="39" t="s">
@@ -25758,7 +25820,7 @@
         <v>52</v>
       </c>
       <c r="N189" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O189" s="72"/>
       <c r="P189" s="72" t="s">
@@ -25778,7 +25840,7 @@
         <v>111</v>
       </c>
       <c r="N190" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O190" s="72"/>
       <c r="P190" s="42" t="s">
@@ -25798,7 +25860,7 @@
         <v>87</v>
       </c>
       <c r="N191" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O191" s="72"/>
       <c r="P191" s="39" t="s">
@@ -25814,11 +25876,11 @@
     </row>
     <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="56"/>
-      <c r="M192" s="168">
+      <c r="M192" s="165">
         <v>86</v>
       </c>
       <c r="N192" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O192" s="72"/>
       <c r="P192" s="39" t="s">
@@ -25838,7 +25900,7 @@
         <v>86</v>
       </c>
       <c r="N193" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O193" s="72"/>
       <c r="P193" s="39" t="s">
@@ -25858,7 +25920,7 @@
         <v>87</v>
       </c>
       <c r="N194" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O194" s="72"/>
       <c r="P194" s="39" t="s">
@@ -25874,15 +25936,15 @@
     </row>
     <row r="195" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L195" s="56"/>
-      <c r="M195" s="168">
+      <c r="M195" s="165">
         <v>116</v>
       </c>
       <c r="N195" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O195" s="72"/>
       <c r="P195" s="72" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="Q195" s="39" t="s">
         <v>28</v>
@@ -25898,7 +25960,7 @@
         <v>87</v>
       </c>
       <c r="N196" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O196" s="72"/>
       <c r="P196" s="39" t="s">
@@ -25918,7 +25980,7 @@
         <v>86</v>
       </c>
       <c r="N197" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O197" s="72"/>
       <c r="P197" s="39" t="s">
@@ -25938,7 +26000,7 @@
         <v>86</v>
       </c>
       <c r="N198" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O198" s="72"/>
       <c r="P198" s="39" t="s">
@@ -25954,23 +26016,23 @@
     </row>
     <row r="199" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L199" s="56"/>
-      <c r="M199" s="71">
+      <c r="M199" s="229">
         <v>112</v>
       </c>
-      <c r="N199" s="72" t="s">
-        <v>850</v>
-      </c>
-      <c r="O199" s="72"/>
-      <c r="P199" s="72" t="s">
+      <c r="N199" s="225" t="s">
+        <v>849</v>
+      </c>
+      <c r="O199" s="225"/>
+      <c r="P199" s="225" t="s">
         <v>351</v>
       </c>
-      <c r="Q199" s="39" t="s">
+      <c r="Q199" s="223" t="s">
         <v>23</v>
       </c>
-      <c r="R199" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S199" s="58"/>
+      <c r="R199" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="S199" s="226"/>
     </row>
     <row r="200" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
@@ -25978,7 +26040,7 @@
         <v>119</v>
       </c>
       <c r="N200" s="158" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O200" s="158"/>
       <c r="P200" s="159" t="s">
@@ -25998,7 +26060,7 @@
         <v>87</v>
       </c>
       <c r="N201" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O201" s="72"/>
       <c r="P201" s="39" t="s">
@@ -26018,7 +26080,7 @@
         <v>86</v>
       </c>
       <c r="N202" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O202" s="72"/>
       <c r="P202" s="39" t="s">
@@ -26038,7 +26100,7 @@
         <v>107</v>
       </c>
       <c r="N203" s="88" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O203" s="88" t="s">
         <v>439</v>
@@ -26060,7 +26122,7 @@
         <v>87</v>
       </c>
       <c r="N204" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O204" s="72"/>
       <c r="P204" s="39" t="s">
@@ -26080,7 +26142,7 @@
         <v>107</v>
       </c>
       <c r="N205" s="88" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O205" s="88" t="s">
         <v>439</v>
@@ -26102,7 +26164,7 @@
         <v>86</v>
       </c>
       <c r="N206" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O206" s="72"/>
       <c r="P206" s="39" t="s">
@@ -26122,7 +26184,7 @@
         <v>87</v>
       </c>
       <c r="N207" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O207" s="72"/>
       <c r="P207" s="39" t="s">
@@ -26138,11 +26200,11 @@
     </row>
     <row r="208" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L208" s="56"/>
-      <c r="M208" s="168">
+      <c r="M208" s="165">
         <v>87</v>
       </c>
       <c r="N208" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O208" s="72"/>
       <c r="P208" s="39" t="s">
@@ -26162,7 +26224,7 @@
         <v>87</v>
       </c>
       <c r="N209" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O209" s="72"/>
       <c r="P209" s="39" t="s">
@@ -26182,7 +26244,7 @@
         <v>87</v>
       </c>
       <c r="N210" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O210" s="72"/>
       <c r="P210" s="39" t="s">
@@ -26202,7 +26264,7 @@
         <v>30</v>
       </c>
       <c r="N211" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O211" s="72"/>
       <c r="P211" s="39" t="s">
@@ -26222,7 +26284,7 @@
         <v>87</v>
       </c>
       <c r="N212" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O212" s="72"/>
       <c r="P212" s="39" t="s">
@@ -26242,7 +26304,7 @@
         <v>87</v>
       </c>
       <c r="N213" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O213" s="72"/>
       <c r="P213" s="39" t="s">
@@ -26262,7 +26324,7 @@
         <v>87</v>
       </c>
       <c r="N214" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O214" s="72"/>
       <c r="P214" s="39" t="s">
@@ -26282,7 +26344,7 @@
         <v>87</v>
       </c>
       <c r="N215" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O215" s="72"/>
       <c r="P215" s="39" t="s">
@@ -26302,7 +26364,7 @@
         <v>86</v>
       </c>
       <c r="N216" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O216" s="72"/>
       <c r="P216" s="39" t="s">
@@ -26322,7 +26384,7 @@
         <v>87</v>
       </c>
       <c r="N217" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O217" s="72"/>
       <c r="P217" s="39" t="s">
@@ -26342,7 +26404,7 @@
         <v>87</v>
       </c>
       <c r="N218" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O218" s="72"/>
       <c r="P218" s="39" t="s">
@@ -26362,7 +26424,7 @@
         <v>87</v>
       </c>
       <c r="N219" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O219" s="72"/>
       <c r="P219" s="39" t="s">
@@ -26382,7 +26444,7 @@
         <v>64</v>
       </c>
       <c r="N220" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O220" s="72"/>
       <c r="P220" s="39" t="s">
@@ -26402,7 +26464,7 @@
         <v>87</v>
       </c>
       <c r="N221" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O221" s="72"/>
       <c r="P221" s="39" t="s">
@@ -26422,7 +26484,7 @@
         <v>87</v>
       </c>
       <c r="N222" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O222" s="72"/>
       <c r="P222" s="39" t="s">
@@ -26438,11 +26500,11 @@
     </row>
     <row r="223" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L223" s="56"/>
-      <c r="M223" s="168">
+      <c r="M223" s="165">
         <v>86</v>
       </c>
       <c r="N223" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O223" s="72"/>
       <c r="P223" s="42" t="s">
@@ -26462,7 +26524,7 @@
         <v>86</v>
       </c>
       <c r="N224" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O224" s="72"/>
       <c r="P224" s="39" t="s">
@@ -26478,11 +26540,11 @@
     </row>
     <row r="225" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L225" s="56"/>
-      <c r="M225" s="168">
+      <c r="M225" s="165">
         <v>117</v>
       </c>
       <c r="N225" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O225" s="72"/>
       <c r="P225" s="39" t="s">
@@ -26502,7 +26564,7 @@
         <v>86</v>
       </c>
       <c r="N226" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O226" s="72"/>
       <c r="P226" s="39" t="s">
@@ -26522,7 +26584,7 @@
         <v>87</v>
       </c>
       <c r="N227" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O227" s="72"/>
       <c r="P227" s="39" t="s">
@@ -26542,7 +26604,7 @@
         <v>86</v>
       </c>
       <c r="N228" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O228" s="72"/>
       <c r="P228" s="39" t="s">
@@ -26562,7 +26624,7 @@
         <v>87</v>
       </c>
       <c r="N229" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O229" s="72"/>
       <c r="P229" s="39" t="s">
@@ -26582,7 +26644,7 @@
         <v>87</v>
       </c>
       <c r="N230" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O230" s="72"/>
       <c r="P230" s="39" t="s">
@@ -26602,7 +26664,7 @@
         <v>87</v>
       </c>
       <c r="N231" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O231" s="72"/>
       <c r="P231" s="39" t="s">
@@ -26622,7 +26684,7 @@
         <v>86</v>
       </c>
       <c r="N232" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O232" s="72"/>
       <c r="P232" s="39" t="s">
@@ -26642,7 +26704,7 @@
         <v>86</v>
       </c>
       <c r="N233" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O233" s="72"/>
       <c r="P233" s="39" t="s">
@@ -26662,7 +26724,7 @@
         <v>87</v>
       </c>
       <c r="N234" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O234" s="72"/>
       <c r="P234" s="39" t="s">
@@ -26682,7 +26744,7 @@
         <v>86</v>
       </c>
       <c r="N235" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O235" s="72"/>
       <c r="P235" s="39" t="s">
@@ -26702,7 +26764,7 @@
         <v>87</v>
       </c>
       <c r="N236" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O236" s="72"/>
       <c r="P236" s="39" t="s">
@@ -26722,7 +26784,7 @@
         <v>87</v>
       </c>
       <c r="N237" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O237" s="72"/>
       <c r="P237" s="39" t="s">
@@ -26742,7 +26804,7 @@
         <v>87</v>
       </c>
       <c r="N238" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O238" s="72"/>
       <c r="P238" s="39" t="s">
@@ -26762,7 +26824,7 @@
         <v>87</v>
       </c>
       <c r="N239" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O239" s="72"/>
       <c r="P239" s="39" t="s">
@@ -26782,7 +26844,7 @@
         <v>87</v>
       </c>
       <c r="N240" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O240" s="72"/>
       <c r="P240" s="39" t="s">
@@ -26802,7 +26864,7 @@
         <v>87</v>
       </c>
       <c r="N241" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O241" s="72"/>
       <c r="P241" s="39" t="s">
@@ -26822,7 +26884,7 @@
         <v>87</v>
       </c>
       <c r="N242" s="72" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O242" s="72"/>
       <c r="P242" s="39" t="s">
@@ -26842,7 +26904,7 @@
         <v>86</v>
       </c>
       <c r="N243" s="55" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O243" s="55"/>
       <c r="P243" s="55" t="s">
@@ -26877,8 +26939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26915,26 +26977,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -26942,34 +27004,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -26980,29 +27047,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27335,12 +27402,12 @@
         <v>46</v>
       </c>
       <c r="J15" s="55" t="s">
+        <v>940</v>
+      </c>
+      <c r="K15" s="59" t="s">
         <v>941</v>
       </c>
-      <c r="K15" s="59" t="s">
-        <v>942</v>
-      </c>
-      <c r="L15" s="177"/>
+      <c r="L15" s="174"/>
       <c r="M15" s="48">
         <v>10</v>
       </c>
@@ -27487,7 +27554,7 @@
       <c r="N19" s="104" t="s">
         <v>377</v>
       </c>
-      <c r="O19" s="167" t="s">
+      <c r="O19" s="164" t="s">
         <v>354</v>
       </c>
       <c r="P19" s="83" t="s">
@@ -27515,7 +27582,7 @@
       <c r="G20" s="68"/>
       <c r="H20" s="56"/>
       <c r="L20" s="53"/>
-      <c r="M20" s="173">
+      <c r="M20" s="170">
         <v>46</v>
       </c>
       <c r="N20" s="105" t="s">
@@ -28013,7 +28080,7 @@
   <dimension ref="B1:R60"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E60"/>
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28050,26 +28117,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -28077,34 +28144,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -28115,29 +28187,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28256,7 +28328,7 @@
         <v>783</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L10" s="117"/>
       <c r="M10" s="124">
@@ -29183,8 +29255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R159"/>
   <sheetViews>
-    <sheetView topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29221,26 +29293,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -29248,34 +29320,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -29286,29 +29363,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29375,13 +29452,13 @@
       <c r="F9" s="28"/>
       <c r="G9" s="66"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="191">
+      <c r="I9" s="188">
         <v>152</v>
       </c>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="184" t="s">
+      <c r="K9" s="181" t="s">
         <v>633</v>
       </c>
       <c r="L9" s="52"/>
@@ -32009,8 +32086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32047,26 +32124,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32074,34 +32151,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -32112,29 +32194,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32254,7 +32336,7 @@
       <c r="J10" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="K10" s="171" t="s">
+      <c r="K10" s="168" t="s">
         <v>327</v>
       </c>
       <c r="L10" s="52"/>
@@ -32297,7 +32379,7 @@
       <c r="J11" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="K11" s="171" t="s">
+      <c r="K11" s="168" t="s">
         <v>328</v>
       </c>
       <c r="L11" s="52"/>
@@ -32758,8 +32840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32796,26 +32878,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32823,34 +32905,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -32861,29 +32948,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33353,7 +33440,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="74" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O20" s="62" t="s">
         <v>704</v>
@@ -33387,7 +33474,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O21" s="39" t="s">
         <v>351</v>
@@ -33421,7 +33508,7 @@
         <v>24</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>796</v>
@@ -33455,7 +33542,7 @@
         <v>29</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O23" s="39" t="s">
         <v>712</v>
@@ -33489,7 +33576,7 @@
         <v>29</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>797</v>
@@ -33523,7 +33610,7 @@
         <v>29</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O25" s="39" t="s">
         <v>798</v>
@@ -33557,7 +33644,7 @@
         <v>29</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O26" s="39" t="s">
         <v>799</v>
@@ -33591,7 +33678,7 @@
         <v>29</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O27" s="39" t="s">
         <v>800</v>
@@ -33625,7 +33712,7 @@
         <v>29</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O28" s="39" t="s">
         <v>801</v>
@@ -33659,7 +33746,7 @@
         <v>29</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O29" s="39" t="s">
         <v>802</v>
@@ -33693,7 +33780,7 @@
         <v>29</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O30" s="39" t="s">
         <v>803</v>
@@ -33727,7 +33814,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O31" s="39" t="s">
         <v>804</v>
@@ -33761,7 +33848,7 @@
         <v>9</v>
       </c>
       <c r="N32" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O32" s="39" t="s">
         <v>806</v>
@@ -33795,7 +33882,7 @@
         <v>11</v>
       </c>
       <c r="N33" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O33" s="39" t="s">
         <v>807</v>
@@ -33829,7 +33916,7 @@
         <v>29</v>
       </c>
       <c r="N34" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O34" s="39" t="s">
         <v>808</v>
@@ -33863,7 +33950,7 @@
         <v>29</v>
       </c>
       <c r="N35" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O35" s="39" t="s">
         <v>809</v>
@@ -33882,7 +33969,7 @@
         <v>29</v>
       </c>
       <c r="N36" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>810</v>
@@ -33901,7 +33988,7 @@
         <v>29</v>
       </c>
       <c r="N37" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O37" s="39" t="s">
         <v>811</v>
@@ -33920,7 +34007,7 @@
         <v>29</v>
       </c>
       <c r="N38" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O38" s="39" t="s">
         <v>812</v>
@@ -33939,7 +34026,7 @@
         <v>29</v>
       </c>
       <c r="N39" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O39" s="39" t="s">
         <v>813</v>
@@ -33958,7 +34045,7 @@
         <v>29</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O40" s="39" t="s">
         <v>766</v>
@@ -33977,7 +34064,7 @@
         <v>29</v>
       </c>
       <c r="N41" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O41" s="39" t="s">
         <v>814</v>
@@ -33996,7 +34083,7 @@
         <v>29</v>
       </c>
       <c r="N42" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O42" s="39" t="s">
         <v>815</v>
@@ -34015,7 +34102,7 @@
         <v>29</v>
       </c>
       <c r="N43" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O43" s="39" t="s">
         <v>816</v>
@@ -34034,7 +34121,7 @@
         <v>29</v>
       </c>
       <c r="N44" s="65" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O44" s="65" t="s">
         <v>817</v>
@@ -34068,8 +34155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34106,26 +34193,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -34133,34 +34220,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -34171,29 +34263,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34359,7 +34451,7 @@
       <c r="K11" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="170"/>
+      <c r="L11" s="167"/>
       <c r="M11" s="86">
         <v>27</v>
       </c>
@@ -34399,10 +34491,10 @@
         <v>30</v>
       </c>
       <c r="J12" s="55" t="s">
+        <v>942</v>
+      </c>
+      <c r="K12" s="59" t="s">
         <v>943</v>
-      </c>
-      <c r="K12" s="59" t="s">
-        <v>944</v>
       </c>
       <c r="L12" s="98"/>
       <c r="M12" s="128">
@@ -34579,7 +34671,7 @@
         <v>27</v>
       </c>
       <c r="N17" s="62" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O17" s="62" t="s">
         <v>704</v>
@@ -34613,7 +34705,7 @@
         <v>21</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>351</v>
@@ -34647,7 +34739,7 @@
         <v>23</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O19" s="39" t="s">
         <v>796</v>
@@ -34681,7 +34773,7 @@
         <v>29</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>712</v>
@@ -34715,7 +34807,7 @@
         <v>29</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O21" s="39" t="s">
         <v>797</v>
@@ -34749,7 +34841,7 @@
         <v>29</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>798</v>
@@ -34783,7 +34875,7 @@
         <v>29</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O23" s="39" t="s">
         <v>799</v>
@@ -34817,7 +34909,7 @@
         <v>29</v>
       </c>
       <c r="N24" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>800</v>
@@ -34851,7 +34943,7 @@
         <v>29</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O25" s="39" t="s">
         <v>801</v>
@@ -34885,7 +34977,7 @@
         <v>29</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O26" s="39" t="s">
         <v>802</v>
@@ -34919,7 +35011,7 @@
         <v>29</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O27" s="39" t="s">
         <v>803</v>
@@ -34953,7 +35045,7 @@
         <v>6</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O28" s="39" t="s">
         <v>804</v>
@@ -34987,7 +35079,7 @@
         <v>10</v>
       </c>
       <c r="N29" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O29" s="39" t="s">
         <v>806</v>
@@ -35021,7 +35113,7 @@
         <v>11</v>
       </c>
       <c r="N30" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O30" s="39" t="s">
         <v>807</v>
@@ -35055,7 +35147,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O31" s="39" t="s">
         <v>808</v>
@@ -35089,7 +35181,7 @@
         <v>29</v>
       </c>
       <c r="N32" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O32" s="39" t="s">
         <v>809</v>
@@ -35123,7 +35215,7 @@
         <v>29</v>
       </c>
       <c r="N33" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O33" s="39" t="s">
         <v>810</v>
@@ -35157,7 +35249,7 @@
         <v>29</v>
       </c>
       <c r="N34" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O34" s="39" t="s">
         <v>811</v>
@@ -35176,7 +35268,7 @@
         <v>29</v>
       </c>
       <c r="N35" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O35" s="39" t="s">
         <v>812</v>
@@ -35195,7 +35287,7 @@
         <v>29</v>
       </c>
       <c r="N36" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O36" s="39" t="s">
         <v>813</v>
@@ -35214,7 +35306,7 @@
         <v>29</v>
       </c>
       <c r="N37" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O37" s="39" t="s">
         <v>766</v>
@@ -35233,7 +35325,7 @@
         <v>29</v>
       </c>
       <c r="N38" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O38" s="39" t="s">
         <v>814</v>
@@ -35252,7 +35344,7 @@
         <v>29</v>
       </c>
       <c r="N39" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O39" s="39" t="s">
         <v>815</v>
@@ -35271,7 +35363,7 @@
         <v>29</v>
       </c>
       <c r="N40" s="39" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O40" s="39" t="s">
         <v>816</v>
@@ -35290,7 +35382,7 @@
         <v>29</v>
       </c>
       <c r="N41" s="65" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O41" s="65" t="s">
         <v>817</v>
@@ -35324,8 +35416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K20"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35362,26 +35454,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="206" t="s">
         <v>452</v>
       </c>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="218" t="s">
-        <v>851</v>
-      </c>
-      <c r="I2" s="219"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="I2" s="216"/>
+      <c r="J2" s="217"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="214"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -35389,34 +35481,39 @@
       </c>
       <c r="J3" s="58"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="214"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="211"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="101" t="s">
-        <v>848</v>
-      </c>
-      <c r="J4" s="59"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="212" t="s">
+      <c r="D5" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="214"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="211"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -35427,29 +35524,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="208"/>
-      <c r="D7" s="208"/>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="208"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="204" t="s">
+      <c r="I7" s="201" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="205"/>
-      <c r="K7" s="206"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="203"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="202" t="s">
+      <c r="M7" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="203"/>
-      <c r="R7" s="203"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35505,7 +35602,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D9" s="62" t="s">
         <v>80</v>
@@ -35565,12 +35662,12 @@
         <v>15</v>
       </c>
       <c r="J10" s="72" t="s">
+        <v>867</v>
+      </c>
+      <c r="K10" s="89" t="s">
         <v>868</v>
       </c>
-      <c r="K10" s="89" t="s">
-        <v>869</v>
-      </c>
-      <c r="L10" s="169"/>
+      <c r="L10" s="166"/>
       <c r="M10" s="123">
         <v>15</v>
       </c>
@@ -35608,12 +35705,12 @@
         <v>16</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K11" s="89" t="s">
-        <v>870</v>
-      </c>
-      <c r="L11" s="170"/>
+        <v>869</v>
+      </c>
+      <c r="L11" s="167"/>
       <c r="M11" s="152">
         <v>14</v>
       </c>
@@ -35653,13 +35750,13 @@
         <v>17</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K12" s="58" t="s">
-        <v>872</v>
-      </c>
-      <c r="L12" s="177"/>
-      <c r="M12" s="192">
+        <v>871</v>
+      </c>
+      <c r="L12" s="174"/>
+      <c r="M12" s="189">
         <v>23</v>
       </c>
       <c r="N12" s="105" t="s">
@@ -35701,12 +35798,12 @@
       <c r="K13" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="L13" s="170"/>
+      <c r="L13" s="167"/>
       <c r="M13" s="86">
         <v>16</v>
       </c>
       <c r="N13" s="151" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O13" s="151" t="s">
         <v>842</v>
@@ -35751,7 +35848,7 @@
         <v>14</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O14" s="42" t="s">
         <v>19</v>
@@ -35786,17 +35883,17 @@
         <v>20</v>
       </c>
       <c r="J15" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="K15" s="58" t="s">
         <v>874</v>
-      </c>
-      <c r="K15" s="58" t="s">
-        <v>875</v>
       </c>
       <c r="L15" s="98"/>
       <c r="M15" s="57">
         <v>17</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O15" s="42" t="s">
         <v>843</v>
@@ -35839,22 +35936,22 @@
         <v>180</v>
       </c>
       <c r="L16" s="98"/>
-      <c r="M16" s="57">
+      <c r="M16" s="227">
         <v>2</v>
       </c>
-      <c r="N16" s="42" t="s">
-        <v>878</v>
-      </c>
-      <c r="O16" s="42" t="s">
+      <c r="N16" s="230" t="s">
+        <v>877</v>
+      </c>
+      <c r="O16" s="230" t="s">
         <v>351</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="42" t="s">
+      <c r="Q16" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="58" t="s">
+      <c r="R16" s="226" t="s">
         <v>14</v>
       </c>
     </row>
@@ -35863,7 +35960,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>80</v>
@@ -35888,7 +35985,7 @@
         <v>18</v>
       </c>
       <c r="N17" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O17" s="42" t="s">
         <v>830</v>
@@ -35906,7 +36003,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>80</v>
@@ -35921,17 +36018,17 @@
         <v>23</v>
       </c>
       <c r="J18" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="K18" s="58" t="s">
         <v>945</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>946</v>
       </c>
       <c r="L18" s="98"/>
       <c r="M18" s="57">
         <v>19</v>
       </c>
       <c r="N18" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O18" s="42" t="s">
         <v>22</v>
@@ -35949,7 +36046,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>80</v>
@@ -35964,17 +36061,17 @@
         <v>24</v>
       </c>
       <c r="J19" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K19" s="58" t="s">
         <v>1026</v>
-      </c>
-      <c r="K19" s="58" t="s">
-        <v>1027</v>
       </c>
       <c r="L19" s="98"/>
       <c r="M19" s="57">
         <v>20</v>
       </c>
       <c r="N19" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O19" s="42" t="s">
         <v>27</v>
@@ -35992,7 +36089,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>80</v>
@@ -36007,17 +36104,17 @@
         <v>25</v>
       </c>
       <c r="J20" s="55" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K20" s="92" t="s">
         <v>1028</v>
-      </c>
-      <c r="K20" s="92" t="s">
-        <v>1029</v>
       </c>
       <c r="L20" s="98"/>
       <c r="M20" s="57">
         <v>21</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O20" s="42" t="s">
         <v>844</v>
@@ -36035,7 +36132,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D21" s="65" t="s">
         <v>80</v>
@@ -36051,7 +36148,7 @@
         <v>22</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O21" s="42" t="s">
         <v>845</v>
@@ -36070,10 +36167,10 @@
         <v>22</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P22" s="42" t="s">
         <v>23</v>
@@ -36089,10 +36186,10 @@
         <v>22</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P23" s="42" t="s">
         <v>240</v>
@@ -36107,16 +36204,16 @@
       <c r="M24" s="155">
         <v>25</v>
       </c>
-      <c r="N24" s="176" t="s">
-        <v>878</v>
-      </c>
-      <c r="O24" s="176" t="s">
+      <c r="N24" s="173" t="s">
+        <v>877</v>
+      </c>
+      <c r="O24" s="173" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="176" t="s">
+      <c r="P24" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="176" t="s">
+      <c r="Q24" s="173" t="s">
         <v>24</v>
       </c>
       <c r="R24" s="156"/>

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4800" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1035">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6168,6 +6168,9 @@
   </si>
   <si>
     <t>Validaciones Generales Fuente PS_AA_PN_INF_BASIC/16. Búsqueda Fecha del Estado del CV del Involucrado</t>
+  </si>
+  <si>
+    <t>IND_CUMPL_PAG</t>
   </si>
 </sst>
 </file>
@@ -7620,6 +7623,8 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7689,8 +7694,6 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -8212,7 +8215,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8220,10 +8223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T254"/>
+  <dimension ref="B1:T255"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="L154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P161" sqref="P161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8261,27 +8264,27 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
-      <c r="H2" s="224" t="s">
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
         <v>847</v>
@@ -8293,11 +8296,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -8310,11 +8313,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -8331,30 +8334,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
-      <c r="S7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
+      <c r="S7" s="211"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12690,119 +12693,119 @@
       </c>
       <c r="O170" s="72"/>
       <c r="P170" s="39" t="s">
-        <v>693</v>
+        <v>1034</v>
       </c>
       <c r="Q170" s="39" t="s">
-        <v>668</v>
-      </c>
-      <c r="R170" s="39" t="s">
+        <v>691</v>
+      </c>
+      <c r="R170" s="72" t="s">
         <v>24</v>
       </c>
       <c r="S170" s="58"/>
     </row>
     <row r="171" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
-      <c r="M171" s="157">
-        <v>84</v>
-      </c>
-      <c r="N171" s="158" t="s">
+      <c r="M171" s="57">
+        <v>63</v>
+      </c>
+      <c r="N171" s="72" t="s">
         <v>848</v>
       </c>
-      <c r="O171" s="158"/>
-      <c r="P171" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q171" s="159" t="s">
-        <v>23</v>
-      </c>
-      <c r="R171" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="S171" s="160"/>
+      <c r="O171" s="72"/>
+      <c r="P171" s="39" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q171" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="R171" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S171" s="58"/>
     </row>
     <row r="172" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
-      <c r="M172" s="120">
+      <c r="M172" s="157">
+        <v>84</v>
+      </c>
+      <c r="N172" s="158" t="s">
+        <v>848</v>
+      </c>
+      <c r="O172" s="158"/>
+      <c r="P172" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="N172" s="88" t="s">
-        <v>848</v>
-      </c>
-      <c r="O172" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="P172" s="81" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q172" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="R172" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S172" s="119"/>
+      <c r="Q172" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="R172" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S172" s="160"/>
     </row>
     <row r="173" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L173" s="56"/>
-      <c r="M173" s="57">
-        <v>63</v>
-      </c>
-      <c r="N173" s="72" t="s">
+      <c r="M173" s="120">
+        <v>68</v>
+      </c>
+      <c r="N173" s="88" t="s">
         <v>848</v>
       </c>
-      <c r="O173" s="72"/>
-      <c r="P173" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q173" s="39" t="s">
+      <c r="O173" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="P173" s="81" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q173" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="R173" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S173" s="58"/>
+      <c r="R173" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S173" s="119"/>
     </row>
     <row r="174" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
-      <c r="M174" s="120">
-        <v>68</v>
-      </c>
-      <c r="N174" s="88" t="s">
+      <c r="M174" s="57">
+        <v>63</v>
+      </c>
+      <c r="N174" s="72" t="s">
         <v>848</v>
       </c>
-      <c r="O174" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="P174" s="85" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q174" s="85" t="s">
+      <c r="O174" s="72"/>
+      <c r="P174" s="39" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q174" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R174" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S174" s="119"/>
+      <c r="R174" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S174" s="58"/>
     </row>
     <row r="175" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L175" s="56"/>
-      <c r="M175" s="57">
-        <v>63</v>
-      </c>
-      <c r="N175" s="72" t="s">
+      <c r="M175" s="120">
+        <v>68</v>
+      </c>
+      <c r="N175" s="88" t="s">
         <v>848</v>
       </c>
-      <c r="O175" s="72"/>
-      <c r="P175" s="39" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q175" s="39" t="s">
+      <c r="O175" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="P175" s="85" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q175" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="R175" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S175" s="58"/>
+      <c r="R175" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S175" s="119"/>
     </row>
     <row r="176" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L176" s="56"/>
@@ -12814,7 +12817,7 @@
       </c>
       <c r="O176" s="72"/>
       <c r="P176" s="39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q176" s="39" t="s">
         <v>20</v>
@@ -12824,102 +12827,102 @@
       </c>
       <c r="S176" s="58"/>
     </row>
-    <row r="177" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L177" s="56"/>
-      <c r="M177" s="113">
+      <c r="M177" s="57">
         <v>63</v>
       </c>
-      <c r="N177" s="105" t="s">
+      <c r="N177" s="72" t="s">
         <v>848</v>
       </c>
-      <c r="O177" s="105"/>
-      <c r="P177" s="83" t="s">
+      <c r="O177" s="72"/>
+      <c r="P177" s="39" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q177" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R177" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S177" s="58"/>
+    </row>
+    <row r="178" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L178" s="56"/>
+      <c r="M178" s="113">
+        <v>63</v>
+      </c>
+      <c r="N178" s="105" t="s">
+        <v>848</v>
+      </c>
+      <c r="O178" s="105"/>
+      <c r="P178" s="83" t="s">
         <v>699</v>
       </c>
-      <c r="Q177" s="83" t="s">
+      <c r="Q178" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="R177" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="S177" s="114"/>
-    </row>
-    <row r="178" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L178" s="115"/>
-      <c r="M178" s="60">
+      <c r="R178" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="S178" s="114"/>
+    </row>
+    <row r="179" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L179" s="115"/>
+      <c r="M179" s="60">
         <v>64</v>
       </c>
-      <c r="N178" s="74" t="s">
+      <c r="N179" s="74" t="s">
         <v>849</v>
       </c>
-      <c r="O178" s="74"/>
-      <c r="P178" s="62" t="s">
+      <c r="O179" s="74"/>
+      <c r="P179" s="62" t="s">
         <v>704</v>
       </c>
-      <c r="Q178" s="62" t="s">
+      <c r="Q179" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="R178" s="62" t="s">
+      <c r="R179" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="S178" s="87" t="s">
+      <c r="S179" s="87" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="179" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L179" s="96"/>
-      <c r="M179" s="128">
-        <v>79</v>
-      </c>
-      <c r="N179" s="72" t="s">
-        <v>849</v>
-      </c>
-      <c r="O179" s="72"/>
-      <c r="P179" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q179" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R179" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S179" s="132"/>
     </row>
     <row r="180" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L180" s="96"/>
-      <c r="M180" s="57">
-        <v>63</v>
+      <c r="M180" s="128">
+        <v>79</v>
       </c>
       <c r="N180" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O180" s="72"/>
       <c r="P180" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q180" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R180" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S180" s="58"/>
+      <c r="S180" s="132"/>
     </row>
     <row r="181" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L181" s="96"/>
       <c r="M181" s="57">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N181" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O181" s="72"/>
-      <c r="P181" s="42" t="s">
-        <v>707</v>
+      <c r="P181" s="39" t="s">
+        <v>706</v>
       </c>
       <c r="Q181" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R181" s="39" t="s">
         <v>24</v>
@@ -12929,17 +12932,17 @@
     <row r="182" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L182" s="96"/>
       <c r="M182" s="57">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N182" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O182" s="72"/>
-      <c r="P182" s="39" t="s">
-        <v>708</v>
+      <c r="P182" s="42" t="s">
+        <v>707</v>
       </c>
       <c r="Q182" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R182" s="39" t="s">
         <v>24</v>
@@ -12949,17 +12952,17 @@
     <row r="183" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L183" s="96"/>
       <c r="M183" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N183" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O183" s="72"/>
       <c r="P183" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q183" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R183" s="39" t="s">
         <v>24</v>
@@ -12969,17 +12972,17 @@
     <row r="184" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L184" s="96"/>
       <c r="M184" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N184" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O184" s="72"/>
       <c r="P184" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q184" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R184" s="39" t="s">
         <v>24</v>
@@ -12989,17 +12992,17 @@
     <row r="185" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L185" s="96"/>
       <c r="M185" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N185" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O185" s="72"/>
       <c r="P185" s="39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q185" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R185" s="39" t="s">
         <v>24</v>
@@ -13009,17 +13012,17 @@
     <row r="186" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L186" s="96"/>
       <c r="M186" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N186" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O186" s="72"/>
       <c r="P186" s="39" t="s">
-        <v>407</v>
+        <v>711</v>
       </c>
       <c r="Q186" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R186" s="39" t="s">
         <v>24</v>
@@ -13036,10 +13039,10 @@
       </c>
       <c r="O187" s="72"/>
       <c r="P187" s="39" t="s">
-        <v>712</v>
+        <v>407</v>
       </c>
       <c r="Q187" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R187" s="39" t="s">
         <v>24</v>
@@ -13049,17 +13052,17 @@
     <row r="188" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L188" s="96"/>
       <c r="M188" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N188" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O188" s="72"/>
       <c r="P188" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q188" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R188" s="39" t="s">
         <v>24</v>
@@ -13069,17 +13072,17 @@
     <row r="189" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L189" s="96"/>
       <c r="M189" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N189" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O189" s="72"/>
       <c r="P189" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q189" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R189" s="39" t="s">
         <v>24</v>
@@ -13089,17 +13092,17 @@
     <row r="190" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L190" s="96"/>
       <c r="M190" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N190" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O190" s="72"/>
       <c r="P190" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q190" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R190" s="39" t="s">
         <v>24</v>
@@ -13109,17 +13112,17 @@
     <row r="191" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L191" s="96"/>
       <c r="M191" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N191" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O191" s="72"/>
       <c r="P191" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Q191" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R191" s="39" t="s">
         <v>24</v>
@@ -13129,17 +13132,17 @@
     <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="96"/>
       <c r="M192" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N192" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O192" s="72"/>
       <c r="P192" s="39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q192" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R192" s="39" t="s">
         <v>24</v>
@@ -13149,17 +13152,17 @@
     <row r="193" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L193" s="96"/>
       <c r="M193" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N193" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O193" s="72"/>
       <c r="P193" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q193" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R193" s="39" t="s">
         <v>24</v>
@@ -13169,17 +13172,17 @@
     <row r="194" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L194" s="96"/>
       <c r="M194" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N194" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O194" s="72"/>
       <c r="P194" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q194" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R194" s="39" t="s">
         <v>24</v>
@@ -13189,17 +13192,17 @@
     <row r="195" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L195" s="96"/>
       <c r="M195" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N195" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O195" s="72"/>
       <c r="P195" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Q195" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R195" s="39" t="s">
         <v>24</v>
@@ -13209,17 +13212,17 @@
     <row r="196" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L196" s="96"/>
       <c r="M196" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N196" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O196" s="72"/>
       <c r="P196" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q196" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R196" s="39" t="s">
         <v>24</v>
@@ -13229,17 +13232,17 @@
     <row r="197" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L197" s="96"/>
       <c r="M197" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N197" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O197" s="72"/>
       <c r="P197" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Q197" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R197" s="39" t="s">
         <v>24</v>
@@ -13249,17 +13252,17 @@
     <row r="198" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L198" s="96"/>
       <c r="M198" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N198" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O198" s="72"/>
       <c r="P198" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q198" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R198" s="39" t="s">
         <v>24</v>
@@ -13269,17 +13272,17 @@
     <row r="199" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L199" s="96"/>
       <c r="M199" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N199" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O199" s="72"/>
       <c r="P199" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q199" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R199" s="39" t="s">
         <v>24</v>
@@ -13288,18 +13291,18 @@
     </row>
     <row r="200" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L200" s="96"/>
-      <c r="M200" s="90">
-        <v>35</v>
+      <c r="M200" s="57">
+        <v>63</v>
       </c>
       <c r="N200" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O200" s="72"/>
-      <c r="P200" s="72" t="s">
-        <v>725</v>
+      <c r="P200" s="39" t="s">
+        <v>724</v>
       </c>
       <c r="Q200" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="R200" s="39" t="s">
         <v>24</v>
@@ -13309,67 +13312,67 @@
     </row>
     <row r="201" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L201" s="96"/>
-      <c r="M201" s="128">
-        <v>74</v>
+      <c r="M201" s="90">
+        <v>35</v>
       </c>
       <c r="N201" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O201" s="72"/>
-      <c r="P201" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q201" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="R201" s="42" t="s">
-        <v>21</v>
+      <c r="P201" s="72" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q201" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="R201" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="S201" s="58"/>
     </row>
     <row r="202" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L202" s="96"/>
-      <c r="M202" s="57">
-        <v>63</v>
+      <c r="M202" s="128">
+        <v>74</v>
       </c>
       <c r="N202" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O202" s="72"/>
-      <c r="P202" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q202" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="R202" s="39" t="s">
-        <v>24</v>
+      <c r="P202" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q202" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="R202" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="S202" s="58"/>
     </row>
     <row r="203" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L203" s="96"/>
-      <c r="M203" s="128">
-        <v>62</v>
+      <c r="M203" s="57">
+        <v>63</v>
       </c>
       <c r="N203" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O203" s="72"/>
       <c r="P203" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Q203" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R203" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S203" s="64"/>
+      <c r="S203" s="58"/>
     </row>
     <row r="204" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L204" s="96"/>
-      <c r="M204" s="57">
+      <c r="M204" s="128">
         <v>62</v>
       </c>
       <c r="N204" s="72" t="s">
@@ -13377,30 +13380,30 @@
       </c>
       <c r="O204" s="72"/>
       <c r="P204" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q204" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R204" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S204" s="58"/>
+      <c r="S204" s="64"/>
     </row>
     <row r="205" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L205" s="96"/>
       <c r="M205" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N205" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O205" s="72"/>
       <c r="P205" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Q205" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R205" s="39" t="s">
         <v>24</v>
@@ -13409,55 +13412,55 @@
     </row>
     <row r="206" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L206" s="96"/>
-      <c r="M206" s="128">
-        <v>81</v>
+      <c r="M206" s="57">
+        <v>63</v>
       </c>
       <c r="N206" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O206" s="72"/>
-      <c r="P206" s="72" t="s">
-        <v>922</v>
-      </c>
-      <c r="Q206" s="39"/>
-      <c r="R206" s="39"/>
-      <c r="S206" s="64"/>
+      <c r="P206" s="39" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q206" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="R206" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S206" s="58"/>
     </row>
     <row r="207" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L207" s="96"/>
-      <c r="M207" s="57">
-        <v>63</v>
+      <c r="M207" s="128">
+        <v>81</v>
       </c>
       <c r="N207" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O207" s="72"/>
       <c r="P207" s="72" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q207" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="R207" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S207" s="58"/>
+        <v>922</v>
+      </c>
+      <c r="Q207" s="39"/>
+      <c r="R207" s="39"/>
+      <c r="S207" s="64"/>
       <c r="T207" s="95"/>
     </row>
     <row r="208" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L208" s="96"/>
       <c r="M208" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N208" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O208" s="72"/>
-      <c r="P208" s="39" t="s">
-        <v>732</v>
+      <c r="P208" s="72" t="s">
+        <v>731</v>
       </c>
       <c r="Q208" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R208" s="39" t="s">
         <v>24</v>
@@ -13474,7 +13477,7 @@
       </c>
       <c r="O209" s="72"/>
       <c r="P209" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q209" s="39" t="s">
         <v>20</v>
@@ -13486,78 +13489,78 @@
     </row>
     <row r="210" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L210" s="96"/>
-      <c r="M210" s="204">
-        <v>76</v>
-      </c>
-      <c r="N210" s="202" t="s">
+      <c r="M210" s="57">
+        <v>62</v>
+      </c>
+      <c r="N210" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O210" s="202"/>
-      <c r="P210" s="200" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q210" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="R210" s="200" t="s">
-        <v>24</v>
-      </c>
-      <c r="S210" s="203"/>
+      <c r="O210" s="72"/>
+      <c r="P210" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q210" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R210" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S210" s="58"/>
     </row>
     <row r="211" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L211" s="96"/>
-      <c r="M211" s="157">
-        <v>84</v>
-      </c>
-      <c r="N211" s="158" t="s">
+      <c r="M211" s="204">
+        <v>76</v>
+      </c>
+      <c r="N211" s="202" t="s">
         <v>849</v>
       </c>
-      <c r="O211" s="158"/>
-      <c r="P211" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q211" s="159" t="s">
+      <c r="O211" s="202"/>
+      <c r="P211" s="200" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q211" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="R211" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="S211" s="160"/>
+      <c r="R211" s="200" t="s">
+        <v>24</v>
+      </c>
+      <c r="S211" s="203"/>
     </row>
     <row r="212" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L212" s="96"/>
-      <c r="M212" s="57">
-        <v>63</v>
-      </c>
-      <c r="N212" s="72" t="s">
+      <c r="M212" s="157">
+        <v>84</v>
+      </c>
+      <c r="N212" s="158" t="s">
         <v>849</v>
       </c>
-      <c r="O212" s="72"/>
-      <c r="P212" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q212" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R212" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S212" s="58"/>
+      <c r="O212" s="158"/>
+      <c r="P212" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q212" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="R212" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S212" s="160"/>
     </row>
     <row r="213" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L213" s="96"/>
       <c r="M213" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N213" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O213" s="72"/>
       <c r="P213" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q213" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R213" s="39" t="s">
         <v>24</v>
@@ -13566,99 +13569,99 @@
     </row>
     <row r="214" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L214" s="96"/>
-      <c r="M214" s="120">
-        <v>68</v>
-      </c>
-      <c r="N214" s="88" t="s">
+      <c r="M214" s="57">
+        <v>62</v>
+      </c>
+      <c r="N214" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O214" s="88"/>
-      <c r="P214" s="85" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q214" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="R214" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S214" s="119"/>
+      <c r="O214" s="72"/>
+      <c r="P214" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q214" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R214" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S214" s="58"/>
     </row>
     <row r="215" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L215" s="96"/>
-      <c r="M215" s="57">
-        <v>62</v>
-      </c>
-      <c r="N215" s="72" t="s">
+      <c r="M215" s="120">
+        <v>68</v>
+      </c>
+      <c r="N215" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O215" s="72"/>
-      <c r="P215" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q215" s="39" t="s">
+      <c r="O215" s="88"/>
+      <c r="P215" s="85" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q215" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="R215" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S215" s="58"/>
+      <c r="R215" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S215" s="119"/>
       <c r="T215" s="95"/>
     </row>
     <row r="216" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L216" s="96"/>
-      <c r="M216" s="120">
-        <v>68</v>
-      </c>
-      <c r="N216" s="88" t="s">
+      <c r="M216" s="57">
+        <v>62</v>
+      </c>
+      <c r="N216" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O216" s="88"/>
-      <c r="P216" s="85" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q216" s="85" t="s">
+      <c r="O216" s="72"/>
+      <c r="P216" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q216" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R216" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S216" s="119"/>
+      <c r="R216" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S216" s="58"/>
     </row>
     <row r="217" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L217" s="96"/>
-      <c r="M217" s="57">
-        <v>62</v>
-      </c>
-      <c r="N217" s="72" t="s">
+      <c r="M217" s="120">
+        <v>68</v>
+      </c>
+      <c r="N217" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O217" s="72"/>
-      <c r="P217" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q217" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R217" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S217" s="58"/>
+      <c r="O217" s="88"/>
+      <c r="P217" s="85" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q217" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="R217" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S217" s="119"/>
     </row>
     <row r="218" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L218" s="96"/>
       <c r="M218" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N218" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O218" s="72"/>
       <c r="P218" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q218" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R218" s="39" t="s">
         <v>24</v>
@@ -13667,15 +13670,15 @@
     </row>
     <row r="219" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L219" s="96"/>
-      <c r="M219" s="128">
+      <c r="M219" s="57">
         <v>63</v>
       </c>
       <c r="N219" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O219" s="72"/>
-      <c r="P219" s="72" t="s">
-        <v>741</v>
+      <c r="P219" s="39" t="s">
+        <v>740</v>
       </c>
       <c r="Q219" s="39" t="s">
         <v>28</v>
@@ -13683,19 +13686,19 @@
       <c r="R219" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S219" s="64"/>
+      <c r="S219" s="58"/>
     </row>
     <row r="220" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L220" s="96"/>
-      <c r="M220" s="57">
+      <c r="M220" s="128">
         <v>63</v>
       </c>
       <c r="N220" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O220" s="72"/>
-      <c r="P220" s="39" t="s">
-        <v>742</v>
+      <c r="P220" s="72" t="s">
+        <v>741</v>
       </c>
       <c r="Q220" s="39" t="s">
         <v>28</v>
@@ -13703,7 +13706,7 @@
       <c r="R220" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S220" s="58"/>
+      <c r="S220" s="64"/>
     </row>
     <row r="221" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L221" s="96"/>
@@ -13715,10 +13718,10 @@
       </c>
       <c r="O221" s="72"/>
       <c r="P221" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q221" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R221" s="39" t="s">
         <v>24</v>
@@ -13728,17 +13731,17 @@
     <row r="222" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L222" s="96"/>
       <c r="M222" s="57">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N222" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O222" s="72"/>
       <c r="P222" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q222" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R222" s="39" t="s">
         <v>24</v>
@@ -13748,14 +13751,14 @@
     <row r="223" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L223" s="96"/>
       <c r="M223" s="57">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N223" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O223" s="72"/>
       <c r="P223" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q223" s="39" t="s">
         <v>28</v>
@@ -13775,7 +13778,7 @@
       </c>
       <c r="O224" s="72"/>
       <c r="P224" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q224" s="39" t="s">
         <v>28</v>
@@ -13795,7 +13798,7 @@
       </c>
       <c r="O225" s="72"/>
       <c r="P225" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q225" s="39" t="s">
         <v>28</v>
@@ -13815,10 +13818,10 @@
       </c>
       <c r="O226" s="72"/>
       <c r="P226" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q226" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R226" s="39" t="s">
         <v>24</v>
@@ -13828,17 +13831,17 @@
     <row r="227" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L227" s="96"/>
       <c r="M227" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N227" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O227" s="72"/>
       <c r="P227" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q227" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R227" s="39" t="s">
         <v>24</v>
@@ -13848,17 +13851,17 @@
     <row r="228" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L228" s="96"/>
       <c r="M228" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N228" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O228" s="72"/>
       <c r="P228" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q228" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R228" s="39" t="s">
         <v>24</v>
@@ -13875,10 +13878,10 @@
       </c>
       <c r="O229" s="72"/>
       <c r="P229" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q229" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="R229" s="39" t="s">
         <v>24</v>
@@ -13895,10 +13898,10 @@
       </c>
       <c r="O230" s="72"/>
       <c r="P230" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q230" s="39" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="R230" s="39" t="s">
         <v>24</v>
@@ -13908,14 +13911,14 @@
     <row r="231" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L231" s="96"/>
       <c r="M231" s="57">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="N231" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O231" s="72"/>
       <c r="P231" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q231" s="39" t="s">
         <v>28</v>
@@ -13928,17 +13931,17 @@
     <row r="232" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L232" s="96"/>
       <c r="M232" s="57">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N232" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O232" s="72"/>
       <c r="P232" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q232" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R232" s="39" t="s">
         <v>24</v>
@@ -13955,10 +13958,10 @@
       </c>
       <c r="O233" s="72"/>
       <c r="P233" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q233" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R233" s="39" t="s">
         <v>24</v>
@@ -13967,15 +13970,15 @@
     </row>
     <row r="234" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L234" s="96"/>
-      <c r="M234" s="128">
-        <v>78</v>
+      <c r="M234" s="57">
+        <v>63</v>
       </c>
       <c r="N234" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O234" s="72"/>
-      <c r="P234" s="42" t="s">
-        <v>756</v>
+      <c r="P234" s="39" t="s">
+        <v>755</v>
       </c>
       <c r="Q234" s="39" t="s">
         <v>20</v>
@@ -13983,59 +13986,59 @@
       <c r="R234" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S234" s="64"/>
+      <c r="S234" s="58"/>
     </row>
     <row r="235" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L235" s="96"/>
-      <c r="M235" s="57">
-        <v>62</v>
+      <c r="M235" s="128">
+        <v>78</v>
       </c>
       <c r="N235" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O235" s="72"/>
-      <c r="P235" s="39" t="s">
-        <v>757</v>
+      <c r="P235" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="Q235" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R235" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S235" s="58"/>
+      <c r="S235" s="64"/>
     </row>
     <row r="236" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L236" s="96"/>
-      <c r="M236" s="128">
-        <v>82</v>
+      <c r="M236" s="57">
+        <v>62</v>
       </c>
       <c r="N236" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O236" s="72"/>
       <c r="P236" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q236" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R236" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S236" s="64"/>
+      <c r="S236" s="58"/>
     </row>
     <row r="237" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L237" s="96"/>
-      <c r="M237" s="57">
-        <v>62</v>
+      <c r="M237" s="128">
+        <v>82</v>
       </c>
       <c r="N237" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O237" s="72"/>
       <c r="P237" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q237" s="39" t="s">
         <v>20</v>
@@ -14043,22 +14046,22 @@
       <c r="R237" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S237" s="58"/>
+      <c r="S237" s="64"/>
     </row>
     <row r="238" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L238" s="96"/>
       <c r="M238" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N238" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O238" s="72"/>
       <c r="P238" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q238" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R238" s="39" t="s">
         <v>24</v>
@@ -14068,17 +14071,17 @@
     <row r="239" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L239" s="96"/>
       <c r="M239" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N239" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O239" s="72"/>
       <c r="P239" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Q239" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R239" s="39" t="s">
         <v>24</v>
@@ -14088,17 +14091,17 @@
     <row r="240" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L240" s="96"/>
       <c r="M240" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N240" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O240" s="72"/>
       <c r="P240" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q240" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="R240" s="39" t="s">
         <v>24</v>
@@ -14115,10 +14118,10 @@
       </c>
       <c r="O241" s="72"/>
       <c r="P241" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q241" s="39" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="R241" s="39" t="s">
         <v>24</v>
@@ -14135,7 +14138,7 @@
       </c>
       <c r="O242" s="72"/>
       <c r="P242" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q242" s="39" t="s">
         <v>240</v>
@@ -14148,17 +14151,17 @@
     <row r="243" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L243" s="96"/>
       <c r="M243" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N243" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O243" s="72"/>
       <c r="P243" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q243" s="39" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="R243" s="39" t="s">
         <v>24</v>
@@ -14175,7 +14178,7 @@
       </c>
       <c r="O244" s="72"/>
       <c r="P244" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q244" s="39" t="s">
         <v>20</v>
@@ -14188,17 +14191,17 @@
     <row r="245" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L245" s="96"/>
       <c r="M245" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N245" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O245" s="72"/>
       <c r="P245" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q245" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R245" s="39" t="s">
         <v>24</v>
@@ -14208,17 +14211,17 @@
     <row r="246" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L246" s="96"/>
       <c r="M246" s="57">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N246" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O246" s="72"/>
       <c r="P246" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q246" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R246" s="39" t="s">
         <v>24</v>
@@ -14228,17 +14231,17 @@
     <row r="247" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L247" s="96"/>
       <c r="M247" s="57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N247" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O247" s="72"/>
       <c r="P247" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q247" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R247" s="39" t="s">
         <v>24</v>
@@ -14255,7 +14258,7 @@
       </c>
       <c r="O248" s="72"/>
       <c r="P248" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q248" s="39" t="s">
         <v>28</v>
@@ -14275,7 +14278,7 @@
       </c>
       <c r="O249" s="72"/>
       <c r="P249" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q249" s="39" t="s">
         <v>28</v>
@@ -14295,7 +14298,7 @@
       </c>
       <c r="O250" s="72"/>
       <c r="P250" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q250" s="39" t="s">
         <v>28</v>
@@ -14315,10 +14318,10 @@
       </c>
       <c r="O251" s="72"/>
       <c r="P251" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q251" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R251" s="39" t="s">
         <v>24</v>
@@ -14335,10 +14338,10 @@
       </c>
       <c r="O252" s="72"/>
       <c r="P252" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q252" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="R252" s="39" t="s">
         <v>24</v>
@@ -14355,7 +14358,7 @@
       </c>
       <c r="O253" s="72"/>
       <c r="P253" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Q253" s="39" t="s">
         <v>20</v>
@@ -14365,25 +14368,45 @@
       </c>
       <c r="S253" s="58"/>
     </row>
-    <row r="254" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L254" s="106"/>
-      <c r="M254" s="54">
+    <row r="254" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L254" s="96"/>
+      <c r="M254" s="57">
+        <v>63</v>
+      </c>
+      <c r="N254" s="72" t="s">
+        <v>849</v>
+      </c>
+      <c r="O254" s="72"/>
+      <c r="P254" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q254" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R254" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S254" s="58"/>
+    </row>
+    <row r="255" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L255" s="106"/>
+      <c r="M255" s="54">
         <v>62</v>
       </c>
-      <c r="N254" s="55" t="s">
+      <c r="N255" s="55" t="s">
         <v>849</v>
       </c>
-      <c r="O254" s="55"/>
-      <c r="P254" s="55" t="s">
+      <c r="O255" s="55"/>
+      <c r="P255" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="Q254" s="55" t="s">
+      <c r="Q255" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="R254" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="S254" s="59"/>
+      <c r="R255" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="S255" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14444,26 +14467,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -14476,11 +14499,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -14493,11 +14516,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -14514,29 +14537,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15428,26 +15451,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15460,11 +15483,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -15477,11 +15500,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -15498,29 +15521,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15856,26 +15879,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>818</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15888,11 +15911,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -15905,11 +15928,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -15926,29 +15949,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16550,26 +16573,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16582,11 +16605,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -16599,11 +16622,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -16620,29 +16643,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17294,26 +17317,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17326,11 +17349,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -17343,11 +17366,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -17364,29 +17387,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="230" t="s">
+      <c r="M7" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="229"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="231"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17845,26 +17868,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>946</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17877,11 +17900,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -17894,11 +17917,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -17915,29 +17938,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="230" t="s">
+      <c r="M7" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="229"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="231"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18162,26 +18185,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>949</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18194,11 +18217,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -18211,11 +18234,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -18232,29 +18255,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="230" t="s">
+      <c r="M7" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="229"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="231"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18480,26 +18503,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>1007</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18512,11 +18535,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -18529,11 +18552,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -18550,29 +18573,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="227" t="s">
+      <c r="M7" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="229"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="231"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18645,7 +18668,7 @@
       <c r="J9" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="231" t="s">
+      <c r="K9" s="208" t="s">
         <v>1008</v>
       </c>
       <c r="L9" s="52"/>
@@ -18688,7 +18711,7 @@
       <c r="J10" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="232" t="s">
+      <c r="K10" s="209" t="s">
         <v>180</v>
       </c>
       <c r="L10" s="52"/>
@@ -18731,7 +18754,7 @@
       <c r="J11" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="232" t="s">
+      <c r="K11" s="209" t="s">
         <v>181</v>
       </c>
       <c r="L11" s="56"/>
@@ -18817,7 +18840,7 @@
       <c r="J13" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="K13" s="232" t="s">
+      <c r="K13" s="209" t="s">
         <v>189</v>
       </c>
       <c r="L13" s="56"/>
@@ -18860,7 +18883,7 @@
       <c r="J14" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="232" t="s">
+      <c r="K14" s="209" t="s">
         <v>188</v>
       </c>
       <c r="L14" s="56"/>
@@ -18903,7 +18926,7 @@
       <c r="J15" s="38" t="s">
         <v>866</v>
       </c>
-      <c r="K15" s="232" t="s">
+      <c r="K15" s="209" t="s">
         <v>1010</v>
       </c>
       <c r="L15" s="56"/>
@@ -18946,7 +18969,7 @@
       <c r="J16" s="38" t="s">
         <v>1006</v>
       </c>
-      <c r="K16" s="232" t="s">
+      <c r="K16" s="209" t="s">
         <v>1011</v>
       </c>
       <c r="L16" s="56"/>
@@ -18989,7 +19012,7 @@
       <c r="J17" s="38" t="s">
         <v>1025</v>
       </c>
-      <c r="K17" s="232" t="s">
+      <c r="K17" s="209" t="s">
         <v>1026</v>
       </c>
       <c r="L17" s="56"/>
@@ -20606,7 +20629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
+    <sheetView topLeftCell="L233" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -20645,28 +20668,28 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="223" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -20679,9 +20702,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -20694,9 +20717,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -20713,30 +20736,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="227" t="s">
+      <c r="M7" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="228"/>
-      <c r="O7" s="228"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="228"/>
-      <c r="R7" s="228"/>
-      <c r="S7" s="229"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="230"/>
+      <c r="S7" s="231"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -27063,26 +27086,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -27095,11 +27118,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -27112,11 +27135,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -27133,29 +27156,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28203,26 +28226,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -28235,11 +28258,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -28252,11 +28275,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -28273,29 +28296,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29379,26 +29402,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -29411,11 +29434,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -29428,11 +29451,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -29449,29 +29472,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32210,26 +32233,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32242,11 +32265,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -32259,11 +32282,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -32280,29 +32303,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32964,26 +32987,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32996,11 +33019,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -33013,11 +33036,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -33034,29 +33057,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34279,26 +34302,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -34311,11 +34334,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -34328,11 +34351,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -34349,29 +34372,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35540,26 +35563,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="217" t="s">
         <v>452</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="217"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="224" t="s">
+      <c r="H2" s="226" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="225"/>
-      <c r="J2" s="226"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="228"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -35572,11 +35595,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="219"/>
-      <c r="F4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -35589,11 +35612,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="220" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="219"/>
-      <c r="F5" s="220"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="222"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -35610,29 +35633,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="210" t="s">
+      <c r="I7" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="212"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="214"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="208" t="s">
+      <c r="M7" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="209"/>
-      <c r="O7" s="209"/>
-      <c r="P7" s="209"/>
-      <c r="Q7" s="209"/>
-      <c r="R7" s="209"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="211"/>
+      <c r="R7" s="211"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839"/>
+    <workbookView xWindow="285" yWindow="915" windowWidth="9225" windowHeight="4110" tabRatio="839" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PS_AA_PJ_INF_BASIC" sheetId="8" r:id="rId1"/>
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="1036">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -6171,16 +6171,26 @@
   </si>
   <si>
     <t>IND_CUMPL_PAG</t>
+  </si>
+  <si>
+    <t>ID_EMPL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6349,6 +6359,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7181,235 +7197,237 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7417,7 +7435,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7431,13 +7449,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7447,136 +7465,136 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7591,89 +7609,89 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7682,20 +7700,24 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -7801,6 +7823,8 @@
     <cellStyle name="Normal 3" xfId="128"/>
     <cellStyle name="Normal 4" xfId="86"/>
     <cellStyle name="Normal 5" xfId="85"/>
+    <cellStyle name="Normal 5 2" xfId="130"/>
+    <cellStyle name="Normal 6" xfId="129"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
@@ -8215,7 +8239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8225,7 +8249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P161" sqref="P161"/>
     </sheetView>
   </sheetViews>
@@ -20627,10 +20651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T244"/>
+  <dimension ref="B1:T245"/>
   <sheetViews>
-    <sheetView topLeftCell="L233" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
+      <selection activeCell="P136" sqref="P58:P136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24787,96 +24811,96 @@
     <row r="134" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L134" s="56"/>
       <c r="M134" s="109">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N134" s="72" t="s">
         <v>1018</v>
       </c>
       <c r="O134" s="72"/>
-      <c r="P134" s="72" t="s">
+      <c r="P134" s="234" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q134" s="233" t="s">
+        <v>28</v>
+      </c>
+      <c r="R134" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S134" s="89"/>
+    </row>
+    <row r="135" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L135" s="56"/>
+      <c r="M135" s="109">
+        <v>87</v>
+      </c>
+      <c r="N135" s="72" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O135" s="72"/>
+      <c r="P135" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="Q134" s="72" t="s">
+      <c r="Q135" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="R134" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="S134" s="89"/>
-    </row>
-    <row r="135" spans="12:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="53"/>
-      <c r="M135" s="111">
+      <c r="R135" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S135" s="89"/>
+    </row>
+    <row r="136" spans="12:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L136" s="53"/>
+      <c r="M136" s="111">
         <v>87</v>
       </c>
-      <c r="N135" s="105" t="s">
+      <c r="N136" s="105" t="s">
         <v>1018</v>
       </c>
-      <c r="O135" s="105"/>
-      <c r="P135" s="105" t="s">
+      <c r="O136" s="105"/>
+      <c r="P136" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="Q135" s="105" t="s">
+      <c r="Q136" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="R135" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="S135" s="112"/>
-    </row>
-    <row r="136" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L136" s="115"/>
-      <c r="M136" s="86">
+      <c r="R136" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="S136" s="112"/>
+    </row>
+    <row r="137" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L137" s="115"/>
+      <c r="M137" s="86">
         <v>88</v>
       </c>
-      <c r="N136" s="74" t="s">
+      <c r="N137" s="74" t="s">
         <v>851</v>
       </c>
-      <c r="O136" s="74"/>
-      <c r="P136" s="62" t="s">
+      <c r="O137" s="74"/>
+      <c r="P137" s="62" t="s">
         <v>348</v>
       </c>
-      <c r="Q136" s="62" t="s">
+      <c r="Q137" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="R136" s="62" t="s">
+      <c r="R137" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="S136" s="87" t="s">
+      <c r="S137" s="87" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="12:20" x14ac:dyDescent="0.2">
-      <c r="L137" s="96"/>
-      <c r="M137" s="57">
-        <v>35</v>
-      </c>
-      <c r="N137" s="72" t="s">
-        <v>851</v>
-      </c>
-      <c r="O137" s="72"/>
-      <c r="P137" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q137" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R137" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S137" s="58"/>
     </row>
     <row r="138" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L138" s="96"/>
       <c r="M138" s="57">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N138" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O138" s="72"/>
       <c r="P138" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q138" s="39" t="s">
         <v>28</v>
@@ -24888,58 +24912,58 @@
     </row>
     <row r="139" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L139" s="96"/>
-      <c r="M139" s="205">
-        <v>72</v>
-      </c>
-      <c r="N139" s="202" t="s">
+      <c r="M139" s="57">
+        <v>108</v>
+      </c>
+      <c r="N139" s="72" t="s">
         <v>851</v>
       </c>
-      <c r="O139" s="202"/>
-      <c r="P139" s="200" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q139" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="R139" s="200" t="s">
+      <c r="O139" s="72"/>
+      <c r="P139" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q139" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R139" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="S139" s="203"/>
+      <c r="S139" s="58"/>
     </row>
     <row r="140" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L140" s="96"/>
-      <c r="M140" s="57">
-        <v>85</v>
-      </c>
-      <c r="N140" s="72" t="s">
+      <c r="M140" s="205">
+        <v>72</v>
+      </c>
+      <c r="N140" s="202" t="s">
         <v>851</v>
       </c>
-      <c r="O140" s="72"/>
-      <c r="P140" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q140" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R140" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S140" s="58"/>
+      <c r="O140" s="202"/>
+      <c r="P140" s="200" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q140" s="200" t="s">
+        <v>23</v>
+      </c>
+      <c r="R140" s="200" t="s">
+        <v>21</v>
+      </c>
+      <c r="S140" s="203"/>
     </row>
     <row r="141" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L141" s="96"/>
       <c r="M141" s="57">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N141" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O141" s="72"/>
-      <c r="P141" s="39" t="s">
-        <v>25</v>
+      <c r="P141" s="72" t="s">
+        <v>27</v>
       </c>
       <c r="Q141" s="39" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R141" s="39" t="s">
         <v>24</v>
@@ -24950,17 +24974,17 @@
     <row r="142" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L142" s="96"/>
       <c r="M142" s="57">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N142" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O142" s="72"/>
       <c r="P142" s="39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q142" s="39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R142" s="39" t="s">
         <v>24</v>
@@ -24970,17 +24994,17 @@
     <row r="143" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L143" s="96"/>
       <c r="M143" s="57">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N143" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O143" s="72"/>
       <c r="P143" s="39" t="s">
-        <v>352</v>
+        <v>22</v>
       </c>
       <c r="Q143" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R143" s="39" t="s">
         <v>24</v>
@@ -24990,14 +25014,14 @@
     <row r="144" spans="12:20" x14ac:dyDescent="0.2">
       <c r="L144" s="96"/>
       <c r="M144" s="57">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="N144" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O144" s="72"/>
-      <c r="P144" s="42" t="s">
-        <v>353</v>
+      <c r="P144" s="39" t="s">
+        <v>352</v>
       </c>
       <c r="Q144" s="39" t="s">
         <v>28</v>
@@ -25009,85 +25033,85 @@
     </row>
     <row r="145" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L145" s="96"/>
-      <c r="M145" s="120">
-        <v>107</v>
-      </c>
-      <c r="N145" s="88" t="s">
+      <c r="M145" s="57">
+        <v>109</v>
+      </c>
+      <c r="N145" s="72" t="s">
         <v>851</v>
       </c>
-      <c r="O145" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="P145" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q145" s="85" t="s">
+      <c r="O145" s="72"/>
+      <c r="P145" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q145" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R145" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S145" s="119"/>
+      <c r="R145" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S145" s="58"/>
     </row>
     <row r="146" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L146" s="96"/>
-      <c r="M146" s="57">
-        <v>87</v>
-      </c>
-      <c r="N146" s="72" t="s">
+      <c r="M146" s="120">
+        <v>107</v>
+      </c>
+      <c r="N146" s="88" t="s">
         <v>851</v>
       </c>
-      <c r="O146" s="72"/>
-      <c r="P146" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q146" s="39" t="s">
-        <v>356</v>
-      </c>
-      <c r="R146" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S146" s="58"/>
+      <c r="O146" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="P146" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q146" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="R146" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S146" s="119"/>
     </row>
     <row r="147" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L147" s="96"/>
-      <c r="M147" s="157">
-        <v>119</v>
-      </c>
-      <c r="N147" s="158" t="s">
+      <c r="M147" s="57">
+        <v>87</v>
+      </c>
+      <c r="N147" s="72" t="s">
         <v>851</v>
       </c>
-      <c r="O147" s="158"/>
-      <c r="P147" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q147" s="159" t="s">
-        <v>23</v>
-      </c>
-      <c r="R147" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="S147" s="160"/>
+      <c r="O147" s="72"/>
+      <c r="P147" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q147" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="R147" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S147" s="58"/>
     </row>
     <row r="148" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L148" s="96"/>
-      <c r="M148" s="57">
-        <v>87</v>
-      </c>
-      <c r="N148" s="72" t="s">
+      <c r="M148" s="157">
+        <v>119</v>
+      </c>
+      <c r="N148" s="158" t="s">
         <v>851</v>
       </c>
-      <c r="O148" s="72"/>
-      <c r="P148" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q148" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="R148" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S148" s="58"/>
+      <c r="O148" s="158"/>
+      <c r="P148" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q148" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="R148" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S148" s="160"/>
     </row>
     <row r="149" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L149" s="96"/>
@@ -25099,10 +25123,10 @@
       </c>
       <c r="O149" s="72"/>
       <c r="P149" s="72" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q149" s="39" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="R149" s="39" t="s">
         <v>24</v>
@@ -25112,17 +25136,17 @@
     <row r="150" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L150" s="96"/>
       <c r="M150" s="57">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N150" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O150" s="72"/>
       <c r="P150" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q150" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R150" s="39" t="s">
         <v>24</v>
@@ -25132,14 +25156,14 @@
     <row r="151" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L151" s="96"/>
       <c r="M151" s="57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N151" s="72" t="s">
         <v>851</v>
       </c>
       <c r="O151" s="72"/>
       <c r="P151" s="72" t="s">
-        <v>921</v>
+        <v>360</v>
       </c>
       <c r="Q151" s="39" t="s">
         <v>28</v>
@@ -25151,25 +25175,23 @@
     </row>
     <row r="152" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L152" s="96"/>
-      <c r="M152" s="120">
-        <v>107</v>
-      </c>
-      <c r="N152" s="88" t="s">
+      <c r="M152" s="57">
+        <v>12</v>
+      </c>
+      <c r="N152" s="72" t="s">
         <v>851</v>
       </c>
-      <c r="O152" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="P152" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q152" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="R152" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S152" s="119"/>
+      <c r="O152" s="72"/>
+      <c r="P152" s="72" t="s">
+        <v>921</v>
+      </c>
+      <c r="Q152" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R152" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S152" s="58"/>
     </row>
     <row r="153" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L153" s="96"/>
@@ -25180,13 +25202,13 @@
         <v>851</v>
       </c>
       <c r="O153" s="88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P153" s="88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q153" s="85" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="R153" s="85" t="s">
         <v>24</v>
@@ -25202,10 +25224,10 @@
         <v>851</v>
       </c>
       <c r="O154" s="88" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P154" s="88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q154" s="85" t="s">
         <v>358</v>
@@ -25224,10 +25246,10 @@
         <v>851</v>
       </c>
       <c r="O155" s="88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P155" s="88" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q155" s="85" t="s">
         <v>358</v>
@@ -25239,23 +25261,25 @@
     </row>
     <row r="156" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L156" s="96"/>
-      <c r="M156" s="57">
-        <v>87</v>
-      </c>
-      <c r="N156" s="72" t="s">
+      <c r="M156" s="120">
+        <v>107</v>
+      </c>
+      <c r="N156" s="88" t="s">
         <v>851</v>
       </c>
-      <c r="O156" s="72"/>
-      <c r="P156" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q156" s="39" t="s">
+      <c r="O156" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="P156" s="88" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q156" s="85" t="s">
         <v>358</v>
       </c>
-      <c r="R156" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S156" s="58"/>
+      <c r="R156" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S156" s="119"/>
     </row>
     <row r="157" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L157" s="96"/>
@@ -25267,7 +25291,7 @@
       </c>
       <c r="O157" s="72"/>
       <c r="P157" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q157" s="39" t="s">
         <v>358</v>
@@ -25287,7 +25311,7 @@
       </c>
       <c r="O158" s="72"/>
       <c r="P158" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q158" s="39" t="s">
         <v>358</v>
@@ -25299,25 +25323,23 @@
     </row>
     <row r="159" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L159" s="96"/>
-      <c r="M159" s="120">
-        <v>107</v>
-      </c>
-      <c r="N159" s="88" t="s">
+      <c r="M159" s="57">
+        <v>87</v>
+      </c>
+      <c r="N159" s="72" t="s">
         <v>851</v>
       </c>
-      <c r="O159" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="P159" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q159" s="85" t="s">
+      <c r="O159" s="72"/>
+      <c r="P159" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q159" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="R159" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S159" s="119"/>
+      <c r="R159" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S159" s="58"/>
     </row>
     <row r="160" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L160" s="96"/>
@@ -25331,10 +25353,10 @@
         <v>281</v>
       </c>
       <c r="P160" s="88" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q160" s="85" t="s">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="R160" s="85" t="s">
         <v>24</v>
@@ -25343,45 +25365,47 @@
     </row>
     <row r="161" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L161" s="96"/>
-      <c r="M161" s="137">
+      <c r="M161" s="120">
         <v>107</v>
       </c>
-      <c r="N161" s="138" t="s">
+      <c r="N161" s="88" t="s">
         <v>851</v>
       </c>
-      <c r="O161" s="138" t="s">
+      <c r="O161" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="P161" s="139" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q161" s="139" t="s">
+      <c r="P161" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q161" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="R161" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="S161" s="163"/>
+      <c r="R161" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S161" s="119"/>
     </row>
     <row r="162" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L162" s="96"/>
-      <c r="M162" s="128">
-        <v>87</v>
-      </c>
-      <c r="N162" s="72" t="s">
+      <c r="M162" s="137">
+        <v>107</v>
+      </c>
+      <c r="N162" s="138" t="s">
         <v>851</v>
       </c>
-      <c r="O162" s="72"/>
-      <c r="P162" s="196" t="s">
-        <v>807</v>
-      </c>
-      <c r="Q162" s="39" t="s">
+      <c r="O162" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="P162" s="139" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q162" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="R162" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S162" s="64"/>
+      <c r="R162" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="S162" s="163"/>
     </row>
     <row r="163" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L163" s="96"/>
@@ -25393,7 +25417,7 @@
       </c>
       <c r="O163" s="72"/>
       <c r="P163" s="196" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Q163" s="39" t="s">
         <v>20</v>
@@ -25413,7 +25437,7 @@
       </c>
       <c r="O164" s="72"/>
       <c r="P164" s="196" t="s">
-        <v>1014</v>
+        <v>806</v>
       </c>
       <c r="Q164" s="39" t="s">
         <v>20</v>
@@ -25433,12 +25457,12 @@
       </c>
       <c r="O165" s="72"/>
       <c r="P165" s="196" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Q165" s="72" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q165" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R165" s="72" t="s">
+      <c r="R165" s="39" t="s">
         <v>24</v>
       </c>
       <c r="S165" s="64"/>
@@ -25453,110 +25477,110 @@
       </c>
       <c r="O166" s="72"/>
       <c r="P166" s="196" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q166" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="R166" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="S166" s="64"/>
+    </row>
+    <row r="167" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L167" s="96"/>
+      <c r="M167" s="128">
+        <v>87</v>
+      </c>
+      <c r="N167" s="72" t="s">
+        <v>851</v>
+      </c>
+      <c r="O167" s="72"/>
+      <c r="P167" s="196" t="s">
         <v>1015</v>
       </c>
-      <c r="Q166" s="39" t="s">
+      <c r="Q167" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="R166" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S166" s="64"/>
-    </row>
-    <row r="167" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L167" s="96"/>
-      <c r="M167" s="129">
+      <c r="R167" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S167" s="64"/>
+    </row>
+    <row r="168" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L168" s="96"/>
+      <c r="M168" s="129">
         <v>87</v>
       </c>
-      <c r="N167" s="91" t="s">
+      <c r="N168" s="91" t="s">
         <v>851</v>
       </c>
-      <c r="O167" s="91"/>
-      <c r="P167" s="197" t="s">
+      <c r="O168" s="91"/>
+      <c r="P168" s="197" t="s">
         <v>1013</v>
       </c>
-      <c r="Q167" s="65" t="s">
+      <c r="Q168" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="R167" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="S167" s="76"/>
-    </row>
-    <row r="168" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L168" s="93"/>
-      <c r="M168" s="194">
+      <c r="R168" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="S168" s="76"/>
+    </row>
+    <row r="169" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L169" s="93"/>
+      <c r="M169" s="194">
         <v>88</v>
       </c>
-      <c r="N168" s="79" t="s">
+      <c r="N169" s="79" t="s">
         <v>849</v>
       </c>
-      <c r="O168" s="79"/>
-      <c r="P168" s="80" t="s">
+      <c r="O169" s="79"/>
+      <c r="P169" s="80" t="s">
         <v>704</v>
       </c>
-      <c r="Q168" s="80" t="s">
+      <c r="Q169" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="R168" s="80" t="s">
+      <c r="R169" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="S168" s="195"/>
-    </row>
-    <row r="169" spans="12:19" x14ac:dyDescent="0.2">
-      <c r="L169" s="56"/>
-      <c r="M169" s="165">
-        <v>113</v>
-      </c>
-      <c r="N169" s="72" t="s">
-        <v>849</v>
-      </c>
-      <c r="O169" s="72"/>
-      <c r="P169" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q169" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R169" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S169" s="64"/>
+      <c r="S169" s="195"/>
     </row>
     <row r="170" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L170" s="56"/>
-      <c r="M170" s="71">
-        <v>87</v>
+      <c r="M170" s="165">
+        <v>113</v>
       </c>
       <c r="N170" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O170" s="72"/>
       <c r="P170" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Q170" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R170" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S170" s="58"/>
+      <c r="S170" s="64"/>
     </row>
     <row r="171" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L171" s="56"/>
       <c r="M171" s="71">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="N171" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O171" s="72"/>
-      <c r="P171" s="42" t="s">
-        <v>707</v>
+      <c r="P171" s="39" t="s">
+        <v>706</v>
       </c>
       <c r="Q171" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R171" s="39" t="s">
         <v>24</v>
@@ -25566,17 +25590,17 @@
     <row r="172" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L172" s="56"/>
       <c r="M172" s="71">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="N172" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O172" s="72"/>
-      <c r="P172" s="39" t="s">
-        <v>708</v>
+      <c r="P172" s="42" t="s">
+        <v>707</v>
       </c>
       <c r="Q172" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R172" s="39" t="s">
         <v>24</v>
@@ -25586,17 +25610,17 @@
     <row r="173" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L173" s="56"/>
       <c r="M173" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N173" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O173" s="72"/>
       <c r="P173" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q173" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R173" s="39" t="s">
         <v>24</v>
@@ -25606,17 +25630,17 @@
     <row r="174" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L174" s="56"/>
       <c r="M174" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N174" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O174" s="72"/>
       <c r="P174" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q174" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R174" s="39" t="s">
         <v>24</v>
@@ -25626,17 +25650,17 @@
     <row r="175" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L175" s="56"/>
       <c r="M175" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N175" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O175" s="72"/>
       <c r="P175" s="39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q175" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R175" s="39" t="s">
         <v>24</v>
@@ -25646,17 +25670,17 @@
     <row r="176" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L176" s="56"/>
       <c r="M176" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N176" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O176" s="72"/>
       <c r="P176" s="39" t="s">
-        <v>407</v>
+        <v>711</v>
       </c>
       <c r="Q176" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R176" s="39" t="s">
         <v>24</v>
@@ -25673,10 +25697,10 @@
       </c>
       <c r="O177" s="72"/>
       <c r="P177" s="39" t="s">
-        <v>712</v>
+        <v>407</v>
       </c>
       <c r="Q177" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R177" s="39" t="s">
         <v>24</v>
@@ -25686,17 +25710,17 @@
     <row r="178" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L178" s="56"/>
       <c r="M178" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N178" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O178" s="72"/>
       <c r="P178" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q178" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R178" s="39" t="s">
         <v>24</v>
@@ -25706,17 +25730,17 @@
     <row r="179" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L179" s="56"/>
       <c r="M179" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N179" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O179" s="72"/>
       <c r="P179" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q179" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R179" s="39" t="s">
         <v>24</v>
@@ -25726,17 +25750,17 @@
     <row r="180" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L180" s="56"/>
       <c r="M180" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N180" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O180" s="72"/>
       <c r="P180" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q180" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R180" s="39" t="s">
         <v>24</v>
@@ -25746,17 +25770,17 @@
     <row r="181" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L181" s="56"/>
       <c r="M181" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N181" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O181" s="72"/>
       <c r="P181" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Q181" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R181" s="39" t="s">
         <v>24</v>
@@ -25766,17 +25790,17 @@
     <row r="182" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L182" s="56"/>
       <c r="M182" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N182" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O182" s="72"/>
       <c r="P182" s="39" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q182" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R182" s="39" t="s">
         <v>24</v>
@@ -25786,17 +25810,17 @@
     <row r="183" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L183" s="56"/>
       <c r="M183" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N183" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O183" s="72"/>
       <c r="P183" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q183" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R183" s="39" t="s">
         <v>24</v>
@@ -25806,17 +25830,17 @@
     <row r="184" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L184" s="56"/>
       <c r="M184" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N184" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O184" s="72"/>
       <c r="P184" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q184" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R184" s="39" t="s">
         <v>24</v>
@@ -25826,17 +25850,17 @@
     <row r="185" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L185" s="56"/>
       <c r="M185" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N185" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O185" s="72"/>
       <c r="P185" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Q185" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R185" s="39" t="s">
         <v>24</v>
@@ -25846,17 +25870,17 @@
     <row r="186" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L186" s="56"/>
       <c r="M186" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N186" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O186" s="72"/>
       <c r="P186" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q186" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R186" s="39" t="s">
         <v>24</v>
@@ -25866,17 +25890,17 @@
     <row r="187" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L187" s="56"/>
       <c r="M187" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N187" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O187" s="72"/>
       <c r="P187" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Q187" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R187" s="39" t="s">
         <v>24</v>
@@ -25886,17 +25910,17 @@
     <row r="188" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L188" s="56"/>
       <c r="M188" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N188" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O188" s="72"/>
       <c r="P188" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q188" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R188" s="39" t="s">
         <v>24</v>
@@ -25906,17 +25930,17 @@
     <row r="189" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L189" s="56"/>
       <c r="M189" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N189" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O189" s="72"/>
       <c r="P189" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q189" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R189" s="39" t="s">
         <v>24</v>
@@ -25926,17 +25950,17 @@
     <row r="190" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L190" s="56"/>
       <c r="M190" s="71">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="N190" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O190" s="72"/>
-      <c r="P190" s="72" t="s">
-        <v>725</v>
+      <c r="P190" s="39" t="s">
+        <v>724</v>
       </c>
       <c r="Q190" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="R190" s="39" t="s">
         <v>24</v>
@@ -25946,66 +25970,66 @@
     <row r="191" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L191" s="56"/>
       <c r="M191" s="71">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="N191" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O191" s="72"/>
-      <c r="P191" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q191" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="R191" s="42" t="s">
-        <v>21</v>
+      <c r="P191" s="72" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q191" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="R191" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="S191" s="58"/>
     </row>
     <row r="192" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L192" s="56"/>
       <c r="M192" s="71">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N192" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O192" s="72"/>
-      <c r="P192" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q192" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="R192" s="39" t="s">
-        <v>24</v>
+      <c r="P192" s="42" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q192" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="R192" s="42" t="s">
+        <v>21</v>
       </c>
       <c r="S192" s="58"/>
     </row>
     <row r="193" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L193" s="56"/>
-      <c r="M193" s="165">
-        <v>86</v>
+      <c r="M193" s="71">
+        <v>87</v>
       </c>
       <c r="N193" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O193" s="72"/>
       <c r="P193" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Q193" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R193" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S193" s="64"/>
+      <c r="S193" s="58"/>
     </row>
     <row r="194" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L194" s="56"/>
-      <c r="M194" s="71">
+      <c r="M194" s="165">
         <v>86</v>
       </c>
       <c r="N194" s="72" t="s">
@@ -26013,30 +26037,30 @@
       </c>
       <c r="O194" s="72"/>
       <c r="P194" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q194" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R194" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S194" s="58"/>
+      <c r="S194" s="64"/>
     </row>
     <row r="195" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L195" s="56"/>
       <c r="M195" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N195" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O195" s="72"/>
       <c r="P195" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Q195" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R195" s="39" t="s">
         <v>24</v>
@@ -26045,58 +26069,58 @@
     </row>
     <row r="196" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L196" s="56"/>
-      <c r="M196" s="165">
-        <v>116</v>
+      <c r="M196" s="71">
+        <v>87</v>
       </c>
       <c r="N196" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O196" s="72"/>
-      <c r="P196" s="72" t="s">
-        <v>922</v>
+      <c r="P196" s="39" t="s">
+        <v>730</v>
       </c>
       <c r="Q196" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R196" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S196" s="64"/>
+      <c r="S196" s="58"/>
     </row>
     <row r="197" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L197" s="56"/>
-      <c r="M197" s="71">
-        <v>87</v>
+      <c r="M197" s="165">
+        <v>116</v>
       </c>
       <c r="N197" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O197" s="72"/>
-      <c r="P197" s="39" t="s">
-        <v>731</v>
+      <c r="P197" s="72" t="s">
+        <v>922</v>
       </c>
       <c r="Q197" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R197" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S197" s="58"/>
+      <c r="S197" s="64"/>
     </row>
     <row r="198" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L198" s="56"/>
       <c r="M198" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N198" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O198" s="72"/>
       <c r="P198" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q198" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R198" s="39" t="s">
         <v>24</v>
@@ -26113,7 +26137,7 @@
       </c>
       <c r="O199" s="72"/>
       <c r="P199" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q199" s="39" t="s">
         <v>20</v>
@@ -26125,78 +26149,78 @@
     </row>
     <row r="200" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L200" s="56"/>
-      <c r="M200" s="206">
-        <v>112</v>
-      </c>
-      <c r="N200" s="202" t="s">
+      <c r="M200" s="71">
+        <v>86</v>
+      </c>
+      <c r="N200" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O200" s="202"/>
-      <c r="P200" s="202" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q200" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="R200" s="200" t="s">
-        <v>24</v>
-      </c>
-      <c r="S200" s="203"/>
+      <c r="O200" s="72"/>
+      <c r="P200" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q200" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R200" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S200" s="58"/>
     </row>
     <row r="201" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L201" s="56"/>
-      <c r="M201" s="162">
-        <v>119</v>
-      </c>
-      <c r="N201" s="158" t="s">
+      <c r="M201" s="206">
+        <v>112</v>
+      </c>
+      <c r="N201" s="202" t="s">
         <v>849</v>
       </c>
-      <c r="O201" s="158"/>
-      <c r="P201" s="159" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q201" s="159" t="s">
+      <c r="O201" s="202"/>
+      <c r="P201" s="202" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q201" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="R201" s="159" t="s">
-        <v>24</v>
-      </c>
-      <c r="S201" s="160"/>
+      <c r="R201" s="200" t="s">
+        <v>24</v>
+      </c>
+      <c r="S201" s="203"/>
     </row>
     <row r="202" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L202" s="56"/>
-      <c r="M202" s="71">
-        <v>87</v>
-      </c>
-      <c r="N202" s="72" t="s">
+      <c r="M202" s="162">
+        <v>119</v>
+      </c>
+      <c r="N202" s="158" t="s">
         <v>849</v>
       </c>
-      <c r="O202" s="72"/>
-      <c r="P202" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q202" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R202" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S202" s="58"/>
+      <c r="O202" s="158"/>
+      <c r="P202" s="159" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q202" s="159" t="s">
+        <v>23</v>
+      </c>
+      <c r="R202" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="S202" s="160"/>
     </row>
     <row r="203" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L203" s="56"/>
       <c r="M203" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N203" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O203" s="72"/>
       <c r="P203" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q203" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R203" s="39" t="s">
         <v>24</v>
@@ -26205,102 +26229,102 @@
     </row>
     <row r="204" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L204" s="56"/>
-      <c r="M204" s="161">
-        <v>107</v>
-      </c>
-      <c r="N204" s="88" t="s">
+      <c r="M204" s="71">
+        <v>86</v>
+      </c>
+      <c r="N204" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O204" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="P204" s="85" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q204" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="R204" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S204" s="119"/>
+      <c r="O204" s="72"/>
+      <c r="P204" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q204" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R204" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S204" s="58"/>
     </row>
     <row r="205" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L205" s="56"/>
-      <c r="M205" s="71">
-        <v>87</v>
-      </c>
-      <c r="N205" s="72" t="s">
+      <c r="M205" s="161">
+        <v>107</v>
+      </c>
+      <c r="N205" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O205" s="72"/>
-      <c r="P205" s="39" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q205" s="39" t="s">
+      <c r="O205" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="P205" s="85" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q205" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="R205" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S205" s="58"/>
+      <c r="R205" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S205" s="119"/>
     </row>
     <row r="206" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L206" s="56"/>
-      <c r="M206" s="161">
-        <v>107</v>
-      </c>
-      <c r="N206" s="88" t="s">
+      <c r="M206" s="71">
+        <v>87</v>
+      </c>
+      <c r="N206" s="72" t="s">
         <v>849</v>
       </c>
-      <c r="O206" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="P206" s="85" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q206" s="85" t="s">
+      <c r="O206" s="72"/>
+      <c r="P206" s="39" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q206" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="R206" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="S206" s="119"/>
+      <c r="R206" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S206" s="58"/>
     </row>
     <row r="207" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L207" s="56"/>
-      <c r="M207" s="71">
-        <v>86</v>
-      </c>
-      <c r="N207" s="72" t="s">
+      <c r="M207" s="161">
+        <v>107</v>
+      </c>
+      <c r="N207" s="88" t="s">
         <v>849</v>
       </c>
-      <c r="O207" s="72"/>
-      <c r="P207" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q207" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S207" s="58"/>
+      <c r="O207" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="P207" s="85" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q207" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="R207" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="S207" s="119"/>
     </row>
     <row r="208" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L208" s="56"/>
       <c r="M208" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N208" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O208" s="72"/>
       <c r="P208" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q208" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R208" s="39" t="s">
         <v>24</v>
@@ -26309,7 +26333,7 @@
     </row>
     <row r="209" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L209" s="56"/>
-      <c r="M209" s="165">
+      <c r="M209" s="71">
         <v>87</v>
       </c>
       <c r="N209" s="72" t="s">
@@ -26317,7 +26341,7 @@
       </c>
       <c r="O209" s="72"/>
       <c r="P209" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q209" s="39" t="s">
         <v>28</v>
@@ -26325,11 +26349,11 @@
       <c r="R209" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S209" s="64"/>
+      <c r="S209" s="58"/>
     </row>
     <row r="210" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L210" s="56"/>
-      <c r="M210" s="71">
+      <c r="M210" s="165">
         <v>87</v>
       </c>
       <c r="N210" s="72" t="s">
@@ -26337,7 +26361,7 @@
       </c>
       <c r="O210" s="72"/>
       <c r="P210" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q210" s="39" t="s">
         <v>28</v>
@@ -26345,7 +26369,7 @@
       <c r="R210" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S210" s="58"/>
+      <c r="S210" s="64"/>
     </row>
     <row r="211" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L211" s="56"/>
@@ -26357,10 +26381,10 @@
       </c>
       <c r="O211" s="72"/>
       <c r="P211" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q211" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R211" s="39" t="s">
         <v>24</v>
@@ -26370,17 +26394,17 @@
     <row r="212" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L212" s="56"/>
       <c r="M212" s="71">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="N212" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O212" s="72"/>
       <c r="P212" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q212" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R212" s="39" t="s">
         <v>24</v>
@@ -26390,14 +26414,14 @@
     <row r="213" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L213" s="56"/>
       <c r="M213" s="71">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="N213" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O213" s="72"/>
       <c r="P213" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q213" s="39" t="s">
         <v>28</v>
@@ -26417,7 +26441,7 @@
       </c>
       <c r="O214" s="72"/>
       <c r="P214" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q214" s="39" t="s">
         <v>28</v>
@@ -26437,7 +26461,7 @@
       </c>
       <c r="O215" s="72"/>
       <c r="P215" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q215" s="39" t="s">
         <v>28</v>
@@ -26457,10 +26481,10 @@
       </c>
       <c r="O216" s="72"/>
       <c r="P216" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q216" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R216" s="39" t="s">
         <v>24</v>
@@ -26470,17 +26494,17 @@
     <row r="217" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L217" s="56"/>
       <c r="M217" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N217" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O217" s="72"/>
       <c r="P217" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q217" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R217" s="39" t="s">
         <v>24</v>
@@ -26490,17 +26514,17 @@
     <row r="218" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L218" s="56"/>
       <c r="M218" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N218" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O218" s="72"/>
       <c r="P218" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q218" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R218" s="39" t="s">
         <v>24</v>
@@ -26517,10 +26541,10 @@
       </c>
       <c r="O219" s="72"/>
       <c r="P219" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q219" s="39" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="R219" s="39" t="s">
         <v>24</v>
@@ -26537,10 +26561,10 @@
       </c>
       <c r="O220" s="72"/>
       <c r="P220" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q220" s="39" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="R220" s="39" t="s">
         <v>24</v>
@@ -26550,14 +26574,14 @@
     <row r="221" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L221" s="56"/>
       <c r="M221" s="71">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="N221" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O221" s="72"/>
       <c r="P221" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q221" s="39" t="s">
         <v>28</v>
@@ -26570,17 +26594,17 @@
     <row r="222" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L222" s="56"/>
       <c r="M222" s="71">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="N222" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O222" s="72"/>
       <c r="P222" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q222" s="39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R222" s="39" t="s">
         <v>24</v>
@@ -26597,10 +26621,10 @@
       </c>
       <c r="O223" s="72"/>
       <c r="P223" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q223" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R223" s="39" t="s">
         <v>24</v>
@@ -26609,15 +26633,15 @@
     </row>
     <row r="224" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L224" s="56"/>
-      <c r="M224" s="165">
-        <v>86</v>
+      <c r="M224" s="71">
+        <v>87</v>
       </c>
       <c r="N224" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O224" s="72"/>
-      <c r="P224" s="42" t="s">
-        <v>756</v>
+      <c r="P224" s="39" t="s">
+        <v>755</v>
       </c>
       <c r="Q224" s="39" t="s">
         <v>20</v>
@@ -26625,59 +26649,59 @@
       <c r="R224" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S224" s="64"/>
+      <c r="S224" s="58"/>
     </row>
     <row r="225" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L225" s="56"/>
-      <c r="M225" s="71">
+      <c r="M225" s="165">
         <v>86</v>
       </c>
       <c r="N225" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O225" s="72"/>
-      <c r="P225" s="39" t="s">
-        <v>757</v>
+      <c r="P225" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="Q225" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R225" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S225" s="58"/>
+      <c r="S225" s="64"/>
     </row>
     <row r="226" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L226" s="56"/>
-      <c r="M226" s="165">
-        <v>117</v>
+      <c r="M226" s="71">
+        <v>86</v>
       </c>
       <c r="N226" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O226" s="72"/>
       <c r="P226" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q226" s="39" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R226" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S226" s="64"/>
+      <c r="S226" s="58"/>
     </row>
     <row r="227" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L227" s="56"/>
-      <c r="M227" s="71">
-        <v>86</v>
+      <c r="M227" s="165">
+        <v>117</v>
       </c>
       <c r="N227" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O227" s="72"/>
       <c r="P227" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q227" s="39" t="s">
         <v>20</v>
@@ -26685,22 +26709,22 @@
       <c r="R227" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="S227" s="58"/>
+      <c r="S227" s="64"/>
     </row>
     <row r="228" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L228" s="56"/>
       <c r="M228" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N228" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O228" s="72"/>
       <c r="P228" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q228" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R228" s="39" t="s">
         <v>24</v>
@@ -26710,17 +26734,17 @@
     <row r="229" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L229" s="56"/>
       <c r="M229" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N229" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O229" s="72"/>
       <c r="P229" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Q229" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R229" s="39" t="s">
         <v>24</v>
@@ -26730,17 +26754,17 @@
     <row r="230" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L230" s="56"/>
       <c r="M230" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N230" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O230" s="72"/>
       <c r="P230" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q230" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="R230" s="39" t="s">
         <v>24</v>
@@ -26757,10 +26781,10 @@
       </c>
       <c r="O231" s="72"/>
       <c r="P231" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q231" s="39" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="R231" s="39" t="s">
         <v>24</v>
@@ -26777,7 +26801,7 @@
       </c>
       <c r="O232" s="72"/>
       <c r="P232" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q232" s="39" t="s">
         <v>240</v>
@@ -26790,17 +26814,17 @@
     <row r="233" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L233" s="56"/>
       <c r="M233" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N233" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O233" s="72"/>
       <c r="P233" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q233" s="39" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="R233" s="39" t="s">
         <v>24</v>
@@ -26817,7 +26841,7 @@
       </c>
       <c r="O234" s="72"/>
       <c r="P234" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q234" s="39" t="s">
         <v>20</v>
@@ -26830,17 +26854,17 @@
     <row r="235" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L235" s="56"/>
       <c r="M235" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N235" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O235" s="72"/>
       <c r="P235" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q235" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R235" s="39" t="s">
         <v>24</v>
@@ -26850,17 +26874,17 @@
     <row r="236" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L236" s="56"/>
       <c r="M236" s="71">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N236" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O236" s="72"/>
       <c r="P236" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q236" s="39" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R236" s="39" t="s">
         <v>24</v>
@@ -26870,17 +26894,17 @@
     <row r="237" spans="12:19" x14ac:dyDescent="0.2">
       <c r="L237" s="56"/>
       <c r="M237" s="71">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N237" s="72" t="s">
         <v>849</v>
       </c>
       <c r="O237" s="72"/>
       <c r="P237" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q237" s="39" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R237" s="39" t="s">
         <v>24</v>
@@ -26897,7 +26921,7 @@
       </c>
       <c r="O238" s="72"/>
       <c r="P238" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q238" s="39" t="s">
         <v>28</v>
@@ -26917,7 +26941,7 @@
       </c>
       <c r="O239" s="72"/>
       <c r="P239" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q239" s="39" t="s">
         <v>28</v>
@@ -26937,7 +26961,7 @@
       </c>
       <c r="O240" s="72"/>
       <c r="P240" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q240" s="39" t="s">
         <v>28</v>
@@ -26957,10 +26981,10 @@
       </c>
       <c r="O241" s="72"/>
       <c r="P241" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q241" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="R241" s="39" t="s">
         <v>24</v>
@@ -26977,10 +27001,10 @@
       </c>
       <c r="O242" s="72"/>
       <c r="P242" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q242" s="39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="R242" s="39" t="s">
         <v>24</v>
@@ -26997,7 +27021,7 @@
       </c>
       <c r="O243" s="72"/>
       <c r="P243" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Q243" s="39" t="s">
         <v>20</v>
@@ -27007,25 +27031,45 @@
       </c>
       <c r="S243" s="58"/>
     </row>
-    <row r="244" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L244" s="53"/>
-      <c r="M244" s="126">
+    <row r="244" spans="12:19" x14ac:dyDescent="0.2">
+      <c r="L244" s="56"/>
+      <c r="M244" s="71">
+        <v>87</v>
+      </c>
+      <c r="N244" s="72" t="s">
+        <v>849</v>
+      </c>
+      <c r="O244" s="72"/>
+      <c r="P244" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q244" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R244" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="S244" s="58"/>
+    </row>
+    <row r="245" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L245" s="53"/>
+      <c r="M245" s="126">
         <v>86</v>
       </c>
-      <c r="N244" s="55" t="s">
+      <c r="N245" s="55" t="s">
         <v>849</v>
       </c>
-      <c r="O244" s="55"/>
-      <c r="P244" s="55" t="s">
+      <c r="O245" s="55"/>
+      <c r="P245" s="55" t="s">
         <v>726</v>
       </c>
-      <c r="Q244" s="55" t="s">
+      <c r="Q245" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="R244" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="S244" s="59"/>
+      <c r="R245" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="S245" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/CRM/Mapeos_INV_CRM_V2.xlsx
+++ b/CRM/Mapeos_INV_CRM_V2.xlsx
@@ -3066,7 +3066,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="1036">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -7643,6 +7643,10 @@
     <xf numFmtId="0" fontId="28" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7712,10 +7716,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="86" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -8239,7 +8239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8247,10 +8247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T255"/>
+  <dimension ref="B1:T254"/>
   <sheetViews>
-    <sheetView topLeftCell="L154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P161" sqref="P161"/>
+    <sheetView topLeftCell="K170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P254" sqref="P179:P254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8288,27 +8288,27 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
-      <c r="H2" s="226" t="s">
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223" t="s">
+      <c r="D3" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
         <v>847</v>
@@ -8320,11 +8320,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -8337,11 +8337,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -8358,30 +8358,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
-      <c r="S7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="213"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14411,26 +14411,6 @@
         <v>24</v>
       </c>
       <c r="S254" s="58"/>
-    </row>
-    <row r="255" spans="12:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L255" s="106"/>
-      <c r="M255" s="54">
-        <v>62</v>
-      </c>
-      <c r="N255" s="55" t="s">
-        <v>849</v>
-      </c>
-      <c r="O255" s="55"/>
-      <c r="P255" s="55" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q255" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="R255" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="S255" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -14491,26 +14471,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>442</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -14523,11 +14503,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -14540,11 +14520,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -14561,29 +14541,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15475,26 +15455,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15507,11 +15487,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -15524,11 +15504,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -15545,29 +15525,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15903,26 +15883,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>818</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -15935,11 +15915,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -15952,11 +15932,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -15973,29 +15953,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16597,26 +16577,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>435</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -16629,11 +16609,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -16646,11 +16626,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -16667,29 +16647,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17341,26 +17321,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17373,11 +17353,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -17390,11 +17370,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -17411,29 +17391,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="232" t="s">
+      <c r="M7" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="231"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="233"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -17892,26 +17872,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>946</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -17924,11 +17904,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -17941,11 +17921,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -17962,29 +17942,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="232" t="s">
+      <c r="M7" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="231"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="233"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18209,26 +18189,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>949</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18241,11 +18221,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -18258,11 +18238,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -18279,29 +18259,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="232" t="s">
+      <c r="M7" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="231"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="233"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -18527,26 +18507,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>1007</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -18559,11 +18539,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -18576,11 +18556,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -18597,29 +18577,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="229" t="s">
+      <c r="M7" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="231"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="233"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -20653,8 +20633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K43" workbookViewId="0">
-      <selection activeCell="P136" sqref="P58:P136"/>
+    <sheetView tabSelected="1" topLeftCell="L8" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20692,28 +20672,28 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="94"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223" t="s">
+      <c r="D3" s="225" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -20726,9 +20706,9 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -20741,9 +20721,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -20760,30 +20740,30 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="229" t="s">
+      <c r="M7" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="230"/>
-      <c r="S7" s="231"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="232"/>
+      <c r="S7" s="233"/>
     </row>
     <row r="8" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -24817,10 +24797,10 @@
         <v>1018</v>
       </c>
       <c r="O134" s="72"/>
-      <c r="P134" s="234" t="s">
+      <c r="P134" s="211" t="s">
         <v>1035</v>
       </c>
-      <c r="Q134" s="233" t="s">
+      <c r="Q134" s="210" t="s">
         <v>28</v>
       </c>
       <c r="R134" s="72" t="s">
@@ -27130,26 +27110,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -27162,11 +27142,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -27179,11 +27159,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -27200,29 +27180,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -28270,26 +28250,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>493</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -28302,11 +28282,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -28319,11 +28299,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -28340,29 +28320,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -29446,26 +29426,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>439</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -29478,11 +29458,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -29495,11 +29475,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -29516,29 +29496,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -32277,26 +32257,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -32309,11 +32289,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -32326,11 +32306,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -32347,29 +32327,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -33031,26 +33011,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>434</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -33063,11 +33043,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -33080,11 +33060,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -33101,29 +33081,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -34346,26 +34326,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -34378,11 +34358,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -34395,11 +34375,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -34416,29 +34396,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -35607,26 +35587,26 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="217" t="s">
+      <c r="D2" s="219" t="s">
         <v>452</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="221"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="226" t="s">
+      <c r="H2" s="228" t="s">
         <v>850</v>
       </c>
-      <c r="I2" s="227"/>
-      <c r="J2" s="228"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="230"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
       <c r="G3" s="10"/>
       <c r="H3" s="154"/>
       <c r="I3" s="27" t="s">
@@ -35639,11 +35619,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="220" t="s">
+      <c r="D4" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="221"/>
-      <c r="F4" s="222"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="224"/>
       <c r="G4" s="7"/>
       <c r="H4" s="199"/>
       <c r="I4" s="27" t="s">
@@ -35656,11 +35636,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="222" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="222"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="224"/>
       <c r="G5" s="7"/>
       <c r="H5" s="200"/>
       <c r="I5" s="38" t="s">
@@ -35677,29 +35657,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="212" t="s">
+      <c r="I7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="213"/>
-      <c r="K7" s="214"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="216"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="210" t="s">
+      <c r="M7" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="211"/>
-      <c r="R7" s="211"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
